--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC26"/>
+  <dimension ref="A1:DY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,50 +1051,30 @@
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>0-deg layers</t>
+          <t>Absolute Maximum Stress</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>45-deg layers</t>
+          <t>Absolute Peak-to-peak Stress</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>90-deg layers</t>
+          <t>Relative Maximum Stress</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>Other-deg layers</t>
+          <t>Relative Peak-to-peak Stress</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Maximum Stress</t>
+          <t>log(Static Maximum Tensile Stress)</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>Absolute Peak-to-peak Stress</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>Relative Maximum Stress</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>Relative Peak-to-peak Stress</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>log(Static Maximum Tensile Stress)</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>log(Cycles to Failure)</t>
         </is>
@@ -1102,10 +1082,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11681.18965517241</v>
+        <v>10720.44444444445</v>
       </c>
       <c r="B2" t="n">
-        <v>1681.189655172414</v>
+        <v>720.4444444444445</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1115,21 +1095,21 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1137,28 +1117,18 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Synolite 593-E-1</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>30.10344827586207</v>
+        <v>30</v>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>45</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1166,46 +1136,36 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.5</v>
+        <v>4.1</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
+        <v>35.27777777777776</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>195.5</v>
+        <v>144.6388888888889</v>
       </c>
       <c r="AB2" t="n">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="AC2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD2" t="n">
         <v>100</v>
       </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>94</v>
-      </c>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
@@ -1213,7 +1173,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.4995689655172409</v>
+        <v>0.1</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1221,21 +1181,21 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>1.061735567609454</v>
+        <v>1.393333333333333</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>190.3344827586207</v>
+        <v>284.8381958333334</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4035632930706076</v>
+        <v>0.4870749742284705</v>
       </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>48102625.51724138</v>
+        <v>786371.2777777778</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1250,25 +1210,19 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>428</v>
+        <v>586.6000000000001</v>
       </c>
       <c r="BL2" t="n">
-        <v>291</v>
+        <v>294.6000000000001</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.599999999999997</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>395</v>
-      </c>
+        <v>2.659999999999999</v>
+      </c>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="n">
-        <v>458.4075741056202</v>
+        <v>579.2825666964828</v>
       </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
@@ -1276,18 +1230,18 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="n">
-        <v>290</v>
+        <v>2636.833819444445</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>2.285864890566036</v>
+        <v>1.9976035415</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.1284193758744965</v>
+        <v>0.09454000000000001</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
@@ -1296,18 +1250,16 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>6.679245283018868</v>
+        <v>5.449999999999999</v>
       </c>
       <c r="CF2" t="n">
-        <v>973.5749756414095</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>17.79999999999998</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>18.47931034482759</v>
-      </c>
+        <v>20.57008333333334</v>
+      </c>
+      <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
@@ -1320,7 +1272,7 @@
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr">
@@ -1329,11 +1281,11 @@
         </is>
       </c>
       <c r="CR2" t="n">
-        <v>22.06896551724138</v>
+        <v>22.5</v>
       </c>
       <c r="CS2" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT2" t="inlineStr"/>
@@ -1342,19 +1294,15 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV2" t="n">
-        <v>60</v>
-      </c>
+      <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="n">
-        <v>5.03448275862069</v>
+        <v>3</v>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
-      <c r="DB2" t="n">
-        <v>1055945.3</v>
-      </c>
+      <c r="DB2" t="inlineStr"/>
       <c r="DC2" t="inlineStr"/>
       <c r="DD2" t="inlineStr"/>
       <c r="DE2" t="inlineStr"/>
@@ -1371,54 +1319,42 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR2" t="n">
-        <v>-82.378</v>
+        <v>28.48381958333333</v>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>14</v>
+        <v>284.8381958333333</v>
       </c>
       <c r="DU2" t="n">
-        <v>32</v>
+        <v>256.35437625</v>
       </c>
       <c r="DV2" t="n">
-        <v>14</v>
+        <v>0.4855748309466985</v>
       </c>
       <c r="DW2" t="n">
-        <v>0</v>
+        <v>0.4370173478520287</v>
       </c>
       <c r="DX2" t="n">
-        <v>190.3344827586207</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DY2" t="n">
-        <v>272.7124827586207</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.4447067354173381</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.6371786980341605</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>2.631443769013172</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>5.063979666419017</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11412</v>
+        <v>11163.72222222222</v>
       </c>
       <c r="B3" t="n">
-        <v>1412</v>
+        <v>1163.722222222222</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1428,18 +1364,18 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -1452,24 +1388,24 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>2123 Cronolite Ortoftalic</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E Vetrotex Vidrio</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1479,7 +1415,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -1488,32 +1424,28 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.5</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>195.5</v>
+        <v>416</v>
       </c>
       <c r="AB3" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>100</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
@@ -1522,7 +1454,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>-1</v>
+        <v>0.2388888888888889</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -1530,21 +1462,19 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>0.62</v>
+        <v>0.8948128300512472</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>115</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0.2442227139503193</v>
-      </c>
+        <v>343.975</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>2619897.333333333</v>
+        <v>1669718.888888889</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1559,40 +1489,28 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>1.83</v>
-      </c>
+        <v>659.0699999999999</v>
+      </c>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="n">
-        <v>470.9500738273841</v>
-      </c>
+      <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="n">
-        <v>290</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0.016</v>
-      </c>
+      <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>1.529333333333333</v>
+        <v>25.91163166666667</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.08266666666666667</v>
+        <v>0.6740623726403234</v>
       </c>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr">
@@ -1601,62 +1519,32 @@
         </is>
       </c>
       <c r="CE3" t="n">
-        <v>3.333333333333333</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CF3" t="n">
-        <v>244.4947222222222</v>
+        <v>55.88081957459467</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>19</v>
-      </c>
+        <v>38.44100000000002</v>
+      </c>
+      <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
       <c r="CL3" t="inlineStr"/>
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP3" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ3" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR3" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS3" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT3" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV3" t="n">
-        <v>40</v>
-      </c>
+      <c r="CO3" t="inlineStr"/>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
@@ -1678,54 +1566,42 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>-115</v>
+        <v>81.35916666666667</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>14</v>
+        <v>343.975</v>
       </c>
       <c r="DU3" t="n">
-        <v>32</v>
+        <v>262.6158333333334</v>
       </c>
       <c r="DV3" t="n">
-        <v>14</v>
+        <v>0.5219096605823357</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>0.398464250130234</v>
       </c>
       <c r="DX3" t="n">
-        <v>115</v>
+        <v>2.818931543576176</v>
       </c>
       <c r="DY3" t="n">
-        <v>230</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0.2591841334234843</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0.5183682668469687</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>2.647089428716555</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>6.408635862973926</v>
+        <v>4.210906788214843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11209</v>
+        <v>10701</v>
       </c>
       <c r="B4" t="n">
-        <v>1209</v>
+        <v>701</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1735,21 +1611,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1757,28 +1633,18 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Synolite 593-E-1</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>45</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1786,7 +1652,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1795,28 +1661,24 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.5</v>
+        <v>4.1</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>195.5</v>
+        <v>208.28</v>
       </c>
       <c r="AB4" t="n">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD4" t="n">
         <v>100</v>
       </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
@@ -1827,7 +1689,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1835,21 +1697,21 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>1.027027027027027</v>
+        <v>1.025154320987654</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>190</v>
+        <v>218.04575625</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3902404735566539</v>
+        <v>0.3821138800310186</v>
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>495204.9333333333</v>
+        <v>672253.25</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1864,17 +1726,19 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>462</v>
+        <v>567.2</v>
       </c>
       <c r="BL4" t="n">
-        <v>320</v>
-      </c>
-      <c r="BM4" t="inlineStr"/>
+        <v>313.2</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.76</v>
+      </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="n">
-        <v>488.5706061256247</v>
+        <v>570.9828469141562</v>
       </c>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
@@ -1882,34 +1746,36 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="n">
-        <v>290</v>
+        <v>2727.696475</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.127</v>
       </c>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>1.431733333333334</v>
+        <v>3.29946435</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.07739099099099098</v>
+        <v>0.1530277777777778</v>
       </c>
       <c r="CC4" t="inlineStr"/>
-      <c r="CD4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE4" t="n">
-        <v>3.033333333333333</v>
+        <v>8.75</v>
       </c>
       <c r="CF4" t="n">
-        <v>28.47224444444445</v>
+        <v>18.79661805555556</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>19</v>
-      </c>
+        <v>21.477925</v>
+      </c>
+      <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
@@ -1922,7 +1788,7 @@
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
@@ -1931,11 +1797,11 @@
         </is>
       </c>
       <c r="CR4" t="n">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="CS4" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT4" t="inlineStr"/>
@@ -1947,7 +1813,7 @@
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
@@ -1969,54 +1835,42 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[0()]5</t>
         </is>
       </c>
       <c r="DR4" t="n">
-        <v>-76</v>
+        <v>21.804575625</v>
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>14</v>
+        <v>218.04575625</v>
       </c>
       <c r="DU4" t="n">
-        <v>32</v>
+        <v>196.241180625</v>
       </c>
       <c r="DV4" t="n">
-        <v>14</v>
+        <v>0.384424817083921</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>0.3459823353755289</v>
       </c>
       <c r="DX4" t="n">
-        <v>190</v>
+        <v>2.75373622217501</v>
       </c>
       <c r="DY4" t="n">
-        <v>266</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>0.4112554112554113</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.5757575757575759</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>2.664641975556125</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>4.839426195945407</v>
+        <v>5.390274178286151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10838.69230769231</v>
+        <v>10868.81818181818</v>
       </c>
       <c r="B5" t="n">
-        <v>838.6923076923077</v>
+        <v>868.8181818181819</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2072,20 +1926,20 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.799999999999999</v>
+        <v>3.799999999999998</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>50.8</v>
+        <v>45.02727272727271</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>193.04</v>
+        <v>171.1036363636364</v>
       </c>
       <c r="AB5" t="n">
         <v>254</v>
@@ -2112,21 +1966,21 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.994090909090909</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>141.6126923076923</v>
+        <v>139.4482409090909</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2901581641955187</v>
+        <v>0.3436854488353274</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>2164151.692307692</v>
+        <v>795664.3181818182</v>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -2141,19 +1995,19 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>516</v>
+        <v>467.5</v>
       </c>
       <c r="BL5" t="n">
-        <v>289.1</v>
+        <v>317.5</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.95</v>
+        <v>2.840000000000002</v>
       </c>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="n">
-        <v>487.8890911169649</v>
+        <v>430.31450051665</v>
       </c>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
@@ -2161,18 +2015,18 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="n">
-        <v>2.319572938846154</v>
+        <v>1.644136120421053</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.1122230769230769</v>
+        <v>0.09361894736842105</v>
       </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr">
@@ -2181,14 +2035,14 @@
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>11.15384615384615</v>
+        <v>8.272727272727273</v>
       </c>
       <c r="CF5" t="n">
-        <v>40.12529487179487</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="n">
-        <v>20.69030384615385</v>
+        <v>16.11549545454546</v>
       </c>
       <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
@@ -2198,7 +2052,7 @@
       <c r="CN5" t="inlineStr"/>
       <c r="CO5" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP5" t="inlineStr">
@@ -2250,11 +2104,11 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr">
         <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR5" t="n">
-        <v>14.16126923076923</v>
+        <v>13.94482409090909</v>
       </c>
       <c r="DS5" t="inlineStr">
         <is>
@@ -2262,42 +2116,30 @@
         </is>
       </c>
       <c r="DT5" t="n">
-        <v>12</v>
+        <v>139.4482409090909</v>
       </c>
       <c r="DU5" t="n">
-        <v>24</v>
+        <v>125.5034168181818</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>0.2982850072921731</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>0.2684565065629558</v>
       </c>
       <c r="DX5" t="n">
-        <v>141.6126923076923</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DY5" t="n">
-        <v>127.4514230769231</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>0.2744432021466905</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.2469988819320214</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>2.712649701627211</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>4.839112362047485</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11076.31746031746</v>
+        <v>10974</v>
       </c>
       <c r="B6" t="n">
-        <v>1076.31746031746</v>
+        <v>974</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2307,18 +2149,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FFA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[+30(),-30()FW]</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2327,33 +2165,17 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>30</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Epon 826/Jeffamine D-230</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>50</v>
+        <v>68.29999999999998</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>HAMILTON STANDARD</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>fw</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>p</t>
@@ -2364,34 +2186,18 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>50.69365079365078</v>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>177.4055555555554</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>154.8999999999998</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>50</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG6" t="n">
-        <v>82</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
         <is>
@@ -2399,27 +2205,25 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.4761904761904762</v>
+        <v>0.1</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>0.574764172335601</v>
-      </c>
+      <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>80.46698412698413</v>
+        <v>800.4766666666665</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>889703.873015873</v>
+        <v>59304.04761904762</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2434,14 +2238,12 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>274.5</v>
+        <v>2032.30125</v>
       </c>
       <c r="BL6" t="inlineStr"/>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="n">
-        <v>275.7000000000003</v>
-      </c>
+      <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
@@ -2453,63 +2255,39 @@
       <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="n">
-        <v>2.14079365079365</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>0.1529138321995465</v>
-      </c>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CF6" t="n">
-        <v>24.71399647266314</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="n">
-        <v>14</v>
-      </c>
+      <c r="CH6" t="inlineStr"/>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
       <c r="CQ6" t="inlineStr"/>
-      <c r="CR6" t="n">
-        <v>35</v>
-      </c>
+      <c r="CR6" t="inlineStr"/>
       <c r="CS6" t="inlineStr"/>
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="n">
-        <v>90</v>
-      </c>
+      <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
-      <c r="CX6" t="n">
-        <v>7</v>
-      </c>
+      <c r="CX6" t="inlineStr"/>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
       <c r="DA6" t="inlineStr"/>
       <c r="DB6" t="inlineStr"/>
-      <c r="DC6" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC6" t="inlineStr"/>
       <c r="DD6" t="inlineStr"/>
       <c r="DE6" t="inlineStr"/>
       <c r="DF6" t="inlineStr"/>
@@ -2525,54 +2303,38 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>-26.57269841269842</v>
-      </c>
-      <c r="DS6" t="inlineStr">
-        <is>
-          <t>30/-30</t>
-        </is>
-      </c>
+        <v>80.04766666666667</v>
+      </c>
+      <c r="DS6" t="inlineStr"/>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>800.4766666666666</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>720.4290000000001</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>0.3938769740296459</v>
       </c>
       <c r="DW6" t="n">
-        <v>2</v>
+        <v>0.3544892766266813</v>
       </c>
       <c r="DX6" t="n">
-        <v>80.46698412698413</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DY6" t="n">
-        <v>107.0396825396826</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>0.293140197183913</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.3899441986873681</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>2.438542348786111</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>4.720184367079336</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10950.78571428571</v>
+        <v>10818</v>
       </c>
       <c r="B7" t="n">
-        <v>950.7857142857143</v>
+        <v>818</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2582,21 +2344,21 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>[0()]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2604,28 +2366,18 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Synolite 593-E-1</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>E/Carbon</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>38</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>hl</t>
@@ -2633,43 +2385,35 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>195.5</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="AC7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD7" t="n">
         <v>100</v>
       </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
@@ -2678,7 +2422,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.5285714285714286</v>
+        <v>0.1</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -2686,21 +2430,21 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>0.7071428571428572</v>
+        <v>1.05</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>184.6428571428571</v>
+        <v>336.43463</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4784814586053666</v>
+        <v>0.4575400545931785</v>
       </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>1809582.785714286</v>
+        <v>52300.8</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2715,21 +2459,19 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>367.4</v>
+        <v>742.3</v>
       </c>
       <c r="BL7" t="n">
-        <v>250.8</v>
+        <v>365.9</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>1</v>
-      </c>
+        <v>2.31</v>
+      </c>
+      <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="n">
-        <v>385.7820701147988</v>
+        <v>739.1078653787645</v>
       </c>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
@@ -2737,18 +2479,18 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="n">
-        <v>419</v>
+        <v>2064.30784</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.064</v>
       </c>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="n">
-        <v>1.745493428571429</v>
+        <v>2.42672283</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.06687714285714286</v>
+        <v>0.07488</v>
       </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
@@ -2757,14 +2499,14 @@
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>3.785714285714286</v>
+        <v>4.4</v>
       </c>
       <c r="CF7" t="n">
-        <v>79.02100330687833</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
-        <v>26.1</v>
+        <v>32.25481000000001</v>
       </c>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
@@ -2779,7 +2521,7 @@
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
@@ -2788,11 +2530,11 @@
         </is>
       </c>
       <c r="CR7" t="n">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="CS7" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT7" t="inlineStr"/>
@@ -2804,14 +2546,12 @@
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
       <c r="DA7" t="inlineStr"/>
-      <c r="DB7" t="n">
-        <v>425758.3333333333</v>
-      </c>
+      <c r="DB7" t="inlineStr"/>
       <c r="DC7" t="inlineStr"/>
       <c r="DD7" t="inlineStr"/>
       <c r="DE7" t="inlineStr"/>
@@ -2828,54 +2568,40 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>-68.35714285714286</v>
-      </c>
-      <c r="DS7" t="inlineStr">
-        <is>
-          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
-        </is>
+        <v>33.643463</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>10</v>
+        <v>336.43463</v>
       </c>
       <c r="DU7" t="n">
-        <v>32</v>
+        <v>302.791167</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>0.4532326956756029</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>0.4079094261080426</v>
       </c>
       <c r="DX7" t="n">
-        <v>184.6428571428571</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DY7" t="n">
-        <v>253</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>0.5025662959794698</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.688622754491018</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>2.565139151969789</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>5.061534728027735</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10720.44444444445</v>
+        <v>10179</v>
       </c>
       <c r="B8" t="n">
-        <v>720.4444444444445</v>
+        <v>179</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2885,18 +2611,18 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2905,57 +2631,77 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>30</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>58.10000000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.3799999999999999</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>35.27777777777776</v>
-      </c>
-      <c r="Y8" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>144.6388888888889</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1200</v>
+      </c>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>90</v>
+      </c>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
         <is>
@@ -2963,7 +2709,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -2971,21 +2717,21 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>1.393333333333333</v>
+        <v>0.209</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>284.8381958333334</v>
+        <v>34.485</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.4870749742284705</v>
+        <v>0.5575174232284513</v>
       </c>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>786371.2777777778</v>
+        <v>114544.6666666667</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -3000,19 +2746,17 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>586.6000000000001</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>294.6000000000001</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="n">
-        <v>2.659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="n">
-        <v>579.2825666964828</v>
+        <v>61.73469607200416</v>
       </c>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
@@ -3020,34 +2764,34 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="n">
-        <v>2636.833819444445</v>
+        <v>13.2</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.127</v>
+        <v>0.0008000000000000001</v>
       </c>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>1.9976035415</v>
+        <v>0.310365</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.09454000000000001</v>
+        <v>0.01881</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>5.449999999999999</v>
+        <v>5</v>
       </c>
       <c r="CF8" t="n">
-        <v>22.4654012345679</v>
+        <v>6.363592592592592</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>20.57008333333334</v>
+        <v>16.5</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -3062,7 +2806,7 @@
       </c>
       <c r="CP8" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ8" t="inlineStr">
@@ -3071,7 +2815,7 @@
         </is>
       </c>
       <c r="CR8" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="CS8" t="inlineStr">
         <is>
@@ -3087,7 +2831,7 @@
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
@@ -3109,54 +2853,42 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>28.48381958333333</v>
+        <v>3.4485</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>5</v>
+        <v>34.485</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>31.0365</v>
       </c>
       <c r="DV8" t="n">
-        <v>0</v>
+        <v>0.627</v>
       </c>
       <c r="DW8" t="n">
-        <v>0</v>
+        <v>0.5642999999999999</v>
       </c>
       <c r="DX8" t="n">
-        <v>284.8381958333333</v>
+        <v>1.740362689494244</v>
       </c>
       <c r="DY8" t="n">
-        <v>256.35437625</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>0.4855748309466985</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0.4370173478520287</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>2.768342058644533</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>4.327868793507926</v>
+        <v>4.255093919562162</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11021.5</v>
+        <v>10838.69230769231</v>
       </c>
       <c r="B9" t="n">
-        <v>1021.5</v>
+        <v>838.6923076923077</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3166,46 +2898,40 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>38</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3213,46 +2939,36 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>193.04</v>
       </c>
       <c r="AB9" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD9" t="n">
         <v>100</v>
       </c>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG9" t="n">
-        <v>92</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
         <is>
@@ -3260,7 +2976,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -3268,19 +2984,21 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>1.366666666666666</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>574</v>
-      </c>
-      <c r="AT9" t="inlineStr"/>
+        <v>141.6126923076923</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.2901581641955187</v>
+      </c>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>327278</v>
+        <v>2164151.692307692</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3295,56 +3013,56 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>874</v>
+        <v>516</v>
       </c>
       <c r="BL9" t="n">
-        <v>720</v>
+        <v>289.1</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v>487.8890911169649</v>
+      </c>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
+      <c r="BW9" t="n">
+        <v>10500</v>
+      </c>
       <c r="BX9" t="n">
-        <v>0.0008</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>51.66</v>
+        <v>2.319572938846154</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.23</v>
+        <v>0.1122230769230769</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>5</v>
+        <v>11.15384615384615</v>
       </c>
       <c r="CF9" t="n">
-        <v>18.18211111111111</v>
+        <v>40.12529487179487</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>40.6</v>
-      </c>
+        <v>20.69030384615385</v>
+      </c>
+      <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
@@ -3357,18 +3075,32 @@
       </c>
       <c r="CP9" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ9" t="inlineStr"/>
-      <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr"/>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR9" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr"/>
+      <c r="CU9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
@@ -3390,54 +3122,42 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GV[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>57.4</v>
+        <v>14.16126923076923</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>6</v>
+        <v>141.6126923076923</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>127.4514230769231</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>0.2744432021466905</v>
       </c>
       <c r="DW9" t="n">
-        <v>4</v>
+        <v>0.2469988819320214</v>
       </c>
       <c r="DX9" t="n">
-        <v>574</v>
+        <v>2.712649701627211</v>
       </c>
       <c r="DY9" t="n">
-        <v>516.6</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>0.6567505720823799</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.5910755148741419</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>2.941511432634403</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>5.339755958064539</v>
+        <v>4.839112362047485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10009</v>
+        <v>10219.5</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>219.5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3447,21 +3167,21 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0()FW]8</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3471,7 +3191,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3480,64 +3200,52 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.83</v>
-      </c>
+        <v>38.60000000000001</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>34.2</v>
+        <v>44</v>
       </c>
       <c r="AB10" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC10" t="n">
         <v>110</v>
       </c>
-      <c r="AD10" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG10" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
         <is>
@@ -3545,7 +3253,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>0.09999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3553,21 +3261,19 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>1.229090909090909</v>
+        <v>0.7714285714285714</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>580.1309090909091</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0.5608143486583559</v>
-      </c>
+        <v>189.7714285714285</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>900407.9</v>
+        <v>10635615</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3582,52 +3288,52 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>862</v>
+        <v>544.152</v>
       </c>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BN10" t="inlineStr"/>
+        <v>2.212</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.14</v>
+      </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="n">
-        <v>1033.322999323505</v>
-      </c>
+      <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="n">
-        <v>37.76</v>
+        <v>4.920000000000001</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0008000000000000003</v>
+        <v>0.0002000000000000001</v>
       </c>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="n">
-        <v>5.221178181818182</v>
+        <v>3.823542857142858</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.1106181818181818</v>
+        <v>0.1554285714285714</v>
       </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>5</v>
+        <v>6.035714285714286</v>
       </c>
       <c r="CF10" t="n">
-        <v>50.02266111111111</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>47.2</v>
+        <v>24.6</v>
       </c>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
@@ -3647,12 +3353,10 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR10" t="n">
-        <v>23</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr"/>
       <c r="CS10" t="inlineStr">
         <is>
           <t>n</t>
@@ -3664,7 +3368,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV10" t="inlineStr"/>
+      <c r="CV10" t="n">
+        <v>50</v>
+      </c>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="n">
         <v>1</v>
@@ -3689,54 +3395,42 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GP[0()FW]8</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>58.01309090909091</v>
+        <v>-189.7714285714285</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>8</v>
+        <v>189.7714285714285</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>379.5428571428571</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>0.3487470937742185</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>0.6974941875484371</v>
       </c>
       <c r="DX10" t="n">
-        <v>580.1309090909091</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DY10" t="n">
-        <v>522.1178181818182</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>0.6730056950010546</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.6057051255009491</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>2.935507265824712</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>5.184894129460043</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11033</v>
+        <v>11284.86956521739</v>
       </c>
       <c r="B11" t="n">
-        <v>1033</v>
+        <v>1284.869565217391</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3746,31 +3440,31 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3778,14 +3472,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>38</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3793,46 +3485,34 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>18</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>36</v>
-      </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>280</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
           <t>JI</t>
         </is>
       </c>
-      <c r="AG11" t="n">
-        <v>92</v>
-      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
@@ -3840,7 +3520,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>0.09999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -3848,19 +3528,21 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>1.26</v>
+        <v>0.9304347826086957</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>383</v>
-      </c>
-      <c r="AT11" t="inlineStr"/>
+        <v>236.3304347826087</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3270677412174327</v>
+      </c>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>191024.6666666667</v>
+        <v>155806.9565217391</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3875,50 +3557,60 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>634</v>
-      </c>
-      <c r="BL11" t="inlineStr"/>
+        <v>572</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>547</v>
+      </c>
       <c r="BM11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BN11" t="inlineStr"/>
+        <v>2.25</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2.14</v>
+      </c>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
+      <c r="BQ11" t="n">
+        <v>722.0126469123425</v>
+      </c>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
+      <c r="BW11" t="n">
+        <v>5.079999999999999</v>
+      </c>
       <c r="BX11" t="n">
-        <v>0.0008000000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="n">
-        <v>34.4736</v>
+        <v>2.835965217391305</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.134</v>
+        <v>0.1116521739130435</v>
       </c>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CF11" t="n">
-        <v>10.61248148148148</v>
+        <v>14.42657004830918</v>
       </c>
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="CI11" t="inlineStr"/>
+        <v>25.39999999999999</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>25.5</v>
+      </c>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
@@ -3929,21 +3621,29 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP11" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
+      <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
-      <c r="CX11" t="n">
-        <v>6</v>
-      </c>
+      <c r="CX11" t="inlineStr"/>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
@@ -3964,54 +3664,42 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>38.3</v>
+        <v>-236.3304347826087</v>
       </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT11" t="n">
-        <v>6</v>
+        <v>236.3304347826087</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>472.6608695652174</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>0.4131650957737914</v>
       </c>
       <c r="DW11" t="n">
-        <v>4</v>
+        <v>0.8263301915475828</v>
       </c>
       <c r="DX11" t="n">
-        <v>383</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DY11" t="n">
-        <v>344.7</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>0.6041009463722398</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.5436908517350159</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>2.802089257881732</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>4.681030391469462</v>
+        <v>4.337419932426495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10091.5</v>
+        <v>10127.38461538462</v>
       </c>
       <c r="B12" t="n">
-        <v>91.5</v>
+        <v>127.3846153846154</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4026,18 +3714,18 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -4072,7 +3760,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -4081,28 +3769,24 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="AB12" t="n">
         <v>170</v>
       </c>
       <c r="AC12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>400</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
@@ -4117,7 +3801,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.4499999999999998</v>
+        <v>-0.4923076923076923</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -4125,21 +3809,21 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>0.8623076923076922</v>
+        <v>0.4069230769230768</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>226.9230769230769</v>
+        <v>43.25384615384616</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2514141021145135</v>
+        <v>0.3032335016044093</v>
       </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>9389137.288461538</v>
+        <v>446001.1538461539</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -4154,7 +3838,7 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>685</v>
+        <v>115</v>
       </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="inlineStr"/>
@@ -4162,7 +3846,7 @@
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="n">
-        <v>907.0805179104607</v>
+        <v>142.7829794082367</v>
       </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
@@ -4170,18 +3854,18 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>2.900000000000003</v>
+        <v>3.2</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0001099999999999999</v>
+        <v>0.0002799999999999999</v>
       </c>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>6.789193269230768</v>
+        <v>1.163283692307692</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.2581442307692309</v>
+        <v>0.1038646153846154</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
@@ -4190,14 +3874,14 @@
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>12.84615384615385</v>
+        <v>9.23076923076923</v>
       </c>
       <c r="CF12" t="n">
-        <v>167.7077702572482</v>
+        <v>12.47599358974359</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>26.29999999999998</v>
+        <v>11.2</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -4243,7 +3927,7 @@
       <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="inlineStr"/>
       <c r="DB12" t="n">
-        <v>4825216.216216216</v>
+        <v>32816.66666666666</v>
       </c>
       <c r="DC12" t="inlineStr"/>
       <c r="DD12" t="inlineStr"/>
@@ -4261,54 +3945,42 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GP[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>-68.05769230769231</v>
+        <v>-17.48</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>12</v>
+        <v>43.25384615384616</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>60.73384615384616</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>0.3761204013377926</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>0.5281204013377926</v>
       </c>
       <c r="DX12" t="n">
-        <v>226.9230769230769</v>
+        <v>2.060697840353612</v>
       </c>
       <c r="DY12" t="n">
-        <v>294.9807692307692</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>0.3312745648512072</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.430628860190904</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>2.835690571492425</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>6.202700787530844</v>
+        <v>5.117753535981455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10037</v>
+        <v>11076.31746031746</v>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>1076.31746031746</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4318,31 +3990,31 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>M9/M10</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4351,23 +4023,23 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>HAMILTON STANDARD</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -4376,35 +4048,33 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.799999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>20</v>
-      </c>
+        <v>50.69365079365078</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>56</v>
+        <v>177.4055555555554</v>
       </c>
       <c r="AB13" t="n">
-        <v>250</v>
+        <v>154.8999999999998</v>
       </c>
       <c r="AC13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>250</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>82</v>
+      </c>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
         <is>
@@ -4412,7 +4082,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-1</v>
+        <v>-0.4761904761904762</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -4420,21 +4090,19 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.8588235294117645</v>
+        <v>0.574764172335601</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="n">
-        <v>272.2470588235294</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0.2530379418598416</v>
-      </c>
+        <v>80.46698412698413</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>2270090.764705882</v>
+        <v>889703.873015873</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4449,54 +4117,42 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>846.3899999999999</v>
+        <v>274.5</v>
       </c>
       <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="n">
-        <v>2.670000000000001</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="BO13" t="inlineStr"/>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="inlineStr"/>
+      <c r="BO13" t="n">
+        <v>275.7000000000003</v>
+      </c>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="n">
-        <v>1080.821212667501</v>
-      </c>
+      <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="n">
-        <v>6.340000000000002</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0.0002000000000000001</v>
-      </c>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>5.161505882352941</v>
+        <v>2.14079365079365</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.1628235294117648</v>
+        <v>0.1529138321995465</v>
       </c>
       <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="n">
-        <v>5.882352941176471</v>
+        <v>10</v>
       </c>
       <c r="CF13" t="n">
-        <v>64.42121623093684</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>31.69999999999999</v>
+        <v>14</v>
       </c>
       <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
@@ -4511,40 +4167,32 @@
       </c>
       <c r="CP13" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ13" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS13" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="CS13" t="inlineStr"/>
       <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU13" t="inlineStr"/>
       <c r="CV13" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
       <c r="DA13" t="inlineStr"/>
       <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr"/>
+      <c r="DC13" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD13" t="inlineStr"/>
       <c r="DE13" t="inlineStr"/>
       <c r="DF13" t="inlineStr"/>
@@ -4560,54 +4208,42 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR13" t="n">
-        <v>-272.2470588235294</v>
+        <v>-26.57269841269842</v>
       </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>4</v>
+        <v>80.46698412698413</v>
       </c>
       <c r="DU13" t="n">
-        <v>4</v>
+        <v>107.0396825396826</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>0.293140197183913</v>
       </c>
       <c r="DW13" t="n">
-        <v>0</v>
+        <v>0.3899441986873681</v>
       </c>
       <c r="DX13" t="n">
-        <v>272.2470588235294</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DY13" t="n">
-        <v>544.4941176470588</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>0.3216567525886759</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.6433135051773519</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>2.927570523582327</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>4.995535696220584</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10868.81818181818</v>
+        <v>10091.5</v>
       </c>
       <c r="B14" t="n">
-        <v>868.8181818181819</v>
+        <v>91.5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4617,21 +4253,23 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4639,18 +4277,26 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4658,7 +4304,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -4667,26 +4313,34 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.799999999999998</v>
+        <v>5</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>45.02727272727271</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>21</v>
+      </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>171.1036363636364</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD14" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>400</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
@@ -4695,7 +4349,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>0.1</v>
+        <v>-0.4499999999999998</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -4703,21 +4357,21 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.994090909090909</v>
+        <v>0.8623076923076922</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>139.4482409090909</v>
+        <v>226.9230769230769</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3436854488353274</v>
+        <v>0.2514141021145135</v>
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>795664.3181818182</v>
+        <v>9389137.288461538</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4732,19 +4386,15 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>467.5</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>2.840000000000002</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="n">
-        <v>430.31450051665</v>
+        <v>907.0805179104607</v>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
@@ -4752,18 +4402,18 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="n">
-        <v>10000</v>
+        <v>2.900000000000003</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.6099999999999999</v>
+        <v>0.0001099999999999999</v>
       </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>1.644136120421053</v>
+        <v>6.789193269230768</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.09361894736842105</v>
+        <v>0.2581442307692309</v>
       </c>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr">
@@ -4772,14 +4422,14 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>8.272727272727273</v>
+        <v>12.84615384615385</v>
       </c>
       <c r="CF14" t="n">
-        <v>15.8475122053872</v>
+        <v>167.7077702572482</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>16.11549545454546</v>
+        <v>26.29999999999998</v>
       </c>
       <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr"/>
@@ -4789,12 +4439,12 @@
       <c r="CN14" t="inlineStr"/>
       <c r="CO14" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>l</t>
         </is>
       </c>
       <c r="CP14" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ14" t="inlineStr">
@@ -4803,11 +4453,11 @@
         </is>
       </c>
       <c r="CR14" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS14" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT14" t="inlineStr"/>
@@ -4819,12 +4469,14 @@
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
       <c r="DA14" t="inlineStr"/>
-      <c r="DB14" t="inlineStr"/>
+      <c r="DB14" t="n">
+        <v>4825216.216216216</v>
+      </c>
       <c r="DC14" t="inlineStr"/>
       <c r="DD14" t="inlineStr"/>
       <c r="DE14" t="inlineStr"/>
@@ -4841,54 +4493,42 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GP[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>13.94482409090909</v>
+        <v>-68.05769230769231</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>12</v>
+        <v>226.9230769230769</v>
       </c>
       <c r="DU14" t="n">
-        <v>24</v>
+        <v>294.9807692307692</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>0.3312745648512072</v>
       </c>
       <c r="DW14" t="n">
-        <v>0</v>
+        <v>0.430628860190904</v>
       </c>
       <c r="DX14" t="n">
-        <v>139.4482409090909</v>
+        <v>2.835690571492425</v>
       </c>
       <c r="DY14" t="n">
-        <v>125.5034168181818</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>0.2982850072921731</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.2684565065629558</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>2.669781615208536</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>4.372456626701744</v>
+        <v>6.202700787530844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10127.38461538462</v>
+        <v>10037</v>
       </c>
       <c r="B15" t="n">
-        <v>127.3846153846154</v>
+        <v>37</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4898,23 +4538,21 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -4924,7 +4562,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4933,13 +4571,13 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -4949,33 +4587,37 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>20</v>
+      </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="AB15" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AC15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>250</v>
+      </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
@@ -4990,7 +4632,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.4923076923076923</v>
+        <v>-1</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4998,21 +4640,21 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.4069230769230768</v>
+        <v>0.8588235294117645</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>43.25384615384616</v>
+        <v>272.2470588235294</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.3032335016044093</v>
+        <v>0.2530379418598416</v>
       </c>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>446001.1538461539</v>
+        <v>2270090.764705882</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -5027,15 +4669,19 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>115</v>
+        <v>846.3899999999999</v>
       </c>
       <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
+      <c r="BM15" t="n">
+        <v>2.670000000000001</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.96</v>
+      </c>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="n">
-        <v>142.7829794082367</v>
+        <v>1080.821212667501</v>
       </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
@@ -5043,18 +4689,18 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="n">
-        <v>3.2</v>
+        <v>6.340000000000002</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0002799999999999999</v>
+        <v>0.0002000000000000001</v>
       </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>1.163283692307692</v>
+        <v>5.161505882352941</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.1038646153846154</v>
+        <v>0.1628235294117648</v>
       </c>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr">
@@ -5063,14 +4709,14 @@
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>9.23076923076923</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="CF15" t="n">
-        <v>12.47599358974359</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>11.2</v>
+        <v>31.69999999999999</v>
       </c>
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
@@ -5090,7 +4736,7 @@
       </c>
       <c r="CQ15" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR15" t="n">
@@ -5098,7 +4744,7 @@
       </c>
       <c r="CS15" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT15" t="inlineStr"/>
@@ -5107,7 +4753,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV15" t="inlineStr"/>
+      <c r="CV15" t="n">
+        <v>50</v>
+      </c>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
         <v>1</v>
@@ -5115,9 +4763,7 @@
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
       <c r="DA15" t="inlineStr"/>
-      <c r="DB15" t="n">
-        <v>32816.66666666666</v>
-      </c>
+      <c r="DB15" t="inlineStr"/>
       <c r="DC15" t="inlineStr"/>
       <c r="DD15" t="inlineStr"/>
       <c r="DE15" t="inlineStr"/>
@@ -5134,54 +4780,42 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>-17.48</v>
+        <v>-272.2470588235294</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>8</v>
+        <v>272.2470588235294</v>
       </c>
       <c r="DU15" t="n">
-        <v>16</v>
+        <v>544.4941176470588</v>
       </c>
       <c r="DV15" t="n">
-        <v>0</v>
+        <v>0.3216567525886759</v>
       </c>
       <c r="DW15" t="n">
-        <v>0</v>
+        <v>0.6433135051773519</v>
       </c>
       <c r="DX15" t="n">
-        <v>43.25384615384616</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DY15" t="n">
-        <v>60.73384615384616</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>0.3761204013377926</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.5281204013377926</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>2.060697840353612</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>5.117753535981455</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10701</v>
+        <v>10950.78571428571</v>
       </c>
       <c r="B16" t="n">
-        <v>701</v>
+        <v>950.7857142857143</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -5191,21 +4825,21 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -5213,18 +4847,28 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Synolite 593-E-1</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E/Carbon</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>38</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5232,35 +4876,43 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GCP</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>23</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>208.28</v>
+        <v>195.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="AC16" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD16" t="n">
         <v>100</v>
       </c>
-      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
@@ -5269,7 +4921,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1</v>
+        <v>-0.5285714285714286</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -5277,21 +4929,21 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>1.025154320987654</v>
+        <v>0.7071428571428572</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>218.04575625</v>
+        <v>184.6428571428571</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.3821138800310186</v>
+        <v>0.4784814586053666</v>
       </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>672253.25</v>
+        <v>1809582.785714286</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -5306,19 +4958,21 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>567.2</v>
+        <v>367.4</v>
       </c>
       <c r="BL16" t="n">
-        <v>313.2</v>
+        <v>250.8</v>
       </c>
       <c r="BM16" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BN16" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="n">
-        <v>570.9828469141562</v>
+        <v>385.7820701147988</v>
       </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
@@ -5326,18 +4980,18 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="n">
-        <v>2727.696475</v>
+        <v>419</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.127</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>3.29946435</v>
+        <v>1.745493428571429</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1530277777777778</v>
+        <v>0.06687714285714286</v>
       </c>
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr">
@@ -5346,14 +5000,14 @@
         </is>
       </c>
       <c r="CE16" t="n">
-        <v>8.75</v>
+        <v>3.785714285714286</v>
       </c>
       <c r="CF16" t="n">
-        <v>18.79661805555556</v>
+        <v>79.02100330687833</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
-        <v>21.477925</v>
+        <v>26.1</v>
       </c>
       <c r="CI16" t="inlineStr"/>
       <c r="CJ16" t="inlineStr"/>
@@ -5368,7 +5022,7 @@
       </c>
       <c r="CP16" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ16" t="inlineStr">
@@ -5377,11 +5031,11 @@
         </is>
       </c>
       <c r="CR16" t="n">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="CS16" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT16" t="inlineStr"/>
@@ -5393,12 +5047,14 @@
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
       <c r="DA16" t="inlineStr"/>
-      <c r="DB16" t="inlineStr"/>
+      <c r="DB16" t="n">
+        <v>425758.3333333333</v>
+      </c>
       <c r="DC16" t="inlineStr"/>
       <c r="DD16" t="inlineStr"/>
       <c r="DE16" t="inlineStr"/>
@@ -5415,54 +5071,42 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GP[0()]5</t>
+          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>21.804575625</v>
+        <v>-68.35714285714286</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
         </is>
       </c>
       <c r="DT16" t="n">
-        <v>5</v>
+        <v>184.6428571428571</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="DV16" t="n">
-        <v>0</v>
+        <v>0.5025662959794698</v>
       </c>
       <c r="DW16" t="n">
-        <v>0</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="DX16" t="n">
-        <v>218.04575625</v>
+        <v>2.565139151969789</v>
       </c>
       <c r="DY16" t="n">
-        <v>196.241180625</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>0.384424817083921</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.3459823353755289</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>2.75373622217501</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>5.390274178286151</v>
+        <v>5.061534728027735</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10179</v>
+        <v>10298.4347826087</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>298.4347826086956</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5477,22 +5121,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -5505,10 +5149,10 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>58.10000000000001</v>
+        <v>50.98695652173915</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -5532,27 +5176,27 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.130434782608696</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>60</v>
+        <v>32.8695652173913</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>31.56521739130434</v>
       </c>
       <c r="AB17" t="n">
-        <v>280</v>
+        <v>263.0434782608696</v>
       </c>
       <c r="AC17" t="n">
         <v>110</v>
       </c>
       <c r="AD17" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
@@ -5570,7 +5214,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.5217391304347826</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -5578,21 +5222,21 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>0.209</v>
+        <v>1.00404347826087</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>34.485</v>
+        <v>295.9052608695652</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5575174232284513</v>
+        <v>0.3591484448902897</v>
       </c>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>114544.6666666667</v>
+        <v>1114064.434782609</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5607,17 +5251,21 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>55</v>
+        <v>655</v>
       </c>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="n">
-        <v>0.5</v>
+        <v>2.58304347826087</v>
       </c>
       <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
+      <c r="BO17" t="n">
+        <v>752</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1892</v>
+      </c>
       <c r="BQ17" t="n">
-        <v>61.73469607200416</v>
+        <v>827.6136800374626</v>
       </c>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
@@ -5625,18 +5273,18 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="n">
-        <v>13.2</v>
+        <v>13.63808695652173</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0008000000000000001</v>
+        <v>0.0004608695652173915</v>
       </c>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>0.310365</v>
+        <v>7.395634304347826</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.01881</v>
+        <v>0.2521030434782609</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
@@ -5645,14 +5293,14 @@
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>5</v>
+        <v>7.826086956521739</v>
       </c>
       <c r="CF17" t="n">
-        <v>6.363592592592592</v>
+        <v>54.49552415458937</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>16.5</v>
+        <v>29.45130434782608</v>
       </c>
       <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
@@ -5676,7 +5324,7 @@
         </is>
       </c>
       <c r="CR17" t="n">
-        <v>23</v>
+        <v>26.95652173913043</v>
       </c>
       <c r="CS17" t="inlineStr">
         <is>
@@ -5692,7 +5340,7 @@
       <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>10</v>
+        <v>4.913043478260869</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5714,54 +5362,42 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>3.4485</v>
+        <v>-138.3364304347826</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>295.9052608695653</v>
       </c>
       <c r="DU17" t="n">
-        <v>0</v>
+        <v>434.2416913043477</v>
       </c>
       <c r="DV17" t="n">
-        <v>0</v>
+        <v>0.4517637570527713</v>
       </c>
       <c r="DW17" t="n">
-        <v>16</v>
+        <v>0.6629644142051111</v>
       </c>
       <c r="DX17" t="n">
-        <v>34.485</v>
+        <v>2.816241299991783</v>
       </c>
       <c r="DY17" t="n">
-        <v>31.0365</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.5642999999999999</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>1.740362689494244</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>4.255093919562162</v>
+        <v>4.799085052187354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10974</v>
+        <v>10245.5</v>
       </c>
       <c r="B18" t="n">
-        <v>974</v>
+        <v>245.5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5771,14 +5407,18 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0(425)]5</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -5789,15 +5429,27 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>L20/SL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O18" t="n">
-        <v>68.29999999999998</v>
+        <v>36.89999999999999</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr">
         <is>
           <t>p</t>
@@ -5808,17 +5460,31 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>20</v>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>110</v>
+      </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr">
@@ -5827,25 +5493,27 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>0.8999999999999998</v>
+      </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>800.4766666666665</v>
+        <v>266.4</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>59304.04761904762</v>
+        <v>5011634</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5860,11 +5528,15 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>2032.30125</v>
+        <v>619.2320000000001</v>
       </c>
       <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
+      <c r="BM18" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2.418</v>
+      </c>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
@@ -5873,38 +5545,78 @@
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
-      <c r="BW18" t="inlineStr"/>
-      <c r="BX18" t="inlineStr"/>
+      <c r="BW18" t="n">
+        <v>5.920000000000001</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.0002</v>
+      </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
-      <c r="CA18" t="inlineStr"/>
-      <c r="CB18" t="inlineStr"/>
+      <c r="CA18" t="n">
+        <v>4.327520000000001</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>0.1462000000000001</v>
+      </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE18" t="n">
-        <v>3</v>
+        <v>4.925</v>
       </c>
       <c r="CF18" t="n">
-        <v>5.491115520282186</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
+      <c r="CH18" t="n">
+        <v>29.60000000000001</v>
+      </c>
       <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
       <c r="CM18" t="inlineStr"/>
       <c r="CN18" t="inlineStr"/>
-      <c r="CO18" t="inlineStr"/>
-      <c r="CP18" t="inlineStr"/>
-      <c r="CQ18" t="inlineStr"/>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr"/>
+      <c r="CO18" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP18" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ18" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR18" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT18" t="inlineStr"/>
-      <c r="CU18" t="inlineStr"/>
-      <c r="CV18" t="inlineStr"/>
+      <c r="CU18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV18" t="n">
+        <v>50</v>
+      </c>
       <c r="CW18" t="inlineStr"/>
-      <c r="CX18" t="inlineStr"/>
+      <c r="CX18" t="n">
+        <v>1</v>
+      </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
       <c r="DA18" t="inlineStr"/>
@@ -5925,50 +5637,42 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GEnan</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>80.04766666666667</v>
-      </c>
-      <c r="DS18" t="inlineStr"/>
+        <v>-266.4</v>
+      </c>
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>0/0/0/0/0</t>
+        </is>
+      </c>
       <c r="DT18" t="n">
-        <v>0</v>
+        <v>266.4</v>
       </c>
       <c r="DU18" t="n">
-        <v>0</v>
+        <v>532.8</v>
       </c>
       <c r="DV18" t="n">
-        <v>0</v>
+        <v>0.4302103250478012</v>
       </c>
       <c r="DW18" t="n">
-        <v>0</v>
+        <v>0.8604206500956023</v>
       </c>
       <c r="DX18" t="n">
-        <v>800.4766666666666</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DY18" t="n">
-        <v>720.4290000000001</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>0.3938769740296459</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.3544892766266813</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>3.307988084278995</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>3.948166635414598</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10245.5</v>
+        <v>10272</v>
       </c>
       <c r="B19" t="n">
-        <v>245.5</v>
+        <v>272</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -6011,7 +5715,7 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>36.89999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -6032,7 +5736,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
@@ -6064,7 +5768,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -6072,19 +5776,19 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>0.8999999999999998</v>
+        <v>1.070967741935483</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>266.4</v>
+        <v>341.6387096774194</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>5011634</v>
+        <v>6169463.483870967</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -6099,14 +5803,14 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>619.2320000000001</v>
+        <v>667.3480000000004</v>
       </c>
       <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="n">
-        <v>2.092</v>
+        <v>2.091999999999999</v>
       </c>
       <c r="BN19" t="n">
-        <v>2.418</v>
+        <v>2.418000000000001</v>
       </c>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
@@ -6117,18 +5821,18 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>5.920000000000001</v>
+        <v>6.379999999999997</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0002</v>
+        <v>0.0001999999999999999</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>4.327520000000001</v>
+        <v>3.074748387096775</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.1462000000000001</v>
+        <v>0.09638709677419353</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
@@ -6137,14 +5841,14 @@
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>4.925</v>
+        <v>6</v>
       </c>
       <c r="CF19" t="n">
-        <v>114.1808263888889</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>29.60000000000001</v>
+        <v>31.89999999999998</v>
       </c>
       <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
@@ -6164,12 +5868,10 @@
       </c>
       <c r="CQ19" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR19" t="n">
-        <v>24.57142857142857</v>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR19" t="inlineStr"/>
       <c r="CS19" t="inlineStr">
         <is>
           <t>n</t>
@@ -6212,7 +5914,7 @@
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>-266.4</v>
+        <v>34.16387096774193</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
@@ -6220,42 +5922,30 @@
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>5</v>
+        <v>341.6387096774194</v>
       </c>
       <c r="DU19" t="n">
-        <v>0</v>
+        <v>307.4748387096774</v>
       </c>
       <c r="DV19" t="n">
-        <v>0</v>
+        <v>0.5119348670819712</v>
       </c>
       <c r="DW19" t="n">
-        <v>0</v>
+        <v>0.4607413803737741</v>
       </c>
       <c r="DX19" t="n">
-        <v>266.4</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DY19" t="n">
-        <v>532.8</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>0.4302103250478012</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.8604206500956023</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>2.791853391254176</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>5.165177541080086</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10272</v>
+        <v>11033</v>
       </c>
       <c r="B20" t="n">
-        <v>272</v>
+        <v>1033</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -6265,18 +5955,18 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -6285,11 +5975,11 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -6297,12 +5987,14 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O20" t="n">
-        <v>36.9</v>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6310,40 +6002,46 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.200000000000001</v>
+        <v>2</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AC20" t="n">
         <v>110</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>100</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>92</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -6351,7 +6049,7 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -6359,19 +6057,19 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>1.070967741935483</v>
+        <v>1.26</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>341.6387096774194</v>
+        <v>383</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>6169463.483870967</v>
+        <v>191024.6666666667</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6386,15 +6084,13 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>667.3480000000004</v>
+        <v>634</v>
       </c>
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="n">
-        <v>2.091999999999999</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>2.418000000000001</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="inlineStr"/>
@@ -6403,35 +6099,33 @@
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="n">
-        <v>6.379999999999997</v>
-      </c>
+      <c r="BW20" t="inlineStr"/>
       <c r="BX20" t="n">
-        <v>0.0001999999999999999</v>
+        <v>0.0008000000000000001</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="n">
-        <v>3.074748387096775</v>
+        <v>34.4736</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.09638709677419353</v>
+        <v>1.134</v>
       </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="CF20" t="n">
-        <v>170.260063425926</v>
+        <v>10.61248148148148</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>31.89999999999998</v>
+        <v>30.4</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6449,29 +6143,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ20" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CS20" t="inlineStr"/>
       <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV20" t="n">
-        <v>50</v>
-      </c>
+      <c r="CU20" t="inlineStr"/>
+      <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6493,54 +6173,42 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>34.16387096774193</v>
+        <v>38.3</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="DU20" t="n">
-        <v>0</v>
+        <v>344.7</v>
       </c>
       <c r="DV20" t="n">
-        <v>0</v>
+        <v>0.6041009463722398</v>
       </c>
       <c r="DW20" t="n">
-        <v>0</v>
+        <v>0.5436908517350159</v>
       </c>
       <c r="DX20" t="n">
-        <v>341.6387096774194</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DY20" t="n">
-        <v>307.4748387096774</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>0.5119348670819712</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0.4607413803737741</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>2.824352363252417</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>5.772019752181081</v>
+        <v>4.681030391469462</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11163.72222222222</v>
+        <v>10164.84615384615</v>
       </c>
       <c r="B21" t="n">
-        <v>1163.722222222222</v>
+        <v>164.8461538461538</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6550,58 +6218,58 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2123 Cronolite Ortoftalic</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>E Vetrotex Vidrio</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>55</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>40</v>
-      </c>
+        <v>49.10000000000002</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -6610,28 +6278,36 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>5.200000000000001</v>
+        <v>2</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y21" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="AC21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AD21" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>100</v>
+      </c>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG21" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
@@ -6640,7 +6316,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2388888888888889</v>
+        <v>0.1</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -6648,19 +6324,21 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>0.8948128300512472</v>
+        <v>1.023076923076923</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>343.975</v>
-      </c>
-      <c r="AT21" t="inlineStr"/>
+        <v>418.4384615384616</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.6427439022562458</v>
+      </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>1669718.888888889</v>
+        <v>96823.76923076923</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6675,44 +6353,52 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>659.0699999999999</v>
+        <v>546</v>
       </c>
       <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BM21" t="n">
+        <v>1.5</v>
+      </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr"/>
+      <c r="BQ21" t="n">
+        <v>649.8501749373492</v>
+      </c>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
-      <c r="BX21" t="inlineStr"/>
+      <c r="BW21" t="n">
+        <v>32.72000000000001</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.0008000000000000003</v>
+      </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>25.91163166666667</v>
+        <v>3.765946153846154</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.6740623726403234</v>
+        <v>0.09207692307692307</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="CF21" t="n">
-        <v>55.88081957459467</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>38.44100000000002</v>
+        <v>40.89999999999999</v>
       </c>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
@@ -6720,17 +6406,39 @@
       <c r="CL21" t="inlineStr"/>
       <c r="CM21" t="inlineStr"/>
       <c r="CN21" t="inlineStr"/>
-      <c r="CO21" t="inlineStr"/>
-      <c r="CP21" t="inlineStr"/>
-      <c r="CQ21" t="inlineStr"/>
-      <c r="CR21" t="inlineStr"/>
-      <c r="CS21" t="inlineStr"/>
+      <c r="CO21" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP21" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ21" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR21" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
+      <c r="CU21" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6752,54 +6460,42 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>81.35916666666667</v>
+        <v>41.84384615384616</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>14</v>
+        <v>418.4384615384616</v>
       </c>
       <c r="DU21" t="n">
-        <v>8</v>
+        <v>376.5946153846154</v>
       </c>
       <c r="DV21" t="n">
-        <v>0</v>
+        <v>0.7663708086785009</v>
       </c>
       <c r="DW21" t="n">
-        <v>0</v>
+        <v>0.689733727810651</v>
       </c>
       <c r="DX21" t="n">
-        <v>343.975</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DY21" t="n">
-        <v>262.6158333333334</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>0.5219096605823357</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>0.398464250130234</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>2.818931543576176</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>4.210906788214843</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10298.4347826087</v>
+        <v>11021.5</v>
       </c>
       <c r="B22" t="n">
-        <v>298.4347826086956</v>
+        <v>1021.5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6814,7 +6510,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -6823,17 +6519,17 @@
         <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6841,12 +6537,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O22" t="n">
-        <v>50.98695652173915</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.9099999999999999</v>
-      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
@@ -6855,7 +6547,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -6869,21 +6561,21 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2.130434782608696</v>
+        <v>2</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>32.8695652173913</v>
+        <v>60</v>
       </c>
       <c r="Y22" t="n">
         <v>18</v>
       </c>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>31.56521739130434</v>
+        <v>36</v>
       </c>
       <c r="AB22" t="n">
-        <v>263.0434782608696</v>
+        <v>280</v>
       </c>
       <c r="AC22" t="n">
         <v>110</v>
@@ -6894,11 +6586,11 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG22" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
@@ -6907,7 +6599,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.5217391304347826</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -6915,21 +6607,19 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="n">
-        <v>1.00404347826087</v>
+        <v>1.366666666666666</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>295.9052608695652</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.3591484448902897</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>1114064.434782609</v>
+        <v>327278</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6944,40 +6634,36 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>655</v>
-      </c>
-      <c r="BL22" t="inlineStr"/>
+        <v>874</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>720</v>
+      </c>
       <c r="BM22" t="n">
-        <v>2.58304347826087</v>
-      </c>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="n">
-        <v>752</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>1892</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>827.6136800374626</v>
-      </c>
+        <v>2.24</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="n">
-        <v>13.63808695652173</v>
-      </c>
+      <c r="BW22" t="inlineStr"/>
       <c r="BX22" t="n">
-        <v>0.0004608695652173915</v>
+        <v>0.0008</v>
       </c>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="n">
-        <v>7.395634304347826</v>
+        <v>51.66</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.2521030434782609</v>
+        <v>1.23</v>
       </c>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr">
@@ -6986,16 +6672,18 @@
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>7.826086956521739</v>
+        <v>5</v>
       </c>
       <c r="CF22" t="n">
-        <v>54.49552415458937</v>
+        <v>18.18211111111111</v>
       </c>
       <c r="CG22" t="inlineStr"/>
       <c r="CH22" t="n">
-        <v>29.45130434782608</v>
-      </c>
-      <c r="CI22" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
@@ -7011,29 +6699,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ22" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR22" t="n">
-        <v>26.95652173913043</v>
-      </c>
-      <c r="CS22" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
       <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="n">
-        <v>4.913043478260869</v>
+        <v>6</v>
       </c>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
@@ -7055,54 +6729,42 @@
       <c r="DP22" t="inlineStr"/>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>-138.3364304347826</v>
+        <v>57.4</v>
       </c>
       <c r="DS22" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT22" t="n">
-        <v>6</v>
+        <v>574</v>
       </c>
       <c r="DU22" t="n">
-        <v>4</v>
+        <v>516.6</v>
       </c>
       <c r="DV22" t="n">
-        <v>0</v>
+        <v>0.6567505720823799</v>
       </c>
       <c r="DW22" t="n">
-        <v>0</v>
+        <v>0.5910755148741419</v>
       </c>
       <c r="DX22" t="n">
-        <v>295.9052608695653</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DY22" t="n">
-        <v>434.2416913043477</v>
-      </c>
-      <c r="DZ22" t="n">
-        <v>0.4517637570527713</v>
-      </c>
-      <c r="EA22" t="n">
-        <v>0.6629644142051111</v>
-      </c>
-      <c r="EB22" t="n">
-        <v>2.816241299991783</v>
-      </c>
-      <c r="EC22" t="n">
-        <v>4.799085052187354</v>
+        <v>5.339755958064539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10818</v>
+        <v>11681.18965517241</v>
       </c>
       <c r="B23" t="n">
-        <v>818</v>
+        <v>1681.189655172414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -7112,21 +6774,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>TUD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0()]</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -7134,18 +6796,28 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Synolite 593-E-1</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>50</v>
+        <v>30.10344827586207</v>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>45</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>hl</t>
@@ -7153,7 +6825,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -7162,27 +6834,37 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="Y23" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23</v>
+      </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>83.81999999999999</v>
+        <v>195.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="AC23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD23" t="n">
         <v>100</v>
       </c>
-      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="AG23" t="n">
+        <v>94</v>
+      </c>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
         <is>
@@ -7190,7 +6872,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>0.1</v>
+        <v>-0.4995689655172409</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -7198,21 +6880,21 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="n">
-        <v>1.05</v>
+        <v>1.061735567609454</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>336.43463</v>
+        <v>190.3344827586207</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4575400545931785</v>
+        <v>0.4035632930706076</v>
       </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>52300.8</v>
+        <v>48102625.51724138</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -7227,19 +6909,25 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>742.3</v>
+        <v>428</v>
       </c>
       <c r="BL23" t="n">
-        <v>365.9</v>
+        <v>291</v>
       </c>
       <c r="BM23" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
+        <v>2.599999999999997</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>365</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>395</v>
+      </c>
       <c r="BQ23" t="n">
-        <v>739.1078653787645</v>
+        <v>458.4075741056202</v>
       </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
@@ -7247,18 +6935,18 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="n">
-        <v>2064.30784</v>
+        <v>290</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.064</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="n">
-        <v>2.42672283</v>
+        <v>2.285864890566036</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.07488</v>
+        <v>0.1284193758744965</v>
       </c>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr">
@@ -7267,16 +6955,18 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>4.4</v>
+        <v>6.679245283018868</v>
       </c>
       <c r="CF23" t="n">
-        <v>2.194388888888889</v>
+        <v>973.5749756414095</v>
       </c>
       <c r="CG23" t="inlineStr"/>
       <c r="CH23" t="n">
-        <v>32.25481000000001</v>
-      </c>
-      <c r="CI23" t="inlineStr"/>
+        <v>17.79999999999998</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>18.47931034482759</v>
+      </c>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
@@ -7289,7 +6979,7 @@
       </c>
       <c r="CP23" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ23" t="inlineStr">
@@ -7298,11 +6988,11 @@
         </is>
       </c>
       <c r="CR23" t="n">
-        <v>22.5</v>
+        <v>22.06896551724138</v>
       </c>
       <c r="CS23" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT23" t="inlineStr"/>
@@ -7311,15 +7001,19 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV23" t="inlineStr"/>
+      <c r="CV23" t="n">
+        <v>60</v>
+      </c>
       <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="n">
-        <v>3</v>
+        <v>5.03448275862069</v>
       </c>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="inlineStr"/>
+      <c r="DB23" t="n">
+        <v>1055945.3</v>
+      </c>
       <c r="DC23" t="inlineStr"/>
       <c r="DD23" t="inlineStr"/>
       <c r="DE23" t="inlineStr"/>
@@ -7336,52 +7030,42 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GP[0()]</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>33.643463</v>
-      </c>
-      <c r="DS23" t="n">
-        <v>0</v>
+        <v>-82.378</v>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+        </is>
       </c>
       <c r="DT23" t="n">
-        <v>1</v>
+        <v>190.3344827586207</v>
       </c>
       <c r="DU23" t="n">
-        <v>0</v>
+        <v>272.7124827586207</v>
       </c>
       <c r="DV23" t="n">
-        <v>0</v>
+        <v>0.4447067354173381</v>
       </c>
       <c r="DW23" t="n">
-        <v>0</v>
+        <v>0.6371786980341605</v>
       </c>
       <c r="DX23" t="n">
-        <v>336.43463</v>
+        <v>2.631443769013172</v>
       </c>
       <c r="DY23" t="n">
-        <v>302.791167</v>
-      </c>
-      <c r="DZ23" t="n">
-        <v>0.4532326956756029</v>
-      </c>
-      <c r="EA23" t="n">
-        <v>0.4079094261080426</v>
-      </c>
-      <c r="EB23" t="n">
-        <v>2.870579460552685</v>
-      </c>
-      <c r="EC23" t="n">
-        <v>4.160654730827149</v>
+        <v>5.063979666419017</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10219.5</v>
+        <v>11412</v>
       </c>
       <c r="B24" t="n">
-        <v>219.5</v>
+        <v>1412</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -7391,21 +7075,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -7415,7 +7099,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7424,11 +7108,17 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>38.60000000000001</v>
+        <v>32</v>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>45</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>hl</t>
@@ -7436,40 +7126,42 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y24" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>23</v>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>44</v>
+        <v>195.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>100</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>94</v>
+      </c>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
         <is>
@@ -7485,19 +7177,21 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.7714285714285714</v>
+        <v>0.62</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>189.7714285714285</v>
-      </c>
-      <c r="AT24" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.2442227139503193</v>
+      </c>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>10635615</v>
+        <v>2619897.333333333</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -7512,36 +7206,40 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>544.152</v>
-      </c>
-      <c r="BL24" t="inlineStr"/>
+        <v>443.7</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>332.5</v>
+      </c>
       <c r="BM24" t="n">
-        <v>2.212</v>
+        <v>2.55</v>
       </c>
       <c r="BN24" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v>470.9500738273841</v>
+      </c>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="n">
-        <v>4.920000000000001</v>
+        <v>290</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.0002000000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="n">
-        <v>3.823542857142858</v>
+        <v>1.529333333333333</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.1554285714285714</v>
+        <v>0.08266666666666667</v>
       </c>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr">
@@ -7550,16 +7248,18 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>6.035714285714286</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="CF24" t="n">
-        <v>236.5450942460318</v>
+        <v>244.4947222222222</v>
       </c>
       <c r="CG24" t="inlineStr"/>
       <c r="CH24" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="CI24" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
@@ -7577,27 +7277,33 @@
       </c>
       <c r="CQ24" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR24" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CR24" t="inlineStr"/>
-      <c r="CS24" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT24" t="inlineStr"/>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>50w14d</t>
+        </is>
+      </c>
       <c r="CU24" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
       <c r="CV24" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
@@ -7619,54 +7325,42 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>-189.7714285714285</v>
+        <v>-115</v>
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT24" t="n">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="DU24" t="n">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="DV24" t="n">
-        <v>0</v>
+        <v>0.2591841334234843</v>
       </c>
       <c r="DW24" t="n">
-        <v>0</v>
+        <v>0.5183682668469687</v>
       </c>
       <c r="DX24" t="n">
-        <v>189.7714285714285</v>
+        <v>2.647089428716555</v>
       </c>
       <c r="DY24" t="n">
-        <v>379.5428571428571</v>
-      </c>
-      <c r="DZ24" t="n">
-        <v>0.3487470937742185</v>
-      </c>
-      <c r="EA24" t="n">
-        <v>0.6974941875484371</v>
-      </c>
-      <c r="EB24" t="n">
-        <v>2.735720229736039</v>
-      </c>
-      <c r="EC24" t="n">
-        <v>5.650649768017886</v>
+        <v>6.408635862973926</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11284.86956521739</v>
+        <v>11209</v>
       </c>
       <c r="B25" t="n">
-        <v>1284.869565217391</v>
+        <v>1209</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -7676,21 +7370,21 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -7700,7 +7394,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -7709,11 +7403,17 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>45</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>hl</t>
@@ -7721,33 +7421,39 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>8.5</v>
+      </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y25" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
       <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>195.5</v>
+      </c>
       <c r="AB25" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>100</v>
+      </c>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr">
@@ -7756,7 +7462,7 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>-1</v>
+        <v>-0.4000000000000001</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -7764,21 +7470,21 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>0.9304347826086957</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="n">
-        <v>236.3304347826087</v>
+        <v>190</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3270677412174327</v>
+        <v>0.3902404735566539</v>
       </c>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>155806.9565217391</v>
+        <v>495204.9333333333</v>
       </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -7793,21 +7499,17 @@
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="n">
-        <v>572</v>
+        <v>462</v>
       </c>
       <c r="BL25" t="n">
-        <v>547</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>2.14</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="n">
-        <v>722.0126469123425</v>
+        <v>488.5706061256247</v>
       </c>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
@@ -7815,37 +7517,33 @@
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="n">
-        <v>5.079999999999999</v>
+        <v>290</v>
       </c>
       <c r="BX25" t="n">
-        <v>0.0002</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="n">
-        <v>2.835965217391305</v>
+        <v>1.431733333333334</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.1116521739130435</v>
+        <v>0.07739099099099098</v>
       </c>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="n">
-        <v>3</v>
+        <v>3.033333333333333</v>
       </c>
       <c r="CF25" t="n">
-        <v>14.42657004830918</v>
+        <v>28.47224444444445</v>
       </c>
       <c r="CG25" t="inlineStr"/>
       <c r="CH25" t="n">
-        <v>25.39999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="CI25" t="n">
-        <v>25.5</v>
+        <v>19</v>
       </c>
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
@@ -7857,10 +7555,14 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP25" t="inlineStr"/>
+      <c r="CP25" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="CQ25" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR25" t="n">
@@ -7868,7 +7570,7 @@
       </c>
       <c r="CS25" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT25" t="inlineStr"/>
@@ -7879,7 +7581,9 @@
       </c>
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="inlineStr"/>
-      <c r="CX25" t="inlineStr"/>
+      <c r="CX25" t="n">
+        <v>4</v>
+      </c>
       <c r="CY25" t="inlineStr"/>
       <c r="CZ25" t="inlineStr"/>
       <c r="DA25" t="inlineStr"/>
@@ -7900,54 +7604,42 @@
       <c r="DP25" t="inlineStr"/>
       <c r="DQ25" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR25" t="n">
-        <v>-236.3304347826087</v>
+        <v>-76</v>
       </c>
       <c r="DS25" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT25" t="n">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="DU25" t="n">
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="DV25" t="n">
-        <v>0</v>
+        <v>0.4112554112554113</v>
       </c>
       <c r="DW25" t="n">
-        <v>0</v>
+        <v>0.5757575757575759</v>
       </c>
       <c r="DX25" t="n">
-        <v>236.3304347826087</v>
+        <v>2.664641975556125</v>
       </c>
       <c r="DY25" t="n">
-        <v>472.6608695652174</v>
-      </c>
-      <c r="DZ25" t="n">
-        <v>0.4131650957737914</v>
-      </c>
-      <c r="EA25" t="n">
-        <v>0.8263301915475828</v>
-      </c>
-      <c r="EB25" t="n">
-        <v>2.757396028793024</v>
-      </c>
-      <c r="EC25" t="n">
-        <v>4.337419932426495</v>
+        <v>4.839426195945407</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10164.84615384615</v>
+        <v>10009</v>
       </c>
       <c r="B26" t="n">
-        <v>164.8461538461538</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -7962,13 +7654,13 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[0()FW]8</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -7977,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -7990,10 +7682,10 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>49.10000000000002</v>
+        <v>52.8</v>
       </c>
       <c r="P26" t="n">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
@@ -8017,7 +7709,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
@@ -8028,7 +7720,7 @@
       </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="AB26" t="n">
         <v>280</v>
@@ -8055,7 +7747,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -8063,21 +7755,21 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>1.023076923076923</v>
+        <v>1.229090909090909</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="n">
-        <v>418.4384615384616</v>
+        <v>580.1309090909091</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6427439022562458</v>
+        <v>0.5608143486583559</v>
       </c>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>96823.76923076923</v>
+        <v>900407.9</v>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
@@ -8092,17 +7784,17 @@
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="n">
-        <v>546</v>
+        <v>862</v>
       </c>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="n">
-        <v>649.8501749373492</v>
+        <v>1033.322999323505</v>
       </c>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
@@ -8110,7 +7802,7 @@
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
       <c r="BW26" t="n">
-        <v>32.72000000000001</v>
+        <v>37.76</v>
       </c>
       <c r="BX26" t="n">
         <v>0.0008000000000000003</v>
@@ -8118,10 +7810,10 @@
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="n">
-        <v>3.765946153846154</v>
+        <v>5.221178181818182</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.09207692307692307</v>
+        <v>0.1106181818181818</v>
       </c>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr">
@@ -8133,11 +7825,11 @@
         <v>5</v>
       </c>
       <c r="CF26" t="n">
-        <v>5.379098290598289</v>
+        <v>50.02266111111111</v>
       </c>
       <c r="CG26" t="inlineStr"/>
       <c r="CH26" t="n">
-        <v>40.89999999999999</v>
+        <v>47.2</v>
       </c>
       <c r="CI26" t="inlineStr"/>
       <c r="CJ26" t="inlineStr"/>
@@ -8177,7 +7869,7 @@
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY26" t="inlineStr"/>
       <c r="CZ26" t="inlineStr"/>
@@ -8199,46 +7891,34 @@
       <c r="DP26" t="inlineStr"/>
       <c r="DQ26" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[0()FW]8</t>
         </is>
       </c>
       <c r="DR26" t="n">
-        <v>41.84384615384616</v>
+        <v>58.01309090909091</v>
       </c>
       <c r="DS26" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT26" t="n">
-        <v>0</v>
+        <v>580.1309090909091</v>
       </c>
       <c r="DU26" t="n">
-        <v>0</v>
+        <v>522.1178181818182</v>
       </c>
       <c r="DV26" t="n">
-        <v>0</v>
+        <v>0.6730056950010546</v>
       </c>
       <c r="DW26" t="n">
-        <v>16</v>
+        <v>0.6057051255009491</v>
       </c>
       <c r="DX26" t="n">
-        <v>418.4384615384616</v>
+        <v>2.935507265824712</v>
       </c>
       <c r="DY26" t="n">
-        <v>376.5946153846154</v>
-      </c>
-      <c r="DZ26" t="n">
-        <v>0.7663708086785009</v>
-      </c>
-      <c r="EA26" t="n">
-        <v>0.689733727810651</v>
-      </c>
-      <c r="EB26" t="n">
-        <v>2.737192642704737</v>
-      </c>
-      <c r="EC26" t="n">
-        <v>4.116696166647357</v>
+        <v>5.184894129460043</v>
       </c>
     </row>
   </sheetData>

--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -1082,10 +1082,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10720.44444444445</v>
+        <v>10133</v>
       </c>
       <c r="B2" t="n">
-        <v>720.4444444444445</v>
+        <v>133</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1095,21 +1095,23 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1117,18 +1119,26 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1136,35 +1146,39 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>35.27777777777776</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>144.6388888888889</v>
+        <v>315</v>
       </c>
       <c r="AB2" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
@@ -1181,21 +1195,21 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>1.393333333333333</v>
+        <v>0.45</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>284.8381958333334</v>
+        <v>47.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.4870749742284705</v>
+        <v>0.3360838156505212</v>
       </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>786371.2777777778</v>
+        <v>2430000</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1210,19 +1224,15 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>586.6000000000001</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>294.6000000000001</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>2.659999999999999</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="n">
-        <v>579.2825666964828</v>
+        <v>141.6313365398623</v>
       </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
@@ -1230,18 +1240,18 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="n">
-        <v>2636.833819444445</v>
+        <v>3.2</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.127</v>
+        <v>0.00028</v>
       </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>1.9976035415</v>
+        <v>0.9072000000000001</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.09454000000000001</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
@@ -1250,14 +1260,14 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>5.449999999999999</v>
+        <v>10</v>
       </c>
       <c r="CF2" t="n">
-        <v>22.4654012345679</v>
+        <v>12.47599358974359</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>20.57008333333334</v>
+        <v>11.2</v>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
@@ -1272,7 +1282,7 @@
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr">
@@ -1281,11 +1291,11 @@
         </is>
       </c>
       <c r="CR2" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT2" t="inlineStr"/>
@@ -1297,7 +1307,7 @@
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
@@ -1319,42 +1329,42 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GP[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="DR2" t="n">
-        <v>28.48381958333333</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>284.8381958333333</v>
+        <v>43.25384615384616</v>
       </c>
       <c r="DU2" t="n">
-        <v>256.35437625</v>
+        <v>60.73384615384616</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.4855748309466985</v>
+        <v>0.3761204013377926</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.4370173478520287</v>
+        <v>0.5281204013377926</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.768342058644533</v>
+        <v>2.060697840353612</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.327868793507926</v>
+        <v>5.117753535981455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11163.72222222222</v>
+        <v>11058</v>
       </c>
       <c r="B3" t="n">
-        <v>1163.722222222222</v>
+        <v>1058</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1364,53 +1374,51 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2123 Cronolite Ortoftalic</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>E Vetrotex Vidrio</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>40</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>HAMILTON STANDARD</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1420,32 +1428,36 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.200000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>80</v>
+        <v>50.4</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>416</v>
+        <v>176.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>154.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
       <c r="AG3" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
@@ -1454,7 +1466,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2388888888888889</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -1462,19 +1474,19 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>0.8948128300512472</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>343.975</v>
+        <v>68</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>1669718.888888889</v>
+        <v>11254000</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1489,12 +1501,14 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>659.0699999999999</v>
+        <v>274.5</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
+      <c r="BO3" t="n">
+        <v>275.7</v>
+      </c>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="inlineStr"/>
@@ -1507,26 +1521,22 @@
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>25.91163166666667</v>
+        <v>1.36</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.6740623726403234</v>
+        <v>0.09714285714285716</v>
       </c>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="n">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="CF3" t="n">
-        <v>55.88081957459467</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>38.44100000000002</v>
+        <v>14</v>
       </c>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
@@ -1534,8 +1544,16 @@
       <c r="CL3" t="inlineStr"/>
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr"/>
-      <c r="CO3" t="inlineStr"/>
-      <c r="CP3" t="inlineStr"/>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
       <c r="CQ3" t="inlineStr"/>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="inlineStr"/>
@@ -1544,13 +1562,17 @@
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
       <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr"/>
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD3" t="inlineStr"/>
       <c r="DE3" t="inlineStr"/>
       <c r="DF3" t="inlineStr"/>
@@ -1566,42 +1588,42 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>81.35916666666667</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>343.975</v>
+        <v>80.46698412698413</v>
       </c>
       <c r="DU3" t="n">
-        <v>262.6158333333334</v>
+        <v>107.0396825396826</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.5219096605823357</v>
+        <v>0.293140197183913</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.398464250130234</v>
+        <v>0.3899441986873681</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.818931543576176</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DY3" t="n">
-        <v>4.210906788214843</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10701</v>
+        <v>10097</v>
       </c>
       <c r="B4" t="n">
-        <v>701</v>
+        <v>97</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1611,18 +1633,20 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1633,18 +1657,26 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1652,7 +1684,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1661,26 +1693,34 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>21</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>208.28</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD4" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>400</v>
+      </c>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
@@ -1697,21 +1737,21 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>1.025154320987654</v>
+        <v>0.8</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>218.04575625</v>
+        <v>210</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3821138800310186</v>
+        <v>0.2293484327767916</v>
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>672253.25</v>
+        <v>52320000</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1726,19 +1766,15 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>567.2</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>313.2</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>2.76</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="n">
-        <v>570.9828469141562</v>
+        <v>915.6373883068036</v>
       </c>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
@@ -1746,18 +1782,18 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="n">
-        <v>2727.696475</v>
+        <v>2.9</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.127</v>
+        <v>0.00011</v>
       </c>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>3.29946435</v>
+        <v>7.574400000000001</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.1530277777777778</v>
+        <v>0.288</v>
       </c>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr">
@@ -1766,14 +1802,14 @@
         </is>
       </c>
       <c r="CE4" t="n">
-        <v>8.75</v>
+        <v>20</v>
       </c>
       <c r="CF4" t="n">
-        <v>18.79661805555556</v>
+        <v>167.7077702572482</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>21.477925</v>
+        <v>26.3</v>
       </c>
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
@@ -1788,7 +1824,7 @@
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
@@ -1797,11 +1833,11 @@
         </is>
       </c>
       <c r="CR4" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS4" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT4" t="inlineStr"/>
@@ -1813,12 +1849,14 @@
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
       <c r="DA4" t="inlineStr"/>
-      <c r="DB4" t="inlineStr"/>
+      <c r="DB4" t="n">
+        <v>21000000</v>
+      </c>
       <c r="DC4" t="inlineStr"/>
       <c r="DD4" t="inlineStr"/>
       <c r="DE4" t="inlineStr"/>
@@ -1835,42 +1873,42 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GP[0()]5</t>
+          <t>GP[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="DR4" t="n">
-        <v>21.804575625</v>
+        <v>21</v>
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>218.04575625</v>
+        <v>226.9230769230769</v>
       </c>
       <c r="DU4" t="n">
-        <v>196.241180625</v>
+        <v>294.9807692307692</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.384424817083921</v>
+        <v>0.3312745648512072</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3459823353755289</v>
+        <v>0.430628860190904</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.75373622217501</v>
+        <v>2.835690571492425</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.390274178286151</v>
+        <v>6.202700787530844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10868.81818181818</v>
+        <v>11022</v>
       </c>
       <c r="B5" t="n">
-        <v>868.8181818181819</v>
+        <v>1022</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1880,40 +1918,46 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>UPS294V Polyplex</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="O5" t="n">
-        <v>38</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1921,7 +1965,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1930,27 +1974,37 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.799999999999998</v>
+        <v>2</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>45.02727272727271</v>
-      </c>
-      <c r="Y5" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>18</v>
+      </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>171.1036363636364</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD5" t="n">
         <v>100</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>92</v>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1966,21 +2020,19 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>0.994090909090909</v>
+        <v>1.3</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>139.4482409090909</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0.3436854488353274</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>795664.3181818182</v>
+        <v>569000</v>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -1995,56 +2047,56 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>467.5</v>
+        <v>874</v>
       </c>
       <c r="BL5" t="n">
-        <v>317.5</v>
+        <v>720</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.840000000000002</v>
-      </c>
-      <c r="BN5" t="inlineStr"/>
+        <v>2.24</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.9</v>
+      </c>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="n">
-        <v>430.31450051665</v>
-      </c>
+      <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="n">
-        <v>10000</v>
-      </c>
+      <c r="BW5" t="inlineStr"/>
       <c r="BX5" t="n">
-        <v>0.6099999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="n">
-        <v>1.644136120421053</v>
+        <v>49.14</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.09361894736842105</v>
+        <v>1.17</v>
       </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>8.272727272727273</v>
+        <v>5</v>
       </c>
       <c r="CF5" t="n">
-        <v>15.8475122053872</v>
+        <v>18.18211111111111</v>
       </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="n">
-        <v>16.11549545454546</v>
-      </c>
-      <c r="CI5" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
@@ -2052,37 +2104,23 @@
       <c r="CN5" t="inlineStr"/>
       <c r="CO5" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>l</t>
         </is>
       </c>
       <c r="CP5" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ5" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR5" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS5" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ5" t="inlineStr"/>
+      <c r="CR5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr"/>
-      <c r="CU5" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU5" t="inlineStr"/>
       <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="inlineStr"/>
@@ -2104,42 +2142,42 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR5" t="n">
-        <v>13.94482409090909</v>
+        <v>54.6</v>
       </c>
       <c r="DS5" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT5" t="n">
-        <v>139.4482409090909</v>
+        <v>574</v>
       </c>
       <c r="DU5" t="n">
-        <v>125.5034168181818</v>
+        <v>516.6</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.2982850072921731</v>
+        <v>0.6567505720823799</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.2684565065629558</v>
+        <v>0.5910755148741419</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.669781615208536</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DY5" t="n">
-        <v>4.372456626701744</v>
+        <v>5.339755958064539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10974</v>
+        <v>10820</v>
       </c>
       <c r="B6" t="n">
-        <v>974</v>
+        <v>820</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2149,10 +2187,14 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0()]</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
@@ -2168,14 +2210,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O6" t="n">
-        <v>68.29999999999998</v>
+        <v>50</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>p</t>
@@ -2183,17 +2233,27 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V6" t="n">
+        <v>3.3</v>
+      </c>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>25.4</v>
+      </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>83.81999999999999</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>100</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -2212,18 +2272,22 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>0.91</v>
+      </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>800.4766666666665</v>
-      </c>
-      <c r="AT6" t="inlineStr"/>
+        <v>324.8924</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.422772006211321</v>
+      </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>59304.04761904762</v>
+        <v>153402</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2238,51 +2302,95 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>2032.30125</v>
-      </c>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+        <v>742.3</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.31</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v>768.4813450907716</v>
+      </c>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>2206.4</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.064</v>
+      </c>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
-      <c r="CA6" t="inlineStr"/>
-      <c r="CB6" t="inlineStr"/>
+      <c r="CA6" t="n">
+        <v>5.647005000000001</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.1638</v>
+      </c>
       <c r="CC6" t="inlineStr"/>
-      <c r="CD6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CF6" t="n">
-        <v>5.491115520282186</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
+      <c r="CH6" t="n">
+        <v>34.475</v>
+      </c>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
       <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
-      <c r="CP6" t="inlineStr"/>
-      <c r="CQ6" t="inlineStr"/>
-      <c r="CR6" t="inlineStr"/>
-      <c r="CS6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
-      <c r="CX6" t="inlineStr"/>
+      <c r="CX6" t="n">
+        <v>3</v>
+      </c>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
       <c r="DA6" t="inlineStr"/>
@@ -2303,38 +2411,42 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GEnan</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>80.04766666666667</v>
-      </c>
-      <c r="DS6" t="inlineStr"/>
+        <v>32.48924</v>
+      </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="DT6" t="n">
-        <v>800.4766666666666</v>
+        <v>336.43463</v>
       </c>
       <c r="DU6" t="n">
-        <v>720.4290000000001</v>
+        <v>302.791167</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.3938769740296459</v>
+        <v>0.4532326956756029</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.3544892766266813</v>
+        <v>0.4079094261080426</v>
       </c>
       <c r="DX6" t="n">
-        <v>3.307988084278995</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.948166635414598</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10818</v>
+        <v>10878</v>
       </c>
       <c r="B7" t="n">
-        <v>818</v>
+        <v>878</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2349,16 +2461,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0()]</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -2373,7 +2485,7 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -2394,16 +2506,16 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>25.4</v>
+        <v>50.8</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>83.81999999999999</v>
+        <v>193.04</v>
       </c>
       <c r="AB7" t="n">
         <v>254</v>
@@ -2430,21 +2542,19 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>1.05</v>
+        <v>0.34</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>336.43463</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.4575400545931785</v>
-      </c>
+        <v>68.95</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>52300.8</v>
+        <v>7825000</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2459,39 +2569,33 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>742.3</v>
+        <v>467.5</v>
       </c>
       <c r="BL7" t="n">
-        <v>365.9</v>
+        <v>317.5</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.31</v>
+        <v>2.84</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="n">
-        <v>739.1078653787645</v>
-      </c>
+      <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="n">
-        <v>2064.30784</v>
+        <v>10000</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.064</v>
+        <v>0.61</v>
       </c>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="n">
-        <v>2.42672283</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>0.07488</v>
-      </c>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
         <is>
@@ -2499,14 +2603,14 @@
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>4.4</v>
+        <v>15</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.194388888888889</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
-        <v>32.25481000000001</v>
+        <v>19.92655</v>
       </c>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
@@ -2516,7 +2620,7 @@
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP7" t="inlineStr">
@@ -2568,40 +2672,42 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GP[0()]</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>33.643463</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>0</v>
+        <v>6.895</v>
+      </c>
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+        </is>
       </c>
       <c r="DT7" t="n">
-        <v>336.43463</v>
+        <v>139.4482409090909</v>
       </c>
       <c r="DU7" t="n">
-        <v>302.791167</v>
+        <v>125.5034168181818</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.4532326956756029</v>
+        <v>0.2982850072921731</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.4079094261080426</v>
+        <v>0.2684565065629558</v>
       </c>
       <c r="DX7" t="n">
-        <v>2.870579460552685</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DY7" t="n">
-        <v>4.160654730827149</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10179</v>
+        <v>11029</v>
       </c>
       <c r="B8" t="n">
-        <v>179</v>
+        <v>1029</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2616,13 +2722,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2631,11 +2737,11 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2643,12 +2749,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O8" t="n">
-        <v>58.10000000000001</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.3799999999999999</v>
-      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
@@ -2657,7 +2759,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2678,11 +2780,11 @@
         <v>60</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
         <v>280</v>
@@ -2691,16 +2793,16 @@
         <v>110</v>
       </c>
       <c r="AD8" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG8" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
@@ -2709,7 +2811,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -2717,21 +2819,19 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>0.209</v>
+        <v>0.96</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>34.485</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.5575174232284513</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>114544.6666666667</v>
+        <v>627801</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -2746,36 +2846,32 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>55</v>
+        <v>634</v>
       </c>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="n">
-        <v>61.73469607200416</v>
-      </c>
+      <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="BW8" t="inlineStr"/>
       <c r="BX8" t="n">
-        <v>0.0008000000000000001</v>
+        <v>0.0008</v>
       </c>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>0.310365</v>
+        <v>26.2656</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.01881</v>
+        <v>0.8639999999999999</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr">
@@ -2787,11 +2883,11 @@
         <v>5</v>
       </c>
       <c r="CF8" t="n">
-        <v>6.363592592592592</v>
+        <v>10.61248148148148</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>16.5</v>
+        <v>30.4</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -2809,29 +2905,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR8" t="n">
-        <v>23</v>
-      </c>
-      <c r="CS8" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ8" t="inlineStr"/>
+      <c r="CR8" t="inlineStr"/>
+      <c r="CS8" t="inlineStr"/>
       <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU8" t="inlineStr"/>
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
@@ -2853,42 +2935,42 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>3.4485</v>
+        <v>29.2</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>34.485</v>
+        <v>383</v>
       </c>
       <c r="DU8" t="n">
-        <v>31.0365</v>
+        <v>344.7</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.627</v>
+        <v>0.6041009463722398</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.5642999999999999</v>
+        <v>0.5436908517350159</v>
       </c>
       <c r="DX8" t="n">
-        <v>1.740362689494244</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DY8" t="n">
-        <v>4.255093919562162</v>
+        <v>4.681030391469462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10838.69230769231</v>
+        <v>10237</v>
       </c>
       <c r="B9" t="n">
-        <v>838.6923076923077</v>
+        <v>237</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2898,21 +2980,21 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2920,14 +3002,18 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>L20/SL</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -2944,30 +3030,34 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.799999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>50.8</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>193.04</v>
+        <v>44</v>
       </c>
       <c r="AB9" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
@@ -2976,7 +3066,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -2984,21 +3074,19 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>141.6126923076923</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.2901581641955187</v>
-      </c>
+        <v>118.4</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>2164151.692307692</v>
+        <v>57220600</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3013,38 +3101,36 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>516</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>289.1</v>
-      </c>
+        <v>619.2320000000001</v>
+      </c>
+      <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BN9" t="inlineStr"/>
+        <v>2.092</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2.418</v>
+      </c>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="n">
-        <v>487.8890911169649</v>
-      </c>
+      <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="n">
-        <v>10500</v>
+        <v>5.92</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.6100000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>2.319572938846154</v>
+        <v>7.5776</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.1122230769230769</v>
+        <v>0.256</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
@@ -3053,14 +3139,14 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>11.15384615384615</v>
+        <v>16</v>
       </c>
       <c r="CF9" t="n">
-        <v>40.12529487179487</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>20.69030384615385</v>
+        <v>29.6</v>
       </c>
       <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
@@ -3075,17 +3161,15 @@
       </c>
       <c r="CP9" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ9" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR9" t="n">
-        <v>22.5</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr">
         <is>
           <t>n</t>
@@ -3097,10 +3181,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV9" t="inlineStr"/>
+      <c r="CV9" t="n">
+        <v>50</v>
+      </c>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
@@ -3122,42 +3208,42 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>14.16126923076923</v>
+        <v>-118.4</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>141.6126923076923</v>
+        <v>266.4</v>
       </c>
       <c r="DU9" t="n">
-        <v>127.4514230769231</v>
+        <v>532.8</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.2744432021466905</v>
+        <v>0.4302103250478012</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.2469988819320214</v>
+        <v>0.8604206500956023</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.712649701627211</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DY9" t="n">
-        <v>4.839112362047485</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10219.5</v>
+        <v>10260</v>
       </c>
       <c r="B10" t="n">
-        <v>219.5</v>
+        <v>260</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3172,16 +3258,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3200,7 +3286,7 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>38.60000000000001</v>
+        <v>36.9</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -3253,7 +3339,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3261,19 +3347,19 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>0.7714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>189.7714285714285</v>
+        <v>223.3</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>10635615</v>
+        <v>42675000</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3288,14 +3374,14 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>544.152</v>
+        <v>667.3480000000001</v>
       </c>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>2.212</v>
+        <v>2.092</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.14</v>
+        <v>2.418</v>
       </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
@@ -3306,18 +3392,18 @@
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="n">
-        <v>4.920000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0002000000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="n">
-        <v>3.823542857142858</v>
+        <v>5.024249999999999</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.1554285714285714</v>
+        <v>0.1575</v>
       </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
@@ -3326,14 +3412,14 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>6.035714285714286</v>
+        <v>12.5</v>
       </c>
       <c r="CF10" t="n">
-        <v>236.5450942460318</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>24.6</v>
+        <v>31.9</v>
       </c>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
@@ -3353,7 +3439,7 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR10" t="inlineStr"/>
@@ -3395,42 +3481,42 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>-189.7714285714285</v>
+        <v>22.33</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>189.7714285714285</v>
+        <v>341.6387096774194</v>
       </c>
       <c r="DU10" t="n">
-        <v>379.5428571428571</v>
+        <v>307.4748387096774</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.3487470937742185</v>
+        <v>0.5119348670819712</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.6974941875484371</v>
+        <v>0.4607413803737741</v>
       </c>
       <c r="DX10" t="n">
-        <v>2.735720229736039</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DY10" t="n">
-        <v>5.650649768017886</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11284.86956521739</v>
+        <v>10984</v>
       </c>
       <c r="B11" t="n">
-        <v>1284.869565217391</v>
+        <v>984</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3440,21 +3526,17 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DLR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3462,27 +3544,15 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>38</v>
+        <v>68.3</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>p</t>
@@ -3495,23 +3565,15 @@
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="n">
-        <v>30</v>
-      </c>
+      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="n">
-        <v>250</v>
-      </c>
+      <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
@@ -3520,29 +3582,25 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="n">
-        <v>0.9304347826086957</v>
-      </c>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>236.3304347826087</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>0.3270677412174327</v>
-      </c>
+        <v>379.225</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>155806.9565217391</v>
+        <v>464810</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3557,90 +3615,48 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>572</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>547</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2032.30125</v>
+      </c>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="n">
-        <v>722.0126469123425</v>
-      </c>
+      <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="n">
-        <v>5.079999999999999</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="n">
-        <v>2.835965217391305</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>0.1116521739130435</v>
-      </c>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="n">
         <v>3</v>
       </c>
       <c r="CF11" t="n">
-        <v>14.42657004830918</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="n">
-        <v>25.39999999999999</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="CH11" t="inlineStr"/>
+      <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR11" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ11" t="inlineStr"/>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="inlineStr"/>
@@ -3664,42 +3680,38 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>-236.3304347826087</v>
-      </c>
-      <c r="DS11" t="inlineStr">
-        <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
-        </is>
-      </c>
+        <v>37.92250000000001</v>
+      </c>
+      <c r="DS11" t="inlineStr"/>
       <c r="DT11" t="n">
-        <v>236.3304347826087</v>
+        <v>800.4766666666666</v>
       </c>
       <c r="DU11" t="n">
-        <v>472.6608695652174</v>
+        <v>720.4290000000001</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.4131650957737914</v>
+        <v>0.3938769740296459</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.8263301915475828</v>
+        <v>0.3544892766266813</v>
       </c>
       <c r="DX11" t="n">
-        <v>2.757396028793024</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DY11" t="n">
-        <v>4.337419932426495</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10127.38461538462</v>
+        <v>10175</v>
       </c>
       <c r="B12" t="n">
-        <v>127.3846153846154</v>
+        <v>175</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3709,33 +3721,31 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3744,23 +3754,25 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>35</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>58.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.38</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -3769,31 +3781,37 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25</v>
+      </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AC12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1200</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>90</v>
+      </c>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr">
         <is>
@@ -3801,7 +3819,7 @@
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.4923076923076923</v>
+        <v>0.1</v>
       </c>
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
@@ -3809,21 +3827,21 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>0.4069230769230768</v>
+        <v>0.172</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>43.25384615384616</v>
+        <v>28.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.3032335016044093</v>
+        <v>0.4625843648268949</v>
       </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>446001.1538461539</v>
+        <v>376116</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -3838,15 +3856,17 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
+      <c r="BM12" t="n">
+        <v>0.5</v>
+      </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="n">
-        <v>142.7829794082367</v>
+        <v>61.35097110474145</v>
       </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
@@ -3854,34 +3874,34 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>3.2</v>
+        <v>13.2</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0002799999999999999</v>
+        <v>0.0008</v>
       </c>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>1.163283692307692</v>
+        <v>0.25542</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.1038646153846154</v>
+        <v>0.01548</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>9.23076923076923</v>
+        <v>5</v>
       </c>
       <c r="CF12" t="n">
-        <v>12.47599358974359</v>
+        <v>6.363592592592592</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>11.2</v>
+        <v>16.5</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -3905,11 +3925,11 @@
         </is>
       </c>
       <c r="CR12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="CS12" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT12" t="inlineStr"/>
@@ -3921,14 +3941,12 @@
       <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="inlineStr"/>
-      <c r="DB12" t="n">
-        <v>32816.66666666666</v>
-      </c>
+      <c r="DB12" t="inlineStr"/>
       <c r="DC12" t="inlineStr"/>
       <c r="DD12" t="inlineStr"/>
       <c r="DE12" t="inlineStr"/>
@@ -3945,42 +3963,42 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>-17.48</v>
+        <v>2.838</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>43.25384615384616</v>
+        <v>34.485</v>
       </c>
       <c r="DU12" t="n">
-        <v>60.73384615384616</v>
+        <v>31.0365</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.3761204013377926</v>
+        <v>0.627</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.5281204013377926</v>
+        <v>0.5642999999999999</v>
       </c>
       <c r="DX12" t="n">
-        <v>2.060697840353612</v>
+        <v>1.740362689494244</v>
       </c>
       <c r="DY12" t="n">
-        <v>5.117753535981455</v>
+        <v>4.255093919562162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11076.31746031746</v>
+        <v>10162</v>
       </c>
       <c r="B13" t="n">
-        <v>1076.31746031746</v>
+        <v>162</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3990,12 +4008,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FFA</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[+30(),-30()FW]</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -4010,11 +4028,11 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Epon 826/Jeffamine D-230</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4023,13 +4041,15 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>50</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>49.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>HAMILTON STANDARD</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -4039,41 +4059,45 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>50.69365079365078</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>177.4055555555554</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
-        <v>154.8999999999998</v>
+        <v>280</v>
       </c>
       <c r="AC13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD13" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>100</v>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG13" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
@@ -4082,7 +4106,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.4761904761904762</v>
+        <v>0.1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -4090,19 +4114,21 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.574764172335601</v>
+        <v>0.7</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="n">
-        <v>80.46698412698413</v>
-      </c>
-      <c r="AT13" t="inlineStr"/>
+        <v>286.3</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.4463609613506411</v>
+      </c>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>889703.873015873</v>
+        <v>594308</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4117,42 +4143,52 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>274.5</v>
+        <v>546</v>
       </c>
       <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
+      <c r="BM13" t="n">
+        <v>1.5</v>
+      </c>
       <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="n">
-        <v>275.7000000000003</v>
-      </c>
+      <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
+      <c r="BQ13" t="n">
+        <v>641.4091392170283</v>
+      </c>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
+      <c r="BW13" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>2.14079365079365</v>
+        <v>2.576699999999999</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.1529138321995465</v>
+        <v>0.06299999999999999</v>
       </c>
       <c r="CC13" t="inlineStr"/>
-      <c r="CD13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
       <c r="CE13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF13" t="n">
-        <v>24.71399647266314</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>14</v>
+        <v>40.9</v>
       </c>
       <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
@@ -4167,32 +4203,38 @@
       </c>
       <c r="CP13" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ13" t="inlineStr"/>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CR13" t="n">
-        <v>35</v>
-      </c>
-      <c r="CS13" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT13" t="inlineStr"/>
-      <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="n">
-        <v>90</v>
-      </c>
+      <c r="CU13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
       <c r="DA13" t="inlineStr"/>
       <c r="DB13" t="inlineStr"/>
-      <c r="DC13" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC13" t="inlineStr"/>
       <c r="DD13" t="inlineStr"/>
       <c r="DE13" t="inlineStr"/>
       <c r="DF13" t="inlineStr"/>
@@ -4208,42 +4250,42 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR13" t="n">
-        <v>-26.57269841269842</v>
+        <v>28.63</v>
       </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>30/-30</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>80.46698412698413</v>
+        <v>418.4384615384616</v>
       </c>
       <c r="DU13" t="n">
-        <v>107.0396825396826</v>
+        <v>376.5946153846154</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.293140197183913</v>
+        <v>0.7663708086785009</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.3899441986873681</v>
+        <v>0.689733727810651</v>
       </c>
       <c r="DX13" t="n">
-        <v>2.438542348786111</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DY13" t="n">
-        <v>4.720184367079336</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10091.5</v>
+        <v>19001</v>
       </c>
       <c r="B14" t="n">
-        <v>91.5</v>
+        <v>9001</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4253,23 +4295,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>TUD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4279,7 +4319,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4288,10 +4328,12 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>45</v>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
           <t>Polymarin</t>
@@ -4313,35 +4355,37 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>105</v>
+        <v>195.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD14" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr"/>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>94</v>
+      </c>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
         <is>
@@ -4349,7 +4393,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.4499999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -4357,21 +4401,21 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.8623076923076922</v>
+        <v>0.5117977528089888</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>226.9230769230769</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2514141021145135</v>
+        <v>0.1967106228709724</v>
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>9389137.288461538</v>
+        <v>603000000</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4386,15 +4430,25 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>685</v>
-      </c>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
-      <c r="BO14" t="inlineStr"/>
-      <c r="BP14" t="inlineStr"/>
+        <v>428</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>291</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>365</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>395</v>
+      </c>
       <c r="BQ14" t="n">
-        <v>907.0805179104607</v>
+        <v>463.1168295357127</v>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
@@ -4402,18 +4456,18 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="n">
-        <v>2.900000000000003</v>
+        <v>290</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0001099999999999999</v>
+        <v>0.016</v>
       </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>6.789193269230768</v>
+        <v>2.459700000000001</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.2581442307692309</v>
+        <v>0.138185393258427</v>
       </c>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr">
@@ -4422,16 +4476,18 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>12.84615384615385</v>
+        <v>15</v>
       </c>
       <c r="CF14" t="n">
-        <v>167.7077702572482</v>
+        <v>973.5749756414095</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>26.29999999999998</v>
-      </c>
-      <c r="CI14" t="inlineStr"/>
+        <v>17.8</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>18.5</v>
+      </c>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
@@ -4453,7 +4509,7 @@
         </is>
       </c>
       <c r="CR14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="CS14" t="inlineStr">
         <is>
@@ -4466,17 +4522,17 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV14" t="inlineStr"/>
+      <c r="CV14" t="n">
+        <v>60</v>
+      </c>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
       <c r="DA14" t="inlineStr"/>
-      <c r="DB14" t="n">
-        <v>4825216.216216216</v>
-      </c>
+      <c r="DB14" t="inlineStr"/>
       <c r="DC14" t="inlineStr"/>
       <c r="DD14" t="inlineStr"/>
       <c r="DE14" t="inlineStr"/>
@@ -4493,42 +4549,42 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>-68.05769230769231</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>226.9230769230769</v>
+        <v>190.3344827586207</v>
       </c>
       <c r="DU14" t="n">
-        <v>294.9807692307692</v>
+        <v>272.7124827586207</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.3312745648512072</v>
+        <v>0.4447067354173381</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.430628860190904</v>
+        <v>0.6371786980341605</v>
       </c>
       <c r="DX14" t="n">
-        <v>2.835690571492425</v>
+        <v>2.631443769013172</v>
       </c>
       <c r="DY14" t="n">
-        <v>6.202700787530844</v>
+        <v>5.063979666419017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10037</v>
+        <v>11413</v>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>1413</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4538,21 +4594,21 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -4562,7 +4618,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>M9/M10</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4571,13 +4627,15 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>45</v>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -4592,39 +4650,37 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.799999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>56</v>
+        <v>195.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD15" t="n">
         <v>100</v>
       </c>
-      <c r="AD15" t="n">
-        <v>250</v>
-      </c>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="n">
+        <v>94</v>
+      </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
         <is>
@@ -4640,21 +4696,21 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.8588235294117645</v>
+        <v>0.62</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>272.2470588235294</v>
+        <v>115</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2530379418598416</v>
+        <v>0.2421326168845685</v>
       </c>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>2270090.764705882</v>
+        <v>3229856</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -4669,19 +4725,21 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>846.3899999999999</v>
-      </c>
-      <c r="BL15" t="inlineStr"/>
+        <v>443.7</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>332.5</v>
+      </c>
       <c r="BM15" t="n">
-        <v>2.670000000000001</v>
+        <v>2.55</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="n">
-        <v>1080.821212667501</v>
+        <v>474.9463392403005</v>
       </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
@@ -4689,18 +4747,18 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="n">
-        <v>6.340000000000002</v>
+        <v>290</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0002000000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>5.161505882352941</v>
+        <v>1.8352</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.1628235294117648</v>
+        <v>0.0992</v>
       </c>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr">
@@ -4709,16 +4767,18 @@
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>5.882352941176471</v>
+        <v>4</v>
       </c>
       <c r="CF15" t="n">
-        <v>64.42121623093684</v>
+        <v>244.4947222222222</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>31.69999999999999</v>
-      </c>
-      <c r="CI15" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
@@ -4736,29 +4796,33 @@
       </c>
       <c r="CQ15" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR15" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CR15" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS15" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>50w14d</t>
+        </is>
+      </c>
       <c r="CU15" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
       <c r="CV15" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
@@ -4780,42 +4844,42 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>-272.2470588235294</v>
+        <v>-115</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>272.2470588235294</v>
+        <v>115</v>
       </c>
       <c r="DU15" t="n">
-        <v>544.4941176470588</v>
+        <v>230</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.3216567525886759</v>
+        <v>0.2591841334234843</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.6433135051773519</v>
+        <v>0.5183682668469687</v>
       </c>
       <c r="DX15" t="n">
-        <v>2.927570523582327</v>
+        <v>2.647089428716555</v>
       </c>
       <c r="DY15" t="n">
-        <v>4.995535696220584</v>
+        <v>6.408635862973926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10950.78571428571</v>
+        <v>11206</v>
       </c>
       <c r="B16" t="n">
-        <v>950.7857142857143</v>
+        <v>1206</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4830,13 +4894,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
         <v>8</v>
@@ -4854,7 +4918,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>E/Carbon</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O16" t="n">
@@ -4862,7 +4926,7 @@
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -4881,7 +4945,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -4908,11 +4972,7 @@
         <v>100</v>
       </c>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
@@ -4921,7 +4981,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.5285714285714286</v>
+        <v>-0.4</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -4929,21 +4989,21 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>0.7071428571428572</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>184.6428571428571</v>
+        <v>140</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4784814586053666</v>
+        <v>0.2824080368545903</v>
       </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>1809582.785714286</v>
+        <v>1748406</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -4958,21 +5018,17 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>367.4</v>
+        <v>462</v>
       </c>
       <c r="BL16" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>1</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="n">
-        <v>385.7820701147988</v>
+        <v>495.7365999894858</v>
       </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
@@ -4980,36 +5036,34 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="n">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>1.745493428571429</v>
+        <v>1.96</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.06687714285714286</v>
+        <v>0.1059459459459459</v>
       </c>
       <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="n">
-        <v>3.785714285714286</v>
+        <v>5</v>
       </c>
       <c r="CF16" t="n">
-        <v>79.02100330687833</v>
+        <v>28.47224444444445</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="CI16" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
@@ -5052,9 +5106,7 @@
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
       <c r="DA16" t="inlineStr"/>
-      <c r="DB16" t="n">
-        <v>425758.3333333333</v>
-      </c>
+      <c r="DB16" t="inlineStr"/>
       <c r="DC16" t="inlineStr"/>
       <c r="DD16" t="inlineStr"/>
       <c r="DE16" t="inlineStr"/>
@@ -5071,42 +5123,42 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>-68.35714285714286</v>
+        <v>-56</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT16" t="n">
-        <v>184.6428571428571</v>
+        <v>190</v>
       </c>
       <c r="DU16" t="n">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.5025662959794698</v>
+        <v>0.4112554112554113</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.688622754491018</v>
+        <v>0.5757575757575759</v>
       </c>
       <c r="DX16" t="n">
-        <v>2.565139151969789</v>
+        <v>2.664641975556125</v>
       </c>
       <c r="DY16" t="n">
-        <v>5.061534728027735</v>
+        <v>4.839426195945407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10298.4347826087</v>
+        <v>11164</v>
       </c>
       <c r="B17" t="n">
-        <v>298.4347826086956</v>
+        <v>1164</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5116,21 +5168,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5140,34 +5192,34 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>2123 Cronolite Ortoftalic</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E Vetrotex Vidrio</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>50.98695652173915</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.9099999999999999</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>40</v>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -5176,36 +5228,28 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.130434782608696</v>
+        <v>5.2</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>32.8695652173913</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>18</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>31.56521739130434</v>
+        <v>416</v>
       </c>
       <c r="AB17" t="n">
-        <v>263.0434782608696</v>
+        <v>400</v>
       </c>
       <c r="AC17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>100</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
@@ -5214,7 +5258,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.5217391304347826</v>
+        <v>0.2</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -5222,21 +5266,19 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>1.00404347826087</v>
+        <v>0.2861528055981894</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>295.9052608695652</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0.3591484448902897</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>1114064.434782609</v>
+        <v>22676100</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5251,56 +5293,44 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>655</v>
+        <v>659.0700000000001</v>
       </c>
       <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="n">
-        <v>2.58304347826087</v>
-      </c>
+      <c r="BM17" t="inlineStr"/>
       <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="n">
-        <v>752</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>1892</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>827.6136800374626</v>
-      </c>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="n">
-        <v>13.63808695652173</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0.0004608695652173915</v>
-      </c>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>7.395634304347826</v>
+        <v>7.304</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.2521030434782609</v>
+        <v>0.1900054629171978</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>7.826086956521739</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CF17" t="n">
-        <v>54.49552415458937</v>
+        <v>55.88081957459467</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>29.45130434782608</v>
+        <v>38.441</v>
       </c>
       <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
@@ -5308,39 +5338,17 @@
       <c r="CL17" t="inlineStr"/>
       <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ17" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR17" t="n">
-        <v>26.95652173913043</v>
-      </c>
-      <c r="CS17" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
       <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU17" t="inlineStr"/>
       <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>4.913043478260869</v>
+        <v>8</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5362,42 +5370,42 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>-138.3364304347826</v>
+        <v>22</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>295.9052608695653</v>
+        <v>343.975</v>
       </c>
       <c r="DU17" t="n">
-        <v>434.2416913043477</v>
+        <v>262.6158333333334</v>
       </c>
       <c r="DV17" t="n">
-        <v>0.4517637570527713</v>
+        <v>0.5219096605823357</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.6629644142051111</v>
+        <v>0.398464250130234</v>
       </c>
       <c r="DX17" t="n">
-        <v>2.816241299991783</v>
+        <v>2.818931543576176</v>
       </c>
       <c r="DY17" t="n">
-        <v>4.799085052187354</v>
+        <v>4.210906788214843</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10245.5</v>
+        <v>10703</v>
       </c>
       <c r="B18" t="n">
-        <v>245.5</v>
+        <v>703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5407,12 +5415,12 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -5429,18 +5437,14 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>36.89999999999999</v>
+        <v>30</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -5457,34 +5461,30 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>50.8</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>208.28</v>
       </c>
       <c r="AB18" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr">
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -5501,19 +5501,21 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>266.4</v>
-      </c>
-      <c r="AT18" t="inlineStr"/>
+        <v>189.12985</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.3304644402793597</v>
+      </c>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>5011634</v>
+        <v>1612585</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5528,36 +5530,38 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>619.2320000000001</v>
-      </c>
-      <c r="BL18" t="inlineStr"/>
+        <v>567.2</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>313.2</v>
+      </c>
       <c r="BM18" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>2.418</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
+      <c r="BQ18" t="n">
+        <v>572.3152840291021</v>
+      </c>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="n">
-        <v>5.920000000000001</v>
+        <v>2662.0216</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0002</v>
+        <v>0.127</v>
       </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="n">
-        <v>4.327520000000001</v>
+        <v>3.3956496</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.1462000000000001</v>
+        <v>0.162</v>
       </c>
       <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr">
@@ -5566,14 +5570,14 @@
         </is>
       </c>
       <c r="CE18" t="n">
-        <v>4.925</v>
+        <v>10</v>
       </c>
       <c r="CF18" t="n">
-        <v>114.1808263888889</v>
+        <v>18.79661805555556</v>
       </c>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="n">
-        <v>29.60000000000001</v>
+        <v>20.9608</v>
       </c>
       <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
@@ -5588,16 +5592,16 @@
       </c>
       <c r="CP18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR18" t="n">
-        <v>24.57142857142857</v>
+        <v>22.5</v>
       </c>
       <c r="CS18" t="inlineStr">
         <is>
@@ -5610,12 +5614,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV18" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5637,11 +5639,11 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[0()]5</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>-266.4</v>
+        <v>18.912985</v>
       </c>
       <c r="DS18" t="inlineStr">
         <is>
@@ -5649,30 +5651,30 @@
         </is>
       </c>
       <c r="DT18" t="n">
-        <v>266.4</v>
+        <v>218.04575625</v>
       </c>
       <c r="DU18" t="n">
-        <v>532.8</v>
+        <v>196.241180625</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.4302103250478012</v>
+        <v>0.384424817083921</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.8604206500956023</v>
+        <v>0.3459823353755289</v>
       </c>
       <c r="DX18" t="n">
-        <v>2.791853391254176</v>
+        <v>2.75373622217501</v>
       </c>
       <c r="DY18" t="n">
-        <v>5.165177541080086</v>
+        <v>5.390274178286151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10272</v>
+        <v>10730</v>
       </c>
       <c r="B19" t="n">
-        <v>272</v>
+        <v>730</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -5682,12 +5684,12 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -5704,18 +5706,14 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>36.9</v>
+        <v>30</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -5732,34 +5730,30 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.200000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>20</v>
+        <v>50.8</v>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>208.28</v>
       </c>
       <c r="AB19" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC19" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
@@ -5776,19 +5770,21 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>1.070967741935483</v>
+        <v>0.79</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>341.6387096774194</v>
-      </c>
-      <c r="AT19" t="inlineStr"/>
+        <v>187.88875</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.3189685287916126</v>
+      </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>6169463.483870967</v>
+        <v>7475243</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -5803,36 +5799,38 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>667.3480000000004</v>
-      </c>
-      <c r="BL19" t="inlineStr"/>
+        <v>586.6</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>294.6</v>
+      </c>
       <c r="BM19" t="n">
-        <v>2.091999999999999</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>2.418000000000001</v>
-      </c>
+        <v>2.66</v>
+      </c>
+      <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
+      <c r="BQ19" t="n">
+        <v>589.0510600271501</v>
+      </c>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>6.379999999999997</v>
+        <v>2863.42455</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0001999999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>3.074748387096775</v>
+        <v>3.206133630000001</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.09638709677419353</v>
+        <v>0.1422</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
@@ -5841,14 +5839,14 @@
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CF19" t="n">
-        <v>170.260063425926</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>31.89999999999998</v>
+        <v>22.54665</v>
       </c>
       <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
@@ -5863,7 +5861,7 @@
       </c>
       <c r="CP19" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ19" t="inlineStr">
@@ -5871,7 +5869,9 @@
           <t>n</t>
         </is>
       </c>
-      <c r="CR19" t="inlineStr"/>
+      <c r="CR19" t="n">
+        <v>22.5</v>
+      </c>
       <c r="CS19" t="inlineStr">
         <is>
           <t>n</t>
@@ -5883,12 +5883,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV19" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5910,11 +5908,11 @@
       <c r="DP19" t="inlineStr"/>
       <c r="DQ19" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>34.16387096774193</v>
+        <v>18.788875</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
@@ -5922,30 +5920,30 @@
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>341.6387096774194</v>
+        <v>284.8381958333333</v>
       </c>
       <c r="DU19" t="n">
-        <v>307.4748387096774</v>
+        <v>256.35437625</v>
       </c>
       <c r="DV19" t="n">
-        <v>0.5119348670819712</v>
+        <v>0.4855748309466985</v>
       </c>
       <c r="DW19" t="n">
-        <v>0.4607413803737741</v>
+        <v>0.4370173478520287</v>
       </c>
       <c r="DX19" t="n">
-        <v>2.824352363252417</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DY19" t="n">
-        <v>5.772019752181081</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11033</v>
+        <v>10831</v>
       </c>
       <c r="B20" t="n">
-        <v>1033</v>
+        <v>831</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -5955,46 +5953,40 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>30</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>38</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6002,46 +5994,36 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>193.04</v>
       </c>
       <c r="AB20" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD20" t="n">
         <v>100</v>
       </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG20" t="n">
-        <v>92</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -6049,7 +6031,7 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
@@ -6057,19 +6039,21 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>1.26</v>
+        <v>0.32</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>383</v>
-      </c>
-      <c r="AT20" t="inlineStr"/>
+        <v>68.95</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1424533755896991</v>
+      </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>191024.6666666667</v>
+        <v>17764694</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6084,48 +6068,54 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>634</v>
-      </c>
-      <c r="BL20" t="inlineStr"/>
+        <v>516</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>289.1</v>
+      </c>
       <c r="BM20" t="n">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="inlineStr"/>
+      <c r="BQ20" t="n">
+        <v>484.0180144175243</v>
+      </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
-      <c r="BW20" t="inlineStr"/>
+      <c r="BW20" t="n">
+        <v>10500</v>
+      </c>
       <c r="BX20" t="n">
-        <v>0.0008000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="n">
-        <v>34.4736</v>
+        <v>1.85271408</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.134</v>
+        <v>0.0864</v>
       </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CF20" t="n">
-        <v>10.61248148148148</v>
+        <v>40.12529487179487</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>30.4</v>
+        <v>21.44345</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6140,18 +6130,32 @@
       </c>
       <c r="CP20" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ20" t="inlineStr"/>
-      <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="inlineStr"/>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR20" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT20" t="inlineStr"/>
-      <c r="CU20" t="inlineStr"/>
+      <c r="CU20" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6173,42 +6177,42 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>GV[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>38.3</v>
+        <v>6.895</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>383</v>
+        <v>141.6126923076923</v>
       </c>
       <c r="DU20" t="n">
-        <v>344.7</v>
+        <v>127.4514230769231</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.6041009463722398</v>
+        <v>0.2744432021466905</v>
       </c>
       <c r="DW20" t="n">
-        <v>0.5436908517350159</v>
+        <v>0.2469988819320214</v>
       </c>
       <c r="DX20" t="n">
-        <v>2.802089257881732</v>
+        <v>2.712649701627211</v>
       </c>
       <c r="DY20" t="n">
-        <v>4.681030391469462</v>
+        <v>4.839112362047485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10164.84615384615</v>
+        <v>10191</v>
       </c>
       <c r="B21" t="n">
-        <v>164.8461538461538</v>
+        <v>191</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6223,22 +6227,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -6251,10 +6255,10 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>49.10000000000002</v>
+        <v>55</v>
       </c>
       <c r="P21" t="n">
-        <v>0.2</v>
+        <v>0.91</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -6278,7 +6282,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
@@ -6289,7 +6293,7 @@
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>36</v>
+        <v>41.4</v>
       </c>
       <c r="AB21" t="n">
         <v>280</v>
@@ -6324,21 +6328,21 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>1.023076923076923</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>418.4384615384616</v>
+        <v>237.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6427439022562458</v>
+        <v>0.3072724503678881</v>
       </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>96823.76923076923</v>
+        <v>7964865</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6353,17 +6357,17 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>546</v>
+        <v>655</v>
       </c>
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="n">
-        <v>649.8501749373492</v>
+        <v>773.2551347038388</v>
       </c>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
@@ -6371,18 +6375,18 @@
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="n">
-        <v>32.72000000000001</v>
+        <v>23.76</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0008000000000000003</v>
+        <v>0.0008</v>
       </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>3.765946153846154</v>
+        <v>2.1384</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.09207692307692307</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
@@ -6394,11 +6398,11 @@
         <v>5</v>
       </c>
       <c r="CF21" t="n">
-        <v>5.379098290598289</v>
+        <v>54.49552415458937</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>40.89999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
@@ -6460,42 +6464,42 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>41.84384615384616</v>
+        <v>23.76</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>418.4384615384616</v>
+        <v>295.9052608695653</v>
       </c>
       <c r="DU21" t="n">
-        <v>376.5946153846154</v>
+        <v>434.2416913043477</v>
       </c>
       <c r="DV21" t="n">
-        <v>0.7663708086785009</v>
+        <v>0.4517637570527713</v>
       </c>
       <c r="DW21" t="n">
-        <v>0.689733727810651</v>
+        <v>0.6629644142051111</v>
       </c>
       <c r="DX21" t="n">
-        <v>2.737192642704737</v>
+        <v>2.816241299991783</v>
       </c>
       <c r="DY21" t="n">
-        <v>4.116696166647357</v>
+        <v>4.799085052187354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11021.5</v>
+        <v>10213</v>
       </c>
       <c r="B22" t="n">
-        <v>1021.5</v>
+        <v>213</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6505,31 +6509,31 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6537,14 +6541,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>38.6</v>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6552,46 +6554,40 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC22" t="n">
         <v>110</v>
       </c>
-      <c r="AD22" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG22" t="n">
-        <v>92</v>
-      </c>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
         <is>
@@ -6599,7 +6595,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>0.09999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -6607,19 +6603,19 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="n">
-        <v>1.366666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>574</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>327278</v>
+        <v>76421820</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6634,16 +6630,14 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>874</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>720</v>
-      </c>
+        <v>544.152</v>
+      </c>
+      <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="n">
-        <v>2.24</v>
+        <v>2.212</v>
       </c>
       <c r="BN22" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
@@ -6653,37 +6647,37 @@
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
+      <c r="BW22" t="n">
+        <v>4.92</v>
+      </c>
       <c r="BX22" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="n">
-        <v>51.66</v>
+        <v>6.2976</v>
       </c>
       <c r="CB22" t="n">
-        <v>1.23</v>
+        <v>0.256</v>
       </c>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CF22" t="n">
-        <v>18.18211111111111</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG22" t="inlineStr"/>
       <c r="CH22" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>40.6</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
@@ -6699,15 +6693,29 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ22" t="inlineStr"/>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV22" t="n">
+        <v>50</v>
+      </c>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
@@ -6729,42 +6737,42 @@
       <c r="DP22" t="inlineStr"/>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>57.4</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="DS22" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT22" t="n">
-        <v>574</v>
+        <v>189.7714285714285</v>
       </c>
       <c r="DU22" t="n">
-        <v>516.6</v>
+        <v>379.5428571428571</v>
       </c>
       <c r="DV22" t="n">
-        <v>0.6567505720823799</v>
+        <v>0.3487470937742185</v>
       </c>
       <c r="DW22" t="n">
-        <v>0.5910755148741419</v>
+        <v>0.6974941875484371</v>
       </c>
       <c r="DX22" t="n">
-        <v>2.941511432634403</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DY22" t="n">
-        <v>5.339755958064539</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11681.18965517241</v>
+        <v>11273</v>
       </c>
       <c r="B23" t="n">
-        <v>1681.189655172414</v>
+        <v>1273</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -6774,21 +6782,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6798,7 +6806,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6807,17 +6815,11 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>30.10344827586207</v>
+        <v>38</v>
       </c>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>45</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6825,46 +6827,34 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>8.5</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>195.5</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="AG23" t="n">
-        <v>94</v>
-      </c>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
         <is>
@@ -6872,7 +6862,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.4995689655172409</v>
+        <v>-1</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -6880,21 +6870,21 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="n">
-        <v>1.061735567609454</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>190.3344827586207</v>
+        <v>203.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.4035632930706076</v>
+        <v>0.2828987854305369</v>
       </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>48102625.51724138</v>
+        <v>2346760</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -6909,25 +6899,21 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>428</v>
+        <v>572</v>
       </c>
       <c r="BL23" t="n">
-        <v>291</v>
+        <v>547</v>
       </c>
       <c r="BM23" t="n">
-        <v>2.599999999999997</v>
+        <v>2.25</v>
       </c>
       <c r="BN23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>395</v>
-      </c>
+        <v>2.14</v>
+      </c>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="n">
-        <v>458.4075741056202</v>
+        <v>718.2780926074136</v>
       </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
@@ -6935,18 +6921,18 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="n">
-        <v>290</v>
+        <v>5.08</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="n">
-        <v>2.285864890566036</v>
+        <v>2.4384</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.1284193758744965</v>
+        <v>0.096</v>
       </c>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr">
@@ -6955,17 +6941,17 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>6.679245283018868</v>
+        <v>3</v>
       </c>
       <c r="CF23" t="n">
-        <v>973.5749756414095</v>
+        <v>14.42657004830918</v>
       </c>
       <c r="CG23" t="inlineStr"/>
       <c r="CH23" t="n">
-        <v>17.79999999999998</v>
+        <v>25.4</v>
       </c>
       <c r="CI23" t="n">
-        <v>18.47931034482759</v>
+        <v>25.5</v>
       </c>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
@@ -6977,22 +6963,18 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP23" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR23" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR23" t="n">
-        <v>22.06896551724138</v>
-      </c>
-      <c r="CS23" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT23" t="inlineStr"/>
@@ -7001,19 +6983,13 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV23" t="n">
-        <v>60</v>
-      </c>
+      <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="n">
-        <v>5.03448275862069</v>
-      </c>
+      <c r="CX23" t="inlineStr"/>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="n">
-        <v>1055945.3</v>
-      </c>
+      <c r="DB23" t="inlineStr"/>
       <c r="DC23" t="inlineStr"/>
       <c r="DD23" t="inlineStr"/>
       <c r="DE23" t="inlineStr"/>
@@ -7030,42 +7006,42 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>-82.378</v>
+        <v>-203.2</v>
       </c>
       <c r="DS23" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT23" t="n">
-        <v>190.3344827586207</v>
+        <v>236.3304347826087</v>
       </c>
       <c r="DU23" t="n">
-        <v>272.7124827586207</v>
+        <v>472.6608695652174</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.4447067354173381</v>
+        <v>0.4131650957737914</v>
       </c>
       <c r="DW23" t="n">
-        <v>0.6371786980341605</v>
+        <v>0.8263301915475828</v>
       </c>
       <c r="DX23" t="n">
-        <v>2.631443769013172</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DY23" t="n">
-        <v>5.063979666419017</v>
+        <v>4.337419932426495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11412</v>
+        <v>10029</v>
       </c>
       <c r="B24" t="n">
-        <v>1412</v>
+        <v>29</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -7075,21 +7051,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -7099,7 +7075,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7108,15 +7084,13 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>45</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -7131,37 +7105,39 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>195.5</v>
+        <v>56</v>
       </c>
       <c r="AB24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD24" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>94</v>
-      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
         <is>
@@ -7177,21 +7153,21 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>115</v>
+        <v>126.8</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.2442227139503193</v>
+        <v>0.117076391682425</v>
       </c>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>2619897.333333333</v>
+        <v>28787900</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -7206,21 +7182,19 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>332.5</v>
-      </c>
+        <v>846.39</v>
+      </c>
+      <c r="BL24" t="inlineStr"/>
       <c r="BM24" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="BN24" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="n">
-        <v>470.9500738273841</v>
+        <v>1083.053536053202</v>
       </c>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
@@ -7228,18 +7202,18 @@
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="n">
-        <v>290</v>
+        <v>6.34</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="n">
-        <v>1.529333333333333</v>
+        <v>5.072</v>
       </c>
       <c r="CB24" t="n">
-        <v>0.08266666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr">
@@ -7248,18 +7222,16 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>3.333333333333333</v>
+        <v>10</v>
       </c>
       <c r="CF24" t="n">
-        <v>244.4947222222222</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG24" t="inlineStr"/>
       <c r="CH24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>19</v>
-      </c>
+        <v>31.7</v>
+      </c>
+      <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
@@ -7277,33 +7249,29 @@
       </c>
       <c r="CQ24" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR24" t="n">
+        <v>26</v>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
           <t>n</t>
         </is>
       </c>
-      <c r="CR24" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS24" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT24" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
+      <c r="CT24" t="inlineStr"/>
       <c r="CU24" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
       <c r="CV24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
@@ -7325,42 +7293,42 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>-115</v>
+        <v>-126.8</v>
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT24" t="n">
-        <v>115</v>
+        <v>272.2470588235294</v>
       </c>
       <c r="DU24" t="n">
-        <v>230</v>
+        <v>544.4941176470588</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.2591841334234843</v>
+        <v>0.3216567525886759</v>
       </c>
       <c r="DW24" t="n">
-        <v>0.5183682668469687</v>
+        <v>0.6433135051773519</v>
       </c>
       <c r="DX24" t="n">
-        <v>2.647089428716555</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DY24" t="n">
-        <v>6.408635862973926</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11209</v>
+        <v>10954</v>
       </c>
       <c r="B25" t="n">
-        <v>1209</v>
+        <v>954</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -7375,13 +7343,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>8</v>
@@ -7399,7 +7367,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E/Carbon</t>
         </is>
       </c>
       <c r="O25" t="n">
@@ -7407,7 +7375,7 @@
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -7426,7 +7394,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GCP</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -7453,7 +7421,11 @@
         <v>100</v>
       </c>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr">
@@ -7462,7 +7434,7 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.4000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -7470,21 +7442,21 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>1.027027027027027</v>
+        <v>0.77</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3902404735566539</v>
+        <v>0.5094168824072062</v>
       </c>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>495204.9333333333</v>
+        <v>18650718</v>
       </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -7499,17 +7471,21 @@
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="n">
-        <v>462</v>
+        <v>367.4</v>
       </c>
       <c r="BL25" t="n">
-        <v>320</v>
-      </c>
-      <c r="BM25" t="inlineStr"/>
-      <c r="BN25" t="inlineStr"/>
+        <v>250.8</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1</v>
+      </c>
       <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="n">
-        <v>488.5706061256247</v>
+        <v>392.6057555354605</v>
       </c>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
@@ -7517,34 +7493,36 @@
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="n">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="BX25" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="n">
-        <v>1.431733333333334</v>
+        <v>2.532222</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.07739099099099098</v>
+        <v>0.09702000000000001</v>
       </c>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE25" t="n">
-        <v>3.033333333333333</v>
+        <v>7</v>
       </c>
       <c r="CF25" t="n">
-        <v>28.47224444444445</v>
+        <v>79.02100330687833</v>
       </c>
       <c r="CG25" t="inlineStr"/>
       <c r="CH25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>19</v>
-      </c>
+        <v>26.1</v>
+      </c>
+      <c r="CI25" t="inlineStr"/>
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="inlineStr"/>
       <c r="CL25" t="inlineStr"/>
@@ -7587,7 +7565,9 @@
       <c r="CY25" t="inlineStr"/>
       <c r="CZ25" t="inlineStr"/>
       <c r="DA25" t="inlineStr"/>
-      <c r="DB25" t="inlineStr"/>
+      <c r="DB25" t="n">
+        <v>2500000</v>
+      </c>
       <c r="DC25" t="inlineStr"/>
       <c r="DD25" t="inlineStr"/>
       <c r="DE25" t="inlineStr"/>
@@ -7604,42 +7584,42 @@
       <c r="DP25" t="inlineStr"/>
       <c r="DQ25" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="DR25" t="n">
-        <v>-76</v>
+        <v>20</v>
       </c>
       <c r="DS25" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
         </is>
       </c>
       <c r="DT25" t="n">
-        <v>190</v>
+        <v>184.6428571428571</v>
       </c>
       <c r="DU25" t="n">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.4112554112554113</v>
+        <v>0.5025662959794698</v>
       </c>
       <c r="DW25" t="n">
-        <v>0.5757575757575759</v>
+        <v>0.688622754491018</v>
       </c>
       <c r="DX25" t="n">
-        <v>2.664641975556125</v>
+        <v>2.565139151969789</v>
       </c>
       <c r="DY25" t="n">
-        <v>4.839426195945407</v>
+        <v>5.061534728027735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10009</v>
+        <v>10004</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -7747,7 +7727,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -7755,21 +7735,21 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>1.229090909090909</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="n">
-        <v>580.1309090909091</v>
+        <v>472</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5608143486583559</v>
+        <v>0.4600221360497219</v>
       </c>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>900407.9</v>
+        <v>5209100</v>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
@@ -7794,7 +7774,7 @@
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
       <c r="BQ26" t="n">
-        <v>1033.322999323505</v>
+        <v>1026.037581697989</v>
       </c>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
@@ -7805,15 +7785,15 @@
         <v>37.76</v>
       </c>
       <c r="BX26" t="n">
-        <v>0.0008000000000000003</v>
+        <v>0.0008</v>
       </c>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="n">
-        <v>5.221178181818182</v>
+        <v>4.248000000000001</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.1106181818181818</v>
+        <v>0.09</v>
       </c>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr">
@@ -7895,7 +7875,7 @@
         </is>
       </c>
       <c r="DR26" t="n">
-        <v>58.01309090909091</v>
+        <v>47.2</v>
       </c>
       <c r="DS26" t="inlineStr">
         <is>

--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY26"/>
+  <dimension ref="A1:DU31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,30 +1051,10 @@
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Maximum Stress</t>
+          <t>log(Static Maximum Tensile Stress)</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>Absolute Peak-to-peak Stress</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>Relative Maximum Stress</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>Relative Peak-to-peak Stress</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>log(Static Maximum Tensile Stress)</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>log(Cycles to Failure)</t>
         </is>
@@ -1082,10 +1062,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10133</v>
+        <v>11029</v>
       </c>
       <c r="B2" t="n">
-        <v>133</v>
+        <v>1029</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1095,33 +1075,31 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1129,14 +1107,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O2" t="n">
-        <v>35</v>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -1146,7 +1122,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -1155,31 +1131,37 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>18</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AC2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>100</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG2" t="n">
+        <v>92</v>
+      </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
@@ -1195,21 +1177,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.3360838156505212</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>2430000</v>
+        <v>627801</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1224,50 +1204,48 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>115</v>
+        <v>634</v>
       </c>
       <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
+      <c r="BM2" t="n">
+        <v>2.4</v>
+      </c>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="n">
-        <v>141.6313365398623</v>
-      </c>
+      <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="BW2" t="inlineStr"/>
       <c r="BX2" t="n">
-        <v>0.00028</v>
+        <v>0.0008</v>
       </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>0.9072000000000001</v>
+        <v>26.2656</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.08100000000000002</v>
+        <v>0.8639999999999999</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF2" t="n">
-        <v>12.47599358974359</v>
+        <v>8.570714814814815</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>11.2</v>
+        <v>30.4</v>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
@@ -1285,29 +1263,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ2" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR2" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS2" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
       <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU2" t="inlineStr"/>
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
@@ -1329,42 +1293,30 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR2" t="n">
-        <v>4.760000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>43.25384615384616</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU2" t="n">
-        <v>60.73384615384616</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.3761204013377926</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.5281204013377926</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>2.060697840353612</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>5.117753535981455</v>
+        <v>4.564966507854261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11058</v>
+        <v>10004</v>
       </c>
       <c r="B3" t="n">
-        <v>1058</v>
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1374,18 +1326,18 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FFA</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[+30(),-30()FW]</t>
+          <t>[0()FW]8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1394,11 +1346,11 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Epon 826/Jeffamine D-230</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1407,13 +1359,15 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>50</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.83</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>HAMILTON STANDARD</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1423,41 +1377,45 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>18</v>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>176.4</v>
+        <v>34.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.9</v>
+        <v>280</v>
       </c>
       <c r="AC3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD3" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>100</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG3" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
@@ -1466,7 +1424,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -1474,19 +1432,21 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>0.4857142857142858</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>68</v>
-      </c>
-      <c r="AT3" t="inlineStr"/>
+        <v>472</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.4600221360497219</v>
+      </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>11254000</v>
+        <v>5209100</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1501,42 +1461,52 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>274.5</v>
+        <v>862</v>
       </c>
       <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+      <c r="BM3" t="n">
+        <v>2.3</v>
+      </c>
       <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="n">
-        <v>275.7</v>
-      </c>
+      <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="BQ3" t="n">
+        <v>1026.037581697989</v>
+      </c>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
+      <c r="BW3" t="n">
+        <v>37.76</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>1.36</v>
+        <v>4.248000000000001</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.09714285714285716</v>
+        <v>0.09</v>
       </c>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
       <c r="CE3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF3" t="n">
-        <v>24.71399647266314</v>
+        <v>45.85437222222222</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>14</v>
+        <v>47.2</v>
       </c>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
@@ -1551,28 +1521,38 @@
       </c>
       <c r="CP3" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ3" t="inlineStr"/>
-      <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="inlineStr"/>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR3" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT3" t="inlineStr"/>
-      <c r="CU3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
       <c r="DB3" t="inlineStr"/>
-      <c r="DC3" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC3" t="inlineStr"/>
       <c r="DD3" t="inlineStr"/>
       <c r="DE3" t="inlineStr"/>
       <c r="DF3" t="inlineStr"/>
@@ -1588,42 +1568,30 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GP[0()FW]8</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>30/-30</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>80.46698412698413</v>
+        <v>2.935507265824712</v>
       </c>
       <c r="DU3" t="n">
-        <v>107.0396825396826</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0.293140197183913</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0.3899441986873681</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>2.438542348786111</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>4.720184367079336</v>
+        <v>4.899458605729175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10097</v>
+        <v>11004</v>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>1004</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1633,18 +1601,16 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>6</v>
       </c>
@@ -1655,11 +1621,11 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -1667,14 +1633,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O4" t="n">
-        <v>35</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1693,35 +1657,37 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AC4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AD4" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>92</v>
+      </c>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
@@ -1729,7 +1695,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1737,21 +1703,19 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>210</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.2293484327767916</v>
-      </c>
+        <v>-398</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>52320000</v>
+        <v>1689490</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1766,52 +1730,56 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>685</v>
-      </c>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+        <v>874</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>720</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.9</v>
+      </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="n">
-        <v>915.6373883068036</v>
-      </c>
+      <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="n">
-        <v>2.9</v>
-      </c>
+      <c r="BW4" t="inlineStr"/>
       <c r="BX4" t="n">
-        <v>0.00011</v>
+        <v>0.0008</v>
       </c>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>7.574400000000001</v>
+        <v>3.7044</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.288</v>
+        <v>0.0882</v>
       </c>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE4" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="CF4" t="n">
-        <v>167.7077702572482</v>
+        <v>27.64677314814815</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="CI4" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
@@ -1829,34 +1797,22 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR4" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS4" t="inlineStr">
-        <is>
           <t>y</t>
         </is>
       </c>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
       <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU4" t="inlineStr"/>
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
       <c r="DA4" t="inlineStr"/>
-      <c r="DB4" t="n">
-        <v>21000000</v>
-      </c>
+      <c r="DB4" t="inlineStr"/>
       <c r="DC4" t="inlineStr"/>
       <c r="DD4" t="inlineStr"/>
       <c r="DE4" t="inlineStr"/>
@@ -1873,42 +1829,30 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR4" t="n">
-        <v>21</v>
+        <v>-3980</v>
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>226.9230769230769</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DU4" t="n">
-        <v>294.9807692307692</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>0.3312745648512072</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>0.430628860190904</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>2.835690571492425</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>6.202700787530844</v>
+        <v>5.52536012144618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11022</v>
+        <v>10989</v>
       </c>
       <c r="B5" t="n">
-        <v>1022</v>
+        <v>989</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1923,7 +1867,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[[0()]2,[+30(),-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -1938,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -2012,7 +1956,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -2020,19 +1964,19 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>1.3</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>546</v>
+        <v>-210</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>569000</v>
+        <v>1238544</v>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -2047,17 +1991,13 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>874</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>720</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="inlineStr"/>
@@ -2073,10 +2013,10 @@
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="n">
-        <v>49.14</v>
+        <v>1.88784</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.17</v>
+        <v>0.0621</v>
       </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr">
@@ -2088,15 +2028,13 @@
         <v>5</v>
       </c>
       <c r="CF5" t="n">
-        <v>18.18211111111111</v>
+        <v>46.79506944444444</v>
       </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>40.6</v>
-      </c>
+        <v>30.4</v>
+      </c>
+      <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
       <c r="CL5" t="inlineStr"/>
@@ -2112,7 +2050,11 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="CR5" t="inlineStr"/>
       <c r="CS5" t="inlineStr"/>
       <c r="CT5" t="inlineStr"/>
@@ -2142,42 +2084,30 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GP[[0()]2,[+30(),-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR5" t="n">
-        <v>54.6</v>
+        <v>-2100</v>
       </c>
       <c r="DS5" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT5" t="n">
-        <v>574</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU5" t="n">
-        <v>516.6</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>0.6567505720823799</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>0.5910755148741419</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>2.941511432634403</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>5.339755958064539</v>
+        <v>5.881192832556594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10820</v>
+        <v>10352</v>
       </c>
       <c r="B6" t="n">
-        <v>820</v>
+        <v>352</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2187,18 +2117,18 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0()]</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2207,23 +2137,31 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>50</v>
+        <v>49.1</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -2237,26 +2175,28 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>25.4</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>83.81999999999999</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
-        <v>254</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
@@ -2265,7 +2205,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -2273,21 +2213,19 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>324.8924</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.422772006211321</v>
-      </c>
+        <v>-204.5</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>153402</v>
+        <v>9495980</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2302,38 +2240,30 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>742.3</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>2.31</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
+      <c r="BO6" t="n">
+        <v>546</v>
+      </c>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="n">
-        <v>768.4813450907716</v>
-      </c>
+      <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="n">
-        <v>2206.4</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0.064</v>
-      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="n">
-        <v>5.647005000000001</v>
+        <v>3.681</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.1638</v>
+        <v>0.09</v>
       </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr">
@@ -2345,11 +2275,11 @@
         <v>10</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.194388888888889</v>
+        <v>64.11635416666667</v>
       </c>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="n">
-        <v>34.475</v>
+        <v>40.9</v>
       </c>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
@@ -2369,11 +2299,11 @@
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR6" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="CS6" t="inlineStr">
         <is>
@@ -2389,7 +2319,7 @@
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
@@ -2411,42 +2341,30 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GP[0()]</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>32.48924</v>
+        <v>-2045</v>
       </c>
       <c r="DS6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT6" t="n">
-        <v>336.43463</v>
+        <v>2.781036938621132</v>
       </c>
       <c r="DU6" t="n">
-        <v>302.791167</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0.4532326956756029</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>0.4079094261080426</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>2.870579460552685</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>4.160654730827149</v>
+        <v>5.786992188571325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10878</v>
+        <v>10162</v>
       </c>
       <c r="B7" t="n">
-        <v>878</v>
+        <v>162</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2456,48 +2374,58 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>38</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>49.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -2506,27 +2434,37 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y7" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>18</v>
+      </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>193.04</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD7" t="n">
         <v>100</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG7" t="n">
+        <v>90</v>
+      </c>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
         <is>
@@ -2542,19 +2480,21 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>68.95</v>
-      </c>
-      <c r="AT7" t="inlineStr"/>
+        <v>286.3</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.4463609613506411</v>
+      </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>7825000</v>
+        <v>594308</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2569,48 +2509,52 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>467.5</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>317.5</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="BQ7" t="n">
+        <v>641.4091392170283</v>
+      </c>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="n">
-        <v>10000</v>
+        <v>32.72</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.61</v>
+        <v>0.0008</v>
       </c>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
-      <c r="CA7" t="inlineStr"/>
-      <c r="CB7" t="inlineStr"/>
+      <c r="CA7" t="n">
+        <v>2.576699999999999</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.06299999999999999</v>
+      </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="CF7" t="n">
-        <v>15.8475122053872</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
-        <v>19.92655</v>
+        <v>40.9</v>
       </c>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
@@ -2620,12 +2564,12 @@
       <c r="CN7" t="inlineStr"/>
       <c r="CO7" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>l</t>
         </is>
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
@@ -2634,7 +2578,7 @@
         </is>
       </c>
       <c r="CR7" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="CS7" t="inlineStr">
         <is>
@@ -2650,7 +2594,7 @@
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
@@ -2672,42 +2616,30 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>6.895</v>
+        <v>28.63</v>
       </c>
       <c r="DS7" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT7" t="n">
-        <v>139.4482409090909</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DU7" t="n">
-        <v>125.5034168181818</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>0.2982850072921731</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>0.2684565065629558</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>2.669781615208536</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>4.372456626701744</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11029</v>
+        <v>10730</v>
       </c>
       <c r="B8" t="n">
-        <v>1029</v>
+        <v>730</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2717,18 +2649,18 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2737,26 +2669,20 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>30</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>hl</t>
@@ -2764,46 +2690,36 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>208.28</v>
       </c>
       <c r="AB8" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD8" t="n">
         <v>100</v>
       </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG8" t="n">
-        <v>92</v>
-      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
         <is>
@@ -2819,19 +2735,21 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>0.96</v>
+        <v>0.79</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>292</v>
-      </c>
-      <c r="AT8" t="inlineStr"/>
+        <v>187.88875</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.3189685287916126</v>
+      </c>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>627801</v>
+        <v>7475243</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -2846,48 +2764,54 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>634</v>
-      </c>
-      <c r="BL8" t="inlineStr"/>
+        <v>586.6</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>294.6</v>
+      </c>
       <c r="BM8" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
+      <c r="BQ8" t="n">
+        <v>589.0510600271501</v>
+      </c>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
+      <c r="BW8" t="n">
+        <v>2863.42455</v>
+      </c>
       <c r="BX8" t="n">
-        <v>0.0008</v>
+        <v>0.127</v>
       </c>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>26.2656</v>
+        <v>3.206133630000001</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.8639999999999999</v>
+        <v>0.1422</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF8" t="n">
-        <v>10.61248148148148</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>30.4</v>
+        <v>22.54665</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -2902,18 +2826,32 @@
       </c>
       <c r="CP8" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ8" t="inlineStr"/>
-      <c r="CR8" t="inlineStr"/>
-      <c r="CS8" t="inlineStr"/>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR8" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT8" t="inlineStr"/>
-      <c r="CU8" t="inlineStr"/>
+      <c r="CU8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV8" t="inlineStr"/>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
@@ -2935,42 +2873,30 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>29.2</v>
+        <v>18.788875</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>383</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DU8" t="n">
-        <v>344.7</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>0.6041009463722398</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>0.5436908517350159</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>2.802089257881732</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>4.681030391469462</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10237</v>
+        <v>10029</v>
       </c>
       <c r="B9" t="n">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2985,16 +2911,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3004,7 +2930,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -3013,11 +2939,15 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>36.9</v>
+        <v>53</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3025,7 +2955,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -3034,24 +2964,28 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y9" t="n">
         <v>20</v>
       </c>
-      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AB9" t="n">
         <v>250</v>
       </c>
       <c r="AC9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>250</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
@@ -3079,14 +3013,16 @@
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="AT9" t="inlineStr"/>
+        <v>126.8</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.117076391682425</v>
+      </c>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>57220600</v>
+        <v>28787900</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3101,25 +3037,27 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>619.2320000000001</v>
+        <v>846.39</v>
       </c>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
-        <v>2.092</v>
+        <v>2.67</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.418</v>
+        <v>1.96</v>
       </c>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v>1083.053536053202</v>
+      </c>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="n">
-        <v>5.92</v>
+        <v>6.34</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0002</v>
@@ -3127,10 +3065,10 @@
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>7.5776</v>
+        <v>5.072</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.256</v>
+        <v>0.16</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
@@ -3139,14 +3077,14 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CF9" t="n">
-        <v>114.1808263888889</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>29.6</v>
+        <v>31.7</v>
       </c>
       <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
@@ -3169,7 +3107,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="CR9" t="inlineStr"/>
+      <c r="CR9" t="n">
+        <v>26</v>
+      </c>
       <c r="CS9" t="inlineStr">
         <is>
           <t>n</t>
@@ -3208,42 +3148,30 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>-118.4</v>
+        <v>-126.8</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>266.4</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DU9" t="n">
-        <v>532.8</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>0.4302103250478012</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>0.8604206500956023</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>2.791853391254176</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>5.165177541080086</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10260</v>
+        <v>10046</v>
       </c>
       <c r="B10" t="n">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3258,16 +3186,16 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3277,7 +3205,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3286,11 +3214,15 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>36.9</v>
+        <v>53</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3298,7 +3230,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -3307,24 +3239,28 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y10" t="n">
         <v>20</v>
       </c>
-      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AB10" t="n">
         <v>250</v>
       </c>
       <c r="AC10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD10" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>250</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
@@ -3339,7 +3275,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3347,19 +3283,21 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="AT10" t="inlineStr"/>
+        <v>-204</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.1781790566266567</v>
+      </c>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>42675000</v>
+        <v>9813370</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3374,25 +3312,27 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>667.3480000000001</v>
+        <v>907.8</v>
       </c>
       <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>2.092</v>
+        <v>2.67</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.418</v>
+        <v>1.96</v>
       </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
+      <c r="BQ10" t="n">
+        <v>1144.915703687031</v>
+      </c>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="n">
-        <v>6.38</v>
+        <v>6.8</v>
       </c>
       <c r="BX10" t="n">
         <v>0.0002</v>
@@ -3400,10 +3340,10 @@
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="n">
-        <v>5.024249999999999</v>
+        <v>3.672000000000001</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.1575</v>
+        <v>0.108</v>
       </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
@@ -3412,14 +3352,14 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="CF10" t="n">
-        <v>170.260063425926</v>
+        <v>65.5044586056645</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>31.9</v>
+        <v>34</v>
       </c>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
@@ -3439,7 +3379,7 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR10" t="inlineStr"/>
@@ -3481,42 +3421,30 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>22.33</v>
+        <v>-2040</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>341.6387096774194</v>
+        <v>2.95799017840683</v>
       </c>
       <c r="DU10" t="n">
-        <v>307.4748387096774</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>0.5119348670819712</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>0.4607413803737741</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>2.824352363252417</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>5.772019752181081</v>
+        <v>4.845645129132144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10984</v>
+        <v>10237</v>
       </c>
       <c r="B11" t="n">
-        <v>984</v>
+        <v>237</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3526,14 +3454,18 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[0(425)]5</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -3544,15 +3476,27 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>L20/SL</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O11" t="n">
-        <v>68.3</v>
+        <v>36.9</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>p</t>
@@ -3563,17 +3507,31 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>20</v>
+      </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>110</v>
+      </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
@@ -3582,25 +3540,27 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>0.4</v>
+      </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>379.225</v>
+        <v>118.4</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>464810</v>
+        <v>57220600</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3615,11 +3575,15 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>2032.30125</v>
+        <v>619.2320000000001</v>
       </c>
       <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
+      <c r="BM11" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2.418</v>
+      </c>
       <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
@@ -3628,38 +3592,76 @@
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
+      <c r="BW11" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0002</v>
+      </c>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
-      <c r="CA11" t="inlineStr"/>
-      <c r="CB11" t="inlineStr"/>
+      <c r="CA11" t="n">
+        <v>7.5776</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.256</v>
+      </c>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="CF11" t="n">
-        <v>5.491115520282186</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
+      <c r="CH11" t="n">
+        <v>29.6</v>
+      </c>
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
       <c r="CL11" t="inlineStr"/>
       <c r="CM11" t="inlineStr"/>
       <c r="CN11" t="inlineStr"/>
-      <c r="CO11" t="inlineStr"/>
-      <c r="CP11" t="inlineStr"/>
-      <c r="CQ11" t="inlineStr"/>
+      <c r="CO11" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP11" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
-      <c r="CV11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV11" t="n">
+        <v>50</v>
+      </c>
       <c r="CW11" t="inlineStr"/>
-      <c r="CX11" t="inlineStr"/>
+      <c r="CX11" t="n">
+        <v>1</v>
+      </c>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
@@ -3680,38 +3682,30 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GEnan</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>37.92250000000001</v>
-      </c>
-      <c r="DS11" t="inlineStr"/>
+        <v>-118.4</v>
+      </c>
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>0/0/0/0/0</t>
+        </is>
+      </c>
       <c r="DT11" t="n">
-        <v>800.4766666666666</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DU11" t="n">
-        <v>720.4290000000001</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>0.3938769740296459</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>0.3544892766266813</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>3.307988084278995</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>3.948166635414598</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10175</v>
+        <v>10260</v>
       </c>
       <c r="B12" t="n">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3721,18 +3715,18 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -3741,11 +3735,11 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3754,64 +3748,52 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.38</v>
-      </c>
+        <v>36.9</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB12" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC12" t="n">
         <v>110</v>
       </c>
-      <c r="AD12" t="n">
-        <v>1200</v>
-      </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG12" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr">
         <is>
@@ -3827,21 +3809,19 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>0.172</v>
+        <v>0.7</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>0.4625843648268949</v>
-      </c>
+        <v>223.3</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>376116</v>
+        <v>42675000</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -3856,52 +3836,52 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>55</v>
+        <v>667.3480000000001</v>
       </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BN12" t="inlineStr"/>
+        <v>2.092</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2.418</v>
+      </c>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="n">
-        <v>61.35097110474145</v>
-      </c>
+      <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>13.2</v>
+        <v>6.38</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>0.25542</v>
+        <v>5.024249999999999</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.01548</v>
+        <v>0.1575</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="CF12" t="n">
-        <v>6.363592592592592</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>16.5</v>
+        <v>31.9</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -3924,9 +3904,7 @@
           <t>n</t>
         </is>
       </c>
-      <c r="CR12" t="n">
-        <v>23</v>
-      </c>
+      <c r="CR12" t="inlineStr"/>
       <c r="CS12" t="inlineStr">
         <is>
           <t>n</t>
@@ -3938,10 +3916,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV12" t="inlineStr"/>
+      <c r="CV12" t="n">
+        <v>50</v>
+      </c>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
@@ -3963,42 +3943,30 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>2.838</v>
+        <v>22.33</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>34.485</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DU12" t="n">
-        <v>31.0365</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>0.5642999999999999</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>1.740362689494244</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>4.255093919562162</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10162</v>
+        <v>10291</v>
       </c>
       <c r="B13" t="n">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4008,18 +3976,18 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[0(610)]8</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -4028,38 +3996,32 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>BASF A420</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E UNIVER 61</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.2</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -4068,37 +4030,31 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>18</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC13" t="n">
         <v>110</v>
       </c>
-      <c r="AD13" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG13" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
         <is>
@@ -4114,21 +4070,17 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="n">
-        <v>286.3</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0.4463609613506411</v>
-      </c>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>594308</v>
+        <v>55000000</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4143,57 +4095,53 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>546</v>
-      </c>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="n">
-        <v>1.5</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>475</v>
+      </c>
+      <c r="BM13" t="inlineStr"/>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="n">
-        <v>641.4091392170283</v>
-      </c>
+      <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="n">
-        <v>32.72</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>0.0008</v>
-      </c>
+      <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>2.576699999999999</v>
+        <v>7.566749999999999</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.06299999999999999</v>
+        <v>0.2565</v>
       </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="CF13" t="n">
-        <v>5.379098290598289</v>
+        <v>150.8407070707071</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>40.9</v>
+        <v>29.5</v>
       </c>
       <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
+      <c r="CL13" t="n">
+        <v>52.7</v>
+      </c>
       <c r="CM13" t="inlineStr"/>
       <c r="CN13" t="inlineStr"/>
       <c r="CO13" t="inlineStr">
@@ -4212,7 +4160,7 @@
         </is>
       </c>
       <c r="CR13" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CS13" t="inlineStr">
         <is>
@@ -4228,7 +4176,7 @@
       <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
@@ -4250,42 +4198,28 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
-        </is>
-      </c>
-      <c r="DR13" t="n">
-        <v>28.63</v>
-      </c>
+          <t>GP[0(610)]8</t>
+        </is>
+      </c>
+      <c r="DR13" t="inlineStr"/>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>418.4384615384616</v>
+        <v>2.826074802700826</v>
       </c>
       <c r="DU13" t="n">
-        <v>376.5946153846154</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>0.7663708086785009</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>0.689733727810651</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>2.737192642704737</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>4.116696166647357</v>
+        <v>6.899410614790332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>19001</v>
+        <v>10820</v>
       </c>
       <c r="B14" t="n">
-        <v>9001</v>
+        <v>820</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4295,21 +4229,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0()]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4317,28 +4251,18 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Synolite 593-E-1</t>
-        </is>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>45</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4346,7 +4270,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -4355,37 +4279,27 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>195.5</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AB14" t="n">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="AC14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD14" t="n">
         <v>100</v>
       </c>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="AG14" t="n">
-        <v>94</v>
-      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
         <is>
@@ -4401,21 +4315,21 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.5117977528089888</v>
+        <v>0.91</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>91.09999999999999</v>
+        <v>324.8924</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.1967106228709724</v>
+        <v>0.422772006211321</v>
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>603000000</v>
+        <v>153402</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4430,25 +4344,19 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>428</v>
+        <v>742.3</v>
       </c>
       <c r="BL14" t="n">
-        <v>291</v>
+        <v>365.9</v>
       </c>
       <c r="BM14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>395</v>
-      </c>
+        <v>2.31</v>
+      </c>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="n">
-        <v>463.1168295357127</v>
+        <v>768.4813450907716</v>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
@@ -4456,18 +4364,18 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="n">
-        <v>290</v>
+        <v>2206.4</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.016</v>
+        <v>0.064</v>
       </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>2.459700000000001</v>
+        <v>5.647005000000001</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.138185393258427</v>
+        <v>0.1638</v>
       </c>
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr">
@@ -4476,18 +4384,16 @@
         </is>
       </c>
       <c r="CE14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="CF14" t="n">
-        <v>973.5749756414095</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>18.5</v>
-      </c>
+        <v>34.475</v>
+      </c>
+      <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
@@ -4500,7 +4406,7 @@
       </c>
       <c r="CP14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ14" t="inlineStr">
@@ -4509,11 +4415,11 @@
         </is>
       </c>
       <c r="CR14" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="CS14" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT14" t="inlineStr"/>
@@ -4522,12 +4428,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV14" t="n">
-        <v>60</v>
-      </c>
+      <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
@@ -4549,42 +4453,30 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>9.109999999999999</v>
+        <v>32.48924</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>190.3344827586207</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DU14" t="n">
-        <v>272.7124827586207</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>0.4447067354173381</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>0.6371786980341605</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>2.631443769013172</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>5.063979666419017</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11413</v>
+        <v>11058</v>
       </c>
       <c r="B15" t="n">
-        <v>1413</v>
+        <v>1058</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4594,31 +4486,31 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4627,59 +4519,57 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>45</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>HAMILTON STANDARD</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>23</v>
-      </c>
+        <v>50.4</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>195.5</v>
+        <v>176.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>200</v>
+        <v>154.9</v>
       </c>
       <c r="AC15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
       <c r="AG15" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
@@ -4688,7 +4578,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4696,21 +4586,19 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.62</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>115</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0.2421326168845685</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>3229856</v>
+        <v>11254000</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -4725,60 +4613,44 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BO15" t="inlineStr"/>
+        <v>274.5</v>
+      </c>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="inlineStr"/>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="n">
+        <v>275.7</v>
+      </c>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="n">
-        <v>474.9463392403005</v>
-      </c>
+      <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="n">
-        <v>290</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0.016</v>
-      </c>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>1.8352</v>
+        <v>1.36</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0992</v>
+        <v>0.09714285714285716</v>
       </c>
       <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CF15" t="n">
-        <v>244.4947222222222</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
@@ -4791,44 +4663,28 @@
       </c>
       <c r="CP15" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ15" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR15" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS15" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT15" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
-      <c r="CU15" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV15" t="n">
-        <v>40</v>
-      </c>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr"/>
+      <c r="CR15" t="inlineStr"/>
+      <c r="CS15" t="inlineStr"/>
+      <c r="CT15" t="inlineStr"/>
+      <c r="CU15" t="inlineStr"/>
+      <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
       <c r="DA15" t="inlineStr"/>
       <c r="DB15" t="inlineStr"/>
-      <c r="DC15" t="inlineStr"/>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD15" t="inlineStr"/>
       <c r="DE15" t="inlineStr"/>
       <c r="DF15" t="inlineStr"/>
@@ -4844,42 +4700,30 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>-115</v>
+        <v>0</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>115</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DU15" t="n">
-        <v>230</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>0.2591841334234843</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>0.5183682668469687</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>2.647089428716555</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>6.408635862973926</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11206</v>
+        <v>10133</v>
       </c>
       <c r="B16" t="n">
-        <v>1206</v>
+        <v>133</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4894,13 +4738,15 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>8</v>
@@ -4913,7 +4759,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>Synres 593-58-1086</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4922,12 +4768,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>45</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
           <t>Polymarin</t>
@@ -4940,7 +4784,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -4949,30 +4793,30 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
         <v>45</v>
       </c>
-      <c r="Y16" t="n">
-        <v>23</v>
-      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>195.5</v>
+        <v>315</v>
       </c>
       <c r="AB16" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="AC16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>100</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
@@ -4981,7 +4825,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -4989,21 +4833,21 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.45</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>140</v>
+        <v>47.6</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2824080368545903</v>
+        <v>0.3360838156505212</v>
       </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>1748406</v>
+        <v>2430000</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -5018,17 +4862,15 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>462</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>320</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="n">
-        <v>495.7365999894858</v>
+        <v>141.6313365398623</v>
       </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
@@ -5036,34 +4878,36 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="n">
-        <v>290</v>
+        <v>3.2</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.016</v>
+        <v>0.00028</v>
       </c>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>1.96</v>
+        <v>0.9072000000000001</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.1059459459459459</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="CC16" t="inlineStr"/>
-      <c r="CD16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF16" t="n">
-        <v>28.47224444444445</v>
+        <v>12.47599358974359</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>19</v>
-      </c>
+        <v>11.2</v>
+      </c>
+      <c r="CI16" t="inlineStr"/>
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
       <c r="CL16" t="inlineStr"/>
@@ -5085,7 +4929,7 @@
         </is>
       </c>
       <c r="CR16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CS16" t="inlineStr">
         <is>
@@ -5101,7 +4945,7 @@
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
@@ -5123,42 +4967,30 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>-56</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
         </is>
       </c>
       <c r="DT16" t="n">
-        <v>190</v>
+        <v>2.060697840353612</v>
       </c>
       <c r="DU16" t="n">
-        <v>266</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>0.4112554112554113</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>0.5757575757575759</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>2.664641975556125</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>4.839426195945407</v>
+        <v>5.117753535981455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11164</v>
+        <v>19001</v>
       </c>
       <c r="B17" t="n">
-        <v>1164</v>
+        <v>9001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5168,18 +5000,18 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>TUD</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
         <v>8</v>
@@ -5192,24 +5024,24 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2123 Cronolite Ortoftalic</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>E Vetrotex Vidrio</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -5219,7 +5051,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -5228,28 +5060,36 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>5.2</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>416</v>
+        <v>195.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AC17" t="n">
-        <v>240</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>100</v>
+      </c>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>twin</t>
+        </is>
+      </c>
       <c r="AG17" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
@@ -5258,7 +5098,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -5266,19 +5106,21 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>0.2861528055981894</v>
+        <v>0.5117977528089888</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT17" t="inlineStr"/>
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.1967106228709724</v>
+      </c>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>22676100</v>
+        <v>603000000</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5293,28 +5135,44 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>659.0700000000001</v>
-      </c>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
+        <v>428</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>291</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>365</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>395</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>463.1168295357127</v>
+      </c>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
+      <c r="BW17" t="n">
+        <v>290</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0.016</v>
+      </c>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>7.304</v>
+        <v>2.459700000000001</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.1900054629171978</v>
+        <v>0.138185393258427</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
@@ -5323,32 +5181,58 @@
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>8.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="CF17" t="n">
-        <v>55.88081957459467</v>
+        <v>975.5221280423282</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>38.441</v>
-      </c>
-      <c r="CI17" t="inlineStr"/>
+        <v>17.8</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>18.5</v>
+      </c>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
       <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
+      <c r="CO17" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP17" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR17" t="n">
+        <v>30</v>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
       <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
+      <c r="CU17" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV17" t="n">
+        <v>60</v>
+      </c>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5370,42 +5254,30 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>22</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>343.975</v>
+        <v>2.631443769013172</v>
       </c>
       <c r="DU17" t="n">
-        <v>262.6158333333334</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>0.5219096605823357</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>0.398464250130234</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>2.818931543576176</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>4.210906788214843</v>
+        <v>5.128322405871098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10703</v>
+        <v>11229</v>
       </c>
       <c r="B18" t="n">
-        <v>703</v>
+        <v>1229</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5415,21 +5287,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5437,18 +5309,28 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Synolite 593-E-1</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>45</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5456,7 +5338,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
@@ -5465,24 +5347,28 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y18" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>208.28</v>
+        <v>195.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="AC18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD18" t="n">
         <v>100</v>
       </c>
-      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
@@ -5493,7 +5379,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -5501,21 +5387,21 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
-        <v>0.9</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>189.12985</v>
+        <v>-180</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.3304644402793597</v>
+        <v>0.3615020039207029</v>
       </c>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>1612585</v>
+        <v>23813962</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5530,19 +5416,17 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>567.2</v>
+        <v>462</v>
       </c>
       <c r="BL18" t="n">
-        <v>313.2</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>2.76</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="n">
-        <v>572.3152840291021</v>
+        <v>497.9225510447898</v>
       </c>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
@@ -5550,36 +5434,34 @@
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="n">
-        <v>2662.0216</v>
+        <v>290</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.127</v>
+        <v>0.016</v>
       </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="n">
-        <v>3.3956496</v>
+        <v>2.208315789473684</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.162</v>
+        <v>0.1193684210526316</v>
       </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF18" t="n">
-        <v>18.79661805555556</v>
+        <v>111.5042773662552</v>
       </c>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="n">
-        <v>20.9608</v>
-      </c>
-      <c r="CI18" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
@@ -5592,7 +5474,7 @@
       </c>
       <c r="CP18" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ18" t="inlineStr">
@@ -5601,11 +5483,11 @@
         </is>
       </c>
       <c r="CR18" t="n">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="CS18" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT18" t="inlineStr"/>
@@ -5617,7 +5499,7 @@
       <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5639,42 +5521,30 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GP[0()]5</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>18.912985</v>
+        <v>-1800</v>
       </c>
       <c r="DS18" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT18" t="n">
-        <v>218.04575625</v>
+        <v>2.664641975556125</v>
       </c>
       <c r="DU18" t="n">
-        <v>196.241180625</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>0.384424817083921</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>0.3459823353755289</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>2.75373622217501</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>5.390274178286151</v>
+        <v>4.97890006476624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10730</v>
+        <v>11413</v>
       </c>
       <c r="B19" t="n">
-        <v>730</v>
+        <v>1413</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -5684,21 +5554,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5706,18 +5576,28 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Synolite 593-E-1</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>45</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5725,36 +5605,42 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>4.1</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y19" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>208.28</v>
+        <v>195.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="AC19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD19" t="n">
         <v>100</v>
       </c>
-      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
+      <c r="AG19" t="n">
+        <v>94</v>
+      </c>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
         <is>
@@ -5762,7 +5648,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -5770,21 +5656,21 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>187.88875</v>
+        <v>115</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.3189685287916126</v>
+        <v>0.2421326168845685</v>
       </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>7475243</v>
+        <v>3229856</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -5799,19 +5685,21 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>586.6</v>
+        <v>443.7</v>
       </c>
       <c r="BL19" t="n">
-        <v>294.6</v>
+        <v>332.5</v>
       </c>
       <c r="BM19" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="BN19" t="inlineStr"/>
+        <v>2.55</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.83</v>
+      </c>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="n">
-        <v>589.0510600271501</v>
+        <v>474.9463392403005</v>
       </c>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
@@ -5819,18 +5707,18 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>2863.42455</v>
+        <v>290</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.127</v>
+        <v>0.016</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>3.206133630000001</v>
+        <v>1.8352</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.1422</v>
+        <v>0.0992</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
@@ -5839,16 +5727,18 @@
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CF19" t="n">
-        <v>22.4654012345679</v>
+        <v>244.4947222222222</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>22.54665</v>
-      </c>
-      <c r="CI19" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
@@ -5861,7 +5751,7 @@
       </c>
       <c r="CP19" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ19" t="inlineStr">
@@ -5870,23 +5760,29 @@
         </is>
       </c>
       <c r="CR19" t="n">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="CS19" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT19" t="inlineStr"/>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>50w14d</t>
+        </is>
+      </c>
       <c r="CU19" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="CV19" t="inlineStr"/>
+      <c r="CV19" t="n">
+        <v>40</v>
+      </c>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5908,42 +5804,30 @@
       <c r="DP19" t="inlineStr"/>
       <c r="DQ19" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>18.788875</v>
+        <v>-115</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>284.8381958333333</v>
+        <v>2.647089428716555</v>
       </c>
       <c r="DU19" t="n">
-        <v>256.35437625</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>0.4855748309466985</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>0.4370173478520287</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>2.768342058644533</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>4.327868793507926</v>
+        <v>6.408635862973926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10831</v>
+        <v>10191</v>
       </c>
       <c r="B20" t="n">
-        <v>831</v>
+        <v>191</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -5953,21 +5837,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -5975,55 +5859,75 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>38</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.91</v>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y20" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>193.04</v>
+        <v>41.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="n">
         <v>100</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>90</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -6039,21 +5943,21 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>68.95</v>
+        <v>237.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.1424533755896991</v>
+        <v>0.3072724503678881</v>
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>17764694</v>
+        <v>7964865</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6068,19 +5972,17 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>516</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>289.1</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="n">
-        <v>484.0180144175243</v>
+        <v>773.2551347038388</v>
       </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
@@ -6088,34 +5990,34 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="n">
-        <v>10500</v>
+        <v>23.76</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.61</v>
+        <v>0.0008</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="n">
-        <v>1.85271408</v>
+        <v>2.1384</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.0864</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="CF20" t="n">
-        <v>40.12529487179487</v>
+        <v>48.72872058823528</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>21.44345</v>
+        <v>29.7</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6130,7 +6032,7 @@
       </c>
       <c r="CP20" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ20" t="inlineStr">
@@ -6139,7 +6041,7 @@
         </is>
       </c>
       <c r="CR20" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="CS20" t="inlineStr">
         <is>
@@ -6155,7 +6057,7 @@
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6177,42 +6079,30 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>6.895</v>
+        <v>23.76</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>141.6126923076923</v>
+        <v>2.816241299991784</v>
       </c>
       <c r="DU20" t="n">
-        <v>127.4514230769231</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>0.2744432021466905</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>0.2469988819320214</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>2.712649701627211</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>4.839112362047485</v>
+        <v>4.89964617989019</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10191</v>
+        <v>10213</v>
       </c>
       <c r="B21" t="n">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6222,21 +6112,21 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -6246,7 +6136,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6255,64 +6145,52 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>55</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.91</v>
-      </c>
+        <v>38.6</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>41.4</v>
+        <v>44</v>
       </c>
       <c r="AB21" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC21" t="n">
         <v>110</v>
       </c>
-      <c r="AD21" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG21" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
         <is>
@@ -6320,7 +6198,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -6328,21 +6206,19 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.3072724503678881</v>
-      </c>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>7964865</v>
+        <v>76421820</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6357,52 +6233,52 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>655</v>
+        <v>544.152</v>
       </c>
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN21" t="inlineStr"/>
+        <v>2.212</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2.14</v>
+      </c>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="n">
-        <v>773.2551347038388</v>
-      </c>
+      <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="n">
-        <v>23.76</v>
+        <v>4.92</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>2.1384</v>
+        <v>6.2976</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CF21" t="n">
-        <v>54.49552415458937</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>29.7</v>
+        <v>24.6</v>
       </c>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
@@ -6422,12 +6298,10 @@
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR21" t="n">
-        <v>23</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR21" t="inlineStr"/>
       <c r="CS21" t="inlineStr">
         <is>
           <t>n</t>
@@ -6439,10 +6313,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV21" t="inlineStr"/>
+      <c r="CV21" t="n">
+        <v>50</v>
+      </c>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6464,42 +6340,30 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>23.76</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>295.9052608695653</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DU21" t="n">
-        <v>434.2416913043477</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>0.4517637570527713</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>0.6629644142051111</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>2.816241299991783</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>4.799085052187354</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10213</v>
+        <v>11273</v>
       </c>
       <c r="B22" t="n">
-        <v>213</v>
+        <v>1273</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6542,7 +6406,7 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>38.6</v>
+        <v>38</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -6562,29 +6426,23 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V22" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>44</v>
-      </c>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
         <v>250</v>
       </c>
-      <c r="AC22" t="n">
-        <v>110</v>
-      </c>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr"/>
@@ -6603,19 +6461,21 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AT22" t="inlineStr"/>
+        <v>203.2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2828987854305369</v>
+      </c>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>76421820</v>
+        <v>2346760</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6630,25 +6490,29 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>544.152</v>
-      </c>
-      <c r="BL22" t="inlineStr"/>
+        <v>572</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>547</v>
+      </c>
       <c r="BM22" t="n">
-        <v>2.212</v>
+        <v>2.25</v>
       </c>
       <c r="BN22" t="n">
         <v>2.14</v>
       </c>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
+      <c r="BQ22" t="n">
+        <v>718.2780926074136</v>
+      </c>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="n">
-        <v>4.92</v>
+        <v>5.08</v>
       </c>
       <c r="BX22" t="n">
         <v>0.0002</v>
@@ -6656,10 +6520,10 @@
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="n">
-        <v>6.2976</v>
+        <v>2.4384</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.256</v>
+        <v>0.096</v>
       </c>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr">
@@ -6668,16 +6532,18 @@
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="CF22" t="n">
-        <v>236.5450942460318</v>
+        <v>14.42657004830918</v>
       </c>
       <c r="CG22" t="inlineStr"/>
       <c r="CH22" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="CI22" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>25.5</v>
+      </c>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
@@ -6688,17 +6554,15 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP22" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="CR22" t="inlineStr"/>
+      <c r="CR22" t="n">
+        <v>20</v>
+      </c>
       <c r="CS22" t="inlineStr">
         <is>
           <t>n</t>
@@ -6710,13 +6574,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV22" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
-      <c r="CX22" t="n">
-        <v>1</v>
-      </c>
+      <c r="CX22" t="inlineStr"/>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
       <c r="DA22" t="inlineStr"/>
@@ -6741,7 +6601,7 @@
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>-98.40000000000001</v>
+        <v>-203.2</v>
       </c>
       <c r="DS22" t="inlineStr">
         <is>
@@ -6749,30 +6609,18 @@
         </is>
       </c>
       <c r="DT22" t="n">
-        <v>189.7714285714285</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DU22" t="n">
-        <v>379.5428571428571</v>
-      </c>
-      <c r="DV22" t="n">
-        <v>0.3487470937742185</v>
-      </c>
-      <c r="DW22" t="n">
-        <v>0.6974941875484371</v>
-      </c>
-      <c r="DX22" t="n">
-        <v>2.735720229736039</v>
-      </c>
-      <c r="DY22" t="n">
-        <v>5.650649768017886</v>
+        <v>4.337419932426495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11273</v>
+        <v>10984</v>
       </c>
       <c r="B23" t="n">
-        <v>1273</v>
+        <v>984</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -6782,21 +6630,17 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DLR</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6804,27 +6648,15 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>38</v>
+        <v>68.3</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr">
         <is>
           <t>p</t>
@@ -6837,23 +6669,15 @@
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="n">
-        <v>30</v>
-      </c>
+      <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="n">
-        <v>250</v>
-      </c>
+      <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
@@ -6862,29 +6686,25 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0.2828987854305369</v>
-      </c>
+        <v>379.225</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>2346760</v>
+        <v>464810</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -6899,90 +6719,48 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>572</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>547</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2032.30125</v>
+      </c>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="n">
-        <v>718.2780926074136</v>
-      </c>
+      <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="n">
-        <v>2.4384</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0.096</v>
-      </c>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
       <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD23" t="inlineStr"/>
       <c r="CE23" t="n">
         <v>3</v>
       </c>
       <c r="CF23" t="n">
-        <v>14.42657004830918</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="CH23" t="inlineStr"/>
+      <c r="CI23" t="inlineStr"/>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
       <c r="CM23" t="inlineStr"/>
       <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="CO23" t="inlineStr"/>
       <c r="CP23" t="inlineStr"/>
-      <c r="CQ23" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR23" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS23" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ23" t="inlineStr"/>
+      <c r="CR23" t="inlineStr"/>
+      <c r="CS23" t="inlineStr"/>
       <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU23" t="inlineStr"/>
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="inlineStr"/>
@@ -7006,42 +6784,26 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>-203.2</v>
-      </c>
-      <c r="DS23" t="inlineStr">
-        <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
-        </is>
-      </c>
+        <v>37.92250000000001</v>
+      </c>
+      <c r="DS23" t="inlineStr"/>
       <c r="DT23" t="n">
-        <v>236.3304347826087</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DU23" t="n">
-        <v>472.6608695652174</v>
-      </c>
-      <c r="DV23" t="n">
-        <v>0.4131650957737914</v>
-      </c>
-      <c r="DW23" t="n">
-        <v>0.8263301915475828</v>
-      </c>
-      <c r="DX23" t="n">
-        <v>2.757396028793024</v>
-      </c>
-      <c r="DY23" t="n">
-        <v>4.337419932426495</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10029</v>
+        <v>10878</v>
       </c>
       <c r="B24" t="n">
-        <v>29</v>
+        <v>878</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -7051,21 +6813,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -7073,26 +6835,18 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>M9/M10</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>hl</t>
@@ -7100,43 +6854,35 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>20</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>56</v>
+        <v>193.04</v>
       </c>
       <c r="AB24" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC24" t="n">
         <v>100</v>
       </c>
-      <c r="AD24" t="n">
-        <v>250</v>
-      </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
@@ -7145,7 +6891,7 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
@@ -7153,21 +6899,19 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0.117076391682425</v>
-      </c>
+        <v>68.95</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>28787900</v>
+        <v>7825000</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -7182,39 +6926,33 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>846.39</v>
-      </c>
-      <c r="BL24" t="inlineStr"/>
+        <v>467.5</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>317.5</v>
+      </c>
       <c r="BM24" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>1.96</v>
-      </c>
+        <v>2.84</v>
+      </c>
+      <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="n">
-        <v>1083.053536053202</v>
-      </c>
+      <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="n">
-        <v>6.34</v>
+        <v>10000</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.0002</v>
+        <v>0.61</v>
       </c>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="n">
-        <v>5.072</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0.16</v>
-      </c>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr">
         <is>
@@ -7222,14 +6960,14 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CF24" t="n">
-        <v>64.42121623093684</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG24" t="inlineStr"/>
       <c r="CH24" t="n">
-        <v>31.7</v>
+        <v>19.92655</v>
       </c>
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
@@ -7239,21 +6977,21 @@
       <c r="CN24" t="inlineStr"/>
       <c r="CO24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP24" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ24" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR24" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="CS24" t="inlineStr">
         <is>
@@ -7266,12 +7004,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV24" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
@@ -7293,34 +7029,22 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>-126.8</v>
+        <v>6.895</v>
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT24" t="n">
-        <v>272.2470588235294</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DU24" t="n">
-        <v>544.4941176470588</v>
-      </c>
-      <c r="DV24" t="n">
-        <v>0.3216567525886759</v>
-      </c>
-      <c r="DW24" t="n">
-        <v>0.6433135051773519</v>
-      </c>
-      <c r="DX24" t="n">
-        <v>2.927570523582327</v>
-      </c>
-      <c r="DY24" t="n">
-        <v>4.995535696220584</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="25">
@@ -7596,30 +7320,18 @@
         </is>
       </c>
       <c r="DT25" t="n">
-        <v>184.6428571428571</v>
+        <v>2.565139151969789</v>
       </c>
       <c r="DU25" t="n">
-        <v>253</v>
-      </c>
-      <c r="DV25" t="n">
-        <v>0.5025662959794698</v>
-      </c>
-      <c r="DW25" t="n">
-        <v>0.688622754491018</v>
-      </c>
-      <c r="DX25" t="n">
-        <v>2.565139151969789</v>
-      </c>
-      <c r="DY25" t="n">
         <v>5.061534728027735</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10004</v>
+        <v>11164</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1164</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -7629,21 +7341,21 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0()FW]8</t>
+          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
         <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -7653,34 +7365,34 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>2123 Cronolite Ortoftalic</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E Vetrotex Vidrio</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>40</v>
+      </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -7689,36 +7401,28 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>18</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>34.2</v>
+        <v>416</v>
       </c>
       <c r="AB26" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="AC26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>100</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr">
@@ -7727,7 +7431,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -7735,21 +7439,19 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.2861528055981894</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="n">
-        <v>472</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0.4600221360497219</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>5209100</v>
+        <v>22676100</v>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
@@ -7764,52 +7466,44 @@
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="n">
-        <v>862</v>
+        <v>659.0700000000001</v>
       </c>
       <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="BM26" t="inlineStr"/>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
-      <c r="BQ26" t="n">
-        <v>1026.037581697989</v>
-      </c>
+      <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="n">
-        <v>37.76</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0.0008</v>
-      </c>
+      <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="n">
-        <v>4.248000000000001</v>
+        <v>7.304</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.09</v>
+        <v>0.1900054629171978</v>
       </c>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE26" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CF26" t="n">
-        <v>50.02266111111111</v>
+        <v>55.88081957459467</v>
       </c>
       <c r="CG26" t="inlineStr"/>
       <c r="CH26" t="n">
-        <v>47.2</v>
+        <v>38.441</v>
       </c>
       <c r="CI26" t="inlineStr"/>
       <c r="CJ26" t="inlineStr"/>
@@ -7817,39 +7511,17 @@
       <c r="CL26" t="inlineStr"/>
       <c r="CM26" t="inlineStr"/>
       <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP26" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ26" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR26" t="n">
-        <v>23</v>
-      </c>
-      <c r="CS26" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" t="inlineStr"/>
+      <c r="CQ26" t="inlineStr"/>
+      <c r="CR26" t="inlineStr"/>
+      <c r="CS26" t="inlineStr"/>
       <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU26" t="inlineStr"/>
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="CY26" t="inlineStr"/>
       <c r="CZ26" t="inlineStr"/>
@@ -7871,34 +7543,1359 @@
       <c r="DP26" t="inlineStr"/>
       <c r="DQ26" t="inlineStr">
         <is>
-          <t>GP[0()FW]8</t>
+          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="DR26" t="n">
-        <v>47.2</v>
+        <v>22</v>
       </c>
       <c r="DS26" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT26" t="n">
-        <v>580.1309090909091</v>
+        <v>2.818931543576176</v>
       </c>
       <c r="DU26" t="n">
-        <v>522.1178181818182</v>
-      </c>
-      <c r="DV26" t="n">
-        <v>0.6730056950010546</v>
-      </c>
-      <c r="DW26" t="n">
-        <v>0.6057051255009491</v>
-      </c>
-      <c r="DX26" t="n">
-        <v>2.935507265824712</v>
-      </c>
-      <c r="DY26" t="n">
-        <v>5.184894129460043</v>
+        <v>4.210906788214843</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10175</v>
+      </c>
+      <c r="B27" t="n">
+        <v>175</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FACT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[[+60()FW],[-60()FW]]4s</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>60</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>fw</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>280</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.4625843648268949</v>
+      </c>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>376116</v>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="n">
+        <v>55</v>
+      </c>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="n">
+        <v>61.35097110474145</v>
+      </c>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="n">
+        <v>0.25542</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>0.01548</v>
+      </c>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="CE27" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>6.363592592592592</v>
+      </c>
+      <c r="CG27" t="inlineStr"/>
+      <c r="CH27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="CI27" t="inlineStr"/>
+      <c r="CJ27" t="inlineStr"/>
+      <c r="CK27" t="inlineStr"/>
+      <c r="CL27" t="inlineStr"/>
+      <c r="CM27" t="inlineStr"/>
+      <c r="CN27" t="inlineStr"/>
+      <c r="CO27" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP27" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ27" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR27" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS27" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT27" t="inlineStr"/>
+      <c r="CU27" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV27" t="inlineStr"/>
+      <c r="CW27" t="inlineStr"/>
+      <c r="CX27" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY27" t="inlineStr"/>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="inlineStr"/>
+      <c r="DB27" t="inlineStr"/>
+      <c r="DC27" t="inlineStr"/>
+      <c r="DD27" t="inlineStr"/>
+      <c r="DE27" t="inlineStr"/>
+      <c r="DF27" t="inlineStr"/>
+      <c r="DG27" t="inlineStr"/>
+      <c r="DH27" t="inlineStr"/>
+      <c r="DI27" t="inlineStr"/>
+      <c r="DJ27" t="inlineStr"/>
+      <c r="DK27" t="inlineStr"/>
+      <c r="DL27" t="inlineStr"/>
+      <c r="DM27" t="inlineStr"/>
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" t="inlineStr"/>
+      <c r="DP27" t="inlineStr"/>
+      <c r="DQ27" t="inlineStr">
+        <is>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
+        </is>
+      </c>
+      <c r="DR27" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="DS27" t="inlineStr">
+        <is>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+        </is>
+      </c>
+      <c r="DT27" t="n">
+        <v>1.740362689494244</v>
+      </c>
+      <c r="DU27" t="n">
+        <v>4.255093919562162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10201</v>
+      </c>
+      <c r="B28" t="n">
+        <v>201</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FACT</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[[+60()FW],[-60()FW]]4s</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>fw</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>280</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="n">
+        <v>-327.2</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.5076204850168683</v>
+      </c>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="n">
+        <v>16886</v>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="n">
+        <v>546</v>
+      </c>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="n">
+        <v>644.576035951597</v>
+      </c>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="n">
+        <v>2.9448</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="CE28" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0.7329444444444443</v>
+      </c>
+      <c r="CG28" t="inlineStr"/>
+      <c r="CH28" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="CI28" t="inlineStr"/>
+      <c r="CJ28" t="inlineStr"/>
+      <c r="CK28" t="inlineStr"/>
+      <c r="CL28" t="inlineStr"/>
+      <c r="CM28" t="inlineStr"/>
+      <c r="CN28" t="inlineStr"/>
+      <c r="CO28" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ28" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR28" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS28" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT28" t="inlineStr"/>
+      <c r="CU28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV28" t="inlineStr"/>
+      <c r="CW28" t="inlineStr"/>
+      <c r="CX28" t="n">
+        <v>10</v>
+      </c>
+      <c r="CY28" t="inlineStr"/>
+      <c r="CZ28" t="inlineStr"/>
+      <c r="DA28" t="inlineStr"/>
+      <c r="DB28" t="inlineStr"/>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="inlineStr"/>
+      <c r="DE28" t="inlineStr"/>
+      <c r="DF28" t="inlineStr"/>
+      <c r="DG28" t="inlineStr"/>
+      <c r="DH28" t="inlineStr"/>
+      <c r="DI28" t="inlineStr"/>
+      <c r="DJ28" t="inlineStr"/>
+      <c r="DK28" t="inlineStr"/>
+      <c r="DL28" t="inlineStr"/>
+      <c r="DM28" t="inlineStr"/>
+      <c r="DN28" t="inlineStr"/>
+      <c r="DO28" t="inlineStr"/>
+      <c r="DP28" t="inlineStr"/>
+      <c r="DQ28" t="inlineStr">
+        <is>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
+        </is>
+      </c>
+      <c r="DR28" t="n">
+        <v>-3272</v>
+      </c>
+      <c r="DS28" t="inlineStr">
+        <is>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+        </is>
+      </c>
+      <c r="DT28" t="n">
+        <v>2.737192642704737</v>
+      </c>
+      <c r="DU28" t="n">
+        <v>4.105793520617849</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10097</v>
+      </c>
+      <c r="B29" t="n">
+        <v>97</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FACT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ECN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[0(700),100CSM]6</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>35</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>105</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="n">
+        <v>210</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.2293484327767916</v>
+      </c>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="n">
+        <v>52320000</v>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="n">
+        <v>685</v>
+      </c>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="n">
+        <v>915.6373883068036</v>
+      </c>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="inlineStr"/>
+      <c r="BW29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0.00011</v>
+      </c>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="n">
+        <v>7.574400000000001</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="CE29" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>167.7077702572482</v>
+      </c>
+      <c r="CG29" t="inlineStr"/>
+      <c r="CH29" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="CI29" t="inlineStr"/>
+      <c r="CJ29" t="inlineStr"/>
+      <c r="CK29" t="inlineStr"/>
+      <c r="CL29" t="inlineStr"/>
+      <c r="CM29" t="inlineStr"/>
+      <c r="CN29" t="inlineStr"/>
+      <c r="CO29" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP29" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ29" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR29" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV29" t="inlineStr"/>
+      <c r="CW29" t="inlineStr"/>
+      <c r="CX29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY29" t="inlineStr"/>
+      <c r="CZ29" t="inlineStr"/>
+      <c r="DA29" t="inlineStr"/>
+      <c r="DB29" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="inlineStr"/>
+      <c r="DE29" t="inlineStr"/>
+      <c r="DF29" t="inlineStr"/>
+      <c r="DG29" t="inlineStr"/>
+      <c r="DH29" t="inlineStr"/>
+      <c r="DI29" t="inlineStr"/>
+      <c r="DJ29" t="inlineStr"/>
+      <c r="DK29" t="inlineStr"/>
+      <c r="DL29" t="inlineStr"/>
+      <c r="DM29" t="inlineStr"/>
+      <c r="DN29" t="inlineStr"/>
+      <c r="DO29" t="inlineStr"/>
+      <c r="DP29" t="inlineStr"/>
+      <c r="DQ29" t="inlineStr">
+        <is>
+          <t>GP[0(700),100CSM]6</t>
+        </is>
+      </c>
+      <c r="DR29" t="n">
+        <v>21</v>
+      </c>
+      <c r="DS29" t="inlineStr">
+        <is>
+          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="DT29" t="n">
+        <v>2.835690571492425</v>
+      </c>
+      <c r="DU29" t="n">
+        <v>6.202700787530844</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10703</v>
+      </c>
+      <c r="B30" t="n">
+        <v>703</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>FACT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[0()]5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>30</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>208.28</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="n">
+        <v>189.12985</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.3304644402793597</v>
+      </c>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="n">
+        <v>1612585</v>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="n">
+        <v>567.2</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>313.2</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="n">
+        <v>572.3152840291021</v>
+      </c>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="n">
+        <v>2662.0216</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="n">
+        <v>3.3956496</v>
+      </c>
+      <c r="CB30" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="CE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>18.79661805555556</v>
+      </c>
+      <c r="CG30" t="inlineStr"/>
+      <c r="CH30" t="n">
+        <v>20.9608</v>
+      </c>
+      <c r="CI30" t="inlineStr"/>
+      <c r="CJ30" t="inlineStr"/>
+      <c r="CK30" t="inlineStr"/>
+      <c r="CL30" t="inlineStr"/>
+      <c r="CM30" t="inlineStr"/>
+      <c r="CN30" t="inlineStr"/>
+      <c r="CO30" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP30" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR30" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT30" t="inlineStr"/>
+      <c r="CU30" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV30" t="inlineStr"/>
+      <c r="CW30" t="inlineStr"/>
+      <c r="CX30" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY30" t="inlineStr"/>
+      <c r="CZ30" t="inlineStr"/>
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="inlineStr"/>
+      <c r="DE30" t="inlineStr"/>
+      <c r="DF30" t="inlineStr"/>
+      <c r="DG30" t="inlineStr"/>
+      <c r="DH30" t="inlineStr"/>
+      <c r="DI30" t="inlineStr"/>
+      <c r="DJ30" t="inlineStr"/>
+      <c r="DK30" t="inlineStr"/>
+      <c r="DL30" t="inlineStr"/>
+      <c r="DM30" t="inlineStr"/>
+      <c r="DN30" t="inlineStr"/>
+      <c r="DO30" t="inlineStr"/>
+      <c r="DP30" t="inlineStr"/>
+      <c r="DQ30" t="inlineStr">
+        <is>
+          <t>GP[0()]5</t>
+        </is>
+      </c>
+      <c r="DR30" t="n">
+        <v>18.912985</v>
+      </c>
+      <c r="DS30" t="inlineStr">
+        <is>
+          <t>0/0/0/0/0</t>
+        </is>
+      </c>
+      <c r="DT30" t="n">
+        <v>2.75373622217501</v>
+      </c>
+      <c r="DU30" t="n">
+        <v>5.390274178286151</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10831</v>
+      </c>
+      <c r="B31" t="n">
+        <v>831</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FACT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[0(),+45(),-45()SB]6s</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>38</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>GV</t>
+        </is>
+      </c>
+      <c r="V31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>193.04</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.1424533755896991</v>
+      </c>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="n">
+        <v>17764694</v>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="n">
+        <v>516</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>289.1</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="n">
+        <v>484.0180144175243</v>
+      </c>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="inlineStr"/>
+      <c r="BW31" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="n">
+        <v>1.85271408</v>
+      </c>
+      <c r="CB31" t="n">
+        <v>0.0864</v>
+      </c>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="CE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="CF31" t="n">
+        <v>40.12529487179487</v>
+      </c>
+      <c r="CG31" t="inlineStr"/>
+      <c r="CH31" t="n">
+        <v>21.44345</v>
+      </c>
+      <c r="CI31" t="inlineStr"/>
+      <c r="CJ31" t="inlineStr"/>
+      <c r="CK31" t="inlineStr"/>
+      <c r="CL31" t="inlineStr"/>
+      <c r="CM31" t="inlineStr"/>
+      <c r="CN31" t="inlineStr"/>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP31" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ31" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR31" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr"/>
+      <c r="CU31" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr"/>
+      <c r="CW31" t="inlineStr"/>
+      <c r="CX31" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY31" t="inlineStr"/>
+      <c r="CZ31" t="inlineStr"/>
+      <c r="DA31" t="inlineStr"/>
+      <c r="DB31" t="inlineStr"/>
+      <c r="DC31" t="inlineStr"/>
+      <c r="DD31" t="inlineStr"/>
+      <c r="DE31" t="inlineStr"/>
+      <c r="DF31" t="inlineStr"/>
+      <c r="DG31" t="inlineStr"/>
+      <c r="DH31" t="inlineStr"/>
+      <c r="DI31" t="inlineStr"/>
+      <c r="DJ31" t="inlineStr"/>
+      <c r="DK31" t="inlineStr"/>
+      <c r="DL31" t="inlineStr"/>
+      <c r="DM31" t="inlineStr"/>
+      <c r="DN31" t="inlineStr"/>
+      <c r="DO31" t="inlineStr"/>
+      <c r="DP31" t="inlineStr"/>
+      <c r="DQ31" t="inlineStr">
+        <is>
+          <t>GV[0(),+45(),-45()SB]6s</t>
+        </is>
+      </c>
+      <c r="DR31" t="n">
+        <v>6.895</v>
+      </c>
+      <c r="DS31" t="inlineStr">
+        <is>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+        </is>
+      </c>
+      <c r="DT31" t="n">
+        <v>2.712649701627211</v>
+      </c>
+      <c r="DU31" t="n">
+        <v>4.839112362047485</v>
       </c>
     </row>
   </sheetData>

--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Minimum/Maximum Stress</t>
+          <t>R-value</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -1062,10 +1062,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11029</v>
+        <v>10352</v>
       </c>
       <c r="B2" t="n">
-        <v>1029</v>
+        <v>352</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1075,18 +1075,18 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1095,11 +1095,11 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -1107,7 +1107,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>49.1</v>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -1117,12 +1119,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -1135,33 +1137,25 @@
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>18</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AB2" t="n">
-        <v>280</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG2" t="n">
-        <v>92</v>
-      </c>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr">
         <is>
@@ -1169,7 +1163,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1177,19 +1171,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>292</v>
+        <v>-204.5</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>627801</v>
+        <v>9495980</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1204,14 +1198,14 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="n">
-        <v>2.4</v>
-      </c>
+      <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>546</v>
+      </c>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
@@ -1220,32 +1214,30 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="n">
-        <v>0.0008</v>
-      </c>
+      <c r="BX2" t="inlineStr"/>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>26.2656</v>
+        <v>3.681</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.8639999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF2" t="n">
-        <v>8.570714814814815</v>
+        <v>64.11635416666667</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>30.4</v>
+        <v>40.9</v>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
@@ -1260,18 +1252,32 @@
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ2" t="inlineStr"/>
-      <c r="CR2" t="inlineStr"/>
-      <c r="CS2" t="inlineStr"/>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR2" t="n">
+        <v>30</v>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT2" t="inlineStr"/>
-      <c r="CU2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV2" t="inlineStr"/>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="inlineStr"/>
@@ -1293,30 +1299,30 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR2" t="n">
-        <v>29.2</v>
+        <v>-2045</v>
       </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>2.802089257881732</v>
+        <v>2.781036938621132</v>
       </c>
       <c r="DU2" t="n">
-        <v>4.564966507854261</v>
+        <v>5.786992188571325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10004</v>
+        <v>10162</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1331,13 +1337,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0()FW]8</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -1359,10 +1365,10 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>52.8</v>
+        <v>49.1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -1386,7 +1392,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
@@ -1397,7 +1403,7 @@
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>34.2</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
         <v>280</v>
@@ -1432,21 +1438,21 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>472</v>
+        <v>286.3</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4600221360497219</v>
+        <v>0.4463609613506411</v>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>5209100</v>
+        <v>594308</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1461,17 +1467,17 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>862</v>
+        <v>546</v>
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="n">
-        <v>1026.037581697989</v>
+        <v>641.4091392170283</v>
       </c>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
@@ -1479,7 +1485,7 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="n">
-        <v>37.76</v>
+        <v>32.72</v>
       </c>
       <c r="BX3" t="n">
         <v>0.0008</v>
@@ -1487,10 +1493,10 @@
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>4.248000000000001</v>
+        <v>2.576699999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.09</v>
+        <v>0.06299999999999999</v>
       </c>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr">
@@ -1502,11 +1508,11 @@
         <v>5</v>
       </c>
       <c r="CF3" t="n">
-        <v>45.85437222222222</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>47.2</v>
+        <v>40.9</v>
       </c>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
@@ -1546,7 +1552,7 @@
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
@@ -1568,30 +1574,30 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GP[0()FW]8</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>47.2</v>
+        <v>28.63</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>2.935507265824712</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.899458605729175</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11004</v>
+        <v>10730</v>
       </c>
       <c r="B4" t="n">
-        <v>1004</v>
+        <v>730</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1601,18 +1607,18 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1621,26 +1627,20 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>30</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1648,46 +1648,36 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>36</v>
+        <v>208.28</v>
       </c>
       <c r="AB4" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD4" t="n">
         <v>100</v>
       </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG4" t="n">
-        <v>92</v>
-      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
         <is>
@@ -1695,7 +1685,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1703,19 +1693,21 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>-398</v>
-      </c>
-      <c r="AT4" t="inlineStr"/>
+        <v>187.88875</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.3189685287916126</v>
+      </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>1689490</v>
+        <v>7475243</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1730,56 +1722,56 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>874</v>
+        <v>586.6</v>
       </c>
       <c r="BL4" t="n">
-        <v>720</v>
+        <v>294.6</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.66</v>
+      </c>
+      <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="BQ4" t="n">
+        <v>589.0510600271501</v>
+      </c>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr"/>
+      <c r="BW4" t="n">
+        <v>2863.42455</v>
+      </c>
       <c r="BX4" t="n">
-        <v>0.0008</v>
+        <v>0.127</v>
       </c>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>3.7044</v>
+        <v>3.206133630000001</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.0882</v>
+        <v>0.1422</v>
       </c>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF4" t="n">
-        <v>27.64677314814815</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>40.6</v>
-      </c>
+        <v>22.54665</v>
+      </c>
+      <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
@@ -1792,22 +1784,32 @@
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT4" t="inlineStr"/>
-      <c r="CU4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
@@ -1829,22 +1831,22 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR4" t="n">
-        <v>-3980</v>
+        <v>18.788875</v>
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>2.941511432634403</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DU4" t="n">
-        <v>5.52536012144618</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="5">
@@ -2104,10 +2106,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10352</v>
+        <v>10175</v>
       </c>
       <c r="B6" t="n">
-        <v>352</v>
+        <v>175</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2117,12 +2119,12 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2137,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -2150,9 +2152,11 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>58.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.38</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
@@ -2166,7 +2170,7 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -2179,25 +2183,33 @@
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>25</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1200</v>
+      </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>90</v>
+      </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
         <is>
@@ -2205,7 +2217,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -2213,19 +2225,21 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.172</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>-204.5</v>
-      </c>
-      <c r="AT6" t="inlineStr"/>
+        <v>28.38</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.4625843648268949</v>
+      </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>9495980</v>
+        <v>376116</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2240,46 +2254,52 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>604</v>
+        <v>55</v>
       </c>
       <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+      <c r="BM6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="n">
-        <v>546</v>
-      </c>
+      <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v>61.35097110474145</v>
+      </c>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="n">
-        <v>3.681</v>
+        <v>0.25542</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.09</v>
+        <v>0.01548</v>
       </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF6" t="n">
-        <v>64.11635416666667</v>
+        <v>6.363592592592592</v>
       </c>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="n">
-        <v>40.9</v>
+        <v>16.5</v>
       </c>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
@@ -2294,16 +2314,16 @@
       </c>
       <c r="CP6" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="CS6" t="inlineStr">
         <is>
@@ -2319,7 +2339,7 @@
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
@@ -2341,30 +2361,30 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>-2045</v>
+        <v>2.838</v>
       </c>
       <c r="DS6" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT6" t="n">
-        <v>2.781036938621132</v>
+        <v>1.740362689494244</v>
       </c>
       <c r="DU6" t="n">
-        <v>5.786992188571325</v>
+        <v>4.255093919562162</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10162</v>
+        <v>10201</v>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2379,7 +2399,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2407,10 +2427,10 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>49.1</v>
+        <v>52.7</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -2454,7 +2474,7 @@
         <v>110</v>
       </c>
       <c r="AD7" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
@@ -2472,7 +2492,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -2480,21 +2500,21 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>286.3</v>
+        <v>-327.2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.4463609613506411</v>
+        <v>0.5076204850168683</v>
       </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>594308</v>
+        <v>16886</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2519,7 +2539,7 @@
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="n">
-        <v>641.4091392170283</v>
+        <v>644.576035951597</v>
       </c>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
@@ -2535,10 +2555,10 @@
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="n">
-        <v>2.576699999999999</v>
+        <v>2.9448</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.06299999999999999</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
@@ -2550,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="CF7" t="n">
-        <v>5.379098290598289</v>
+        <v>0.7329444444444443</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
@@ -2574,7 +2594,7 @@
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR7" t="n">
@@ -2616,30 +2636,30 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>28.63</v>
+        <v>-3272</v>
       </c>
       <c r="DS7" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT7" t="n">
         <v>2.737192642704737</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.116696166647357</v>
+        <v>4.105793520617849</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10730</v>
+        <v>10213</v>
       </c>
       <c r="B8" t="n">
-        <v>730</v>
+        <v>213</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2649,21 +2669,21 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2671,14 +2691,18 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>L20/SL</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>30</v>
+        <v>38.6</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2695,30 +2719,34 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>50.8</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>208.28</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr">
@@ -2727,7 +2755,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -2735,21 +2763,19 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>187.88875</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0.3189685287916126</v>
-      </c>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>7475243</v>
+        <v>76421820</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -2764,38 +2790,36 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>586.6</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>294.6</v>
-      </c>
+        <v>544.152</v>
+      </c>
+      <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="BN8" t="inlineStr"/>
+        <v>2.212</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>2.14</v>
+      </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="n">
-        <v>589.0510600271501</v>
-      </c>
+      <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="n">
-        <v>2863.42455</v>
+        <v>4.92</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.127</v>
+        <v>0.0002</v>
       </c>
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>3.206133630000001</v>
+        <v>6.2976</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.1422</v>
+        <v>0.256</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr">
@@ -2804,14 +2828,14 @@
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="CF8" t="n">
-        <v>22.4654012345679</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>22.54665</v>
+        <v>24.6</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -2826,17 +2850,15 @@
       </c>
       <c r="CP8" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR8" t="n">
-        <v>22.5</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr"/>
       <c r="CS8" t="inlineStr">
         <is>
           <t>n</t>
@@ -2848,10 +2870,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV8" t="inlineStr"/>
+      <c r="CV8" t="n">
+        <v>50</v>
+      </c>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="inlineStr"/>
@@ -2873,30 +2897,30 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>18.788875</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>2.768342058644533</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.327868793507926</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10029</v>
+        <v>11273</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>1273</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2911,13 +2935,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -2930,7 +2954,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M9/M10</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2939,15 +2963,11 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>hl</t>
@@ -2955,7 +2975,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2963,33 +2983,23 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V9" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
         <v>30</v>
       </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>56</v>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>250</v>
       </c>
-      <c r="AC9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>250</v>
-      </c>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr"/>
@@ -3008,21 +3018,21 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>126.8</v>
+        <v>203.2</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.117076391682425</v>
+        <v>0.2828987854305369</v>
       </c>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>28787900</v>
+        <v>2346760</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3037,19 +3047,21 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>846.39</v>
-      </c>
-      <c r="BL9" t="inlineStr"/>
+        <v>572</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>547</v>
+      </c>
       <c r="BM9" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="n">
-        <v>1083.053536053202</v>
+        <v>718.2780926074136</v>
       </c>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
@@ -3057,7 +3069,7 @@
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="n">
-        <v>6.34</v>
+        <v>5.08</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0002</v>
@@ -3065,10 +3077,10 @@
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>5.072</v>
+        <v>2.4384</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.16</v>
+        <v>0.096</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
@@ -3077,16 +3089,18 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CF9" t="n">
-        <v>64.42121623093684</v>
+        <v>14.42657004830918</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="CI9" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>25.5</v>
+      </c>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
@@ -3097,18 +3111,14 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP9" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="CP9" t="inlineStr"/>
       <c r="CQ9" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
       <c r="CR9" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="CS9" t="inlineStr">
         <is>
@@ -3121,13 +3131,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV9" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
-      <c r="CX9" t="n">
-        <v>1</v>
-      </c>
+      <c r="CX9" t="inlineStr"/>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
       <c r="DA9" t="inlineStr"/>
@@ -3148,11 +3154,11 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>-126.8</v>
+        <v>-203.2</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
@@ -3160,18 +3166,18 @@
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>2.927570523582327</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.995535696220584</v>
+        <v>4.337419932426495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10046</v>
+        <v>10878</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>878</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3181,21 +3187,21 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3203,26 +3209,18 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>M9/M10</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3230,43 +3228,35 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>20</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>56</v>
+        <v>193.04</v>
       </c>
       <c r="AB10" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC10" t="n">
         <v>100</v>
       </c>
-      <c r="AD10" t="n">
-        <v>250</v>
-      </c>
+      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
@@ -3275,7 +3265,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3283,21 +3273,19 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>-204</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0.1781790566266567</v>
-      </c>
+        <v>68.95</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>9813370</v>
+        <v>7825000</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3312,39 +3300,33 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>907.8</v>
-      </c>
-      <c r="BL10" t="inlineStr"/>
+        <v>467.5</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>317.5</v>
+      </c>
       <c r="BM10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>1.96</v>
-      </c>
+        <v>2.84</v>
+      </c>
+      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="n">
-        <v>1144.915703687031</v>
-      </c>
+      <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="n">
-        <v>6.8</v>
+        <v>10000</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0002</v>
+        <v>0.61</v>
       </c>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="n">
-        <v>3.672000000000001</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0.108</v>
-      </c>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
         <is>
@@ -3352,14 +3334,14 @@
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CF10" t="n">
-        <v>65.5044586056645</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>34</v>
+        <v>19.92655</v>
       </c>
       <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
@@ -3369,20 +3351,22 @@
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP10" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR10" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR10" t="n">
+        <v>22.5</v>
+      </c>
       <c r="CS10" t="inlineStr">
         <is>
           <t>n</t>
@@ -3394,12 +3378,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV10" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
@@ -3421,30 +3403,30 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>-2040</v>
+        <v>6.895</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>2.95799017840683</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.845645129132144</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10237</v>
+        <v>11058</v>
       </c>
       <c r="B11" t="n">
-        <v>237</v>
+        <v>1058</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3454,18 +3436,18 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -3474,11 +3456,11 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3487,14 +3469,18 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>36.9</v>
+        <v>50</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>HAMILTON STANDARD</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -3508,31 +3494,33 @@
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>20</v>
+        <v>50.4</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>44</v>
+        <v>176.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>250</v>
+        <v>154.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>82</v>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
@@ -3540,7 +3528,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -3548,19 +3536,19 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>0.4</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>118.4</v>
+        <v>68</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>57220600</v>
+        <v>11254000</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3575,16 +3563,14 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>619.2320000000001</v>
+        <v>274.5</v>
       </c>
       <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>2.418</v>
-      </c>
-      <c r="BO11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="n">
+        <v>275.7</v>
+      </c>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
@@ -3592,35 +3578,27 @@
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="n">
-        <v>7.5776</v>
+        <v>1.36</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.256</v>
+        <v>0.09714285714285716</v>
       </c>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CF11" t="n">
-        <v>114.1808263888889</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="n">
-        <v>29.6</v>
+        <v>14</v>
       </c>
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
@@ -3635,38 +3613,28 @@
       </c>
       <c r="CP11" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ11" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV11" t="n">
-        <v>50</v>
-      </c>
+      <c r="CU11" t="inlineStr"/>
+      <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr"/>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD11" t="inlineStr"/>
       <c r="DE11" t="inlineStr"/>
       <c r="DF11" t="inlineStr"/>
@@ -3682,30 +3650,30 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>-118.4</v>
+        <v>0</v>
       </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT11" t="n">
-        <v>2.791853391254176</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DU11" t="n">
-        <v>5.165177541080086</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10260</v>
+        <v>10004</v>
       </c>
       <c r="B12" t="n">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3715,18 +3683,18 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[0()FW]8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -3739,7 +3707,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -3748,52 +3716,64 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.83</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>18</v>
+      </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>44</v>
+        <v>34.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AC12" t="n">
         <v>110</v>
       </c>
-      <c r="AD12" t="inlineStr"/>
+      <c r="AD12" t="n">
+        <v>100</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>90</v>
+      </c>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr">
         <is>
@@ -3809,19 +3789,21 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="AT12" t="inlineStr"/>
+        <v>472</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.4600221360497219</v>
+      </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>42675000</v>
+        <v>5209100</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -3836,52 +3818,52 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>667.3480000000001</v>
+        <v>862</v>
       </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>2.418</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="inlineStr"/>
+      <c r="BQ12" t="n">
+        <v>1026.037581697989</v>
+      </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>6.38</v>
+        <v>37.76</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>5.024249999999999</v>
+        <v>4.248000000000001</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.1575</v>
+        <v>0.09</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="CF12" t="n">
-        <v>170.260063425926</v>
+        <v>45.85437222222222</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>31.9</v>
+        <v>47.2</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -3904,7 +3886,9 @@
           <t>n</t>
         </is>
       </c>
-      <c r="CR12" t="inlineStr"/>
+      <c r="CR12" t="n">
+        <v>23</v>
+      </c>
       <c r="CS12" t="inlineStr">
         <is>
           <t>n</t>
@@ -3916,9 +3900,7 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV12" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
         <v>1</v>
@@ -3943,30 +3925,30 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[0()FW]8</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>22.33</v>
+        <v>47.2</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>2.824352363252417</v>
+        <v>2.935507265824712</v>
       </c>
       <c r="DU12" t="n">
-        <v>5.772019752181081</v>
+        <v>4.899458605729175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10291</v>
+        <v>19001</v>
       </c>
       <c r="B13" t="n">
-        <v>291</v>
+        <v>9001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3976,21 +3958,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NLR</t>
+          <t>TUD</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0(610)]8</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
         <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -4000,20 +3982,26 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>BASF A420</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>E UNIVER 61</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>45</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4021,7 +4009,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -4030,31 +4018,37 @@
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.8</v>
+        <v>8.5</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>195.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD13" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>100</v>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr"/>
+          <t>twin</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>94</v>
+      </c>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
         <is>
@@ -4070,17 +4064,21 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.57</v>
+        <v>0.5117977528089888</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
+      <c r="AS13" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.1967106228709724</v>
+      </c>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>55000000</v>
+        <v>603000000</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4095,30 +4093,44 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>670</v>
+        <v>428</v>
       </c>
       <c r="BL13" t="n">
-        <v>475</v>
-      </c>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
-      <c r="BO13" t="inlineStr"/>
-      <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
+        <v>291</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>365</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>395</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>463.1168295357127</v>
+      </c>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
-      <c r="BW13" t="inlineStr"/>
-      <c r="BX13" t="inlineStr"/>
+      <c r="BW13" t="n">
+        <v>290</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.016</v>
+      </c>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>7.566749999999999</v>
+        <v>2.459700000000001</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.2565</v>
+        <v>0.138185393258427</v>
       </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr">
@@ -4127,21 +4139,21 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="CF13" t="n">
-        <v>150.8407070707071</v>
+        <v>975.5221280423282</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="CI13" t="inlineStr"/>
+        <v>17.8</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>18.5</v>
+      </c>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="n">
-        <v>52.7</v>
-      </c>
+      <c r="CL13" t="inlineStr"/>
       <c r="CM13" t="inlineStr"/>
       <c r="CN13" t="inlineStr"/>
       <c r="CO13" t="inlineStr">
@@ -4164,7 +4176,7 @@
       </c>
       <c r="CS13" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT13" t="inlineStr"/>
@@ -4173,10 +4185,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV13" t="inlineStr"/>
+      <c r="CV13" t="n">
+        <v>60</v>
+      </c>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
@@ -4198,28 +4212,30 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GP[0(610)]8</t>
-        </is>
-      </c>
-      <c r="DR13" t="inlineStr"/>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+        </is>
+      </c>
+      <c r="DR13" t="n">
+        <v>9.109999999999999</v>
+      </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>2.826074802700826</v>
+        <v>2.631443769013172</v>
       </c>
       <c r="DU13" t="n">
-        <v>6.899410614790332</v>
+        <v>5.128322405871098</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10820</v>
+        <v>11229</v>
       </c>
       <c r="B14" t="n">
-        <v>820</v>
+        <v>1229</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4229,21 +4245,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[0()]</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4251,18 +4267,28 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Synolite 593-E-1</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>45</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4270,7 +4296,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -4279,24 +4305,28 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="Y14" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>23</v>
+      </c>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
-        <v>83.81999999999999</v>
+        <v>195.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="AC14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD14" t="n">
         <v>100</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
@@ -4307,7 +4337,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -4315,21 +4345,21 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.91</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>324.8924</v>
+        <v>-180</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.422772006211321</v>
+        <v>0.3615020039207029</v>
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>153402</v>
+        <v>23813962</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4344,19 +4374,17 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>742.3</v>
+        <v>462</v>
       </c>
       <c r="BL14" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>2.31</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="BM14" t="inlineStr"/>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="n">
-        <v>768.4813450907716</v>
+        <v>497.9225510447898</v>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
@@ -4364,36 +4392,34 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="n">
-        <v>2206.4</v>
+        <v>290</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.064</v>
+        <v>0.016</v>
       </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>5.647005000000001</v>
+        <v>2.208315789473684</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1638</v>
+        <v>0.1193684210526316</v>
       </c>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.194388888888889</v>
+        <v>111.5042773662552</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>34.475</v>
-      </c>
-      <c r="CI14" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
@@ -4406,7 +4432,7 @@
       </c>
       <c r="CP14" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ14" t="inlineStr">
@@ -4415,11 +4441,11 @@
         </is>
       </c>
       <c r="CR14" t="n">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="CS14" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT14" t="inlineStr"/>
@@ -4431,7 +4457,7 @@
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
@@ -4453,30 +4479,30 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GP[0()]</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>32.48924</v>
+        <v>-1800</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>2.870579460552685</v>
+        <v>2.664641975556125</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.160654730827149</v>
+        <v>4.97890006476624</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11058</v>
+        <v>11413</v>
       </c>
       <c r="B15" t="n">
-        <v>1058</v>
+        <v>1413</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4486,31 +4512,31 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FFA</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[+30(),-30()FW]</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Epon 826/Jeffamine D-230</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4519,57 +4545,59 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>45</v>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>HAMILTON STANDARD</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>23</v>
+      </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>176.4</v>
+        <v>195.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>154.9</v>
+        <v>200</v>
       </c>
       <c r="AC15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>100</v>
+      </c>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
@@ -4578,7 +4606,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4586,19 +4614,21 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.4857142857142858</v>
+        <v>0.62</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>68</v>
-      </c>
-      <c r="AT15" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.2421326168845685</v>
+      </c>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>11254000</v>
+        <v>3229856</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -4613,44 +4643,60 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="n">
-        <v>275.7</v>
-      </c>
+        <v>443.7</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="inlineStr"/>
+      <c r="BQ15" t="n">
+        <v>474.9463392403005</v>
+      </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="inlineStr"/>
-      <c r="BX15" t="inlineStr"/>
+      <c r="BW15" t="n">
+        <v>290</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.016</v>
+      </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>1.36</v>
+        <v>1.8352</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.09714285714285716</v>
+        <v>0.0992</v>
       </c>
       <c r="CC15" t="inlineStr"/>
-      <c r="CD15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CF15" t="n">
-        <v>24.71399647266314</v>
+        <v>244.4947222222222</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>14</v>
-      </c>
-      <c r="CI15" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
@@ -4663,28 +4709,44 @@
       </c>
       <c r="CP15" t="inlineStr">
         <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ15" t="inlineStr"/>
-      <c r="CR15" t="inlineStr"/>
-      <c r="CS15" t="inlineStr"/>
-      <c r="CT15" t="inlineStr"/>
-      <c r="CU15" t="inlineStr"/>
-      <c r="CV15" t="inlineStr"/>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR15" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr">
+        <is>
+          <t>50w14d</t>
+        </is>
+      </c>
+      <c r="CU15" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV15" t="n">
+        <v>40</v>
+      </c>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
       <c r="DA15" t="inlineStr"/>
       <c r="DB15" t="inlineStr"/>
-      <c r="DC15" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC15" t="inlineStr"/>
       <c r="DD15" t="inlineStr"/>
       <c r="DE15" t="inlineStr"/>
       <c r="DF15" t="inlineStr"/>
@@ -4700,30 +4762,30 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>0</v>
+        <v>-115</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>30/-30</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>2.438542348786111</v>
+        <v>2.647089428716555</v>
       </c>
       <c r="DU15" t="n">
-        <v>4.720184367079336</v>
+        <v>6.408635862973926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10133</v>
+        <v>11029</v>
       </c>
       <c r="B16" t="n">
-        <v>133</v>
+        <v>1029</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4733,33 +4795,31 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4767,14 +4827,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O16" t="n">
-        <v>35</v>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -4784,7 +4842,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -4793,31 +4851,37 @@
         </is>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y16" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AC16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>100</v>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
+        <v>92</v>
+      </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
         <is>
@@ -4833,21 +4897,19 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0.3360838156505212</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>2430000</v>
+        <v>627801</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -4862,50 +4924,48 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>115</v>
+        <v>634</v>
       </c>
       <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
+      <c r="BM16" t="n">
+        <v>2.4</v>
+      </c>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="n">
-        <v>141.6313365398623</v>
-      </c>
+      <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="BW16" t="inlineStr"/>
       <c r="BX16" t="n">
-        <v>0.00028</v>
+        <v>0.0008</v>
       </c>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>0.9072000000000001</v>
+        <v>26.2656</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.08100000000000002</v>
+        <v>0.8639999999999999</v>
       </c>
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF16" t="n">
-        <v>12.47599358974359</v>
+        <v>8.570714814814815</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
-        <v>11.2</v>
+        <v>30.4</v>
       </c>
       <c r="CI16" t="inlineStr"/>
       <c r="CJ16" t="inlineStr"/>
@@ -4923,29 +4983,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ16" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR16" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS16" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="CQ16" t="inlineStr"/>
+      <c r="CR16" t="inlineStr"/>
+      <c r="CS16" t="inlineStr"/>
       <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU16" t="inlineStr"/>
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
@@ -4967,30 +5013,30 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>4.760000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT16" t="n">
-        <v>2.060697840353612</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU16" t="n">
-        <v>5.117753535981455</v>
+        <v>4.564966507854261</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19001</v>
+        <v>10191</v>
       </c>
       <c r="B17" t="n">
-        <v>9001</v>
+        <v>191</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5000,21 +5046,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5024,7 +5070,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5033,20 +5079,20 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>30</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="n">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -5060,24 +5106,24 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>195.5</v>
+        <v>41.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD17" t="n">
         <v>100</v>
@@ -5085,11 +5131,11 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>twin</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG17" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
@@ -5106,21 +5152,21 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>0.5117977528089888</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>91.09999999999999</v>
+        <v>237.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1967106228709724</v>
+        <v>0.3072724503678881</v>
       </c>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>603000000</v>
+        <v>7964865</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5135,25 +5181,17 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>428</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>291</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="n">
         <v>2.6</v>
       </c>
-      <c r="BN17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>395</v>
-      </c>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
       <c r="BQ17" t="n">
-        <v>463.1168295357127</v>
+        <v>773.2551347038388</v>
       </c>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
@@ -5161,38 +5199,36 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="n">
-        <v>290</v>
+        <v>23.76</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.016</v>
+        <v>0.0008</v>
       </c>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>2.459700000000001</v>
+        <v>2.1384</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.138185393258427</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="CF17" t="n">
-        <v>975.5221280423282</v>
+        <v>48.72872058823528</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>18.5</v>
-      </c>
+        <v>29.7</v>
+      </c>
+      <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
@@ -5214,11 +5250,11 @@
         </is>
       </c>
       <c r="CR17" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="CS17" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT17" t="inlineStr"/>
@@ -5227,12 +5263,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV17" t="n">
-        <v>60</v>
-      </c>
+      <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5254,30 +5288,30 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>9.109999999999999</v>
+        <v>23.76</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>2.631443769013172</v>
+        <v>2.816241299991784</v>
       </c>
       <c r="DU17" t="n">
-        <v>5.128322405871098</v>
+        <v>4.89964617989019</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11229</v>
+        <v>10237</v>
       </c>
       <c r="B18" t="n">
-        <v>1229</v>
+        <v>237</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5287,21 +5321,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5311,7 +5345,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5320,17 +5354,11 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>32</v>
+        <v>36.9</v>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>45</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5338,39 +5366,39 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>195.5</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>100</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr">
@@ -5379,7 +5407,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -5387,21 +5415,19 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.4</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>-180</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>0.3615020039207029</v>
-      </c>
+        <v>118.4</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>23813962</v>
+        <v>57220600</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5416,52 +5442,54 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>462</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>320</v>
-      </c>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
+        <v>619.2320000000001</v>
+      </c>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2.418</v>
+      </c>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="n">
-        <v>497.9225510447898</v>
-      </c>
+      <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="n">
-        <v>290</v>
+        <v>5.92</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="n">
-        <v>2.208315789473684</v>
+        <v>7.5776</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.1193684210526316</v>
+        <v>0.256</v>
       </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="CF18" t="n">
-        <v>111.5042773662552</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>19</v>
-      </c>
+        <v>29.6</v>
+      </c>
+      <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
@@ -5479,15 +5507,13 @@
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR18" t="inlineStr"/>
+      <c r="CS18" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR18" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS18" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT18" t="inlineStr"/>
@@ -5496,10 +5522,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV18" t="inlineStr"/>
+      <c r="CV18" t="n">
+        <v>50</v>
+      </c>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5521,30 +5549,30 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>-1800</v>
+        <v>-118.4</v>
       </c>
       <c r="DS18" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT18" t="n">
-        <v>2.664641975556125</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.97890006476624</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11413</v>
+        <v>10260</v>
       </c>
       <c r="B19" t="n">
-        <v>1413</v>
+        <v>260</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -5554,21 +5582,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5578,7 +5606,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5587,17 +5615,11 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>32</v>
+        <v>36.9</v>
       </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>45</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5605,42 +5627,40 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>195.5</v>
+        <v>44</v>
       </c>
       <c r="AB19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>100</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>94</v>
-      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
         <is>
@@ -5648,7 +5668,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -5656,21 +5676,19 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>115</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>0.2421326168845685</v>
-      </c>
+        <v>223.3</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>3229856</v>
+        <v>42675000</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -5685,40 +5703,36 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>332.5</v>
-      </c>
+        <v>667.3480000000001</v>
+      </c>
+      <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="n">
-        <v>2.55</v>
+        <v>2.092</v>
       </c>
       <c r="BN19" t="n">
-        <v>1.83</v>
+        <v>2.418</v>
       </c>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="n">
-        <v>474.9463392403005</v>
-      </c>
+      <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>290</v>
+        <v>6.38</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>1.8352</v>
+        <v>5.024249999999999</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.0992</v>
+        <v>0.1575</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
@@ -5727,18 +5741,16 @@
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="CF19" t="n">
-        <v>244.4947222222222</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>19</v>
-      </c>
+        <v>31.9</v>
+      </c>
+      <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
@@ -5759,30 +5771,24 @@
           <t>n</t>
         </is>
       </c>
-      <c r="CR19" t="n">
-        <v>20</v>
-      </c>
+      <c r="CR19" t="inlineStr"/>
       <c r="CS19" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT19" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
       <c r="CV19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5804,30 +5810,30 @@
       <c r="DP19" t="inlineStr"/>
       <c r="DQ19" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>-115</v>
+        <v>22.33</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>2.647089428716555</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DU19" t="n">
-        <v>6.408635862973926</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10191</v>
+        <v>10703</v>
       </c>
       <c r="B20" t="n">
-        <v>191</v>
+        <v>703</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -5837,21 +5843,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -5859,36 +5865,26 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>UP333</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>55</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.91</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -5897,37 +5893,27 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>41.4</v>
+        <v>208.28</v>
       </c>
       <c r="AB20" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD20" t="n">
         <v>100</v>
       </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG20" t="n">
-        <v>90</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -5943,21 +5929,21 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>237.6</v>
+        <v>189.12985</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3072724503678881</v>
+        <v>0.3304644402793597</v>
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>7964865</v>
+        <v>1612585</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -5972,17 +5958,19 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>655</v>
-      </c>
-      <c r="BL20" t="inlineStr"/>
+        <v>567.2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>313.2</v>
+      </c>
       <c r="BM20" t="n">
-        <v>2.6</v>
+        <v>2.76</v>
       </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="n">
-        <v>773.2551347038388</v>
+        <v>572.3152840291021</v>
       </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
@@ -5990,34 +5978,34 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="n">
-        <v>23.76</v>
+        <v>2662.0216</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.0008</v>
+        <v>0.127</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="n">
-        <v>2.1384</v>
+        <v>3.3956496</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.162</v>
       </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF20" t="n">
-        <v>48.72872058823528</v>
+        <v>18.79661805555556</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>29.7</v>
+        <v>20.9608</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6032,7 +6020,7 @@
       </c>
       <c r="CP20" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ20" t="inlineStr">
@@ -6041,7 +6029,7 @@
         </is>
       </c>
       <c r="CR20" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="CS20" t="inlineStr">
         <is>
@@ -6057,7 +6045,7 @@
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6079,30 +6067,30 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GP[0()]5</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>23.76</v>
+        <v>18.912985</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>2.816241299991784</v>
+        <v>2.75373622217501</v>
       </c>
       <c r="DU20" t="n">
-        <v>4.89964617989019</v>
+        <v>5.390274178286151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10213</v>
+        <v>10820</v>
       </c>
       <c r="B21" t="n">
-        <v>213</v>
+        <v>820</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6112,21 +6100,21 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[0()]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -6134,18 +6122,14 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>38.6</v>
+        <v>50</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -6162,34 +6146,30 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>25.4</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AB21" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
@@ -6198,7 +6178,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -6206,19 +6186,21 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>0.4</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AT21" t="inlineStr"/>
+        <v>324.8924</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.422772006211321</v>
+      </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>76421820</v>
+        <v>153402</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6233,36 +6215,38 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>544.152</v>
-      </c>
-      <c r="BL21" t="inlineStr"/>
+        <v>742.3</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>365.9</v>
+      </c>
       <c r="BM21" t="n">
-        <v>2.212</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2.31</v>
+      </c>
+      <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="inlineStr"/>
+      <c r="BQ21" t="n">
+        <v>768.4813450907716</v>
+      </c>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="n">
-        <v>4.92</v>
+        <v>2206.4</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.0002</v>
+        <v>0.064</v>
       </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>6.2976</v>
+        <v>5.647005000000001</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.256</v>
+        <v>0.1638</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
@@ -6271,14 +6255,14 @@
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CF21" t="n">
-        <v>236.5450942460318</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>24.6</v>
+        <v>34.475</v>
       </c>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
@@ -6293,15 +6277,17 @@
       </c>
       <c r="CP21" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR21" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR21" t="n">
+        <v>22.5</v>
+      </c>
       <c r="CS21" t="inlineStr">
         <is>
           <t>n</t>
@@ -6313,12 +6299,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV21" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6340,30 +6324,30 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>-98.40000000000001</v>
+        <v>32.48924</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>2.735720229736039</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DU21" t="n">
-        <v>5.650649768017886</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11273</v>
+        <v>10984</v>
       </c>
       <c r="B22" t="n">
-        <v>1273</v>
+        <v>984</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6373,21 +6357,17 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DLR</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -6395,27 +6375,15 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>38</v>
+        <v>68.3</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
           <t>p</t>
@@ -6428,23 +6396,15 @@
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="n">
-        <v>30</v>
-      </c>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="n">
-        <v>250</v>
-      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
@@ -6453,29 +6413,25 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.2828987854305369</v>
-      </c>
+        <v>379.225</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>2346760</v>
+        <v>464810</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6490,90 +6446,48 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>572</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>547</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2032.30125</v>
+      </c>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="n">
-        <v>718.2780926074136</v>
-      </c>
+      <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="n">
-        <v>2.4384</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0.096</v>
-      </c>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
       <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD22" t="inlineStr"/>
       <c r="CE22" t="n">
         <v>3</v>
       </c>
       <c r="CF22" t="n">
-        <v>14.42657004830918</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>25.5</v>
-      </c>
+      <c r="CH22" t="inlineStr"/>
+      <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
       <c r="CM22" t="inlineStr"/>
       <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
+      <c r="CO22" t="inlineStr"/>
       <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR22" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS22" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ22" t="inlineStr"/>
+      <c r="CR22" t="inlineStr"/>
+      <c r="CS22" t="inlineStr"/>
       <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU22" t="inlineStr"/>
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="inlineStr"/>
@@ -6597,30 +6511,26 @@
       <c r="DP22" t="inlineStr"/>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>-203.2</v>
-      </c>
-      <c r="DS22" t="inlineStr">
-        <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
-        </is>
-      </c>
+        <v>37.92250000000001</v>
+      </c>
+      <c r="DS22" t="inlineStr"/>
       <c r="DT22" t="n">
-        <v>2.757396028793024</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DU22" t="n">
-        <v>4.337419932426495</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10984</v>
+        <v>10831</v>
       </c>
       <c r="B23" t="n">
-        <v>984</v>
+        <v>831</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -6630,17 +6540,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>SNL</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[0(),+45(),-45()SB]6s</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6649,14 +6563,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O23" t="n">
-        <v>68.3</v>
+        <v>38</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>hl</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr">
         <is>
           <t>p</t>
@@ -6664,17 +6586,27 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
+          <t>GV</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>3.8</v>
+      </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>50.8</v>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>193.04</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>254</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>100</v>
+      </c>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
@@ -6693,18 +6625,22 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>0.32</v>
+      </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>379.225</v>
-      </c>
-      <c r="AT23" t="inlineStr"/>
+        <v>68.95</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.1424533755896991</v>
+      </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>464810</v>
+        <v>17764694</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -6719,51 +6655,95 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>2032.30125</v>
-      </c>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+        <v>516</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>289.1</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.95</v>
+      </c>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr"/>
+      <c r="BQ23" t="n">
+        <v>484.0180144175243</v>
+      </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
-      <c r="BX23" t="inlineStr"/>
+      <c r="BW23" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0.61</v>
+      </c>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
+      <c r="CA23" t="n">
+        <v>1.85271408</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>0.0864</v>
+      </c>
       <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="CF23" t="n">
-        <v>5.491115520282186</v>
+        <v>40.12529487179487</v>
       </c>
       <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="inlineStr"/>
+      <c r="CH23" t="n">
+        <v>21.44345</v>
+      </c>
       <c r="CI23" t="inlineStr"/>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
       <c r="CM23" t="inlineStr"/>
       <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr"/>
-      <c r="CQ23" t="inlineStr"/>
-      <c r="CR23" t="inlineStr"/>
-      <c r="CS23" t="inlineStr"/>
+      <c r="CO23" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP23" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ23" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR23" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr"/>
+      <c r="CU23" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="inlineStr"/>
+      <c r="CX23" t="n">
+        <v>3</v>
+      </c>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
@@ -6784,26 +6764,30 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GEnan</t>
+          <t>GV[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>37.92250000000001</v>
-      </c>
-      <c r="DS23" t="inlineStr"/>
+        <v>6.895</v>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+        </is>
+      </c>
       <c r="DT23" t="n">
-        <v>3.307988084278995</v>
+        <v>2.712649701627211</v>
       </c>
       <c r="DU23" t="n">
-        <v>3.948166635414598</v>
+        <v>4.839112362047485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10878</v>
+        <v>10097</v>
       </c>
       <c r="B24" t="n">
-        <v>878</v>
+        <v>97</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -6813,21 +6797,23 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6835,18 +6821,26 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6854,7 +6848,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -6863,26 +6857,34 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y24" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>21</v>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>193.04</v>
+        <v>105</v>
       </c>
       <c r="AB24" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>400</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
@@ -6899,19 +6901,21 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.34</v>
+        <v>0.8</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>68.95</v>
-      </c>
-      <c r="AT24" t="inlineStr"/>
+        <v>210</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.2293484327767916</v>
+      </c>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>7825000</v>
+        <v>52320000</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -6926,33 +6930,35 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>467.5</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>2.84</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v>915.6373883068036</v>
+      </c>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="n">
-        <v>10000</v>
+        <v>2.9</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.61</v>
+        <v>0.00011</v>
       </c>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="inlineStr"/>
-      <c r="CB24" t="inlineStr"/>
+      <c r="CA24" t="n">
+        <v>7.574400000000001</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0.288</v>
+      </c>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr">
         <is>
@@ -6960,14 +6966,14 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CF24" t="n">
-        <v>15.8475122053872</v>
+        <v>167.7077702572482</v>
       </c>
       <c r="CG24" t="inlineStr"/>
       <c r="CH24" t="n">
-        <v>19.92655</v>
+        <v>26.3</v>
       </c>
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
@@ -6977,12 +6983,12 @@
       <c r="CN24" t="inlineStr"/>
       <c r="CO24" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>l</t>
         </is>
       </c>
       <c r="CP24" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ24" t="inlineStr">
@@ -6991,11 +6997,11 @@
         </is>
       </c>
       <c r="CR24" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS24" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT24" t="inlineStr"/>
@@ -7007,12 +7013,14 @@
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
       <c r="DA24" t="inlineStr"/>
-      <c r="DB24" t="inlineStr"/>
+      <c r="DB24" t="n">
+        <v>21000000</v>
+      </c>
       <c r="DC24" t="inlineStr"/>
       <c r="DD24" t="inlineStr"/>
       <c r="DE24" t="inlineStr"/>
@@ -7029,22 +7037,22 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GP[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>6.895</v>
+        <v>21</v>
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT24" t="n">
-        <v>2.669781615208536</v>
+        <v>2.835690571492425</v>
       </c>
       <c r="DU24" t="n">
-        <v>4.372456626701744</v>
+        <v>6.202700787530844</v>
       </c>
     </row>
     <row r="25">
@@ -7563,10 +7571,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10175</v>
+        <v>11004</v>
       </c>
       <c r="B27" t="n">
-        <v>175</v>
+        <v>1004</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -7581,13 +7589,13 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -7596,11 +7604,11 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -7608,12 +7616,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O27" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.38</v>
-      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
@@ -7622,7 +7626,7 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -7643,11 +7647,11 @@
         <v>60</v>
       </c>
       <c r="Y27" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="n">
         <v>280</v>
@@ -7656,16 +7660,16 @@
         <v>110</v>
       </c>
       <c r="AD27" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG27" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH27" t="inlineStr"/>
       <c r="AI27" t="inlineStr">
@@ -7674,7 +7678,7 @@
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
@@ -7682,21 +7686,19 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="n">
-        <v>0.172</v>
+        <v>0.98</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0.4625843648268949</v>
-      </c>
+        <v>-398</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
-        <v>376116</v>
+        <v>1689490</v>
       </c>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
@@ -7711,36 +7713,36 @@
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="n">
-        <v>55</v>
-      </c>
-      <c r="BL27" t="inlineStr"/>
+        <v>874</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>720</v>
+      </c>
       <c r="BM27" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BN27" t="inlineStr"/>
+        <v>2.24</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.9</v>
+      </c>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
-      <c r="BQ27" t="n">
-        <v>61.35097110474145</v>
-      </c>
+      <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="inlineStr"/>
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
       <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="BW27" t="inlineStr"/>
       <c r="BX27" t="n">
         <v>0.0008</v>
       </c>
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="n">
-        <v>0.25542</v>
+        <v>3.7044</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.01548</v>
+        <v>0.0882</v>
       </c>
       <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr">
@@ -7752,13 +7754,15 @@
         <v>5</v>
       </c>
       <c r="CF27" t="n">
-        <v>6.363592592592592</v>
+        <v>27.64677314814815</v>
       </c>
       <c r="CG27" t="inlineStr"/>
       <c r="CH27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="CI27" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
@@ -7776,27 +7780,17 @@
       </c>
       <c r="CQ27" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR27" t="n">
-        <v>23</v>
-      </c>
-      <c r="CS27" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR27" t="inlineStr"/>
+      <c r="CS27" t="inlineStr"/>
       <c r="CT27" t="inlineStr"/>
-      <c r="CU27" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU27" t="inlineStr"/>
       <c r="CV27" t="inlineStr"/>
       <c r="CW27" t="inlineStr"/>
       <c r="CX27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CY27" t="inlineStr"/>
       <c r="CZ27" t="inlineStr"/>
@@ -7818,30 +7812,30 @@
       <c r="DP27" t="inlineStr"/>
       <c r="DQ27" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR27" t="n">
-        <v>2.838</v>
+        <v>-3980</v>
       </c>
       <c r="DS27" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT27" t="n">
-        <v>1.740362689494244</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DU27" t="n">
-        <v>4.255093919562162</v>
+        <v>5.52536012144618</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10201</v>
+        <v>10133</v>
       </c>
       <c r="B28" t="n">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -7851,31 +7845,33 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>Synres 593-58-1086</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -7884,25 +7880,23 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.55</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
@@ -7911,37 +7905,31 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>18</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="AB28" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AC28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1200</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG28" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr">
         <is>
@@ -7949,7 +7937,7 @@
         </is>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
@@ -7957,21 +7945,21 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="n">
-        <v>-327.2</v>
+        <v>47.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5076204850168683</v>
+        <v>0.3360838156505212</v>
       </c>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="n">
-        <v>16886</v>
+        <v>2430000</v>
       </c>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
@@ -7986,17 +7974,15 @@
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="n">
-        <v>546</v>
+        <v>115</v>
       </c>
       <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
       <c r="BQ28" t="n">
-        <v>644.576035951597</v>
+        <v>141.6313365398623</v>
       </c>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
@@ -8004,34 +7990,34 @@
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="n">
-        <v>32.72</v>
+        <v>3.2</v>
       </c>
       <c r="BX28" t="n">
-        <v>0.0008</v>
+        <v>0.00028</v>
       </c>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
       <c r="CA28" t="n">
-        <v>2.9448</v>
+        <v>0.9072000000000001</v>
       </c>
       <c r="CB28" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="CC28" t="inlineStr"/>
       <c r="CD28" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF28" t="n">
-        <v>0.7329444444444443</v>
+        <v>12.47599358974359</v>
       </c>
       <c r="CG28" t="inlineStr"/>
       <c r="CH28" t="n">
-        <v>40.9</v>
+        <v>11.2</v>
       </c>
       <c r="CI28" t="inlineStr"/>
       <c r="CJ28" t="inlineStr"/>
@@ -8051,15 +8037,15 @@
       </c>
       <c r="CQ28" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR28" t="n">
+        <v>25</v>
+      </c>
+      <c r="CS28" t="inlineStr">
+        <is>
           <t>y</t>
-        </is>
-      </c>
-      <c r="CR28" t="n">
-        <v>23</v>
-      </c>
-      <c r="CS28" t="inlineStr">
-        <is>
-          <t>n</t>
         </is>
       </c>
       <c r="CT28" t="inlineStr"/>
@@ -8071,7 +8057,7 @@
       <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="inlineStr"/>
       <c r="CX28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY28" t="inlineStr"/>
       <c r="CZ28" t="inlineStr"/>
@@ -8093,30 +8079,30 @@
       <c r="DP28" t="inlineStr"/>
       <c r="DQ28" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="DR28" t="n">
-        <v>-3272</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="DS28" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
         </is>
       </c>
       <c r="DT28" t="n">
-        <v>2.737192642704737</v>
+        <v>2.060697840353612</v>
       </c>
       <c r="DU28" t="n">
-        <v>4.105793520617849</v>
+        <v>5.117753535981455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10097</v>
+        <v>10029</v>
       </c>
       <c r="B29" t="n">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -8126,23 +8112,21 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -8152,7 +8136,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -8161,13 +8145,13 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -8182,31 +8166,31 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="AB29" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AC29" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD29" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
@@ -8222,7 +8206,7 @@
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -8230,21 +8214,21 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="n">
-        <v>210</v>
+        <v>126.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.2293484327767916</v>
+        <v>0.117076391682425</v>
       </c>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="n">
-        <v>52320000</v>
+        <v>28787900</v>
       </c>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
@@ -8259,15 +8243,19 @@
       <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="n">
-        <v>685</v>
+        <v>846.39</v>
       </c>
       <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
-      <c r="BN29" t="inlineStr"/>
+      <c r="BM29" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.96</v>
+      </c>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="n">
-        <v>915.6373883068036</v>
+        <v>1083.053536053202</v>
       </c>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
@@ -8275,18 +8263,18 @@
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr"/>
       <c r="BW29" t="n">
-        <v>2.9</v>
+        <v>6.34</v>
       </c>
       <c r="BX29" t="n">
-        <v>0.00011</v>
+        <v>0.0002</v>
       </c>
       <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="inlineStr"/>
       <c r="CA29" t="n">
-        <v>7.574400000000001</v>
+        <v>5.072</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.288</v>
+        <v>0.16</v>
       </c>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr">
@@ -8295,14 +8283,14 @@
         </is>
       </c>
       <c r="CE29" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="CF29" t="n">
-        <v>167.7077702572482</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG29" t="inlineStr"/>
       <c r="CH29" t="n">
-        <v>26.3</v>
+        <v>31.7</v>
       </c>
       <c r="CI29" t="inlineStr"/>
       <c r="CJ29" t="inlineStr"/>
@@ -8322,15 +8310,15 @@
       </c>
       <c r="CQ29" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR29" t="n">
+        <v>26</v>
+      </c>
+      <c r="CS29" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR29" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS29" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT29" t="inlineStr"/>
@@ -8339,7 +8327,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV29" t="inlineStr"/>
+      <c r="CV29" t="n">
+        <v>50</v>
+      </c>
       <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="n">
         <v>1</v>
@@ -8347,9 +8337,7 @@
       <c r="CY29" t="inlineStr"/>
       <c r="CZ29" t="inlineStr"/>
       <c r="DA29" t="inlineStr"/>
-      <c r="DB29" t="n">
-        <v>21000000</v>
-      </c>
+      <c r="DB29" t="inlineStr"/>
       <c r="DC29" t="inlineStr"/>
       <c r="DD29" t="inlineStr"/>
       <c r="DE29" t="inlineStr"/>
@@ -8366,30 +8354,30 @@
       <c r="DP29" t="inlineStr"/>
       <c r="DQ29" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR29" t="n">
-        <v>21</v>
+        <v>-126.8</v>
       </c>
       <c r="DS29" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT29" t="n">
-        <v>2.835690571492425</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DU29" t="n">
-        <v>6.202700787530844</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10703</v>
+        <v>10046</v>
       </c>
       <c r="B30" t="n">
-        <v>703</v>
+        <v>46</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -8399,21 +8387,21 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -8421,18 +8409,26 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>M9/M10</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr">
         <is>
           <t>hl</t>
@@ -8440,35 +8436,43 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y30" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>20</v>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
-        <v>208.28</v>
+        <v>56</v>
       </c>
       <c r="AB30" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC30" t="n">
         <v>100</v>
       </c>
-      <c r="AD30" t="inlineStr"/>
+      <c r="AD30" t="n">
+        <v>250</v>
+      </c>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr">
@@ -8477,7 +8481,7 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -8485,21 +8489,21 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="n">
-        <v>189.12985</v>
+        <v>-204</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.3304644402793597</v>
+        <v>0.1781790566266567</v>
       </c>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="n">
-        <v>1612585</v>
+        <v>9813370</v>
       </c>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="inlineStr"/>
@@ -8514,19 +8518,19 @@
       <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="n">
-        <v>567.2</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>313.2</v>
-      </c>
+        <v>907.8</v>
+      </c>
+      <c r="BL30" t="inlineStr"/>
       <c r="BM30" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BN30" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.96</v>
+      </c>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
       <c r="BQ30" t="n">
-        <v>572.3152840291021</v>
+        <v>1144.915703687031</v>
       </c>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
@@ -8534,18 +8538,18 @@
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
       <c r="BW30" t="n">
-        <v>2662.0216</v>
+        <v>6.8</v>
       </c>
       <c r="BX30" t="n">
-        <v>0.127</v>
+        <v>0.0002</v>
       </c>
       <c r="BY30" t="inlineStr"/>
       <c r="BZ30" t="inlineStr"/>
       <c r="CA30" t="n">
-        <v>3.3956496</v>
+        <v>3.672000000000001</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.162</v>
+        <v>0.108</v>
       </c>
       <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr">
@@ -8557,11 +8561,11 @@
         <v>10</v>
       </c>
       <c r="CF30" t="n">
-        <v>18.79661805555556</v>
+        <v>65.5044586056645</v>
       </c>
       <c r="CG30" t="inlineStr"/>
       <c r="CH30" t="n">
-        <v>20.9608</v>
+        <v>34</v>
       </c>
       <c r="CI30" t="inlineStr"/>
       <c r="CJ30" t="inlineStr"/>
@@ -8576,17 +8580,15 @@
       </c>
       <c r="CP30" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ30" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR30" t="n">
-        <v>22.5</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR30" t="inlineStr"/>
       <c r="CS30" t="inlineStr">
         <is>
           <t>n</t>
@@ -8598,10 +8600,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV30" t="inlineStr"/>
+      <c r="CV30" t="n">
+        <v>50</v>
+      </c>
       <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY30" t="inlineStr"/>
       <c r="CZ30" t="inlineStr"/>
@@ -8623,30 +8627,30 @@
       <c r="DP30" t="inlineStr"/>
       <c r="DQ30" t="inlineStr">
         <is>
-          <t>GP[0()]5</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR30" t="n">
-        <v>18.912985</v>
+        <v>-2040</v>
       </c>
       <c r="DS30" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT30" t="n">
-        <v>2.75373622217501</v>
+        <v>2.95799017840683</v>
       </c>
       <c r="DU30" t="n">
-        <v>5.390274178286151</v>
+        <v>4.845645129132144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10831</v>
+        <v>10291</v>
       </c>
       <c r="B31" t="n">
-        <v>831</v>
+        <v>291</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -8656,21 +8660,21 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[0(610)]8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -8678,14 +8682,18 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>BASF A420</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E UNIVER 61</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -8702,30 +8710,34 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>50.8</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
-        <v>193.04</v>
+        <v>120</v>
       </c>
       <c r="AB31" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr">
@@ -8742,21 +8754,17 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="n">
-        <v>0.32</v>
+        <v>0.57</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
-        <v>68.95</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.1424533755896991</v>
-      </c>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="n">
-        <v>17764694</v>
+        <v>55000000</v>
       </c>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
@@ -8771,38 +8779,30 @@
       <c r="BI31" t="inlineStr"/>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="n">
-        <v>516</v>
+        <v>670</v>
       </c>
       <c r="BL31" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="BM31" t="n">
-        <v>2.95</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="BM31" t="inlineStr"/>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
-      <c r="BQ31" t="n">
-        <v>484.0180144175243</v>
-      </c>
+      <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="inlineStr"/>
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="n">
-        <v>10500</v>
-      </c>
-      <c r="BX31" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
       <c r="BY31" t="inlineStr"/>
       <c r="BZ31" t="inlineStr"/>
       <c r="CA31" t="n">
-        <v>1.85271408</v>
+        <v>7.566749999999999</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.0864</v>
+        <v>0.2565</v>
       </c>
       <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr">
@@ -8811,19 +8811,21 @@
         </is>
       </c>
       <c r="CE31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="CF31" t="n">
-        <v>40.12529487179487</v>
+        <v>150.8407070707071</v>
       </c>
       <c r="CG31" t="inlineStr"/>
       <c r="CH31" t="n">
-        <v>21.44345</v>
+        <v>29.5</v>
       </c>
       <c r="CI31" t="inlineStr"/>
       <c r="CJ31" t="inlineStr"/>
       <c r="CK31" t="inlineStr"/>
-      <c r="CL31" t="inlineStr"/>
+      <c r="CL31" t="n">
+        <v>52.7</v>
+      </c>
       <c r="CM31" t="inlineStr"/>
       <c r="CN31" t="inlineStr"/>
       <c r="CO31" t="inlineStr">
@@ -8833,7 +8835,7 @@
       </c>
       <c r="CP31" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ31" t="inlineStr">
@@ -8842,7 +8844,7 @@
         </is>
       </c>
       <c r="CR31" t="n">
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="CS31" t="inlineStr">
         <is>
@@ -8858,7 +8860,7 @@
       <c r="CV31" t="inlineStr"/>
       <c r="CW31" t="inlineStr"/>
       <c r="CX31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY31" t="inlineStr"/>
       <c r="CZ31" t="inlineStr"/>
@@ -8880,25 +8882,23 @@
       <c r="DP31" t="inlineStr"/>
       <c r="DQ31" t="inlineStr">
         <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
-        </is>
-      </c>
-      <c r="DR31" t="n">
-        <v>6.895</v>
-      </c>
+          <t>GP[0(610)]8</t>
+        </is>
+      </c>
+      <c r="DR31" t="inlineStr"/>
       <c r="DS31" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT31" t="n">
-        <v>2.712649701627211</v>
+        <v>2.826074802700826</v>
       </c>
       <c r="DU31" t="n">
-        <v>4.839112362047485</v>
+        <v>6.899410614790332</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>optiDAT nr.</t>
+          <t>OptiDat Test Number</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Lay-up</t>
+          <t>laminate</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Fibre Volumn Fraction</t>
+          <t>Fibre Volume Fraction</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Porosity</t>
+          <t>porosity</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Barcol Hardness</t>
+          <t>Barcol hardness</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Radius of Waist</t>
+          <t>radius of waist</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>Strain Rate</t>
+          <t>SRU</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
@@ -1062,10 +1062,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10352</v>
+        <v>10291</v>
       </c>
       <c r="B2" t="n">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1080,13 +1080,13 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[0(610)]8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1095,31 +1095,27 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>BASF A420</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E UNIVER 61</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>49.1</v>
+        <v>36</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -1133,21 +1129,23 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AB2" t="n">
         <v>250</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>110</v>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
@@ -1163,7 +1161,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1171,19 +1169,17 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="n">
-        <v>-204.5</v>
-      </c>
+      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>9495980</v>
+        <v>55000000</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1198,14 +1194,14 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>604</v>
-      </c>
-      <c r="BL2" t="inlineStr"/>
+        <v>670</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>475</v>
+      </c>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="n">
-        <v>546</v>
-      </c>
+      <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
@@ -1218,10 +1214,10 @@
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>3.681</v>
+        <v>7.566749999999999</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.09</v>
+        <v>0.2565</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
@@ -1230,19 +1226,21 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="CF2" t="n">
-        <v>64.11635416666667</v>
+        <v>150.8407070707071</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>40.9</v>
+        <v>29.5</v>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="inlineStr"/>
+      <c r="CL2" t="n">
+        <v>52.7</v>
+      </c>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr">
@@ -1252,12 +1250,12 @@
       </c>
       <c r="CP2" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR2" t="n">
@@ -1299,30 +1297,28 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
-        </is>
-      </c>
-      <c r="DR2" t="n">
-        <v>-2045</v>
-      </c>
+          <t>GP[0(610)]8</t>
+        </is>
+      </c>
+      <c r="DR2" t="inlineStr"/>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>2.781036938621132</v>
+        <v>2.826074802700826</v>
       </c>
       <c r="DU2" t="n">
-        <v>5.786992188571325</v>
+        <v>6.899410614790332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10162</v>
+        <v>10954</v>
       </c>
       <c r="B3" t="n">
-        <v>162</v>
+        <v>954</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1332,53 +1328,53 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E/Carbon</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>38</v>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -1388,28 +1384,28 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GCP</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>195.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AC3" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD3" t="n">
         <v>100</v>
@@ -1417,12 +1413,10 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG3" t="n">
-        <v>90</v>
-      </c>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr">
         <is>
@@ -1438,21 +1432,21 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>286.3</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.4463609613506411</v>
+        <v>0.5094168824072062</v>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>594308</v>
+        <v>18650718</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1467,17 +1461,21 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>546</v>
-      </c>
-      <c r="BL3" t="inlineStr"/>
+        <v>367.4</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>250.8</v>
+      </c>
       <c r="BM3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN3" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1</v>
+      </c>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="n">
-        <v>641.4091392170283</v>
+        <v>392.6057555354605</v>
       </c>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
@@ -1485,34 +1483,34 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="n">
-        <v>32.72</v>
+        <v>419</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0008</v>
+        <v>0.016</v>
       </c>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>2.576699999999999</v>
+        <v>2.532222</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.06299999999999999</v>
+        <v>0.09702000000000001</v>
       </c>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CF3" t="n">
-        <v>5.379098290598289</v>
+        <v>79.02100330687833</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>40.9</v>
+        <v>26.1</v>
       </c>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
@@ -1536,11 +1534,11 @@
         </is>
       </c>
       <c r="CR3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="CS3" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT3" t="inlineStr"/>
@@ -1552,12 +1550,14 @@
       <c r="CV3" t="inlineStr"/>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
-      <c r="DB3" t="inlineStr"/>
+      <c r="DB3" t="n">
+        <v>2500000</v>
+      </c>
       <c r="DC3" t="inlineStr"/>
       <c r="DD3" t="inlineStr"/>
       <c r="DE3" t="inlineStr"/>
@@ -1574,30 +1574,30 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>28.63</v>
+        <v>20</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>2.737192642704737</v>
+        <v>2.565139151969789</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.116696166647357</v>
+        <v>5.061534728027735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10730</v>
+        <v>10029</v>
       </c>
       <c r="B4" t="n">
-        <v>730</v>
+        <v>29</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1607,21 +1607,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1629,18 +1629,26 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>M9/M10</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1648,35 +1656,43 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20</v>
+      </c>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>208.28</v>
+        <v>56</v>
       </c>
       <c r="AB4" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC4" t="n">
         <v>100</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>250</v>
+      </c>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr">
@@ -1685,7 +1701,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1693,21 +1709,21 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="n">
-        <v>187.88875</v>
+        <v>126.8</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.3189685287916126</v>
+        <v>0.117076391682425</v>
       </c>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>7475243</v>
+        <v>28787900</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1722,19 +1738,19 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>586.6</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>294.6</v>
-      </c>
+        <v>846.39</v>
+      </c>
+      <c r="BL4" t="inlineStr"/>
       <c r="BM4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="BN4" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.96</v>
+      </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
       <c r="BQ4" t="n">
-        <v>589.0510600271501</v>
+        <v>1083.053536053202</v>
       </c>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
@@ -1742,18 +1758,18 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="n">
-        <v>2863.42455</v>
+        <v>6.34</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.127</v>
+        <v>0.0002</v>
       </c>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>3.206133630000001</v>
+        <v>5.072</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.1422</v>
+        <v>0.16</v>
       </c>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr">
@@ -1765,11 +1781,11 @@
         <v>10</v>
       </c>
       <c r="CF4" t="n">
-        <v>22.4654012345679</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>22.54665</v>
+        <v>31.7</v>
       </c>
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
@@ -1784,16 +1800,16 @@
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR4" t="n">
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="CS4" t="inlineStr">
         <is>
@@ -1806,10 +1822,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr"/>
+      <c r="CV4" t="n">
+        <v>50</v>
+      </c>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
@@ -1831,30 +1849,30 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR4" t="n">
-        <v>18.788875</v>
+        <v>-126.8</v>
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>2.768342058644533</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.327868793507926</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10989</v>
+        <v>10046</v>
       </c>
       <c r="B5" t="n">
-        <v>989</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1864,31 +1882,31 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30(),-30()],[0()]]s</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1896,12 +1914,14 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>53</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1916,41 +1936,39 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AB5" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG5" t="n">
-        <v>92</v>
-      </c>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1966,19 +1984,21 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>-210</v>
-      </c>
-      <c r="AT5" t="inlineStr"/>
+        <v>-204</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1781790566266567</v>
+      </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>1238544</v>
+        <v>9813370</v>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -1993,48 +2013,54 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>634</v>
+        <v>907.8</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BN5" t="inlineStr"/>
+        <v>2.67</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.96</v>
+      </c>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="BQ5" t="n">
+        <v>1144.915703687031</v>
+      </c>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
+      <c r="BW5" t="n">
+        <v>6.8</v>
+      </c>
       <c r="BX5" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="n">
-        <v>1.88784</v>
+        <v>3.672000000000001</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0621</v>
+        <v>0.108</v>
       </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF5" t="n">
-        <v>46.79506944444444</v>
+        <v>65.5044586056645</v>
       </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="n">
-        <v>30.4</v>
+        <v>34</v>
       </c>
       <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
@@ -2058,13 +2084,23 @@
         </is>
       </c>
       <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="inlineStr"/>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT5" t="inlineStr"/>
-      <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="inlineStr"/>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="CV5" t="n">
+        <v>50</v>
+      </c>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="inlineStr"/>
@@ -2086,30 +2122,30 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30(),-30()],[0()]]s</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR5" t="n">
-        <v>-2100</v>
+        <v>-2040</v>
       </c>
       <c r="DS5" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT5" t="n">
-        <v>2.802089257881732</v>
+        <v>2.95799017840683</v>
       </c>
       <c r="DU5" t="n">
-        <v>5.881192832556594</v>
+        <v>4.845645129132144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10175</v>
+        <v>11164</v>
       </c>
       <c r="B6" t="n">
-        <v>175</v>
+        <v>1164</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2119,58 +2155,58 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>2123 Cronolite Ortoftalic</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E Vetrotex Vidrio</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>40</v>
+      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -2179,36 +2215,28 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>25</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>50</v>
+        <v>416</v>
       </c>
       <c r="AB6" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="AC6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1200</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
@@ -2217,7 +2245,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -2225,21 +2253,19 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>0.172</v>
+        <v>0.2861528055981894</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>0.4625843648268949</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>376116</v>
+        <v>22676100</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2254,52 +2280,44 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>55</v>
+        <v>659.0700000000001</v>
       </c>
       <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="n">
-        <v>61.35097110474145</v>
-      </c>
+      <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>0.0008</v>
-      </c>
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="n">
-        <v>0.25542</v>
+        <v>7.304</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.01548</v>
+        <v>0.1900054629171978</v>
       </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CF6" t="n">
-        <v>6.363592592592592</v>
+        <v>55.88081957459467</v>
       </c>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="n">
-        <v>16.5</v>
+        <v>38.441</v>
       </c>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
@@ -2307,39 +2325,17 @@
       <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP6" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR6" t="n">
-        <v>23</v>
-      </c>
-      <c r="CS6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
       <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
@@ -2361,30 +2357,30 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>2.838</v>
+        <v>22</v>
       </c>
       <c r="DS6" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT6" t="n">
-        <v>1.740362689494244</v>
+        <v>2.818931543576176</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.255093919562162</v>
+        <v>4.210906788214843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10201</v>
+        <v>10730</v>
       </c>
       <c r="B7" t="n">
-        <v>201</v>
+        <v>730</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2394,18 +2390,18 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2414,77 +2410,57 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>UP333</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.55</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>208.28</v>
       </c>
       <c r="AB7" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1200</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG7" t="n">
-        <v>90</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
         <is>
@@ -2492,7 +2468,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -2500,21 +2476,21 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>-327.2</v>
+        <v>187.88875</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5076204850168683</v>
+        <v>0.3189685287916126</v>
       </c>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>16886</v>
+        <v>7475243</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2529,17 +2505,19 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>546</v>
-      </c>
-      <c r="BL7" t="inlineStr"/>
+        <v>586.6</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>294.6</v>
+      </c>
       <c r="BM7" t="n">
-        <v>1.5</v>
+        <v>2.66</v>
       </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
       <c r="BQ7" t="n">
-        <v>644.576035951597</v>
+        <v>589.0510600271501</v>
       </c>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
@@ -2547,34 +2525,34 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="n">
-        <v>32.72</v>
+        <v>2863.42455</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0008</v>
+        <v>0.127</v>
       </c>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="n">
-        <v>2.9448</v>
+        <v>3.206133630000001</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.1422</v>
       </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.7329444444444443</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
-        <v>40.9</v>
+        <v>22.54665</v>
       </c>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
@@ -2589,16 +2567,16 @@
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR7" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="CS7" t="inlineStr">
         <is>
@@ -2614,7 +2592,7 @@
       <c r="CV7" t="inlineStr"/>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
@@ -2636,30 +2614,30 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>-3272</v>
+        <v>18.788875</v>
       </c>
       <c r="DS7" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT7" t="n">
-        <v>2.737192642704737</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.105793520617849</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10213</v>
+        <v>10237</v>
       </c>
       <c r="B8" t="n">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2674,16 +2652,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2702,7 +2680,7 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>38.6</v>
+        <v>36.9</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2768,14 +2746,14 @@
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>98.40000000000001</v>
+        <v>118.4</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>76421820</v>
+        <v>57220600</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -2790,14 +2768,14 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>544.152</v>
+        <v>619.2320000000001</v>
       </c>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="n">
-        <v>2.212</v>
+        <v>2.092</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.14</v>
+        <v>2.418</v>
       </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
@@ -2808,7 +2786,7 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="n">
-        <v>4.92</v>
+        <v>5.92</v>
       </c>
       <c r="BX8" t="n">
         <v>0.0002</v>
@@ -2816,7 +2794,7 @@
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>6.2976</v>
+        <v>7.5776</v>
       </c>
       <c r="CB8" t="n">
         <v>0.256</v>
@@ -2831,11 +2809,11 @@
         <v>16</v>
       </c>
       <c r="CF8" t="n">
-        <v>236.5450942460318</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>24.6</v>
+        <v>29.6</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -2897,30 +2875,30 @@
       <c r="DP8" t="inlineStr"/>
       <c r="DQ8" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>-98.40000000000001</v>
+        <v>-118.4</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>2.735720229736039</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DU8" t="n">
-        <v>5.650649768017886</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11273</v>
+        <v>10260</v>
       </c>
       <c r="B9" t="n">
-        <v>1273</v>
+        <v>260</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2935,16 +2913,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -2963,7 +2941,7 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>38</v>
+        <v>36.9</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -2983,23 +2961,29 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>2.2</v>
+      </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>44</v>
+      </c>
       <c r="AB9" t="n">
         <v>250</v>
       </c>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>110</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr"/>
@@ -3010,7 +2994,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
@@ -3018,21 +3002,19 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0.2828987854305369</v>
-      </c>
+        <v>223.3</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>2346760</v>
+        <v>42675000</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3047,29 +3029,25 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>572</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>547</v>
-      </c>
+        <v>667.3480000000001</v>
+      </c>
+      <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
-        <v>2.25</v>
+        <v>2.092</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.14</v>
+        <v>2.418</v>
       </c>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="n">
-        <v>718.2780926074136</v>
-      </c>
+      <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="inlineStr"/>
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="n">
-        <v>5.08</v>
+        <v>6.38</v>
       </c>
       <c r="BX9" t="n">
         <v>0.0002</v>
@@ -3077,10 +3055,10 @@
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>2.4384</v>
+        <v>5.024249999999999</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.096</v>
+        <v>0.1575</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
@@ -3089,18 +3067,16 @@
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="CF9" t="n">
-        <v>14.42657004830918</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>25.5</v>
-      </c>
+        <v>31.9</v>
+      </c>
+      <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
       <c r="CL9" t="inlineStr"/>
@@ -3111,15 +3087,17 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP9" t="inlineStr"/>
+      <c r="CP9" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="CQ9" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR9" t="n">
-        <v>20</v>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr"/>
       <c r="CS9" t="inlineStr">
         <is>
           <t>n</t>
@@ -3131,9 +3109,13 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV9" t="inlineStr"/>
+      <c r="CV9" t="n">
+        <v>50</v>
+      </c>
       <c r="CW9" t="inlineStr"/>
-      <c r="CX9" t="inlineStr"/>
+      <c r="CX9" t="n">
+        <v>1</v>
+      </c>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
       <c r="DA9" t="inlineStr"/>
@@ -3154,30 +3136,30 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>-203.2</v>
+        <v>22.33</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>2.757396028793024</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.337419932426495</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10878</v>
+        <v>11004</v>
       </c>
       <c r="B10" t="n">
-        <v>878</v>
+        <v>1004</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3187,40 +3169,46 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>UPS294V Polyplex</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="O10" t="n">
-        <v>38</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>hl</t>
@@ -3228,7 +3216,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -3237,27 +3225,37 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y10" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>18</v>
+      </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>193.04</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD10" t="n">
         <v>100</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
+        <v>92</v>
+      </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
         <is>
@@ -3265,7 +3263,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3273,19 +3271,19 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>0.34</v>
+        <v>0.98</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>68.95</v>
+        <v>-398</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>7825000</v>
+        <v>1689490</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3300,15 +3298,17 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>467.5</v>
+        <v>874</v>
       </c>
       <c r="BL10" t="n">
-        <v>317.5</v>
+        <v>720</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BN10" t="inlineStr"/>
+        <v>2.24</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.9</v>
+      </c>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
       <c r="BQ10" t="inlineStr"/>
@@ -3317,33 +3317,37 @@
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="n">
-        <v>10000</v>
-      </c>
+      <c r="BW10" t="inlineStr"/>
       <c r="BX10" t="n">
-        <v>0.61</v>
+        <v>0.0008</v>
       </c>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
+      <c r="CA10" t="n">
+        <v>3.7044</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.0882</v>
+      </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="CF10" t="n">
-        <v>15.8475122053872</v>
+        <v>27.64677314814815</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>19.92655</v>
-      </c>
-      <c r="CI10" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
@@ -3351,37 +3355,27 @@
       <c r="CN10" t="inlineStr"/>
       <c r="CO10" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>l</t>
         </is>
       </c>
       <c r="CP10" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR10" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS10" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr"/>
+      <c r="CS10" t="inlineStr"/>
       <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU10" t="inlineStr"/>
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
@@ -3403,30 +3397,30 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>6.895</v>
+        <v>-3980</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>2.669781615208536</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.372456626701744</v>
+        <v>5.52536012144618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11058</v>
+        <v>10352</v>
       </c>
       <c r="B11" t="n">
-        <v>1058</v>
+        <v>352</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3436,12 +3430,12 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FFA</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[+30(),-30()FW]</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -3456,11 +3450,11 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Epon 826/Jeffamine D-230</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3469,13 +3463,13 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>50</v>
+        <v>49.1</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>HAMILTON STANDARD</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -3490,37 +3484,33 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>50.4</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>176.4</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>50</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG11" t="n">
-        <v>82</v>
-      </c>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
@@ -3528,7 +3518,7 @@
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
@@ -3536,19 +3526,19 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>0.4857142857142858</v>
+        <v>0.5</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>68</v>
+        <v>-204.5</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>11254000</v>
+        <v>9495980</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3563,13 +3553,13 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>274.5</v>
+        <v>604</v>
       </c>
       <c r="BL11" t="inlineStr"/>
       <c r="BM11" t="inlineStr"/>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="n">
-        <v>275.7</v>
+        <v>546</v>
       </c>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
@@ -3583,22 +3573,26 @@
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="n">
-        <v>1.36</v>
+        <v>3.681</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.09714285714285716</v>
+        <v>0.09</v>
       </c>
       <c r="CC11" t="inlineStr"/>
-      <c r="CD11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE11" t="n">
         <v>10</v>
       </c>
       <c r="CF11" t="n">
-        <v>24.71399647266314</v>
+        <v>64.11635416666667</v>
       </c>
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="n">
-        <v>14</v>
+        <v>40.9</v>
       </c>
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
@@ -3616,25 +3610,35 @@
           <t>h</t>
         </is>
       </c>
-      <c r="CQ11" t="inlineStr"/>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR11" t="n">
+        <v>30</v>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr"/>
+      <c r="CU11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
       <c r="DB11" t="inlineStr"/>
-      <c r="DC11" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC11" t="inlineStr"/>
       <c r="DD11" t="inlineStr"/>
       <c r="DE11" t="inlineStr"/>
       <c r="DF11" t="inlineStr"/>
@@ -3650,30 +3654,30 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>0</v>
+        <v>-2045</v>
       </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>30/-30</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT11" t="n">
-        <v>2.438542348786111</v>
+        <v>2.781036938621132</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.720184367079336</v>
+        <v>5.786992188571325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10004</v>
+        <v>10162</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3688,13 +3692,13 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0()FW]8</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -3703,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -3716,10 +3720,10 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>52.8</v>
+        <v>49.1</v>
       </c>
       <c r="P12" t="n">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -3743,7 +3747,7 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
@@ -3754,7 +3758,7 @@
       </c>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>34.2</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="n">
         <v>280</v>
@@ -3789,21 +3793,21 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>472</v>
+        <v>286.3</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4600221360497219</v>
+        <v>0.4463609613506411</v>
       </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>5209100</v>
+        <v>594308</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -3818,17 +3822,17 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>862</v>
+        <v>546</v>
       </c>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="n">
-        <v>1026.037581697989</v>
+        <v>641.4091392170283</v>
       </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
@@ -3836,7 +3840,7 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>37.76</v>
+        <v>32.72</v>
       </c>
       <c r="BX12" t="n">
         <v>0.0008</v>
@@ -3844,10 +3848,10 @@
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>4.248000000000001</v>
+        <v>2.576699999999999</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.09</v>
+        <v>0.06299999999999999</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
@@ -3859,11 +3863,11 @@
         <v>5</v>
       </c>
       <c r="CF12" t="n">
-        <v>45.85437222222222</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>47.2</v>
+        <v>40.9</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -3903,7 +3907,7 @@
       <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
@@ -3925,30 +3929,30 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GP[0()FW]8</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>47.2</v>
+        <v>28.63</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>2.935507265824712</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.899458605729175</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>19001</v>
+        <v>10213</v>
       </c>
       <c r="B13" t="n">
-        <v>9001</v>
+        <v>213</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3958,21 +3962,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -3982,7 +3986,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -3991,17 +3995,11 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>38.6</v>
       </c>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>45</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4009,46 +4007,40 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>195.5</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>100</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>twin</t>
-        </is>
-      </c>
-      <c r="AG13" t="n">
-        <v>94</v>
-      </c>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
         <is>
@@ -4056,7 +4048,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -4064,21 +4056,19 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.5117977528089888</v>
+        <v>0.4</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0.1967106228709724</v>
-      </c>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>603000000</v>
+        <v>76421820</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4093,44 +4083,36 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>428</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>291</v>
-      </c>
+        <v>544.152</v>
+      </c>
+      <c r="BL13" t="inlineStr"/>
       <c r="BM13" t="n">
-        <v>2.6</v>
+        <v>2.212</v>
       </c>
       <c r="BN13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>395</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>463.1168295357127</v>
-      </c>
+        <v>2.14</v>
+      </c>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="n">
-        <v>290</v>
+        <v>4.92</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>2.459700000000001</v>
+        <v>6.2976</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.138185393258427</v>
+        <v>0.256</v>
       </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr">
@@ -4139,18 +4121,16 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CF13" t="n">
-        <v>975.5221280423282</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>18.5</v>
-      </c>
+        <v>24.6</v>
+      </c>
+      <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
       <c r="CL13" t="inlineStr"/>
@@ -4168,15 +4148,13 @@
       </c>
       <c r="CQ13" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR13" t="n">
-        <v>30</v>
-      </c>
-      <c r="CS13" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT13" t="inlineStr"/>
@@ -4186,11 +4164,11 @@
         </is>
       </c>
       <c r="CV13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
@@ -4212,30 +4190,30 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR13" t="n">
-        <v>9.109999999999999</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>2.631443769013172</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DU13" t="n">
-        <v>5.128322405871098</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11229</v>
+        <v>11273</v>
       </c>
       <c r="B14" t="n">
-        <v>1229</v>
+        <v>1273</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4245,21 +4223,21 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -4269,7 +4247,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4278,17 +4256,11 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>45</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>hl</t>
@@ -4296,39 +4268,33 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>8.5</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>195.5</v>
-      </c>
+      <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>100</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>JI</t>
+        </is>
+      </c>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
@@ -4337,7 +4303,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -4345,21 +4311,21 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>-180</v>
+        <v>203.2</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.3615020039207029</v>
+        <v>0.2828987854305369</v>
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>23813962</v>
+        <v>2346760</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4374,17 +4340,21 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>462</v>
+        <v>572</v>
       </c>
       <c r="BL14" t="n">
-        <v>320</v>
-      </c>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
+        <v>547</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2.14</v>
+      </c>
       <c r="BO14" t="inlineStr"/>
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="n">
-        <v>497.9225510447898</v>
+        <v>718.2780926074136</v>
       </c>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
@@ -4392,33 +4362,37 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="n">
-        <v>290</v>
+        <v>5.08</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>2.208315789473684</v>
+        <v>2.4384</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1193684210526316</v>
+        <v>0.096</v>
       </c>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CF14" t="n">
-        <v>111.5042773662552</v>
+        <v>14.42657004830918</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>18.5</v>
+        <v>25.4</v>
       </c>
       <c r="CI14" t="n">
-        <v>19</v>
+        <v>25.5</v>
       </c>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
@@ -4430,14 +4404,10 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP14" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR14" t="n">
@@ -4445,7 +4415,7 @@
       </c>
       <c r="CS14" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT14" t="inlineStr"/>
@@ -4456,9 +4426,7 @@
       </c>
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
-      <c r="CX14" t="n">
-        <v>4</v>
-      </c>
+      <c r="CX14" t="inlineStr"/>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
       <c r="DA14" t="inlineStr"/>
@@ -4479,30 +4447,30 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>-1800</v>
+        <v>-203.2</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>2.664641975556125</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.97890006476624</v>
+        <v>4.337419932426495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11413</v>
+        <v>10175</v>
       </c>
       <c r="B15" t="n">
-        <v>1413</v>
+        <v>175</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4512,31 +4480,31 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4545,20 +4513,20 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>32</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>45</v>
-      </c>
+        <v>58.1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -4572,32 +4540,36 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>195.5</v>
+        <v>50</v>
       </c>
       <c r="AB15" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AC15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
         <v>90</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>94</v>
       </c>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
@@ -4606,7 +4578,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4614,21 +4586,21 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.62</v>
+        <v>0.172</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>115</v>
+        <v>28.38</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.2421326168845685</v>
+        <v>0.4625843648268949</v>
       </c>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>3229856</v>
+        <v>376116</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -4643,21 +4615,17 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>332.5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>1.83</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
       <c r="BP15" t="inlineStr"/>
       <c r="BQ15" t="n">
-        <v>474.9463392403005</v>
+        <v>61.35097110474145</v>
       </c>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
@@ -4665,38 +4633,36 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="n">
-        <v>290</v>
+        <v>13.2</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.016</v>
+        <v>0.0008</v>
       </c>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>1.8352</v>
+        <v>0.25542</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0992</v>
+        <v>0.01548</v>
       </c>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF15" t="n">
-        <v>244.4947222222222</v>
+        <v>6.363592592592592</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>19</v>
-      </c>
+        <v>16.5</v>
+      </c>
+      <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
       <c r="CL15" t="inlineStr"/>
@@ -4718,29 +4684,23 @@
         </is>
       </c>
       <c r="CR15" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CS15" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT15" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="CV15" t="n">
-        <v>40</v>
-      </c>
+      <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
@@ -4762,30 +4722,30 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>-115</v>
+        <v>2.838</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>2.647089428716555</v>
+        <v>1.740362689494244</v>
       </c>
       <c r="DU15" t="n">
-        <v>6.408635862973926</v>
+        <v>4.255093919562162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11029</v>
+        <v>10201</v>
       </c>
       <c r="B16" t="n">
-        <v>1029</v>
+        <v>201</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4800,13 +4760,13 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -4815,11 +4775,11 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4827,8 +4787,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.55</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -4837,7 +4801,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -4871,16 +4835,16 @@
         <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG16" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr">
@@ -4889,7 +4853,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -4897,19 +4861,21 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>292</v>
-      </c>
-      <c r="AT16" t="inlineStr"/>
+        <v>-327.2</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.5076204850168683</v>
+      </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>627801</v>
+        <v>16886</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -4924,32 +4890,36 @@
       <c r="BI16" t="inlineStr"/>
       <c r="BJ16" t="inlineStr"/>
       <c r="BK16" t="n">
-        <v>634</v>
+        <v>546</v>
       </c>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
-      <c r="BQ16" t="inlineStr"/>
+      <c r="BQ16" t="n">
+        <v>644.576035951597</v>
+      </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="inlineStr"/>
+      <c r="BW16" t="n">
+        <v>32.72</v>
+      </c>
       <c r="BX16" t="n">
         <v>0.0008</v>
       </c>
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>26.2656</v>
+        <v>2.9448</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.8639999999999999</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr">
@@ -4961,11 +4931,11 @@
         <v>5</v>
       </c>
       <c r="CF16" t="n">
-        <v>8.570714814814815</v>
+        <v>0.7329444444444443</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
-        <v>30.4</v>
+        <v>40.9</v>
       </c>
       <c r="CI16" t="inlineStr"/>
       <c r="CJ16" t="inlineStr"/>
@@ -4983,15 +4953,29 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ16" t="inlineStr"/>
-      <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR16" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT16" t="inlineStr"/>
-      <c r="CU16" t="inlineStr"/>
+      <c r="CU16" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV16" t="inlineStr"/>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CY16" t="inlineStr"/>
       <c r="CZ16" t="inlineStr"/>
@@ -5013,30 +4997,30 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>29.2</v>
+        <v>-3272</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT16" t="n">
-        <v>2.802089257881732</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DU16" t="n">
-        <v>4.564966507854261</v>
+        <v>4.105793520617849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10191</v>
+        <v>19001</v>
       </c>
       <c r="B17" t="n">
-        <v>191</v>
+        <v>9001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5046,21 +5030,21 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>TUD</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5070,7 +5054,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5079,20 +5063,20 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>55</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>45</v>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>Polymarin</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -5106,24 +5090,24 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>41.4</v>
+        <v>195.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="AC17" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AD17" t="n">
         <v>100</v>
@@ -5131,11 +5115,11 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>twin</t>
         </is>
       </c>
       <c r="AG17" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
@@ -5152,21 +5136,21 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>0.8</v>
+        <v>0.5117977528089888</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>237.6</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.3072724503678881</v>
+        <v>0.1967106228709724</v>
       </c>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>7964865</v>
+        <v>603000000</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5181,17 +5165,25 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>655</v>
-      </c>
-      <c r="BL17" t="inlineStr"/>
+        <v>428</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>291</v>
+      </c>
       <c r="BM17" t="n">
         <v>2.6</v>
       </c>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
+      <c r="BN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>365</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>395</v>
+      </c>
       <c r="BQ17" t="n">
-        <v>773.2551347038388</v>
+        <v>463.1168295357127</v>
       </c>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
@@ -5199,36 +5191,38 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="n">
-        <v>23.76</v>
+        <v>290</v>
       </c>
       <c r="BX17" t="n">
-        <v>0.0008</v>
+        <v>0.016</v>
       </c>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>2.1384</v>
+        <v>2.459700000000001</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.138185393258427</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CF17" t="n">
-        <v>48.72872058823528</v>
+        <v>975.5221280423282</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="CI17" t="inlineStr"/>
+        <v>17.8</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>18.5</v>
+      </c>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
@@ -5250,11 +5244,11 @@
         </is>
       </c>
       <c r="CR17" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CS17" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT17" t="inlineStr"/>
@@ -5263,10 +5257,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV17" t="inlineStr"/>
+      <c r="CV17" t="n">
+        <v>60</v>
+      </c>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5288,30 +5284,30 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>23.76</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>2.816241299991784</v>
+        <v>2.631443769013172</v>
       </c>
       <c r="DU17" t="n">
-        <v>4.89964617989019</v>
+        <v>5.128322405871098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10237</v>
+        <v>11229</v>
       </c>
       <c r="B18" t="n">
-        <v>237</v>
+        <v>1229</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5321,21 +5317,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5345,7 +5341,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -5354,11 +5350,17 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>36.9</v>
+        <v>32</v>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>45</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5366,39 +5368,39 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>195.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>100</v>
+      </c>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr">
@@ -5407,7 +5409,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -5415,19 +5417,21 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
-        <v>0.4</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="AT18" t="inlineStr"/>
+        <v>-180</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.3615020039207029</v>
+      </c>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>57220600</v>
+        <v>23813962</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5442,54 +5446,52 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>619.2320000000001</v>
-      </c>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>2.418</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>320</v>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="inlineStr"/>
+      <c r="BQ18" t="n">
+        <v>497.9225510447898</v>
+      </c>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="n">
-        <v>5.92</v>
+        <v>290</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0002</v>
+        <v>0.016</v>
       </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="n">
-        <v>7.5776</v>
+        <v>2.208315789473684</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.256</v>
+        <v>0.1193684210526316</v>
       </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="CF18" t="n">
-        <v>114.1808263888889</v>
+        <v>111.5042773662552</v>
       </c>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="CI18" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
@@ -5507,13 +5509,15 @@
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR18" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
           <t>y</t>
-        </is>
-      </c>
-      <c r="CR18" t="inlineStr"/>
-      <c r="CS18" t="inlineStr">
-        <is>
-          <t>n</t>
         </is>
       </c>
       <c r="CT18" t="inlineStr"/>
@@ -5522,12 +5526,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV18" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5549,30 +5551,30 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>-118.4</v>
+        <v>-1800</v>
       </c>
       <c r="DS18" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT18" t="n">
-        <v>2.791853391254176</v>
+        <v>2.664641975556125</v>
       </c>
       <c r="DU18" t="n">
-        <v>5.165177541080086</v>
+        <v>4.97890006476624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10260</v>
+        <v>11413</v>
       </c>
       <c r="B19" t="n">
-        <v>260</v>
+        <v>1413</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -5582,21 +5584,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5606,7 +5608,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Synolite 593-E-1</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5615,11 +5617,17 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>36.9</v>
+        <v>32</v>
       </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>45</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5627,40 +5635,42 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>23</v>
+      </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>195.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AC19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD19" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>100</v>
+      </c>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="n">
+        <v>94</v>
+      </c>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
         <is>
@@ -5668,7 +5678,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -5676,19 +5686,21 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="AT19" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2421326168845685</v>
+      </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>42675000</v>
+        <v>3229856</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -5703,36 +5715,40 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>667.3480000000001</v>
-      </c>
-      <c r="BL19" t="inlineStr"/>
+        <v>443.7</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>332.5</v>
+      </c>
       <c r="BM19" t="n">
-        <v>2.092</v>
+        <v>2.55</v>
       </c>
       <c r="BN19" t="n">
-        <v>2.418</v>
+        <v>1.83</v>
       </c>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
-      <c r="BQ19" t="inlineStr"/>
+      <c r="BQ19" t="n">
+        <v>474.9463392403005</v>
+      </c>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>6.38</v>
+        <v>290</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.0002</v>
+        <v>0.016</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>5.024249999999999</v>
+        <v>1.8352</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.1575</v>
+        <v>0.0992</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
@@ -5741,16 +5757,18 @@
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="CF19" t="n">
-        <v>170.260063425926</v>
+        <v>244.4947222222222</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="CI19" t="inlineStr"/>
+        <v>18.5</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>19</v>
+      </c>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
@@ -5771,24 +5789,30 @@
           <t>n</t>
         </is>
       </c>
-      <c r="CR19" t="inlineStr"/>
+      <c r="CR19" t="n">
+        <v>20</v>
+      </c>
       <c r="CS19" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT19" t="inlineStr"/>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr">
+        <is>
+          <t>50w14d</t>
+        </is>
+      </c>
       <c r="CU19" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
       <c r="CV19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5810,30 +5834,30 @@
       <c r="DP19" t="inlineStr"/>
       <c r="DQ19" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>22.33</v>
+        <v>-115</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>2.824352363252417</v>
+        <v>2.647089428716555</v>
       </c>
       <c r="DU19" t="n">
-        <v>5.772019752181081</v>
+        <v>6.408635862973926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10703</v>
+        <v>10004</v>
       </c>
       <c r="B20" t="n">
-        <v>703</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -5843,18 +5867,18 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[0()FW]8</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -5865,26 +5889,36 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>30</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.83</v>
+      </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -5893,27 +5927,37 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y20" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>208.28</v>
+        <v>34.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="AC20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD20" t="n">
         <v>100</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>90</v>
+      </c>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -5929,21 +5973,21 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>189.12985</v>
+        <v>472</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3304644402793597</v>
+        <v>0.4600221360497219</v>
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>1612585</v>
+        <v>5209100</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -5958,19 +6002,17 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>567.2</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>313.2</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="BL20" t="inlineStr"/>
       <c r="BM20" t="n">
-        <v>2.76</v>
+        <v>2.3</v>
       </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
       <c r="BQ20" t="n">
-        <v>572.3152840291021</v>
+        <v>1026.037581697989</v>
       </c>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
@@ -5978,34 +6020,34 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="n">
-        <v>2662.0216</v>
+        <v>37.76</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.127</v>
+        <v>0.0008</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="n">
-        <v>3.3956496</v>
+        <v>4.248000000000001</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.162</v>
+        <v>0.09</v>
       </c>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF20" t="n">
-        <v>18.79661805555556</v>
+        <v>45.85437222222222</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>20.9608</v>
+        <v>47.2</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6020,7 +6062,7 @@
       </c>
       <c r="CP20" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ20" t="inlineStr">
@@ -6029,7 +6071,7 @@
         </is>
       </c>
       <c r="CR20" t="n">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="CS20" t="inlineStr">
         <is>
@@ -6045,7 +6087,7 @@
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6067,30 +6109,30 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GP[0()]5</t>
+          <t>GP[0()FW]8</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>18.912985</v>
+        <v>47.2</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>2.75373622217501</v>
+        <v>2.935507265824712</v>
       </c>
       <c r="DU20" t="n">
-        <v>5.390274178286151</v>
+        <v>4.899458605729175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10820</v>
+        <v>10133</v>
       </c>
       <c r="B21" t="n">
-        <v>820</v>
+        <v>133</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6100,21 +6142,23 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[0()]</t>
+          <t>[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -6122,18 +6166,26 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6141,7 +6193,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -6150,26 +6202,30 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>25.4</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>83.81999999999999</v>
+        <v>315</v>
       </c>
       <c r="AB21" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC21" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
@@ -6186,21 +6242,21 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>0.91</v>
+        <v>0.45</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>324.8924</v>
+        <v>47.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.422772006211321</v>
+        <v>0.3360838156505212</v>
       </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>153402</v>
+        <v>2430000</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6215,19 +6271,15 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>742.3</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>2.31</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="n">
-        <v>768.4813450907716</v>
+        <v>141.6313365398623</v>
       </c>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
@@ -6235,18 +6287,18 @@
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="n">
-        <v>2206.4</v>
+        <v>3.2</v>
       </c>
       <c r="BX21" t="n">
-        <v>0.064</v>
+        <v>0.00028</v>
       </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>5.647005000000001</v>
+        <v>0.9072000000000001</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.1638</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
@@ -6258,11 +6310,11 @@
         <v>10</v>
       </c>
       <c r="CF21" t="n">
-        <v>2.194388888888889</v>
+        <v>12.47599358974359</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>34.475</v>
+        <v>11.2</v>
       </c>
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
@@ -6277,7 +6329,7 @@
       </c>
       <c r="CP21" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ21" t="inlineStr">
@@ -6286,11 +6338,11 @@
         </is>
       </c>
       <c r="CR21" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS21" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT21" t="inlineStr"/>
@@ -6302,7 +6354,7 @@
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6324,30 +6376,30 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GP[0()]</t>
+          <t>GP[+45(350),-45(350),100CSM]4s</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>32.48924</v>
+        <v>4.760000000000001</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>2.870579460552685</v>
+        <v>2.060697840353612</v>
       </c>
       <c r="DU21" t="n">
-        <v>4.160654730827149</v>
+        <v>5.117753535981455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10984</v>
+        <v>10191</v>
       </c>
       <c r="B22" t="n">
-        <v>984</v>
+        <v>191</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6357,17 +6409,21 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -6375,37 +6431,75 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>UP333</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
       <c r="O22" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.91</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>fw</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
+          <t>GP</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>2.3</v>
+      </c>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18</v>
+      </c>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>280</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>100</v>
+      </c>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
+        <v>90</v>
+      </c>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
         <is>
@@ -6420,18 +6514,22 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>0.8</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>379.225</v>
-      </c>
-      <c r="AT22" t="inlineStr"/>
+        <v>237.6</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.3072724503678881</v>
+      </c>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>464810</v>
+        <v>7964865</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6446,51 +6544,93 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>2032.30125</v>
+        <v>655</v>
       </c>
       <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
+      <c r="BM22" t="n">
+        <v>2.6</v>
+      </c>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="inlineStr"/>
+      <c r="BQ22" t="n">
+        <v>773.2551347038388</v>
+      </c>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
+      <c r="BW22" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
+      <c r="CA22" t="n">
+        <v>2.1384</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0.07200000000000001</v>
+      </c>
       <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
       <c r="CE22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CF22" t="n">
-        <v>5.491115520282186</v>
+        <v>48.72872058823528</v>
       </c>
       <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
+      <c r="CH22" t="n">
+        <v>29.7</v>
+      </c>
       <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="inlineStr"/>
       <c r="CL22" t="inlineStr"/>
       <c r="CM22" t="inlineStr"/>
       <c r="CN22" t="inlineStr"/>
-      <c r="CO22" t="inlineStr"/>
-      <c r="CP22" t="inlineStr"/>
-      <c r="CQ22" t="inlineStr"/>
-      <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="inlineStr"/>
+      <c r="CO22" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP22" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR22" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
+      <c r="CU22" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV22" t="inlineStr"/>
       <c r="CW22" t="inlineStr"/>
-      <c r="CX22" t="inlineStr"/>
+      <c r="CX22" t="n">
+        <v>10</v>
+      </c>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
       <c r="DA22" t="inlineStr"/>
@@ -6511,26 +6651,30 @@
       <c r="DP22" t="inlineStr"/>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>GEnan</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>37.92250000000001</v>
-      </c>
-      <c r="DS22" t="inlineStr"/>
+        <v>23.76</v>
+      </c>
+      <c r="DS22" t="inlineStr">
+        <is>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+        </is>
+      </c>
       <c r="DT22" t="n">
-        <v>3.307988084278995</v>
+        <v>2.816241299991784</v>
       </c>
       <c r="DU22" t="n">
-        <v>3.948166635414598</v>
+        <v>4.89964617989019</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10831</v>
+        <v>10097</v>
       </c>
       <c r="B23" t="n">
-        <v>831</v>
+        <v>97</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -6540,21 +6684,23 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>ECN</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0(),+45(),-45()SB]6s</t>
+          <t>[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6562,18 +6708,26 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Synres 593-58-1086</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Polymarin</t>
+        </is>
+      </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6581,35 +6735,43 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V23" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y23" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
-        <v>193.04</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="n">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AC23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD23" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>400</v>
+      </c>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr">
@@ -6626,21 +6788,21 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="n">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>68.95</v>
+        <v>210</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.1424533755896991</v>
+        <v>0.2293484327767916</v>
       </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>17764694</v>
+        <v>52320000</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -6655,19 +6817,15 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>516</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>2.95</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="n">
-        <v>484.0180144175243</v>
+        <v>915.6373883068036</v>
       </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
@@ -6675,18 +6833,18 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="n">
-        <v>10500</v>
+        <v>2.9</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.61</v>
+        <v>0.00011</v>
       </c>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="n">
-        <v>1.85271408</v>
+        <v>7.574400000000001</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.0864</v>
+        <v>0.288</v>
       </c>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr">
@@ -6695,14 +6853,14 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CF23" t="n">
-        <v>40.12529487179487</v>
+        <v>167.7077702572482</v>
       </c>
       <c r="CG23" t="inlineStr"/>
       <c r="CH23" t="n">
-        <v>21.44345</v>
+        <v>26.3</v>
       </c>
       <c r="CI23" t="inlineStr"/>
       <c r="CJ23" t="inlineStr"/>
@@ -6717,7 +6875,7 @@
       </c>
       <c r="CP23" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ23" t="inlineStr">
@@ -6726,11 +6884,11 @@
         </is>
       </c>
       <c r="CR23" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="CS23" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CT23" t="inlineStr"/>
@@ -6742,12 +6900,14 @@
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="inlineStr"/>
+      <c r="DB23" t="n">
+        <v>21000000</v>
+      </c>
       <c r="DC23" t="inlineStr"/>
       <c r="DD23" t="inlineStr"/>
       <c r="DE23" t="inlineStr"/>
@@ -6764,30 +6924,30 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
+          <t>GP[0(700),100CSM]6</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>6.895</v>
+        <v>21</v>
       </c>
       <c r="DS23" t="inlineStr">
         <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
+          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT23" t="n">
-        <v>2.712649701627211</v>
+        <v>2.835690571492425</v>
       </c>
       <c r="DU23" t="n">
-        <v>4.839112362047485</v>
+        <v>6.202700787530844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10097</v>
+        <v>10878</v>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>878</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -6797,23 +6957,21 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6821,26 +6979,18 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Synres 593-58-1086</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6848,7 +6998,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -6857,34 +7007,26 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>21</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
-        <v>105</v>
+        <v>193.04</v>
       </c>
       <c r="AB24" t="n">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="AC24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>400</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr">
@@ -6901,21 +7043,19 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="n">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>210</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0.2293484327767916</v>
-      </c>
+        <v>68.95</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>52320000</v>
+        <v>7825000</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -6930,35 +7070,33 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>685</v>
-      </c>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+        <v>467.5</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.84</v>
+      </c>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
-      <c r="BQ24" t="n">
-        <v>915.6373883068036</v>
-      </c>
+      <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="n">
-        <v>2.9</v>
+        <v>10000</v>
       </c>
       <c r="BX24" t="n">
-        <v>0.00011</v>
+        <v>0.61</v>
       </c>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
-      <c r="CA24" t="n">
-        <v>7.574400000000001</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0.288</v>
-      </c>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
       <c r="CD24" t="inlineStr">
         <is>
@@ -6966,14 +7104,14 @@
         </is>
       </c>
       <c r="CE24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="CF24" t="n">
-        <v>167.7077702572482</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG24" t="inlineStr"/>
       <c r="CH24" t="n">
-        <v>26.3</v>
+        <v>19.92655</v>
       </c>
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
@@ -6983,12 +7121,12 @@
       <c r="CN24" t="inlineStr"/>
       <c r="CO24" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP24" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ24" t="inlineStr">
@@ -6997,11 +7135,11 @@
         </is>
       </c>
       <c r="CR24" t="n">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="CS24" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT24" t="inlineStr"/>
@@ -7013,14 +7151,12 @@
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
       <c r="DA24" t="inlineStr"/>
-      <c r="DB24" t="n">
-        <v>21000000</v>
-      </c>
+      <c r="DB24" t="inlineStr"/>
       <c r="DC24" t="inlineStr"/>
       <c r="DD24" t="inlineStr"/>
       <c r="DE24" t="inlineStr"/>
@@ -7037,30 +7173,30 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>21</v>
+        <v>6.895</v>
       </c>
       <c r="DS24" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT24" t="n">
-        <v>2.835690571492425</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DU24" t="n">
-        <v>6.202700787530844</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10954</v>
+        <v>11058</v>
       </c>
       <c r="B25" t="n">
-        <v>954</v>
+        <v>1058</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -7070,95 +7206,91 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>E/Carbon</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>38</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>HAMILTON STANDARD</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>23</v>
-      </c>
+        <v>50.4</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>195.5</v>
+        <v>176.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>200</v>
+        <v>154.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>100</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
           <t>JI</t>
         </is>
       </c>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>82</v>
+      </c>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr">
         <is>
@@ -7166,7 +7298,7 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -7174,21 +7306,19 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>0.77</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>0.5094168824072062</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>18650718</v>
+        <v>11254000</v>
       </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -7203,56 +7333,42 @@
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="n">
-        <v>367.4</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO25" t="inlineStr"/>
+        <v>274.5</v>
+      </c>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="n">
+        <v>275.7</v>
+      </c>
       <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="n">
-        <v>392.6057555354605</v>
-      </c>
+      <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="n">
-        <v>419</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0.016</v>
-      </c>
+      <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="n">
-        <v>2.532222</v>
+        <v>1.36</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.09702000000000001</v>
+        <v>0.09714285714285716</v>
       </c>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD25" t="inlineStr"/>
       <c r="CE25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CF25" t="n">
-        <v>79.02100330687833</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG25" t="inlineStr"/>
       <c r="CH25" t="n">
-        <v>26.1</v>
+        <v>14</v>
       </c>
       <c r="CI25" t="inlineStr"/>
       <c r="CJ25" t="inlineStr"/>
@@ -7267,40 +7383,28 @@
       </c>
       <c r="CP25" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ25" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR25" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS25" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ25" t="inlineStr"/>
+      <c r="CR25" t="inlineStr"/>
+      <c r="CS25" t="inlineStr"/>
       <c r="CT25" t="inlineStr"/>
-      <c r="CU25" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="inlineStr"/>
       <c r="CX25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="CY25" t="inlineStr"/>
       <c r="CZ25" t="inlineStr"/>
       <c r="DA25" t="inlineStr"/>
-      <c r="DB25" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="DC25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD25" t="inlineStr"/>
       <c r="DE25" t="inlineStr"/>
       <c r="DF25" t="inlineStr"/>
@@ -7316,30 +7420,30 @@
       <c r="DP25" t="inlineStr"/>
       <c r="DQ25" t="inlineStr">
         <is>
-          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="DS25" t="inlineStr">
         <is>
-          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT25" t="n">
-        <v>2.565139151969789</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DU25" t="n">
-        <v>5.061534728027735</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11164</v>
+        <v>10703</v>
       </c>
       <c r="B26" t="n">
-        <v>1164</v>
+        <v>703</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -7349,21 +7453,21 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -7371,28 +7475,18 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2123 Cronolite Ortoftalic</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>E Vetrotex Vidrio</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O26" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>40</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CIEMAT</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>hl</t>
@@ -7409,29 +7503,27 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>80</v>
+        <v>50.8</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
-        <v>416</v>
+        <v>208.28</v>
       </c>
       <c r="AB26" t="n">
-        <v>400</v>
+        <v>254</v>
       </c>
       <c r="AC26" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>91</v>
-      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr">
         <is>
@@ -7439,7 +7531,7 @@
         </is>
       </c>
       <c r="AJ26" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
@@ -7447,19 +7539,21 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="n">
-        <v>0.2861528055981894</v>
+        <v>0.9</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT26" t="inlineStr"/>
+        <v>189.12985</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.3304644402793597</v>
+      </c>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr"/>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>22676100</v>
+        <v>1612585</v>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr"/>
@@ -7474,28 +7568,38 @@
       <c r="BI26" t="inlineStr"/>
       <c r="BJ26" t="inlineStr"/>
       <c r="BK26" t="n">
-        <v>659.0700000000001</v>
-      </c>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+        <v>567.2</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>313.2</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>2.76</v>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr"/>
-      <c r="BQ26" t="inlineStr"/>
+      <c r="BQ26" t="n">
+        <v>572.3152840291021</v>
+      </c>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="inlineStr"/>
-      <c r="BX26" t="inlineStr"/>
+      <c r="BW26" t="n">
+        <v>2662.0216</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0.127</v>
+      </c>
       <c r="BY26" t="inlineStr"/>
       <c r="BZ26" t="inlineStr"/>
       <c r="CA26" t="n">
-        <v>7.304</v>
+        <v>3.3956496</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.1900054629171978</v>
+        <v>0.162</v>
       </c>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr">
@@ -7504,14 +7608,14 @@
         </is>
       </c>
       <c r="CE26" t="n">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="CF26" t="n">
-        <v>55.88081957459467</v>
+        <v>18.79661805555556</v>
       </c>
       <c r="CG26" t="inlineStr"/>
       <c r="CH26" t="n">
-        <v>38.441</v>
+        <v>20.9608</v>
       </c>
       <c r="CI26" t="inlineStr"/>
       <c r="CJ26" t="inlineStr"/>
@@ -7519,17 +7623,39 @@
       <c r="CL26" t="inlineStr"/>
       <c r="CM26" t="inlineStr"/>
       <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr"/>
-      <c r="CP26" t="inlineStr"/>
-      <c r="CQ26" t="inlineStr"/>
-      <c r="CR26" t="inlineStr"/>
-      <c r="CS26" t="inlineStr"/>
+      <c r="CO26" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP26" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr"/>
+      <c r="CU26" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV26" t="inlineStr"/>
       <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CY26" t="inlineStr"/>
       <c r="CZ26" t="inlineStr"/>
@@ -7551,30 +7677,30 @@
       <c r="DP26" t="inlineStr"/>
       <c r="DQ26" t="inlineStr">
         <is>
-          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>GP[0()]5</t>
         </is>
       </c>
       <c r="DR26" t="n">
-        <v>22</v>
+        <v>18.912985</v>
       </c>
       <c r="DS26" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT26" t="n">
-        <v>2.818931543576176</v>
+        <v>2.75373622217501</v>
       </c>
       <c r="DU26" t="n">
-        <v>4.210906788214843</v>
+        <v>5.390274178286151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11004</v>
+        <v>11029</v>
       </c>
       <c r="B27" t="n">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -7589,7 +7715,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -7604,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -7678,7 +7804,7 @@
         </is>
       </c>
       <c r="AJ27" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
@@ -7686,19 +7812,19 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="n">
-        <v>-398</v>
+        <v>292</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
-        <v>1689490</v>
+        <v>627801</v>
       </c>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="inlineStr"/>
@@ -7713,17 +7839,13 @@
       <c r="BI27" t="inlineStr"/>
       <c r="BJ27" t="inlineStr"/>
       <c r="BK27" t="n">
-        <v>874</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>720</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="BL27" t="inlineStr"/>
       <c r="BM27" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
       <c r="BP27" t="inlineStr"/>
       <c r="BQ27" t="inlineStr"/>
@@ -7739,10 +7861,10 @@
       <c r="BY27" t="inlineStr"/>
       <c r="BZ27" t="inlineStr"/>
       <c r="CA27" t="n">
-        <v>3.7044</v>
+        <v>26.2656</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.0882</v>
+        <v>0.8639999999999999</v>
       </c>
       <c r="CC27" t="inlineStr"/>
       <c r="CD27" t="inlineStr">
@@ -7754,15 +7876,13 @@
         <v>5</v>
       </c>
       <c r="CF27" t="n">
-        <v>27.64677314814815</v>
+        <v>8.570714814814815</v>
       </c>
       <c r="CG27" t="inlineStr"/>
       <c r="CH27" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>40.6</v>
-      </c>
+        <v>30.4</v>
+      </c>
+      <c r="CI27" t="inlineStr"/>
       <c r="CJ27" t="inlineStr"/>
       <c r="CK27" t="inlineStr"/>
       <c r="CL27" t="inlineStr"/>
@@ -7778,11 +7898,7 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ27" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
       <c r="CS27" t="inlineStr"/>
       <c r="CT27" t="inlineStr"/>
@@ -7812,30 +7928,30 @@
       <c r="DP27" t="inlineStr"/>
       <c r="DQ27" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR27" t="n">
-        <v>-3980</v>
+        <v>29.2</v>
       </c>
       <c r="DS27" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT27" t="n">
-        <v>2.941511432634403</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU27" t="n">
-        <v>5.52536012144618</v>
+        <v>4.564966507854261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10133</v>
+        <v>10984</v>
       </c>
       <c r="B28" t="n">
-        <v>133</v>
+        <v>984</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -7845,23 +7961,17 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ECN</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
         <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -7869,66 +7979,36 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Synres 593-58-1086</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>35</v>
+        <v>68.3</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>7</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="n">
-        <v>45</v>
-      </c>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>315</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>70</v>
-      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr">
@@ -7944,22 +8024,18 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="n">
-        <v>0.45</v>
-      </c>
+      <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0.3360838156505212</v>
-      </c>
+        <v>379.225</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="n">
-        <v>2430000</v>
+        <v>464810</v>
       </c>
       <c r="AY28" t="inlineStr"/>
       <c r="AZ28" t="inlineStr"/>
@@ -7974,91 +8050,51 @@
       <c r="BI28" t="inlineStr"/>
       <c r="BJ28" t="inlineStr"/>
       <c r="BK28" t="n">
-        <v>115</v>
+        <v>2032.30125</v>
       </c>
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" t="inlineStr"/>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
       <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="n">
-        <v>141.6313365398623</v>
-      </c>
+      <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="inlineStr"/>
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BX28" t="n">
-        <v>0.00028</v>
-      </c>
+      <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
       <c r="BY28" t="inlineStr"/>
       <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="n">
-        <v>0.9072000000000001</v>
-      </c>
-      <c r="CB28" t="n">
-        <v>0.08100000000000002</v>
-      </c>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
       <c r="CC28" t="inlineStr"/>
-      <c r="CD28" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD28" t="inlineStr"/>
       <c r="CE28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CF28" t="n">
-        <v>12.47599358974359</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="CH28" t="inlineStr"/>
       <c r="CI28" t="inlineStr"/>
       <c r="CJ28" t="inlineStr"/>
       <c r="CK28" t="inlineStr"/>
       <c r="CL28" t="inlineStr"/>
       <c r="CM28" t="inlineStr"/>
       <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP28" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ28" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR28" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS28" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="CO28" t="inlineStr"/>
+      <c r="CP28" t="inlineStr"/>
+      <c r="CQ28" t="inlineStr"/>
+      <c r="CR28" t="inlineStr"/>
+      <c r="CS28" t="inlineStr"/>
       <c r="CT28" t="inlineStr"/>
-      <c r="CU28" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU28" t="inlineStr"/>
       <c r="CV28" t="inlineStr"/>
       <c r="CW28" t="inlineStr"/>
-      <c r="CX28" t="n">
-        <v>1</v>
-      </c>
+      <c r="CX28" t="inlineStr"/>
       <c r="CY28" t="inlineStr"/>
       <c r="CZ28" t="inlineStr"/>
       <c r="DA28" t="inlineStr"/>
@@ -8079,30 +8115,26 @@
       <c r="DP28" t="inlineStr"/>
       <c r="DQ28" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR28" t="n">
-        <v>4.760000000000001</v>
-      </c>
-      <c r="DS28" t="inlineStr">
-        <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
-        </is>
-      </c>
+        <v>37.92250000000001</v>
+      </c>
+      <c r="DS28" t="inlineStr"/>
       <c r="DT28" t="n">
-        <v>2.060697840353612</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DU28" t="n">
-        <v>5.117753535981455</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10029</v>
+        <v>10831</v>
       </c>
       <c r="B29" t="n">
-        <v>29</v>
+        <v>831</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -8112,21 +8144,21 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -8134,26 +8166,18 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>M9/M10</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>hl</t>
@@ -8161,43 +8185,35 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>20</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
-        <v>56</v>
+        <v>193.04</v>
       </c>
       <c r="AB29" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC29" t="n">
         <v>100</v>
       </c>
-      <c r="AD29" t="n">
-        <v>250</v>
-      </c>
+      <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr">
@@ -8206,7 +8222,7 @@
         </is>
       </c>
       <c r="AJ29" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
@@ -8214,21 +8230,21 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="n">
-        <v>126.8</v>
+        <v>68.95</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.117076391682425</v>
+        <v>0.1424533755896991</v>
       </c>
       <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="n">
-        <v>28787900</v>
+        <v>17764694</v>
       </c>
       <c r="AY29" t="inlineStr"/>
       <c r="AZ29" t="inlineStr"/>
@@ -8243,19 +8259,19 @@
       <c r="BI29" t="inlineStr"/>
       <c r="BJ29" t="inlineStr"/>
       <c r="BK29" t="n">
-        <v>846.39</v>
-      </c>
-      <c r="BL29" t="inlineStr"/>
+        <v>516</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>289.1</v>
+      </c>
       <c r="BM29" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>1.96</v>
-      </c>
+        <v>2.95</v>
+      </c>
+      <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
       <c r="BP29" t="inlineStr"/>
       <c r="BQ29" t="n">
-        <v>1083.053536053202</v>
+        <v>484.0180144175243</v>
       </c>
       <c r="BR29" t="inlineStr"/>
       <c r="BS29" t="inlineStr"/>
@@ -8263,18 +8279,18 @@
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr"/>
       <c r="BW29" t="n">
-        <v>6.34</v>
+        <v>10500</v>
       </c>
       <c r="BX29" t="n">
-        <v>0.0002</v>
+        <v>0.61</v>
       </c>
       <c r="BY29" t="inlineStr"/>
       <c r="BZ29" t="inlineStr"/>
       <c r="CA29" t="n">
-        <v>5.072</v>
+        <v>1.85271408</v>
       </c>
       <c r="CB29" t="n">
-        <v>0.16</v>
+        <v>0.0864</v>
       </c>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr">
@@ -8283,14 +8299,14 @@
         </is>
       </c>
       <c r="CE29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CF29" t="n">
-        <v>64.42121623093684</v>
+        <v>40.12529487179487</v>
       </c>
       <c r="CG29" t="inlineStr"/>
       <c r="CH29" t="n">
-        <v>31.7</v>
+        <v>21.44345</v>
       </c>
       <c r="CI29" t="inlineStr"/>
       <c r="CJ29" t="inlineStr"/>
@@ -8305,16 +8321,16 @@
       </c>
       <c r="CP29" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ29" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR29" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="CS29" t="inlineStr">
         <is>
@@ -8327,12 +8343,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV29" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY29" t="inlineStr"/>
       <c r="CZ29" t="inlineStr"/>
@@ -8354,30 +8368,30 @@
       <c r="DP29" t="inlineStr"/>
       <c r="DQ29" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GV[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR29" t="n">
-        <v>-126.8</v>
+        <v>6.895</v>
       </c>
       <c r="DS29" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT29" t="n">
-        <v>2.927570523582327</v>
+        <v>2.712649701627211</v>
       </c>
       <c r="DU29" t="n">
-        <v>4.995535696220584</v>
+        <v>4.839112362047485</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10046</v>
+        <v>10820</v>
       </c>
       <c r="B30" t="n">
-        <v>46</v>
+        <v>820</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -8387,21 +8401,21 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[0()]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -8409,26 +8423,18 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>M9/M10</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>hl</t>
@@ -8436,43 +8442,35 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>20</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
-        <v>56</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AB30" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC30" t="n">
         <v>100</v>
       </c>
-      <c r="AD30" t="n">
-        <v>250</v>
-      </c>
+      <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr">
@@ -8481,7 +8479,7 @@
         </is>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
@@ -8489,21 +8487,21 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="n">
-        <v>0.6</v>
+        <v>0.91</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="n">
-        <v>-204</v>
+        <v>324.8924</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.1781790566266567</v>
+        <v>0.422772006211321</v>
       </c>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="n">
-        <v>9813370</v>
+        <v>153402</v>
       </c>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="inlineStr"/>
@@ -8518,19 +8516,19 @@
       <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="inlineStr"/>
       <c r="BK30" t="n">
-        <v>907.8</v>
-      </c>
-      <c r="BL30" t="inlineStr"/>
+        <v>742.3</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>365.9</v>
+      </c>
       <c r="BM30" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN30" t="n">
-        <v>1.96</v>
-      </c>
+        <v>2.31</v>
+      </c>
+      <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
       <c r="BP30" t="inlineStr"/>
       <c r="BQ30" t="n">
-        <v>1144.915703687031</v>
+        <v>768.4813450907716</v>
       </c>
       <c r="BR30" t="inlineStr"/>
       <c r="BS30" t="inlineStr"/>
@@ -8538,18 +8536,18 @@
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
       <c r="BW30" t="n">
-        <v>6.8</v>
+        <v>2206.4</v>
       </c>
       <c r="BX30" t="n">
-        <v>0.0002</v>
+        <v>0.064</v>
       </c>
       <c r="BY30" t="inlineStr"/>
       <c r="BZ30" t="inlineStr"/>
       <c r="CA30" t="n">
-        <v>3.672000000000001</v>
+        <v>5.647005000000001</v>
       </c>
       <c r="CB30" t="n">
-        <v>0.108</v>
+        <v>0.1638</v>
       </c>
       <c r="CC30" t="inlineStr"/>
       <c r="CD30" t="inlineStr">
@@ -8561,11 +8559,11 @@
         <v>10</v>
       </c>
       <c r="CF30" t="n">
-        <v>65.5044586056645</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG30" t="inlineStr"/>
       <c r="CH30" t="n">
-        <v>34</v>
+        <v>34.475</v>
       </c>
       <c r="CI30" t="inlineStr"/>
       <c r="CJ30" t="inlineStr"/>
@@ -8580,15 +8578,17 @@
       </c>
       <c r="CP30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ30" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR30" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR30" t="n">
+        <v>22.5</v>
+      </c>
       <c r="CS30" t="inlineStr">
         <is>
           <t>n</t>
@@ -8600,12 +8600,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV30" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV30" t="inlineStr"/>
       <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY30" t="inlineStr"/>
       <c r="CZ30" t="inlineStr"/>
@@ -8627,30 +8625,30 @@
       <c r="DP30" t="inlineStr"/>
       <c r="DQ30" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR30" t="n">
-        <v>-2040</v>
+        <v>32.48924</v>
       </c>
       <c r="DS30" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DT30" t="n">
-        <v>2.95799017840683</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DU30" t="n">
-        <v>4.845645129132144</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10291</v>
+        <v>10989</v>
       </c>
       <c r="B31" t="n">
-        <v>291</v>
+        <v>989</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -8660,18 +8658,18 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[0(610)]8</t>
+          <t>[[0()]2,[+30(),-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -8680,24 +8678,26 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>BASF A420</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>E UNIVER 61</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>36</v>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S31" t="inlineStr">
         <is>
           <t>hl</t>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -8714,31 +8714,37 @@
         </is>
       </c>
       <c r="V31" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y31" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>18</v>
+      </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AB31" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AC31" t="n">
         <v>110</v>
       </c>
-      <c r="AD31" t="inlineStr"/>
+      <c r="AD31" t="n">
+        <v>100</v>
+      </c>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG31" t="n">
+        <v>92</v>
+      </c>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr">
         <is>
@@ -8746,7 +8752,7 @@
         </is>
       </c>
       <c r="AJ31" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
@@ -8754,17 +8760,19 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AS31" t="n">
+        <v>-210</v>
+      </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="n">
-        <v>55000000</v>
+        <v>1238544</v>
       </c>
       <c r="AY31" t="inlineStr"/>
       <c r="AZ31" t="inlineStr"/>
@@ -8779,12 +8787,12 @@
       <c r="BI31" t="inlineStr"/>
       <c r="BJ31" t="inlineStr"/>
       <c r="BK31" t="n">
-        <v>670</v>
-      </c>
-      <c r="BL31" t="n">
-        <v>475</v>
-      </c>
-      <c r="BM31" t="inlineStr"/>
+        <v>634</v>
+      </c>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="n">
+        <v>2.4</v>
+      </c>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
       <c r="BP31" t="inlineStr"/>
@@ -8795,37 +8803,37 @@
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
       <c r="BW31" t="inlineStr"/>
-      <c r="BX31" t="inlineStr"/>
+      <c r="BX31" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY31" t="inlineStr"/>
       <c r="BZ31" t="inlineStr"/>
       <c r="CA31" t="n">
-        <v>7.566749999999999</v>
+        <v>1.88784</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.2565</v>
+        <v>0.0621</v>
       </c>
       <c r="CC31" t="inlineStr"/>
       <c r="CD31" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE31" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="CF31" t="n">
-        <v>150.8407070707071</v>
+        <v>46.79506944444444</v>
       </c>
       <c r="CG31" t="inlineStr"/>
       <c r="CH31" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="CI31" t="inlineStr"/>
       <c r="CJ31" t="inlineStr"/>
       <c r="CK31" t="inlineStr"/>
-      <c r="CL31" t="n">
-        <v>52.7</v>
-      </c>
+      <c r="CL31" t="inlineStr"/>
       <c r="CM31" t="inlineStr"/>
       <c r="CN31" t="inlineStr"/>
       <c r="CO31" t="inlineStr">
@@ -8840,27 +8848,17 @@
       </c>
       <c r="CQ31" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR31" t="n">
-        <v>30</v>
-      </c>
-      <c r="CS31" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr"/>
+      <c r="CS31" t="inlineStr"/>
       <c r="CT31" t="inlineStr"/>
-      <c r="CU31" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU31" t="inlineStr"/>
       <c r="CV31" t="inlineStr"/>
       <c r="CW31" t="inlineStr"/>
       <c r="CX31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY31" t="inlineStr"/>
       <c r="CZ31" t="inlineStr"/>
@@ -8882,23 +8880,25 @@
       <c r="DP31" t="inlineStr"/>
       <c r="DQ31" t="inlineStr">
         <is>
-          <t>GP[0(610)]8</t>
-        </is>
-      </c>
-      <c r="DR31" t="inlineStr"/>
+          <t>GP[[0()]2,[+30(),-30()],[0()]]s</t>
+        </is>
+      </c>
+      <c r="DR31" t="n">
+        <v>-2100</v>
+      </c>
       <c r="DS31" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT31" t="n">
-        <v>2.826074802700826</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU31" t="n">
-        <v>6.899410614790332</v>
+        <v>5.881192832556594</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/FACT_avg_static.xlsx
+++ b/data/FACT_avg_static.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU31"/>
+  <dimension ref="A1:DU25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Fibre in 0-deg Direction</t>
+          <t>Layers of Fibre in 0-deg Direction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Fibre in 45-deg Direction</t>
+          <t>Layers of Fibre in 45-deg Direction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Fibre in 90-deg Direction</t>
+          <t>Layers of Fibre in 90-deg Direction</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of Fibre in Other Direction</t>
+          <t>Layers of Fibre in Other Direction</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -1062,10 +1062,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10291</v>
+        <v>10029</v>
       </c>
       <c r="B2" t="n">
-        <v>291</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1075,21 +1075,21 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NLR</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0(610)]8</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1099,20 +1099,24 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>BASF A420</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>E UNIVER 61</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1120,33 +1124,37 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20</v>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="AB2" t="n">
         <v>250</v>
       </c>
       <c r="AC2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>250</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
@@ -1161,7 +1169,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
@@ -1169,17 +1177,21 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
+      <c r="AS2" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.117076391682425</v>
+      </c>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="n">
-        <v>55000000</v>
+        <v>28787900</v>
       </c>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
@@ -1194,30 +1206,38 @@
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="n">
-        <v>670</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>475</v>
-      </c>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
+        <v>846.39</v>
+      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>-1.96</v>
+      </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
+      <c r="BQ2" t="n">
+        <v>1083.053536053202</v>
+      </c>
       <c r="BR2" t="inlineStr"/>
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
+      <c r="BW2" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0002</v>
+      </c>
       <c r="BY2" t="inlineStr"/>
       <c r="BZ2" t="inlineStr"/>
       <c r="CA2" t="n">
-        <v>7.566749999999999</v>
+        <v>5.072</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.2565</v>
+        <v>0.16</v>
       </c>
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr">
@@ -1226,21 +1246,19 @@
         </is>
       </c>
       <c r="CE2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="CF2" t="n">
-        <v>150.8407070707071</v>
+        <v>64.42121623093684</v>
       </c>
       <c r="CG2" t="inlineStr"/>
       <c r="CH2" t="n">
-        <v>29.5</v>
+        <v>31.7</v>
       </c>
       <c r="CI2" t="inlineStr"/>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
-      <c r="CL2" t="n">
-        <v>52.7</v>
-      </c>
+      <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
       <c r="CO2" t="inlineStr">
@@ -1255,11 +1273,11 @@
       </c>
       <c r="CQ2" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR2" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="CS2" t="inlineStr">
         <is>
@@ -1272,7 +1290,9 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV2" t="inlineStr"/>
+      <c r="CV2" t="n">
+        <v>50</v>
+      </c>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="n">
         <v>1</v>
@@ -1297,28 +1317,30 @@
       <c r="DP2" t="inlineStr"/>
       <c r="DQ2" t="inlineStr">
         <is>
-          <t>GP[0(610)]8</t>
-        </is>
-      </c>
-      <c r="DR2" t="inlineStr"/>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+        </is>
+      </c>
+      <c r="DR2" t="n">
+        <v>-126.8</v>
+      </c>
       <c r="DS2" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT2" t="n">
-        <v>2.826074802700826</v>
+        <v>2.927570523582327</v>
       </c>
       <c r="DU2" t="n">
-        <v>6.899410614790332</v>
+        <v>4.995535696220584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10954</v>
+        <v>10046</v>
       </c>
       <c r="B3" t="n">
-        <v>954</v>
+        <v>46</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1328,21 +1350,21 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -1352,24 +1374,22 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>M9/M10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>E/Carbon</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="n">
-        <v>38</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -1384,36 +1404,36 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>GCP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.5</v>
+        <v>2.8</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>195.5</v>
+        <v>56</v>
       </c>
       <c r="AB3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AC3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr"/>
@@ -1424,7 +1444,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
@@ -1432,21 +1452,21 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>0.77</v>
+        <v>-0.6</v>
       </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>-204</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5094168824072062</v>
+        <v>0.1781790566266567</v>
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>18650718</v>
+        <v>9813370</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
@@ -1461,21 +1481,19 @@
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="n">
-        <v>367.4</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>250.8</v>
-      </c>
+        <v>907.8</v>
+      </c>
+      <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="n">
-        <v>1.8</v>
+        <v>2.67</v>
       </c>
       <c r="BN3" t="n">
-        <v>1</v>
+        <v>-1.96</v>
       </c>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
       <c r="BQ3" t="n">
-        <v>392.6057555354605</v>
+        <v>1144.915703687031</v>
       </c>
       <c r="BR3" t="inlineStr"/>
       <c r="BS3" t="inlineStr"/>
@@ -1483,18 +1501,18 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="n">
-        <v>419</v>
+        <v>6.8</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.016</v>
+        <v>0.0002</v>
       </c>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="n">
-        <v>2.532222</v>
+        <v>3.672000000000001</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.09702000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr">
@@ -1503,14 +1521,14 @@
         </is>
       </c>
       <c r="CE3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CF3" t="n">
-        <v>79.02100330687833</v>
+        <v>65.5044586056645</v>
       </c>
       <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="n">
-        <v>26.1</v>
+        <v>34</v>
       </c>
       <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
@@ -1530,15 +1548,13 @@
       </c>
       <c r="CQ3" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR3" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS3" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT3" t="inlineStr"/>
@@ -1547,17 +1563,17 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV3" t="inlineStr"/>
+      <c r="CV3" t="n">
+        <v>50</v>
+      </c>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
-      <c r="DB3" t="n">
-        <v>2500000</v>
-      </c>
+      <c r="DB3" t="inlineStr"/>
       <c r="DC3" t="inlineStr"/>
       <c r="DD3" t="inlineStr"/>
       <c r="DE3" t="inlineStr"/>
@@ -1574,30 +1590,30 @@
       <c r="DP3" t="inlineStr"/>
       <c r="DQ3" t="inlineStr">
         <is>
-          <t>GCP[[0(500)],[+45(240),-45(240)SB]6,[0(200)]4,[+45(215),-45(215)]2]s</t>
+          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
         </is>
       </c>
       <c r="DR3" t="n">
-        <v>20</v>
+        <v>-2040</v>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>0/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/0/0/0/45/-45/45/-45/-45/45/-45/45/0/0/0/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT3" t="n">
-        <v>2.565139151969789</v>
+        <v>2.95799017840683</v>
       </c>
       <c r="DU3" t="n">
-        <v>5.061534728027735</v>
+        <v>4.845645129132144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10029</v>
+        <v>10291</v>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1607,21 +1623,21 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[0(610)]8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1631,24 +1647,20 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>M9/M10</t>
+          <t>BASF A420</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E UNIVER 61</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>MAN</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>hl</t>
@@ -1656,37 +1668,33 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>20</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="AB4" t="n">
         <v>250</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>250</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
@@ -1701,7 +1709,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
@@ -1709,21 +1717,17 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.117076391682425</v>
-      </c>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="inlineStr"/>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>28787900</v>
+        <v>55000000</v>
       </c>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
@@ -1738,38 +1742,30 @@
       <c r="BI4" t="inlineStr"/>
       <c r="BJ4" t="inlineStr"/>
       <c r="BK4" t="n">
-        <v>846.39</v>
-      </c>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>1.96</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>-475</v>
+      </c>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="n">
-        <v>1083.053536053202</v>
-      </c>
+      <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="n">
-        <v>5.072</v>
+        <v>7.566749999999999</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.16</v>
+        <v>0.2565</v>
       </c>
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr">
@@ -1778,19 +1774,21 @@
         </is>
       </c>
       <c r="CE4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="CF4" t="n">
-        <v>64.42121623093684</v>
+        <v>150.8407070707071</v>
       </c>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="n">
-        <v>31.7</v>
+        <v>29.5</v>
       </c>
       <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
-      <c r="CL4" t="inlineStr"/>
+      <c r="CL4" t="n">
+        <v>52.7</v>
+      </c>
       <c r="CM4" t="inlineStr"/>
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr">
@@ -1805,11 +1803,11 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CS4" t="inlineStr">
         <is>
@@ -1822,9 +1820,7 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV4" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV4" t="inlineStr"/>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="n">
         <v>1</v>
@@ -1849,30 +1845,28 @@
       <c r="DP4" t="inlineStr"/>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
-        </is>
-      </c>
-      <c r="DR4" t="n">
-        <v>-126.8</v>
-      </c>
+          <t>GP[0(610)]8</t>
+        </is>
+      </c>
+      <c r="DR4" t="inlineStr"/>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT4" t="n">
-        <v>2.927570523582327</v>
+        <v>2.826074802700826</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.995535696220584</v>
+        <v>6.899410614790332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10046</v>
+        <v>10175</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1882,31 +1876,31 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>M9/M10</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1915,18 +1909,20 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>53</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>58.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.38</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1936,31 +1932,31 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Y5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AC5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD5" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
@@ -1968,7 +1964,9 @@
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>90</v>
+      </c>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr">
         <is>
@@ -1976,7 +1974,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
@@ -1984,21 +1982,21 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="n">
-        <v>0.6</v>
+        <v>0.172</v>
       </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="n">
-        <v>-204</v>
+        <v>28.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1781790566266567</v>
+        <v>0.4625843648268949</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>9813370</v>
+        <v>376116</v>
       </c>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
@@ -2013,19 +2011,17 @@
       <c r="BI5" t="inlineStr"/>
       <c r="BJ5" t="inlineStr"/>
       <c r="BK5" t="n">
-        <v>907.8</v>
+        <v>55</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>1.96</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
       <c r="BQ5" t="n">
-        <v>1144.915703687031</v>
+        <v>61.35097110474145</v>
       </c>
       <c r="BR5" t="inlineStr"/>
       <c r="BS5" t="inlineStr"/>
@@ -2033,34 +2029,34 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="n">
-        <v>6.8</v>
+        <v>13.2</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="BY5" t="inlineStr"/>
       <c r="BZ5" t="inlineStr"/>
       <c r="CA5" t="n">
-        <v>3.672000000000001</v>
+        <v>0.25542</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.108</v>
+        <v>0.01548</v>
       </c>
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF5" t="n">
-        <v>65.5044586056645</v>
+        <v>6.363592592592592</v>
       </c>
       <c r="CG5" t="inlineStr"/>
       <c r="CH5" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="CI5" t="inlineStr"/>
       <c r="CJ5" t="inlineStr"/>
@@ -2080,10 +2076,12 @@
       </c>
       <c r="CQ5" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR5" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR5" t="n">
+        <v>23</v>
+      </c>
       <c r="CS5" t="inlineStr">
         <is>
           <t>n</t>
@@ -2095,12 +2093,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV5" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV5" t="inlineStr"/>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="inlineStr"/>
@@ -2122,30 +2118,30 @@
       <c r="DP5" t="inlineStr"/>
       <c r="DQ5" t="inlineStr">
         <is>
-          <t>GE[[+45(390),-45(390)WR],[0(920)]1.5]s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR5" t="n">
-        <v>-2040</v>
+        <v>2.838</v>
       </c>
       <c r="DS5" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT5" t="n">
-        <v>2.95799017840683</v>
+        <v>1.740362689494244</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.845645129132144</v>
+        <v>4.255093919562162</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11164</v>
+        <v>10201</v>
       </c>
       <c r="B6" t="n">
-        <v>1164</v>
+        <v>201</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2155,58 +2151,58 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2123 Cronolite Ortoftalic</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>E Vetrotex Vidrio</t>
+          <t>E</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>55</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>40</v>
-      </c>
+        <v>52.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
-          <t>CIEMAT</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -2215,28 +2211,36 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="AC6" t="n">
-        <v>240</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1200</v>
+      </c>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG6" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr">
@@ -2245,7 +2249,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -2253,19 +2257,21 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="n">
-        <v>0.2861528055981894</v>
+        <v>-0.8</v>
       </c>
       <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT6" t="inlineStr"/>
+        <v>-327.2</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.5076204850168683</v>
+      </c>
       <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>22676100</v>
+        <v>16886</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
@@ -2280,44 +2286,52 @@
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="n">
-        <v>659.0700000000001</v>
+        <v>546</v>
       </c>
       <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+      <c r="BM6" t="n">
+        <v>1.5</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v>644.576035951597</v>
+      </c>
       <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
-      <c r="BX6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY6" t="inlineStr"/>
       <c r="BZ6" t="inlineStr"/>
       <c r="CA6" t="n">
-        <v>7.304</v>
+        <v>2.9448</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.1900054629171978</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE6" t="n">
-        <v>8.300000000000001</v>
+        <v>5</v>
       </c>
       <c r="CF6" t="n">
-        <v>55.88081957459467</v>
+        <v>0.7329444444444443</v>
       </c>
       <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="n">
-        <v>38.441</v>
+        <v>40.9</v>
       </c>
       <c r="CI6" t="inlineStr"/>
       <c r="CJ6" t="inlineStr"/>
@@ -2325,17 +2339,39 @@
       <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="inlineStr"/>
       <c r="CN6" t="inlineStr"/>
-      <c r="CO6" t="inlineStr"/>
-      <c r="CP6" t="inlineStr"/>
-      <c r="CQ6" t="inlineStr"/>
-      <c r="CR6" t="inlineStr"/>
-      <c r="CS6" t="inlineStr"/>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR6" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT6" t="inlineStr"/>
-      <c r="CU6" t="inlineStr"/>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV6" t="inlineStr"/>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="inlineStr"/>
@@ -2357,30 +2393,30 @@
       <c r="DP6" t="inlineStr"/>
       <c r="DQ6" t="inlineStr">
         <is>
-          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
+          <t>GP[[+60()FW],[-60()FW]]4s</t>
         </is>
       </c>
       <c r="DR6" t="n">
-        <v>22</v>
+        <v>-3272</v>
       </c>
       <c r="DS6" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
+          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
         </is>
       </c>
       <c r="DT6" t="n">
-        <v>2.818931543576176</v>
+        <v>2.737192642704737</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.210906788214843</v>
+        <v>4.105793520617849</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10730</v>
+        <v>10237</v>
       </c>
       <c r="B7" t="n">
-        <v>730</v>
+        <v>237</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2390,12 +2426,12 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SNL</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[0()]5</t>
+          <t>[0(425)]5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2412,14 +2448,18 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>L20/SL</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>30</v>
+        <v>36.9</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -2436,30 +2476,34 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>GV</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>50.8</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>208.28</v>
+        <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr">
@@ -2468,7 +2512,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
@@ -2476,21 +2520,19 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="n">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="n">
-        <v>187.88875</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>0.3189685287916126</v>
-      </c>
+        <v>118.4</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>7475243</v>
+        <v>57220600</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
@@ -2505,38 +2547,36 @@
       <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="inlineStr"/>
       <c r="BK7" t="n">
-        <v>586.6</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>294.6</v>
-      </c>
+        <v>619.2320000000001</v>
+      </c>
+      <c r="BL7" t="inlineStr"/>
       <c r="BM7" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="BN7" t="inlineStr"/>
+        <v>2.092</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-2.418</v>
+      </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="n">
-        <v>589.0510600271501</v>
-      </c>
+      <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="inlineStr"/>
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="n">
-        <v>2863.42455</v>
+        <v>5.92</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.127</v>
+        <v>0.0002</v>
       </c>
       <c r="BY7" t="inlineStr"/>
       <c r="BZ7" t="inlineStr"/>
       <c r="CA7" t="n">
-        <v>3.206133630000001</v>
+        <v>7.5776</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.1422</v>
+        <v>0.256</v>
       </c>
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr">
@@ -2545,14 +2585,14 @@
         </is>
       </c>
       <c r="CE7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="CF7" t="n">
-        <v>22.4654012345679</v>
+        <v>114.1808263888889</v>
       </c>
       <c r="CG7" t="inlineStr"/>
       <c r="CH7" t="n">
-        <v>22.54665</v>
+        <v>29.6</v>
       </c>
       <c r="CI7" t="inlineStr"/>
       <c r="CJ7" t="inlineStr"/>
@@ -2567,17 +2607,15 @@
       </c>
       <c r="CP7" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR7" t="n">
-        <v>22.5</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr"/>
       <c r="CS7" t="inlineStr">
         <is>
           <t>n</t>
@@ -2589,10 +2627,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV7" t="inlineStr"/>
+      <c r="CV7" t="n">
+        <v>50</v>
+      </c>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY7" t="inlineStr"/>
       <c r="CZ7" t="inlineStr"/>
@@ -2614,11 +2654,11 @@
       <c r="DP7" t="inlineStr"/>
       <c r="DQ7" t="inlineStr">
         <is>
-          <t>GV[0()]5</t>
+          <t>GE[0(425)]5</t>
         </is>
       </c>
       <c r="DR7" t="n">
-        <v>18.788875</v>
+        <v>-118.4</v>
       </c>
       <c r="DS7" t="inlineStr">
         <is>
@@ -2626,18 +2666,18 @@
         </is>
       </c>
       <c r="DT7" t="n">
-        <v>2.768342058644533</v>
+        <v>2.791853391254176</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.327868793507926</v>
+        <v>5.165177541080086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10237</v>
+        <v>10260</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2733,7 +2773,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
@@ -2741,19 +2781,19 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="n">
-        <v>118.4</v>
+        <v>223.3</v>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>57220600</v>
+        <v>42675000</v>
       </c>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
@@ -2768,14 +2808,14 @@
       <c r="BI8" t="inlineStr"/>
       <c r="BJ8" t="inlineStr"/>
       <c r="BK8" t="n">
-        <v>619.2320000000001</v>
+        <v>667.3480000000001</v>
       </c>
       <c r="BL8" t="inlineStr"/>
       <c r="BM8" t="n">
         <v>2.092</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.418</v>
+        <v>-2.418</v>
       </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
@@ -2786,7 +2826,7 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="n">
-        <v>5.92</v>
+        <v>6.38</v>
       </c>
       <c r="BX8" t="n">
         <v>0.0002</v>
@@ -2794,10 +2834,10 @@
       <c r="BY8" t="inlineStr"/>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>7.5776</v>
+        <v>5.024249999999999</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.256</v>
+        <v>0.1575</v>
       </c>
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr">
@@ -2806,14 +2846,14 @@
         </is>
       </c>
       <c r="CE8" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="CF8" t="n">
-        <v>114.1808263888889</v>
+        <v>170.260063425926</v>
       </c>
       <c r="CG8" t="inlineStr"/>
       <c r="CH8" t="n">
-        <v>29.6</v>
+        <v>31.9</v>
       </c>
       <c r="CI8" t="inlineStr"/>
       <c r="CJ8" t="inlineStr"/>
@@ -2833,7 +2873,7 @@
       </c>
       <c r="CQ8" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR8" t="inlineStr"/>
@@ -2879,7 +2919,7 @@
         </is>
       </c>
       <c r="DR8" t="n">
-        <v>-118.4</v>
+        <v>22.33</v>
       </c>
       <c r="DS8" t="inlineStr">
         <is>
@@ -2887,18 +2927,18 @@
         </is>
       </c>
       <c r="DT8" t="n">
-        <v>2.791853391254176</v>
+        <v>2.824352363252417</v>
       </c>
       <c r="DU8" t="n">
-        <v>5.165177541080086</v>
+        <v>5.772019752181081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10260</v>
+        <v>11029</v>
       </c>
       <c r="B9" t="n">
-        <v>260</v>
+        <v>1029</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2908,18 +2948,18 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[0(425)]5</t>
+          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2928,11 +2968,11 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -2940,12 +2980,14 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O9" t="n">
-        <v>36.9</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>RISO</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>hl</t>
@@ -2953,40 +2995,46 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>18</v>
+      </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AC9" t="n">
         <v>110</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>100</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>92</v>
+      </c>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr">
         <is>
@@ -3002,19 +3050,19 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="n">
-        <v>223.3</v>
+        <v>292</v>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>42675000</v>
+        <v>627801</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
@@ -3029,15 +3077,13 @@
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="n">
-        <v>667.3480000000001</v>
+        <v>634</v>
       </c>
       <c r="BL9" t="inlineStr"/>
       <c r="BM9" t="n">
-        <v>2.092</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>2.418</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
       <c r="BQ9" t="inlineStr"/>
@@ -3046,35 +3092,33 @@
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="BW9" t="inlineStr"/>
       <c r="BX9" t="n">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="BY9" t="inlineStr"/>
       <c r="BZ9" t="inlineStr"/>
       <c r="CA9" t="n">
-        <v>5.024249999999999</v>
+        <v>26.2656</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.1575</v>
+        <v>0.8639999999999999</v>
       </c>
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE9" t="n">
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="CF9" t="n">
-        <v>170.260063425926</v>
+        <v>8.570714814814815</v>
       </c>
       <c r="CG9" t="inlineStr"/>
       <c r="CH9" t="n">
-        <v>31.9</v>
+        <v>30.4</v>
       </c>
       <c r="CI9" t="inlineStr"/>
       <c r="CJ9" t="inlineStr"/>
@@ -3092,29 +3136,15 @@
           <t>m</t>
         </is>
       </c>
-      <c r="CQ9" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CQ9" t="inlineStr"/>
       <c r="CR9" t="inlineStr"/>
-      <c r="CS9" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CS9" t="inlineStr"/>
       <c r="CT9" t="inlineStr"/>
-      <c r="CU9" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV9" t="n">
-        <v>50</v>
-      </c>
+      <c r="CU9" t="inlineStr"/>
+      <c r="CV9" t="inlineStr"/>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr"/>
@@ -3136,30 +3166,30 @@
       <c r="DP9" t="inlineStr"/>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>GE[0(425)]5</t>
+          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR9" t="n">
-        <v>22.33</v>
+        <v>29.2</v>
       </c>
       <c r="DS9" t="inlineStr">
         <is>
-          <t>0/0/0/0/0</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT9" t="n">
-        <v>2.824352363252417</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.772019752181081</v>
+        <v>4.564966507854261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11004</v>
+        <v>10004</v>
       </c>
       <c r="B10" t="n">
-        <v>1004</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3174,13 +3204,13 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>[0()FW]8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -3189,11 +3219,11 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>UPS294V Polyplex</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -3201,8 +3231,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.83</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
@@ -3211,7 +3245,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -3225,7 +3259,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
@@ -3236,7 +3270,7 @@
       </c>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="AB10" t="n">
         <v>280</v>
@@ -3250,11 +3284,11 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>JI</t>
+          <t>CAEC</t>
         </is>
       </c>
       <c r="AG10" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr">
@@ -3263,7 +3297,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -3271,19 +3305,21 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="n">
-        <v>-398</v>
-      </c>
-      <c r="AT10" t="inlineStr"/>
+        <v>472</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4600221360497219</v>
+      </c>
       <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>1689490</v>
+        <v>5209100</v>
       </c>
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
@@ -3298,36 +3334,36 @@
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
       <c r="BK10" t="n">
-        <v>874</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>720</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="BL10" t="inlineStr"/>
       <c r="BM10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>1.9</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
       <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
+      <c r="BQ10" t="n">
+        <v>1026.037581697989</v>
+      </c>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
+      <c r="BW10" t="n">
+        <v>37.76</v>
+      </c>
       <c r="BX10" t="n">
         <v>0.0008</v>
       </c>
       <c r="BY10" t="inlineStr"/>
       <c r="BZ10" t="inlineStr"/>
       <c r="CA10" t="n">
-        <v>3.7044</v>
+        <v>4.248000000000001</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.0882</v>
+        <v>0.09</v>
       </c>
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr">
@@ -3339,15 +3375,13 @@
         <v>5</v>
       </c>
       <c r="CF10" t="n">
-        <v>27.64677314814815</v>
+        <v>45.85437222222222</v>
       </c>
       <c r="CG10" t="inlineStr"/>
       <c r="CH10" t="n">
-        <v>42</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>40.6</v>
-      </c>
+        <v>47.2</v>
+      </c>
+      <c r="CI10" t="inlineStr"/>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
       <c r="CL10" t="inlineStr"/>
@@ -3365,17 +3399,27 @@
       </c>
       <c r="CQ10" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR10" t="n">
+        <v>23</v>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV10" t="inlineStr"/>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CY10" t="inlineStr"/>
       <c r="CZ10" t="inlineStr"/>
@@ -3397,30 +3441,30 @@
       <c r="DP10" t="inlineStr"/>
       <c r="DQ10" t="inlineStr">
         <is>
-          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
+          <t>GP[0()FW]8</t>
         </is>
       </c>
       <c r="DR10" t="n">
-        <v>-3980</v>
+        <v>47.2</v>
       </c>
       <c r="DS10" t="inlineStr">
         <is>
-          <t>0/0/10/-10/0/0/-10/10/0/0</t>
+          <t>0/0/0/0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT10" t="n">
-        <v>2.941511432634403</v>
+        <v>2.935507265824712</v>
       </c>
       <c r="DU10" t="n">
-        <v>5.52536012144618</v>
+        <v>4.899458605729175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10352</v>
+        <v>10989</v>
       </c>
       <c r="B11" t="n">
-        <v>352</v>
+        <v>989</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3430,18 +3474,18 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NLR</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[[0()]2,[+30(),-30()],[0()]]s</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -3450,11 +3494,11 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -3462,9 +3506,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O11" t="n">
-        <v>49.1</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -3474,12 +3516,12 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -3492,25 +3534,33 @@
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>18</v>
+      </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
+        <v>280</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>100</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>92</v>
+      </c>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr">
         <is>
@@ -3526,19 +3576,19 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>0.5</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="n">
-        <v>-204.5</v>
+        <v>-210</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>9495980</v>
+        <v>1238544</v>
       </c>
       <c r="AY11" t="inlineStr"/>
       <c r="AZ11" t="inlineStr"/>
@@ -3553,14 +3603,14 @@
       <c r="BI11" t="inlineStr"/>
       <c r="BJ11" t="inlineStr"/>
       <c r="BK11" t="n">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BM11" t="n">
+        <v>2.4</v>
+      </c>
       <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="n">
-        <v>546</v>
-      </c>
+      <c r="BO11" t="inlineStr"/>
       <c r="BP11" t="inlineStr"/>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
@@ -3569,30 +3619,32 @@
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
+      <c r="BX11" t="n">
+        <v>0.0008</v>
+      </c>
       <c r="BY11" t="inlineStr"/>
       <c r="BZ11" t="inlineStr"/>
       <c r="CA11" t="n">
-        <v>3.681</v>
+        <v>1.88784</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.09</v>
+        <v>0.0621</v>
       </c>
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF11" t="n">
-        <v>64.11635416666667</v>
+        <v>46.79506944444444</v>
       </c>
       <c r="CG11" t="inlineStr"/>
       <c r="CH11" t="n">
-        <v>40.9</v>
+        <v>30.4</v>
       </c>
       <c r="CI11" t="inlineStr"/>
       <c r="CJ11" t="inlineStr"/>
@@ -3607,7 +3659,7 @@
       </c>
       <c r="CP11" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>m</t>
         </is>
       </c>
       <c r="CQ11" t="inlineStr">
@@ -3615,24 +3667,14 @@
           <t>y</t>
         </is>
       </c>
-      <c r="CR11" t="n">
-        <v>30</v>
-      </c>
-      <c r="CS11" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CR11" t="inlineStr"/>
+      <c r="CS11" t="inlineStr"/>
       <c r="CT11" t="inlineStr"/>
-      <c r="CU11" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU11" t="inlineStr"/>
       <c r="CV11" t="inlineStr"/>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY11" t="inlineStr"/>
       <c r="CZ11" t="inlineStr"/>
@@ -3654,30 +3696,30 @@
       <c r="DP11" t="inlineStr"/>
       <c r="DQ11" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[[0()]2,[+30(),-30()],[0()]]s</t>
         </is>
       </c>
       <c r="DR11" t="n">
-        <v>-2045</v>
+        <v>-2100</v>
       </c>
       <c r="DS11" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0/0/30/-30/0/0/-30/30/0/0</t>
         </is>
       </c>
       <c r="DT11" t="n">
-        <v>2.781036938621132</v>
+        <v>2.802089257881732</v>
       </c>
       <c r="DU11" t="n">
-        <v>5.786992188571325</v>
+        <v>5.881192832556594</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10162</v>
+        <v>10820</v>
       </c>
       <c r="B12" t="n">
-        <v>162</v>
+        <v>820</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3687,18 +3729,18 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[[+10()FW],[-10()FW]]4s</t>
+          <t>[0()]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -3707,38 +3749,28 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>UP333</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -3747,37 +3779,27 @@
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>18</v>
-      </c>
+        <v>25.4</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>36</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD12" t="n">
         <v>100</v>
       </c>
+      <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG12" t="n">
-        <v>90</v>
-      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr">
         <is>
@@ -3793,21 +3815,21 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="n">
-        <v>286.3</v>
+        <v>324.8924</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4463609613506411</v>
+        <v>0.422772006211321</v>
       </c>
       <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>594308</v>
+        <v>153402</v>
       </c>
       <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
@@ -3822,17 +3844,19 @@
       <c r="BI12" t="inlineStr"/>
       <c r="BJ12" t="inlineStr"/>
       <c r="BK12" t="n">
-        <v>546</v>
-      </c>
-      <c r="BL12" t="inlineStr"/>
+        <v>742.3</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>-365.9</v>
+      </c>
       <c r="BM12" t="n">
-        <v>1.5</v>
+        <v>2.31</v>
       </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
       <c r="BQ12" t="n">
-        <v>641.4091392170283</v>
+        <v>768.4813450907716</v>
       </c>
       <c r="BR12" t="inlineStr"/>
       <c r="BS12" t="inlineStr"/>
@@ -3840,34 +3864,34 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="n">
-        <v>32.72</v>
+        <v>2206.4</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0008</v>
+        <v>0.064</v>
       </c>
       <c r="BY12" t="inlineStr"/>
       <c r="BZ12" t="inlineStr"/>
       <c r="CA12" t="n">
-        <v>2.576699999999999</v>
+        <v>5.647005000000001</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.06299999999999999</v>
+        <v>0.1638</v>
       </c>
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF12" t="n">
-        <v>5.379098290598289</v>
+        <v>2.194388888888889</v>
       </c>
       <c r="CG12" t="inlineStr"/>
       <c r="CH12" t="n">
-        <v>40.9</v>
+        <v>34.475</v>
       </c>
       <c r="CI12" t="inlineStr"/>
       <c r="CJ12" t="inlineStr"/>
@@ -3882,7 +3906,7 @@
       </c>
       <c r="CP12" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ12" t="inlineStr">
@@ -3891,7 +3915,7 @@
         </is>
       </c>
       <c r="CR12" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="CS12" t="inlineStr">
         <is>
@@ -3907,7 +3931,7 @@
       <c r="CV12" t="inlineStr"/>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CY12" t="inlineStr"/>
       <c r="CZ12" t="inlineStr"/>
@@ -3929,30 +3953,30 @@
       <c r="DP12" t="inlineStr"/>
       <c r="DQ12" t="inlineStr">
         <is>
-          <t>GP[[+10()FW],[-10()FW]]4s</t>
+          <t>GP[0()]</t>
         </is>
       </c>
       <c r="DR12" t="n">
-        <v>28.63</v>
+        <v>32.48924</v>
       </c>
       <c r="DS12" t="inlineStr">
         <is>
-          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="DT12" t="n">
-        <v>2.737192642704737</v>
+        <v>2.870579460552685</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.116696166647357</v>
+        <v>4.160654730827149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10213</v>
+        <v>10703</v>
       </c>
       <c r="B13" t="n">
-        <v>213</v>
+        <v>703</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3962,21 +3986,21 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -3984,18 +4008,14 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>L20/SL</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>38.6</v>
+        <v>30</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -4012,34 +4032,30 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>50.8</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>208.28</v>
       </c>
       <c r="AB13" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AC13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr">
@@ -4048,7 +4064,7 @@
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
@@ -4056,19 +4072,21 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="AT13" t="inlineStr"/>
+        <v>189.12985</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.3304644402793597</v>
+      </c>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>76421820</v>
+        <v>1612585</v>
       </c>
       <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
@@ -4083,36 +4101,38 @@
       <c r="BI13" t="inlineStr"/>
       <c r="BJ13" t="inlineStr"/>
       <c r="BK13" t="n">
-        <v>544.152</v>
-      </c>
-      <c r="BL13" t="inlineStr"/>
+        <v>567.2</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>-313.2</v>
+      </c>
       <c r="BM13" t="n">
-        <v>2.212</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>2.14</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
       <c r="BP13" t="inlineStr"/>
-      <c r="BQ13" t="inlineStr"/>
+      <c r="BQ13" t="n">
+        <v>572.3152840291021</v>
+      </c>
       <c r="BR13" t="inlineStr"/>
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="n">
-        <v>4.92</v>
+        <v>2662.0216</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0002</v>
+        <v>0.127</v>
       </c>
       <c r="BY13" t="inlineStr"/>
       <c r="BZ13" t="inlineStr"/>
       <c r="CA13" t="n">
-        <v>6.2976</v>
+        <v>3.3956496</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.256</v>
+        <v>0.162</v>
       </c>
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr">
@@ -4121,14 +4141,14 @@
         </is>
       </c>
       <c r="CE13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CF13" t="n">
-        <v>236.5450942460318</v>
+        <v>18.79661805555556</v>
       </c>
       <c r="CG13" t="inlineStr"/>
       <c r="CH13" t="n">
-        <v>24.6</v>
+        <v>20.9608</v>
       </c>
       <c r="CI13" t="inlineStr"/>
       <c r="CJ13" t="inlineStr"/>
@@ -4143,15 +4163,17 @@
       </c>
       <c r="CP13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ13" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR13" t="inlineStr"/>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR13" t="n">
+        <v>22.5</v>
+      </c>
       <c r="CS13" t="inlineStr">
         <is>
           <t>n</t>
@@ -4163,12 +4185,10 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV13" t="n">
-        <v>50</v>
-      </c>
+      <c r="CV13" t="inlineStr"/>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY13" t="inlineStr"/>
       <c r="CZ13" t="inlineStr"/>
@@ -4190,30 +4210,30 @@
       <c r="DP13" t="inlineStr"/>
       <c r="DQ13" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GP[0()]5</t>
         </is>
       </c>
       <c r="DR13" t="n">
-        <v>-98.40000000000001</v>
+        <v>18.912985</v>
       </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT13" t="n">
-        <v>2.735720229736039</v>
+        <v>2.75373622217501</v>
       </c>
       <c r="DU13" t="n">
-        <v>5.650649768017886</v>
+        <v>5.390274178286151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11273</v>
+        <v>11058</v>
       </c>
       <c r="B14" t="n">
-        <v>1273</v>
+        <v>1058</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -4223,31 +4243,31 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>FFA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L20/SL</t>
+          <t>Epon 826/Jeffamine D-230</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -4256,14 +4276,18 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>HAMILTON STANDARD</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -4276,18 +4300,24 @@
           <t>GE</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>3.5</v>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>50.4</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>176.4</v>
+      </c>
       <c r="AB14" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC14" t="inlineStr"/>
+        <v>154.9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>50</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
@@ -4295,7 +4325,9 @@
           <t>JI</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>82</v>
+      </c>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr">
         <is>
@@ -4303,7 +4335,7 @@
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
@@ -4311,21 +4343,19 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="n">
-        <v>0.8</v>
+        <v>0.4857142857142858</v>
       </c>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0.2828987854305369</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>2346760</v>
+        <v>11254000</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="inlineStr"/>
@@ -4340,60 +4370,44 @@
       <c r="BI14" t="inlineStr"/>
       <c r="BJ14" t="inlineStr"/>
       <c r="BK14" t="n">
-        <v>572</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>547</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BO14" t="inlineStr"/>
+        <v>274.5</v>
+      </c>
+      <c r="BL14" t="inlineStr"/>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="inlineStr"/>
+      <c r="BO14" t="n">
+        <v>275.7</v>
+      </c>
       <c r="BP14" t="inlineStr"/>
-      <c r="BQ14" t="n">
-        <v>718.2780926074136</v>
-      </c>
+      <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
-      <c r="BW14" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
       <c r="BY14" t="inlineStr"/>
       <c r="BZ14" t="inlineStr"/>
       <c r="CA14" t="n">
-        <v>2.4384</v>
+        <v>1.36</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.096</v>
+        <v>0.09714285714285716</v>
       </c>
       <c r="CC14" t="inlineStr"/>
-      <c r="CD14" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="CF14" t="n">
-        <v>14.42657004830918</v>
+        <v>24.71399647266314</v>
       </c>
       <c r="CG14" t="inlineStr"/>
       <c r="CH14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>25.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="CI14" t="inlineStr"/>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
       <c r="CL14" t="inlineStr"/>
@@ -4404,34 +4418,30 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP14" t="inlineStr"/>
-      <c r="CQ14" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR14" t="n">
-        <v>20</v>
-      </c>
-      <c r="CS14" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CP14" t="inlineStr">
+        <is>
+          <t>h</t>
+        </is>
+      </c>
+      <c r="CQ14" t="inlineStr"/>
+      <c r="CR14" t="inlineStr"/>
+      <c r="CS14" t="inlineStr"/>
       <c r="CT14" t="inlineStr"/>
-      <c r="CU14" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU14" t="inlineStr"/>
       <c r="CV14" t="inlineStr"/>
       <c r="CW14" t="inlineStr"/>
-      <c r="CX14" t="inlineStr"/>
+      <c r="CX14" t="n">
+        <v>7</v>
+      </c>
       <c r="CY14" t="inlineStr"/>
       <c r="CZ14" t="inlineStr"/>
       <c r="DA14" t="inlineStr"/>
       <c r="DB14" t="inlineStr"/>
-      <c r="DC14" t="inlineStr"/>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
       <c r="DD14" t="inlineStr"/>
       <c r="DE14" t="inlineStr"/>
       <c r="DF14" t="inlineStr"/>
@@ -4447,30 +4457,30 @@
       <c r="DP14" t="inlineStr"/>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
+          <t>GE[+30(),-30()FW]</t>
         </is>
       </c>
       <c r="DR14" t="n">
-        <v>-203.2</v>
+        <v>0</v>
       </c>
       <c r="DS14" t="inlineStr">
         <is>
-          <t>45/-45/0/0/0/0/-45/45</t>
+          <t>30/-30</t>
         </is>
       </c>
       <c r="DT14" t="n">
-        <v>2.757396028793024</v>
+        <v>2.438542348786111</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.337419932426495</v>
+        <v>4.720184367079336</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10175</v>
+        <v>10352</v>
       </c>
       <c r="B15" t="n">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -4480,12 +4490,12 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>NLR</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -4500,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -4513,11 +4523,9 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>58.1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.38</v>
-      </c>
+        <v>49.1</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
@@ -4531,7 +4539,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -4544,33 +4552,25 @@
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AB15" t="n">
-        <v>280</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>1200</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG15" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
@@ -4586,21 +4586,19 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="n">
-        <v>0.172</v>
+        <v>-0.5</v>
       </c>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="n">
-        <v>28.38</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0.4625843648268949</v>
-      </c>
+        <v>-204.5</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr"/>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>376116</v>
+        <v>9495980</v>
       </c>
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
@@ -4615,52 +4613,46 @@
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
       <c r="BK15" t="n">
-        <v>55</v>
+        <v>604</v>
       </c>
       <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="BM15" t="inlineStr"/>
       <c r="BN15" t="inlineStr"/>
-      <c r="BO15" t="inlineStr"/>
+      <c r="BO15" t="n">
+        <v>546</v>
+      </c>
       <c r="BP15" t="inlineStr"/>
-      <c r="BQ15" t="n">
-        <v>61.35097110474145</v>
-      </c>
+      <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="inlineStr"/>
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
-      <c r="BW15" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0.0008</v>
-      </c>
+      <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
       <c r="BY15" t="inlineStr"/>
       <c r="BZ15" t="inlineStr"/>
       <c r="CA15" t="n">
-        <v>0.25542</v>
+        <v>3.681</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.01548</v>
+        <v>0.09</v>
       </c>
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CF15" t="n">
-        <v>6.363592592592592</v>
+        <v>64.11635416666667</v>
       </c>
       <c r="CG15" t="inlineStr"/>
       <c r="CH15" t="n">
-        <v>16.5</v>
+        <v>40.9</v>
       </c>
       <c r="CI15" t="inlineStr"/>
       <c r="CJ15" t="inlineStr"/>
@@ -4675,16 +4667,16 @@
       </c>
       <c r="CP15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ15" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>y</t>
         </is>
       </c>
       <c r="CR15" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="CS15" t="inlineStr">
         <is>
@@ -4700,7 +4692,7 @@
       <c r="CV15" t="inlineStr"/>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY15" t="inlineStr"/>
       <c r="CZ15" t="inlineStr"/>
@@ -4722,30 +4714,30 @@
       <c r="DP15" t="inlineStr"/>
       <c r="DQ15" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR15" t="n">
-        <v>2.838</v>
+        <v>-2045</v>
       </c>
       <c r="DS15" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT15" t="n">
-        <v>1.740362689494244</v>
+        <v>2.781036938621132</v>
       </c>
       <c r="DU15" t="n">
-        <v>4.255093919562162</v>
+        <v>5.786992188571325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10201</v>
+        <v>10162</v>
       </c>
       <c r="B16" t="n">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -4760,7 +4752,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[[+60()FW],[-60()FW]]4s</t>
+          <t>[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -4788,10 +4780,10 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>52.7</v>
+        <v>49.1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.55</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -4835,7 +4827,7 @@
         <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
@@ -4853,7 +4845,7 @@
         </is>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
@@ -4861,21 +4853,21 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="n">
-        <v>-327.2</v>
+        <v>286.3</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5076204850168683</v>
+        <v>0.4463609613506411</v>
       </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>16886</v>
+        <v>594308</v>
       </c>
       <c r="AY16" t="inlineStr"/>
       <c r="AZ16" t="inlineStr"/>
@@ -4900,7 +4892,7 @@
       <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="n">
-        <v>644.576035951597</v>
+        <v>641.4091392170283</v>
       </c>
       <c r="BR16" t="inlineStr"/>
       <c r="BS16" t="inlineStr"/>
@@ -4916,10 +4908,10 @@
       <c r="BY16" t="inlineStr"/>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>2.9448</v>
+        <v>2.576699999999999</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.06299999999999999</v>
       </c>
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr">
@@ -4931,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.7329444444444443</v>
+        <v>5.379098290598289</v>
       </c>
       <c r="CG16" t="inlineStr"/>
       <c r="CH16" t="n">
@@ -4955,7 +4947,7 @@
       </c>
       <c r="CQ16" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CR16" t="n">
@@ -4997,30 +4989,30 @@
       <c r="DP16" t="inlineStr"/>
       <c r="DQ16" t="inlineStr">
         <is>
-          <t>GP[[+60()FW],[-60()FW]]4s</t>
+          <t>GP[[+10()FW],[-10()FW]]4s</t>
         </is>
       </c>
       <c r="DR16" t="n">
-        <v>-3272</v>
+        <v>28.63</v>
       </c>
       <c r="DS16" t="inlineStr">
         <is>
-          <t>60/-60/60/-60/60/-60/60/-60/-60/60/-60/60/-60/60/-60/60</t>
+          <t>10/-10/10/-10/10/-10/10/-10/-10/10/-10/10/-10/10/-10/10</t>
         </is>
       </c>
       <c r="DT16" t="n">
         <v>2.737192642704737</v>
       </c>
       <c r="DU16" t="n">
-        <v>4.105793520617849</v>
+        <v>4.116696166647357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19001</v>
+        <v>11164</v>
       </c>
       <c r="B17" t="n">
-        <v>9001</v>
+        <v>1164</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5030,18 +5022,18 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TUD</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J17" t="n">
         <v>8</v>
@@ -5054,24 +5046,24 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>2123 Cronolite Ortoftalic</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E Vetrotex Vidrio</t>
         </is>
       </c>
       <c r="O17" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>CIEMAT</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -5081,7 +5073,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -5090,36 +5082,28 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>195.5</v>
+        <v>416</v>
       </c>
       <c r="AB17" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AC17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>100</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>twin</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr">
@@ -5128,7 +5112,7 @@
         </is>
       </c>
       <c r="AJ17" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
@@ -5136,21 +5120,19 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="n">
-        <v>0.5117977528089888</v>
+        <v>0.2861528055981894</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0.1967106228709724</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>603000000</v>
+        <v>22676100</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5165,44 +5147,28 @@
       <c r="BI17" t="inlineStr"/>
       <c r="BJ17" t="inlineStr"/>
       <c r="BK17" t="n">
-        <v>428</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>291</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>365</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>395</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>463.1168295357127</v>
-      </c>
+        <v>659.0700000000001</v>
+      </c>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="inlineStr"/>
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="n">
-        <v>290</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0.016</v>
-      </c>
+      <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
       <c r="BY17" t="inlineStr"/>
       <c r="BZ17" t="inlineStr"/>
       <c r="CA17" t="n">
-        <v>2.459700000000001</v>
+        <v>7.304</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.138185393258427</v>
+        <v>0.1900054629171978</v>
       </c>
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr">
@@ -5211,58 +5177,32 @@
         </is>
       </c>
       <c r="CE17" t="n">
-        <v>15</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="CF17" t="n">
-        <v>975.5221280423282</v>
+        <v>55.88081957459467</v>
       </c>
       <c r="CG17" t="inlineStr"/>
       <c r="CH17" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>18.5</v>
-      </c>
+        <v>38.441</v>
+      </c>
+      <c r="CI17" t="inlineStr"/>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
       <c r="CL17" t="inlineStr"/>
       <c r="CM17" t="inlineStr"/>
       <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP17" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ17" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR17" t="n">
-        <v>30</v>
-      </c>
-      <c r="CS17" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+      <c r="CO17" t="inlineStr"/>
+      <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr"/>
+      <c r="CR17" t="inlineStr"/>
+      <c r="CS17" t="inlineStr"/>
       <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV17" t="n">
-        <v>60</v>
-      </c>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CY17" t="inlineStr"/>
       <c r="CZ17" t="inlineStr"/>
@@ -5284,30 +5224,30 @@
       <c r="DP17" t="inlineStr"/>
       <c r="DQ17" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[[+-45(300)SB],[0(400)]5,[+-45(300)SB],[0(400)]2.5]s</t>
         </is>
       </c>
       <c r="DR17" t="n">
-        <v>9.109999999999999</v>
+        <v>22</v>
       </c>
       <c r="DS17" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>45/-45/0/0/0/0/0/45/-45/0/0/0/0/-45/45/0/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT17" t="n">
-        <v>2.631443769013172</v>
+        <v>2.818931543576176</v>
       </c>
       <c r="DU17" t="n">
-        <v>5.128322405871098</v>
+        <v>4.210906788214843</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11229</v>
+        <v>10730</v>
       </c>
       <c r="B18" t="n">
-        <v>1229</v>
+        <v>730</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -5317,21 +5257,21 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[0()]5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5339,28 +5279,18 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Synolite 593-E-1</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>45</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>hl</t>
@@ -5368,37 +5298,33 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>4.1</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>195.5</v>
+        <v>208.28</v>
       </c>
       <c r="AB18" t="n">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="AC18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD18" t="n">
         <v>100</v>
       </c>
+      <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
@@ -5409,7 +5335,7 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
@@ -5417,21 +5343,21 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.79</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="n">
-        <v>-180</v>
+        <v>187.88875</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.3615020039207029</v>
+        <v>0.3189685287916126</v>
       </c>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>23813962</v>
+        <v>7475243</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -5446,17 +5372,19 @@
       <c r="BI18" t="inlineStr"/>
       <c r="BJ18" t="inlineStr"/>
       <c r="BK18" t="n">
-        <v>462</v>
+        <v>586.6</v>
       </c>
       <c r="BL18" t="n">
-        <v>320</v>
-      </c>
-      <c r="BM18" t="inlineStr"/>
+        <v>-294.6</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.66</v>
+      </c>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="n">
-        <v>497.9225510447898</v>
+        <v>589.0510600271501</v>
       </c>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
@@ -5464,34 +5392,36 @@
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="n">
-        <v>290</v>
+        <v>2863.42455</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.016</v>
+        <v>0.127</v>
       </c>
       <c r="BY18" t="inlineStr"/>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="n">
-        <v>2.208315789473684</v>
+        <v>3.206133630000001</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.1193684210526316</v>
+        <v>0.1422</v>
       </c>
       <c r="CC18" t="inlineStr"/>
-      <c r="CD18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CF18" t="n">
-        <v>111.5042773662552</v>
+        <v>22.4654012345679</v>
       </c>
       <c r="CG18" t="inlineStr"/>
       <c r="CH18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>19</v>
-      </c>
+        <v>22.54665</v>
+      </c>
+      <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
@@ -5504,7 +5434,7 @@
       </c>
       <c r="CP18" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ18" t="inlineStr">
@@ -5513,11 +5443,11 @@
         </is>
       </c>
       <c r="CR18" t="n">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="CS18" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="CT18" t="inlineStr"/>
@@ -5529,7 +5459,7 @@
       <c r="CV18" t="inlineStr"/>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CY18" t="inlineStr"/>
       <c r="CZ18" t="inlineStr"/>
@@ -5551,30 +5481,30 @@
       <c r="DP18" t="inlineStr"/>
       <c r="DQ18" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GV[0()]5</t>
         </is>
       </c>
       <c r="DR18" t="n">
-        <v>-1800</v>
+        <v>18.788875</v>
       </c>
       <c r="DS18" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/0/0/0</t>
         </is>
       </c>
       <c r="DT18" t="n">
-        <v>2.664641975556125</v>
+        <v>2.768342058644533</v>
       </c>
       <c r="DU18" t="n">
-        <v>4.97890006476624</v>
+        <v>4.327868793507926</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11413</v>
+        <v>10191</v>
       </c>
       <c r="B19" t="n">
-        <v>1413</v>
+        <v>191</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -5584,21 +5514,21 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5608,7 +5538,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Synolite 593-E-1</t>
+          <t>UP333</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5617,20 +5547,20 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>32</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>hl</t>
+          <t>fw</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -5644,32 +5574,36 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
-        <v>195.5</v>
+        <v>41.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AC19" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AD19" t="n">
         <v>100</v>
       </c>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>CAEC</t>
+        </is>
+      </c>
       <c r="AG19" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr">
@@ -5678,7 +5612,7 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
@@ -5686,21 +5620,21 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="n">
-        <v>0.62</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="n">
-        <v>115</v>
+        <v>237.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.2421326168845685</v>
+        <v>0.3072724503678881</v>
       </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>3229856</v>
+        <v>7964865</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -5715,21 +5649,17 @@
       <c r="BI19" t="inlineStr"/>
       <c r="BJ19" t="inlineStr"/>
       <c r="BK19" t="n">
-        <v>443.7</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>332.5</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>1.83</v>
-      </c>
+        <v>2.6</v>
+      </c>
+      <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
       <c r="BP19" t="inlineStr"/>
       <c r="BQ19" t="n">
-        <v>474.9463392403005</v>
+        <v>773.2551347038388</v>
       </c>
       <c r="BR19" t="inlineStr"/>
       <c r="BS19" t="inlineStr"/>
@@ -5737,38 +5667,36 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="n">
-        <v>290</v>
+        <v>23.76</v>
       </c>
       <c r="BX19" t="n">
-        <v>0.016</v>
+        <v>0.0008</v>
       </c>
       <c r="BY19" t="inlineStr"/>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="n">
-        <v>1.8352</v>
+        <v>2.1384</v>
       </c>
       <c r="CB19" t="n">
-        <v>0.0992</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CF19" t="n">
-        <v>244.4947222222222</v>
+        <v>48.72872058823528</v>
       </c>
       <c r="CG19" t="inlineStr"/>
       <c r="CH19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>19</v>
-      </c>
+        <v>29.7</v>
+      </c>
+      <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
       <c r="CL19" t="inlineStr"/>
@@ -5790,29 +5718,23 @@
         </is>
       </c>
       <c r="CR19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CS19" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CT19" t="inlineStr">
-        <is>
-          <t>50w14d</t>
-        </is>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
-      <c r="CV19" t="n">
-        <v>40</v>
-      </c>
+      <c r="CV19" t="inlineStr"/>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CY19" t="inlineStr"/>
       <c r="CZ19" t="inlineStr"/>
@@ -5834,30 +5756,30 @@
       <c r="DP19" t="inlineStr"/>
       <c r="DQ19" t="inlineStr">
         <is>
-          <t>GP[[+45(240),-45(240)SB]8,[0(495),90(5)]7]s</t>
+          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
         </is>
       </c>
       <c r="DR19" t="n">
-        <v>-115</v>
+        <v>23.76</v>
       </c>
       <c r="DS19" t="inlineStr">
         <is>
-          <t>45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/0/90/0/90/0/90/0/90/0/90/0/90/0/90/90/0/90/0/90/0/90/0/90/0/90/0/90/0/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45/-45/45</t>
+          <t>0/0/45/-45/0/0/-45/45/0/0</t>
         </is>
       </c>
       <c r="DT19" t="n">
-        <v>2.647089428716555</v>
+        <v>2.816241299991784</v>
       </c>
       <c r="DU19" t="n">
-        <v>6.408635862973926</v>
+        <v>4.89964617989019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10004</v>
+        <v>10878</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>878</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -5867,21 +5789,21 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0()FW]8</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -5889,36 +5811,26 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>UP333</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.83</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -5927,37 +5839,27 @@
         </is>
       </c>
       <c r="V20" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>18</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
-        <v>34.2</v>
+        <v>193.04</v>
       </c>
       <c r="AB20" t="n">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="AC20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD20" t="n">
         <v>100</v>
       </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG20" t="n">
-        <v>90</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr">
         <is>
@@ -5973,21 +5875,19 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="n">
-        <v>472</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0.4600221360497219</v>
-      </c>
+        <v>68.95</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>5209100</v>
+        <v>7825000</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6002,52 +5902,48 @@
       <c r="BI20" t="inlineStr"/>
       <c r="BJ20" t="inlineStr"/>
       <c r="BK20" t="n">
-        <v>862</v>
-      </c>
-      <c r="BL20" t="inlineStr"/>
+        <v>467.5</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>-317.5</v>
+      </c>
       <c r="BM20" t="n">
-        <v>2.3</v>
+        <v>2.84</v>
       </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
       <c r="BP20" t="inlineStr"/>
-      <c r="BQ20" t="n">
-        <v>1026.037581697989</v>
-      </c>
+      <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="inlineStr"/>
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="n">
-        <v>37.76</v>
+        <v>10000</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.0008</v>
+        <v>0.61</v>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr"/>
-      <c r="CA20" t="n">
-        <v>4.248000000000001</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0.09</v>
-      </c>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE20" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="CF20" t="n">
-        <v>45.85437222222222</v>
+        <v>15.8475122053872</v>
       </c>
       <c r="CG20" t="inlineStr"/>
       <c r="CH20" t="n">
-        <v>47.2</v>
+        <v>19.92655</v>
       </c>
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
@@ -6057,12 +5953,12 @@
       <c r="CN20" t="inlineStr"/>
       <c r="CO20" t="inlineStr">
         <is>
-          <t>l</t>
+          <t>d</t>
         </is>
       </c>
       <c r="CP20" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
       <c r="CQ20" t="inlineStr">
@@ -6071,7 +5967,7 @@
         </is>
       </c>
       <c r="CR20" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="CS20" t="inlineStr">
         <is>
@@ -6087,7 +5983,7 @@
       <c r="CV20" t="inlineStr"/>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CY20" t="inlineStr"/>
       <c r="CZ20" t="inlineStr"/>
@@ -6109,30 +6005,30 @@
       <c r="DP20" t="inlineStr"/>
       <c r="DQ20" t="inlineStr">
         <is>
-          <t>GP[0()FW]8</t>
+          <t>GP[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR20" t="n">
-        <v>47.2</v>
+        <v>6.895</v>
       </c>
       <c r="DS20" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT20" t="n">
-        <v>2.935507265824712</v>
+        <v>2.669781615208536</v>
       </c>
       <c r="DU20" t="n">
-        <v>4.899458605729175</v>
+        <v>4.372456626701744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10133</v>
+        <v>11004</v>
       </c>
       <c r="B21" t="n">
-        <v>133</v>
+        <v>1004</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -6142,33 +6038,31 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[+45(350),-45(350),100CSM]4s</t>
+          <t>[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
         <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>UPS294V Polyplex</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -6176,14 +6070,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="O21" t="n">
-        <v>35</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Polymarin</t>
+          <t>RISO</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -6193,7 +6085,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>d</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -6202,31 +6094,37 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y21" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AC21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD21" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>100</v>
+      </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>CAEC</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr"/>
+          <t>JI</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
+        <v>92</v>
+      </c>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr">
         <is>
@@ -6234,7 +6132,7 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
@@ -6242,21 +6140,19 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="n">
-        <v>0.45</v>
+        <v>-0.98</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.3360838156505212</v>
-      </c>
+        <v>-398</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>2430000</v>
+        <v>1689490</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6271,52 +6167,56 @@
       <c r="BI21" t="inlineStr"/>
       <c r="BJ21" t="inlineStr"/>
       <c r="BK21" t="n">
-        <v>115</v>
-      </c>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
+        <v>874</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>-720</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>-1.9</v>
+      </c>
       <c r="BO21" t="inlineStr"/>
       <c r="BP21" t="inlineStr"/>
-      <c r="BQ21" t="n">
-        <v>141.6313365398623</v>
-      </c>
+      <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="BW21" t="inlineStr"/>
       <c r="BX21" t="n">
-        <v>0.00028</v>
+        <v>0.0008</v>
       </c>
       <c r="BY21" t="inlineStr"/>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="n">
-        <v>0.9072000000000001</v>
+        <v>3.7044</v>
       </c>
       <c r="CB21" t="n">
-        <v>0.08100000000000002</v>
+        <v>0.0882</v>
       </c>
       <c r="CC21" t="inlineStr"/>
       <c r="CD21" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>t</t>
         </is>
       </c>
       <c r="CE21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="CF21" t="n">
-        <v>12.47599358974359</v>
+        <v>27.64677314814815</v>
       </c>
       <c r="CG21" t="inlineStr"/>
       <c r="CH21" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="CI21" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>40.6</v>
+      </c>
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="inlineStr"/>
       <c r="CL21" t="inlineStr"/>
@@ -6334,27 +6234,17 @@
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR21" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS21" t="inlineStr">
-        <is>
           <t>y</t>
         </is>
       </c>
+      <c r="CR21" t="inlineStr"/>
+      <c r="CS21" t="inlineStr"/>
       <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU21" t="inlineStr"/>
       <c r="CV21" t="inlineStr"/>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CY21" t="inlineStr"/>
       <c r="CZ21" t="inlineStr"/>
@@ -6376,30 +6266,30 @@
       <c r="DP21" t="inlineStr"/>
       <c r="DQ21" t="inlineStr">
         <is>
-          <t>GP[+45(350),-45(350),100CSM]4s</t>
+          <t>GP[[0()]2,[+10()],[-10()],[0()]]s</t>
         </is>
       </c>
       <c r="DR21" t="n">
-        <v>4.760000000000001</v>
+        <v>-3980</v>
       </c>
       <c r="DS21" t="inlineStr">
         <is>
-          <t>45/-45/0/45/-45/0/45/-45/0/45/-45/0/0/-45/45/0/-45/45/0/-45/45/0/-45/45</t>
+          <t>0/0/10/-10/0/0/-10/10/0/0</t>
         </is>
       </c>
       <c r="DT21" t="n">
-        <v>2.060697840353612</v>
+        <v>2.941511432634403</v>
       </c>
       <c r="DU21" t="n">
-        <v>5.117753535981455</v>
+        <v>5.52536012144618</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10191</v>
+        <v>10213</v>
       </c>
       <c r="B22" t="n">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -6409,21 +6299,21 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RISO</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -6433,7 +6323,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>UP333</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -6442,64 +6332,52 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>55</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.91</v>
-      </c>
+        <v>38.6</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
-        <v>41.4</v>
+        <v>44</v>
       </c>
       <c r="AB22" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AC22" t="n">
         <v>110</v>
       </c>
-      <c r="AD22" t="n">
-        <v>100</v>
-      </c>
+      <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
           <t>CAEC</t>
         </is>
       </c>
-      <c r="AG22" t="n">
-        <v>90</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr">
         <is>
@@ -6507,7 +6385,7 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
@@ -6515,21 +6393,19 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.3072724503678881</v>
-      </c>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>7964865</v>
+        <v>76421820</v>
       </c>
       <c r="AY22" t="inlineStr"/>
       <c r="AZ22" t="inlineStr"/>
@@ -6544,52 +6420,52 @@
       <c r="BI22" t="inlineStr"/>
       <c r="BJ22" t="inlineStr"/>
       <c r="BK22" t="n">
-        <v>655</v>
+        <v>544.152</v>
       </c>
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN22" t="inlineStr"/>
+        <v>2.212</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>-2.14</v>
+      </c>
       <c r="BO22" t="inlineStr"/>
       <c r="BP22" t="inlineStr"/>
-      <c r="BQ22" t="n">
-        <v>773.2551347038388</v>
-      </c>
+      <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="n">
-        <v>23.76</v>
+        <v>4.92</v>
       </c>
       <c r="BX22" t="n">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="BY22" t="inlineStr"/>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="n">
-        <v>2.1384</v>
+        <v>6.2976</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.256</v>
       </c>
       <c r="CC22" t="inlineStr"/>
       <c r="CD22" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="CE22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CF22" t="n">
-        <v>48.72872058823528</v>
+        <v>236.5450942460318</v>
       </c>
       <c r="CG22" t="inlineStr"/>
       <c r="CH22" t="n">
-        <v>29.7</v>
+        <v>24.6</v>
       </c>
       <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
@@ -6609,12 +6485,10 @@
       </c>
       <c r="CQ22" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR22" t="n">
-        <v>23</v>
-      </c>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR22" t="inlineStr"/>
       <c r="CS22" t="inlineStr">
         <is>
           <t>n</t>
@@ -6626,10 +6500,12 @@
           <t>d</t>
         </is>
       </c>
-      <c r="CV22" t="inlineStr"/>
+      <c r="CV22" t="n">
+        <v>50</v>
+      </c>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="CY22" t="inlineStr"/>
       <c r="CZ22" t="inlineStr"/>
@@ -6651,30 +6527,30 @@
       <c r="DP22" t="inlineStr"/>
       <c r="DQ22" t="inlineStr">
         <is>
-          <t>GP[[0()FW]2,[+45()FW],[-45()FW],[0()]FW]s</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR22" t="n">
-        <v>23.76</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="DS22" t="inlineStr">
         <is>
-          <t>0/0/45/-45/0/0/-45/45/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT22" t="n">
-        <v>2.816241299991784</v>
+        <v>2.735720229736039</v>
       </c>
       <c r="DU22" t="n">
-        <v>4.89964617989019</v>
+        <v>5.650649768017886</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10097</v>
+        <v>11273</v>
       </c>
       <c r="B23" t="n">
-        <v>97</v>
+        <v>1273</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -6684,23 +6560,21 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ECN</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[0(700),100CSM]6</t>
+          <t>[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -6710,7 +6584,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Synres 593-58-1086</t>
+          <t>L20/SL</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -6719,15 +6593,11 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Polymarin</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>hl</t>
@@ -6735,41 +6605,31 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>5</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>105</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
-        <v>170</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>400</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>CAEC</t>
+          <t>JI</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr"/>
@@ -6780,7 +6640,7 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
@@ -6793,16 +6653,16 @@
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="n">
-        <v>210</v>
+        <v>203.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.2293484327767916</v>
+        <v>0.2828987854305369</v>
       </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>52320000</v>
+        <v>2346760</v>
       </c>
       <c r="AY23" t="inlineStr"/>
       <c r="AZ23" t="inlineStr"/>
@@ -6817,15 +6677,21 @@
       <c r="BI23" t="inlineStr"/>
       <c r="BJ23" t="inlineStr"/>
       <c r="BK23" t="n">
-        <v>685</v>
-      </c>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr"/>
+        <v>572</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>-547</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>-2.14</v>
+      </c>
       <c r="BO23" t="inlineStr"/>
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="n">
-        <v>915.6373883068036</v>
+        <v>718.2780926074136</v>
       </c>
       <c r="BR23" t="inlineStr"/>
       <c r="BS23" t="inlineStr"/>
@@ -6833,18 +6699,18 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="n">
-        <v>2.9</v>
+        <v>5.08</v>
       </c>
       <c r="BX23" t="n">
-        <v>0.00011</v>
+        <v>0.0002</v>
       </c>
       <c r="BY23" t="inlineStr"/>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="n">
-        <v>7.574400000000001</v>
+        <v>2.4384</v>
       </c>
       <c r="CB23" t="n">
-        <v>0.288</v>
+        <v>0.096</v>
       </c>
       <c r="CC23" t="inlineStr"/>
       <c r="CD23" t="inlineStr">
@@ -6853,16 +6719,18 @@
         </is>
       </c>
       <c r="CE23" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="CF23" t="n">
-        <v>167.7077702572482</v>
+        <v>25.03105413105413</v>
       </c>
       <c r="CG23" t="inlineStr"/>
       <c r="CH23" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="CI23" t="inlineStr"/>
+        <v>25.4</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>25.5</v>
+      </c>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="inlineStr"/>
       <c r="CL23" t="inlineStr"/>
@@ -6873,22 +6741,18 @@
           <t>l</t>
         </is>
       </c>
-      <c r="CP23" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+      <c r="CP23" t="inlineStr"/>
       <c r="CQ23" t="inlineStr">
         <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="CR23" t="n">
+        <v>20</v>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
           <t>n</t>
-        </is>
-      </c>
-      <c r="CR23" t="n">
-        <v>25</v>
-      </c>
-      <c r="CS23" t="inlineStr">
-        <is>
-          <t>y</t>
         </is>
       </c>
       <c r="CT23" t="inlineStr"/>
@@ -6899,15 +6763,11 @@
       </c>
       <c r="CV23" t="inlineStr"/>
       <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="n">
-        <v>1</v>
-      </c>
+      <c r="CX23" t="inlineStr"/>
       <c r="CY23" t="inlineStr"/>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="n">
-        <v>21000000</v>
-      </c>
+      <c r="DB23" t="inlineStr"/>
       <c r="DC23" t="inlineStr"/>
       <c r="DD23" t="inlineStr"/>
       <c r="DE23" t="inlineStr"/>
@@ -6924,30 +6784,30 @@
       <c r="DP23" t="inlineStr"/>
       <c r="DQ23" t="inlineStr">
         <is>
-          <t>GP[0(700),100CSM]6</t>
+          <t>GE[[+45(280),-45(280)WR]1,[0(425)]2]s</t>
         </is>
       </c>
       <c r="DR23" t="n">
-        <v>21</v>
+        <v>-203.2</v>
       </c>
       <c r="DS23" t="inlineStr">
         <is>
-          <t>0/0/0/0/0/0/0/0/0/0/0/0</t>
+          <t>45/-45/0/0/0/0/-45/45</t>
         </is>
       </c>
       <c r="DT23" t="n">
-        <v>2.835690571492425</v>
+        <v>2.757396028793024</v>
       </c>
       <c r="DU23" t="n">
-        <v>6.202700787530844</v>
+        <v>4.794732367684157</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10878</v>
+        <v>10984</v>
       </c>
       <c r="B24" t="n">
-        <v>878</v>
+        <v>984</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -6957,21 +6817,17 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SNL</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[0(),+45(),-45()SB]6s</t>
-        </is>
-      </c>
+          <t>FDL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6980,22 +6836,14 @@
         <v>0</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>38</v>
+        <v>68.3</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr">
         <is>
           <t>p</t>
@@ -7003,27 +6851,17 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>3.8</v>
-      </c>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="n">
-        <v>50.8</v>
-      </c>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>193.04</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>254</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>100</v>
-      </c>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
@@ -7042,20 +6880,18 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="n">
-        <v>0.34</v>
-      </c>
+      <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="n">
-        <v>68.95</v>
+        <v>379.225</v>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>7825000</v>
+        <v>464810</v>
       </c>
       <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
@@ -7070,14 +6906,10 @@
       <c r="BI24" t="inlineStr"/>
       <c r="BJ24" t="inlineStr"/>
       <c r="BK24" t="n">
-        <v>467.5</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>317.5</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>2.84</v>
-      </c>
+        <v>2032.30125</v>
+      </c>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
       <c r="BP24" t="inlineStr"/>
@@ -7087,72 +6919,38 @@
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
-      <c r="BW24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0.61</v>
-      </c>
+      <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
       <c r="BY24" t="inlineStr"/>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr"/>
       <c r="CB24" t="inlineStr"/>
       <c r="CC24" t="inlineStr"/>
-      <c r="CD24" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
+      <c r="CD24" t="inlineStr"/>
       <c r="CE24" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="CF24" t="n">
-        <v>15.8475122053872</v>
+        <v>5.491115520282186</v>
       </c>
       <c r="CG24" t="inlineStr"/>
-      <c r="CH24" t="n">
-        <v>19.92655</v>
-      </c>
+      <c r="CH24" t="inlineStr"/>
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
       <c r="CM24" t="inlineStr"/>
       <c r="CN24" t="inlineStr"/>
-      <c r="CO24" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CP24" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ24" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR24" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS24" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" t="inlineStr"/>
+      <c r="CQ24" t="inlineStr"/>
+      <c r="CR24" t="inlineStr"/>
+      <c r="CS24" t="inlineStr"/>
       <c r="CT24" t="inlineStr"/>
-      <c r="CU24" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
+      <c r="CU24" t="inlineStr"/>
       <c r="CV24" t="inlineStr"/>
       <c r="CW24" t="inlineStr"/>
-      <c r="CX24" t="n">
-        <v>3</v>
-      </c>
+      <c r="CX24" t="inlineStr"/>
       <c r="CY24" t="inlineStr"/>
       <c r="CZ24" t="inlineStr"/>
       <c r="DA24" t="inlineStr"/>
@@ -7173,30 +6971,26 @@
       <c r="DP24" t="inlineStr"/>
       <c r="DQ24" t="inlineStr">
         <is>
-          <t>GP[0(),+45(),-45()SB]6s</t>
+          <t>GEnan</t>
         </is>
       </c>
       <c r="DR24" t="n">
-        <v>6.895</v>
-      </c>
-      <c r="DS24" t="inlineStr">
-        <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
-        </is>
-      </c>
+        <v>37.92250000000001</v>
+      </c>
+      <c r="DS24" t="inlineStr"/>
       <c r="DT24" t="n">
-        <v>2.669781615208536</v>
+        <v>3.307988084278995</v>
       </c>
       <c r="DU24" t="n">
-        <v>4.372456626701744</v>
+        <v>3.948166635414598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11058</v>
+        <v>10831</v>
       </c>
       <c r="B25" t="n">
-        <v>1058</v>
+        <v>831</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -7206,51 +7000,43 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FFA</t>
+          <t>SNL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[+30(),-30()FW]</t>
+          <t>[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>30</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Epon 826/Jeffamine D-230</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>HAMILTON STANDARD</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>fw</t>
+          <t>hl</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -7260,37 +7046,31 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GV</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
-        <v>176.4</v>
+        <v>193.04</v>
       </c>
       <c r="AB25" t="n">
-        <v>154.9</v>
+        <v>254</v>
       </c>
       <c r="AC25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG25" t="n">
-        <v>82</v>
-      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr">
         <is>
@@ -7298,7 +7078,7 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
@@ -7306,19 +7086,21 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="n">
-        <v>0.4857142857142858</v>
+        <v>0.32</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="n">
-        <v>68</v>
-      </c>
-      <c r="AT25" t="inlineStr"/>
+        <v>68.95</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.1424533755896991</v>
+      </c>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>11254000</v>
+        <v>17764694</v>
       </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="inlineStr"/>
@@ -7333,42 +7115,54 @@
       <c r="BI25" t="inlineStr"/>
       <c r="BJ25" t="inlineStr"/>
       <c r="BK25" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+        <v>516</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>-289.1</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.95</v>
+      </c>
       <c r="BN25" t="inlineStr"/>
-      <c r="BO25" t="n">
-        <v>275.7</v>
-      </c>
+      <c r="BO25" t="inlineStr"/>
       <c r="BP25" t="inlineStr"/>
-      <c r="BQ25" t="inlineStr"/>
+      <c r="BQ25" t="n">
+        <v>484.0180144175243</v>
+      </c>
       <c r="BR25" t="inlineStr"/>
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
-      <c r="BW25" t="inlineStr"/>
-      <c r="BX25" t="inlineStr"/>
+      <c r="BW25" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0.61</v>
+      </c>
       <c r="BY25" t="inlineStr"/>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="n">
-        <v>1.36</v>
+        <v>1.85271408</v>
       </c>
       <c r="CB25" t="n">
-        <v>0.09714285714285716</v>
+        <v>0.0864</v>
       </c>
       <c r="CC25" t="inlineStr"/>
-      <c r="CD25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="CE25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="CF25" t="n">
-        <v>24.71399647266314</v>
+        <v>40.12529487179487</v>
       </c>
       <c r="CG25" t="inlineStr"/>
       <c r="CH25" t="n">
-        <v>14</v>
+        <v>21.44345</v>
       </c>
       <c r="CI25" t="inlineStr"/>
       <c r="CJ25" t="inlineStr"/>
@@ -7386,25 +7180,35 @@
           <t>h</t>
         </is>
       </c>
-      <c r="CQ25" t="inlineStr"/>
-      <c r="CR25" t="inlineStr"/>
-      <c r="CS25" t="inlineStr"/>
+      <c r="CQ25" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="CR25" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
       <c r="CT25" t="inlineStr"/>
-      <c r="CU25" t="inlineStr"/>
+      <c r="CU25" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
       <c r="CV25" t="inlineStr"/>
       <c r="CW25" t="inlineStr"/>
       <c r="CX25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="CY25" t="inlineStr"/>
       <c r="CZ25" t="inlineStr"/>
       <c r="DA25" t="inlineStr"/>
       <c r="DB25" t="inlineStr"/>
-      <c r="DC25" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
+      <c r="DC25" t="inlineStr"/>
       <c r="DD25" t="inlineStr"/>
       <c r="DE25" t="inlineStr"/>
       <c r="DF25" t="inlineStr"/>
@@ -7420,1482 +7224,22 @@
       <c r="DP25" t="inlineStr"/>
       <c r="DQ25" t="inlineStr">
         <is>
-          <t>GE[+30(),-30()FW]</t>
+          <t>GV[0(),+45(),-45()SB]6s</t>
         </is>
       </c>
       <c r="DR25" t="n">
-        <v>0</v>
+        <v>6.895</v>
       </c>
       <c r="DS25" t="inlineStr">
         <is>
-          <t>30/-30</t>
+          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
         </is>
       </c>
       <c r="DT25" t="n">
-        <v>2.438542348786111</v>
+        <v>2.712649701627211</v>
       </c>
       <c r="DU25" t="n">
-        <v>4.720184367079336</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>10703</v>
-      </c>
-      <c r="B26" t="n">
-        <v>703</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SNL</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[0()]5</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>30</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="n">
-        <v>208.28</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>254</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="n">
-        <v>189.12985</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0.3304644402793597</v>
-      </c>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="n">
-        <v>1612585</v>
-      </c>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="inlineStr"/>
-      <c r="BE26" t="inlineStr"/>
-      <c r="BF26" t="inlineStr"/>
-      <c r="BG26" t="inlineStr"/>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="n">
-        <v>567.2</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>313.2</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="BN26" t="inlineStr"/>
-      <c r="BO26" t="inlineStr"/>
-      <c r="BP26" t="inlineStr"/>
-      <c r="BQ26" t="n">
-        <v>572.3152840291021</v>
-      </c>
-      <c r="BR26" t="inlineStr"/>
-      <c r="BS26" t="inlineStr"/>
-      <c r="BT26" t="inlineStr"/>
-      <c r="BU26" t="inlineStr"/>
-      <c r="BV26" t="inlineStr"/>
-      <c r="BW26" t="n">
-        <v>2662.0216</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0.127</v>
-      </c>
-      <c r="BY26" t="inlineStr"/>
-      <c r="BZ26" t="inlineStr"/>
-      <c r="CA26" t="n">
-        <v>3.3956496</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="CC26" t="inlineStr"/>
-      <c r="CD26" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="CE26" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>18.79661805555556</v>
-      </c>
-      <c r="CG26" t="inlineStr"/>
-      <c r="CH26" t="n">
-        <v>20.9608</v>
-      </c>
-      <c r="CI26" t="inlineStr"/>
-      <c r="CJ26" t="inlineStr"/>
-      <c r="CK26" t="inlineStr"/>
-      <c r="CL26" t="inlineStr"/>
-      <c r="CM26" t="inlineStr"/>
-      <c r="CN26" t="inlineStr"/>
-      <c r="CO26" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP26" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ26" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR26" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS26" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT26" t="inlineStr"/>
-      <c r="CU26" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV26" t="inlineStr"/>
-      <c r="CW26" t="inlineStr"/>
-      <c r="CX26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY26" t="inlineStr"/>
-      <c r="CZ26" t="inlineStr"/>
-      <c r="DA26" t="inlineStr"/>
-      <c r="DB26" t="inlineStr"/>
-      <c r="DC26" t="inlineStr"/>
-      <c r="DD26" t="inlineStr"/>
-      <c r="DE26" t="inlineStr"/>
-      <c r="DF26" t="inlineStr"/>
-      <c r="DG26" t="inlineStr"/>
-      <c r="DH26" t="inlineStr"/>
-      <c r="DI26" t="inlineStr"/>
-      <c r="DJ26" t="inlineStr"/>
-      <c r="DK26" t="inlineStr"/>
-      <c r="DL26" t="inlineStr"/>
-      <c r="DM26" t="inlineStr"/>
-      <c r="DN26" t="inlineStr"/>
-      <c r="DO26" t="inlineStr"/>
-      <c r="DP26" t="inlineStr"/>
-      <c r="DQ26" t="inlineStr">
-        <is>
-          <t>GP[0()]5</t>
-        </is>
-      </c>
-      <c r="DR26" t="n">
-        <v>18.912985</v>
-      </c>
-      <c r="DS26" t="inlineStr">
-        <is>
-          <t>0/0/0/0/0</t>
-        </is>
-      </c>
-      <c r="DT26" t="n">
-        <v>2.75373622217501</v>
-      </c>
-      <c r="DU26" t="n">
-        <v>5.390274178286151</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>11029</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[[0()]2,[+30()],[-30()],[0()]]s</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>30</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>280</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG27" t="n">
-        <v>92</v>
-      </c>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="n">
-        <v>292</v>
-      </c>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="n">
-        <v>627801</v>
-      </c>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="inlineStr"/>
-      <c r="BE27" t="inlineStr"/>
-      <c r="BF27" t="inlineStr"/>
-      <c r="BG27" t="inlineStr"/>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="n">
-        <v>634</v>
-      </c>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BN27" t="inlineStr"/>
-      <c r="BO27" t="inlineStr"/>
-      <c r="BP27" t="inlineStr"/>
-      <c r="BQ27" t="inlineStr"/>
-      <c r="BR27" t="inlineStr"/>
-      <c r="BS27" t="inlineStr"/>
-      <c r="BT27" t="inlineStr"/>
-      <c r="BU27" t="inlineStr"/>
-      <c r="BV27" t="inlineStr"/>
-      <c r="BW27" t="inlineStr"/>
-      <c r="BX27" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="BY27" t="inlineStr"/>
-      <c r="BZ27" t="inlineStr"/>
-      <c r="CA27" t="n">
-        <v>26.2656</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>0.8639999999999999</v>
-      </c>
-      <c r="CC27" t="inlineStr"/>
-      <c r="CD27" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="CE27" t="n">
-        <v>5</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>8.570714814814815</v>
-      </c>
-      <c r="CG27" t="inlineStr"/>
-      <c r="CH27" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="CI27" t="inlineStr"/>
-      <c r="CJ27" t="inlineStr"/>
-      <c r="CK27" t="inlineStr"/>
-      <c r="CL27" t="inlineStr"/>
-      <c r="CM27" t="inlineStr"/>
-      <c r="CN27" t="inlineStr"/>
-      <c r="CO27" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP27" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ27" t="inlineStr"/>
-      <c r="CR27" t="inlineStr"/>
-      <c r="CS27" t="inlineStr"/>
-      <c r="CT27" t="inlineStr"/>
-      <c r="CU27" t="inlineStr"/>
-      <c r="CV27" t="inlineStr"/>
-      <c r="CW27" t="inlineStr"/>
-      <c r="CX27" t="n">
-        <v>6</v>
-      </c>
-      <c r="CY27" t="inlineStr"/>
-      <c r="CZ27" t="inlineStr"/>
-      <c r="DA27" t="inlineStr"/>
-      <c r="DB27" t="inlineStr"/>
-      <c r="DC27" t="inlineStr"/>
-      <c r="DD27" t="inlineStr"/>
-      <c r="DE27" t="inlineStr"/>
-      <c r="DF27" t="inlineStr"/>
-      <c r="DG27" t="inlineStr"/>
-      <c r="DH27" t="inlineStr"/>
-      <c r="DI27" t="inlineStr"/>
-      <c r="DJ27" t="inlineStr"/>
-      <c r="DK27" t="inlineStr"/>
-      <c r="DL27" t="inlineStr"/>
-      <c r="DM27" t="inlineStr"/>
-      <c r="DN27" t="inlineStr"/>
-      <c r="DO27" t="inlineStr"/>
-      <c r="DP27" t="inlineStr"/>
-      <c r="DQ27" t="inlineStr">
-        <is>
-          <t>GP[[0()]2,[+30()],[-30()],[0()]]s</t>
-        </is>
-      </c>
-      <c r="DR27" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="DS27" t="inlineStr">
-        <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
-        </is>
-      </c>
-      <c r="DT27" t="n">
-        <v>2.802089257881732</v>
-      </c>
-      <c r="DU27" t="n">
-        <v>4.564966507854261</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>10984</v>
-      </c>
-      <c r="B28" t="n">
-        <v>984</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FDL</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>68.3</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="n">
-        <v>379.225</v>
-      </c>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="n">
-        <v>464810</v>
-      </c>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="inlineStr"/>
-      <c r="BE28" t="inlineStr"/>
-      <c r="BF28" t="inlineStr"/>
-      <c r="BG28" t="inlineStr"/>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="n">
-        <v>2032.30125</v>
-      </c>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
-      <c r="BN28" t="inlineStr"/>
-      <c r="BO28" t="inlineStr"/>
-      <c r="BP28" t="inlineStr"/>
-      <c r="BQ28" t="inlineStr"/>
-      <c r="BR28" t="inlineStr"/>
-      <c r="BS28" t="inlineStr"/>
-      <c r="BT28" t="inlineStr"/>
-      <c r="BU28" t="inlineStr"/>
-      <c r="BV28" t="inlineStr"/>
-      <c r="BW28" t="inlineStr"/>
-      <c r="BX28" t="inlineStr"/>
-      <c r="BY28" t="inlineStr"/>
-      <c r="BZ28" t="inlineStr"/>
-      <c r="CA28" t="inlineStr"/>
-      <c r="CB28" t="inlineStr"/>
-      <c r="CC28" t="inlineStr"/>
-      <c r="CD28" t="inlineStr"/>
-      <c r="CE28" t="n">
-        <v>3</v>
-      </c>
-      <c r="CF28" t="n">
-        <v>5.491115520282186</v>
-      </c>
-      <c r="CG28" t="inlineStr"/>
-      <c r="CH28" t="inlineStr"/>
-      <c r="CI28" t="inlineStr"/>
-      <c r="CJ28" t="inlineStr"/>
-      <c r="CK28" t="inlineStr"/>
-      <c r="CL28" t="inlineStr"/>
-      <c r="CM28" t="inlineStr"/>
-      <c r="CN28" t="inlineStr"/>
-      <c r="CO28" t="inlineStr"/>
-      <c r="CP28" t="inlineStr"/>
-      <c r="CQ28" t="inlineStr"/>
-      <c r="CR28" t="inlineStr"/>
-      <c r="CS28" t="inlineStr"/>
-      <c r="CT28" t="inlineStr"/>
-      <c r="CU28" t="inlineStr"/>
-      <c r="CV28" t="inlineStr"/>
-      <c r="CW28" t="inlineStr"/>
-      <c r="CX28" t="inlineStr"/>
-      <c r="CY28" t="inlineStr"/>
-      <c r="CZ28" t="inlineStr"/>
-      <c r="DA28" t="inlineStr"/>
-      <c r="DB28" t="inlineStr"/>
-      <c r="DC28" t="inlineStr"/>
-      <c r="DD28" t="inlineStr"/>
-      <c r="DE28" t="inlineStr"/>
-      <c r="DF28" t="inlineStr"/>
-      <c r="DG28" t="inlineStr"/>
-      <c r="DH28" t="inlineStr"/>
-      <c r="DI28" t="inlineStr"/>
-      <c r="DJ28" t="inlineStr"/>
-      <c r="DK28" t="inlineStr"/>
-      <c r="DL28" t="inlineStr"/>
-      <c r="DM28" t="inlineStr"/>
-      <c r="DN28" t="inlineStr"/>
-      <c r="DO28" t="inlineStr"/>
-      <c r="DP28" t="inlineStr"/>
-      <c r="DQ28" t="inlineStr">
-        <is>
-          <t>GEnan</t>
-        </is>
-      </c>
-      <c r="DR28" t="n">
-        <v>37.92250000000001</v>
-      </c>
-      <c r="DS28" t="inlineStr"/>
-      <c r="DT28" t="n">
-        <v>3.307988084278995</v>
-      </c>
-      <c r="DU28" t="n">
-        <v>3.948166635414598</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>10831</v>
-      </c>
-      <c r="B29" t="n">
-        <v>831</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SNL</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>[0(),+45(),-45()SB]6s</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>12</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>38</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>GV</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="n">
-        <v>193.04</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>254</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="n">
-        <v>68.95</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0.1424533755896991</v>
-      </c>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="n">
-        <v>17764694</v>
-      </c>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="inlineStr"/>
-      <c r="BE29" t="inlineStr"/>
-      <c r="BF29" t="inlineStr"/>
-      <c r="BG29" t="inlineStr"/>
-      <c r="BH29" t="inlineStr"/>
-      <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="n">
-        <v>516</v>
-      </c>
-      <c r="BL29" t="n">
-        <v>289.1</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="BN29" t="inlineStr"/>
-      <c r="BO29" t="inlineStr"/>
-      <c r="BP29" t="inlineStr"/>
-      <c r="BQ29" t="n">
-        <v>484.0180144175243</v>
-      </c>
-      <c r="BR29" t="inlineStr"/>
-      <c r="BS29" t="inlineStr"/>
-      <c r="BT29" t="inlineStr"/>
-      <c r="BU29" t="inlineStr"/>
-      <c r="BV29" t="inlineStr"/>
-      <c r="BW29" t="n">
-        <v>10500</v>
-      </c>
-      <c r="BX29" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="BY29" t="inlineStr"/>
-      <c r="BZ29" t="inlineStr"/>
-      <c r="CA29" t="n">
-        <v>1.85271408</v>
-      </c>
-      <c r="CB29" t="n">
-        <v>0.0864</v>
-      </c>
-      <c r="CC29" t="inlineStr"/>
-      <c r="CD29" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="CE29" t="n">
-        <v>15</v>
-      </c>
-      <c r="CF29" t="n">
-        <v>40.12529487179487</v>
-      </c>
-      <c r="CG29" t="inlineStr"/>
-      <c r="CH29" t="n">
-        <v>21.44345</v>
-      </c>
-      <c r="CI29" t="inlineStr"/>
-      <c r="CJ29" t="inlineStr"/>
-      <c r="CK29" t="inlineStr"/>
-      <c r="CL29" t="inlineStr"/>
-      <c r="CM29" t="inlineStr"/>
-      <c r="CN29" t="inlineStr"/>
-      <c r="CO29" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP29" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ29" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR29" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS29" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT29" t="inlineStr"/>
-      <c r="CU29" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV29" t="inlineStr"/>
-      <c r="CW29" t="inlineStr"/>
-      <c r="CX29" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY29" t="inlineStr"/>
-      <c r="CZ29" t="inlineStr"/>
-      <c r="DA29" t="inlineStr"/>
-      <c r="DB29" t="inlineStr"/>
-      <c r="DC29" t="inlineStr"/>
-      <c r="DD29" t="inlineStr"/>
-      <c r="DE29" t="inlineStr"/>
-      <c r="DF29" t="inlineStr"/>
-      <c r="DG29" t="inlineStr"/>
-      <c r="DH29" t="inlineStr"/>
-      <c r="DI29" t="inlineStr"/>
-      <c r="DJ29" t="inlineStr"/>
-      <c r="DK29" t="inlineStr"/>
-      <c r="DL29" t="inlineStr"/>
-      <c r="DM29" t="inlineStr"/>
-      <c r="DN29" t="inlineStr"/>
-      <c r="DO29" t="inlineStr"/>
-      <c r="DP29" t="inlineStr"/>
-      <c r="DQ29" t="inlineStr">
-        <is>
-          <t>GV[0(),+45(),-45()SB]6s</t>
-        </is>
-      </c>
-      <c r="DR29" t="n">
-        <v>6.895</v>
-      </c>
-      <c r="DS29" t="inlineStr">
-        <is>
-          <t>0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/0/45/-45/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0/-45/45/0</t>
-        </is>
-      </c>
-      <c r="DT29" t="n">
-        <v>2.712649701627211</v>
-      </c>
-      <c r="DU29" t="n">
         <v>4.839112362047485</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>10820</v>
-      </c>
-      <c r="B30" t="n">
-        <v>820</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SNL</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[0()]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>50</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="n">
-        <v>83.81999999999999</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>254</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="n">
-        <v>324.8924</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0.422772006211321</v>
-      </c>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="n">
-        <v>153402</v>
-      </c>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="inlineStr"/>
-      <c r="BE30" t="inlineStr"/>
-      <c r="BF30" t="inlineStr"/>
-      <c r="BG30" t="inlineStr"/>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="n">
-        <v>742.3</v>
-      </c>
-      <c r="BL30" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="BM30" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="BN30" t="inlineStr"/>
-      <c r="BO30" t="inlineStr"/>
-      <c r="BP30" t="inlineStr"/>
-      <c r="BQ30" t="n">
-        <v>768.4813450907716</v>
-      </c>
-      <c r="BR30" t="inlineStr"/>
-      <c r="BS30" t="inlineStr"/>
-      <c r="BT30" t="inlineStr"/>
-      <c r="BU30" t="inlineStr"/>
-      <c r="BV30" t="inlineStr"/>
-      <c r="BW30" t="n">
-        <v>2206.4</v>
-      </c>
-      <c r="BX30" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="BY30" t="inlineStr"/>
-      <c r="BZ30" t="inlineStr"/>
-      <c r="CA30" t="n">
-        <v>5.647005000000001</v>
-      </c>
-      <c r="CB30" t="n">
-        <v>0.1638</v>
-      </c>
-      <c r="CC30" t="inlineStr"/>
-      <c r="CD30" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="CE30" t="n">
-        <v>10</v>
-      </c>
-      <c r="CF30" t="n">
-        <v>2.194388888888889</v>
-      </c>
-      <c r="CG30" t="inlineStr"/>
-      <c r="CH30" t="n">
-        <v>34.475</v>
-      </c>
-      <c r="CI30" t="inlineStr"/>
-      <c r="CJ30" t="inlineStr"/>
-      <c r="CK30" t="inlineStr"/>
-      <c r="CL30" t="inlineStr"/>
-      <c r="CM30" t="inlineStr"/>
-      <c r="CN30" t="inlineStr"/>
-      <c r="CO30" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP30" t="inlineStr">
-        <is>
-          <t>h</t>
-        </is>
-      </c>
-      <c r="CQ30" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CR30" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="CS30" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="CV30" t="inlineStr"/>
-      <c r="CW30" t="inlineStr"/>
-      <c r="CX30" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY30" t="inlineStr"/>
-      <c r="CZ30" t="inlineStr"/>
-      <c r="DA30" t="inlineStr"/>
-      <c r="DB30" t="inlineStr"/>
-      <c r="DC30" t="inlineStr"/>
-      <c r="DD30" t="inlineStr"/>
-      <c r="DE30" t="inlineStr"/>
-      <c r="DF30" t="inlineStr"/>
-      <c r="DG30" t="inlineStr"/>
-      <c r="DH30" t="inlineStr"/>
-      <c r="DI30" t="inlineStr"/>
-      <c r="DJ30" t="inlineStr"/>
-      <c r="DK30" t="inlineStr"/>
-      <c r="DL30" t="inlineStr"/>
-      <c r="DM30" t="inlineStr"/>
-      <c r="DN30" t="inlineStr"/>
-      <c r="DO30" t="inlineStr"/>
-      <c r="DP30" t="inlineStr"/>
-      <c r="DQ30" t="inlineStr">
-        <is>
-          <t>GP[0()]</t>
-        </is>
-      </c>
-      <c r="DR30" t="n">
-        <v>32.48924</v>
-      </c>
-      <c r="DS30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="DT30" t="n">
-        <v>2.870579460552685</v>
-      </c>
-      <c r="DU30" t="n">
-        <v>4.160654730827149</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>10989</v>
-      </c>
-      <c r="B31" t="n">
-        <v>989</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FACT</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[[0()]2,[+30(),-30()],[0()]]s</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>30</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>UPS294V Polyplex</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>RISO</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>hl</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>2</v>
-      </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>280</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>JI</t>
-        </is>
-      </c>
-      <c r="AG31" t="n">
-        <v>92</v>
-      </c>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="AJ31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="n">
-        <v>-210</v>
-      </c>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="n">
-        <v>1238544</v>
-      </c>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="inlineStr"/>
-      <c r="BE31" t="inlineStr"/>
-      <c r="BF31" t="inlineStr"/>
-      <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="n">
-        <v>634</v>
-      </c>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BN31" t="inlineStr"/>
-      <c r="BO31" t="inlineStr"/>
-      <c r="BP31" t="inlineStr"/>
-      <c r="BQ31" t="inlineStr"/>
-      <c r="BR31" t="inlineStr"/>
-      <c r="BS31" t="inlineStr"/>
-      <c r="BT31" t="inlineStr"/>
-      <c r="BU31" t="inlineStr"/>
-      <c r="BV31" t="inlineStr"/>
-      <c r="BW31" t="inlineStr"/>
-      <c r="BX31" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="BY31" t="inlineStr"/>
-      <c r="BZ31" t="inlineStr"/>
-      <c r="CA31" t="n">
-        <v>1.88784</v>
-      </c>
-      <c r="CB31" t="n">
-        <v>0.0621</v>
-      </c>
-      <c r="CC31" t="inlineStr"/>
-      <c r="CD31" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="CE31" t="n">
-        <v>5</v>
-      </c>
-      <c r="CF31" t="n">
-        <v>46.79506944444444</v>
-      </c>
-      <c r="CG31" t="inlineStr"/>
-      <c r="CH31" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="CI31" t="inlineStr"/>
-      <c r="CJ31" t="inlineStr"/>
-      <c r="CK31" t="inlineStr"/>
-      <c r="CL31" t="inlineStr"/>
-      <c r="CM31" t="inlineStr"/>
-      <c r="CN31" t="inlineStr"/>
-      <c r="CO31" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="CP31" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="CQ31" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="CR31" t="inlineStr"/>
-      <c r="CS31" t="inlineStr"/>
-      <c r="CT31" t="inlineStr"/>
-      <c r="CU31" t="inlineStr"/>
-      <c r="CV31" t="inlineStr"/>
-      <c r="CW31" t="inlineStr"/>
-      <c r="CX31" t="n">
-        <v>6</v>
-      </c>
-      <c r="CY31" t="inlineStr"/>
-      <c r="CZ31" t="inlineStr"/>
-      <c r="DA31" t="inlineStr"/>
-      <c r="DB31" t="inlineStr"/>
-      <c r="DC31" t="inlineStr"/>
-      <c r="DD31" t="inlineStr"/>
-      <c r="DE31" t="inlineStr"/>
-      <c r="DF31" t="inlineStr"/>
-      <c r="DG31" t="inlineStr"/>
-      <c r="DH31" t="inlineStr"/>
-      <c r="DI31" t="inlineStr"/>
-      <c r="DJ31" t="inlineStr"/>
-      <c r="DK31" t="inlineStr"/>
-      <c r="DL31" t="inlineStr"/>
-      <c r="DM31" t="inlineStr"/>
-      <c r="DN31" t="inlineStr"/>
-      <c r="DO31" t="inlineStr"/>
-      <c r="DP31" t="inlineStr"/>
-      <c r="DQ31" t="inlineStr">
-        <is>
-          <t>GP[[0()]2,[+30(),-30()],[0()]]s</t>
-        </is>
-      </c>
-      <c r="DR31" t="n">
-        <v>-2100</v>
-      </c>
-      <c r="DS31" t="inlineStr">
-        <is>
-          <t>0/0/30/-30/0/0/-30/30/0/0</t>
-        </is>
-      </c>
-      <c r="DT31" t="n">
-        <v>2.802089257881732</v>
-      </c>
-      <c r="DU31" t="n">
-        <v>5.881192832556594</v>
       </c>
     </row>
   </sheetData>
